--- a/backend/templates/UC-18gsm-210W-BFQR.xlsx
+++ b/backend/templates/UC-18gsm-210W-BFQR.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC4F90D-A6F4-4F76-9213-FCEA46EC1D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DF15C3-7F5C-4D09-B4D7-CADAA4084D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="6" r:id="rId1"/>
@@ -31,6 +31,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1869,6 +1872,50 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1915,88 +1962,161 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2022,181 +2142,214 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2257,156 +2410,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3072,7 +3075,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3086,35 +3089,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -3135,12 +3138,12 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="149"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="151"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="142"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -3152,19 +3155,19 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="139"/>
-      <c r="K4" s="140"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="154"/>
       <c r="M4" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="153"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="155"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="146"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -3176,64 +3179,64 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="141"/>
-      <c r="K5" s="142"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="156"/>
     </row>
     <row r="6" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="156" t="s">
+      <c r="A6" s="161" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="157"/>
-      <c r="C6" s="158"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="163"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="G6" s="134"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="136"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="150"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="159" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137" t="s">
+      <c r="A7" s="164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="151"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="137" t="s">
+      <c r="E7" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="137" t="s">
+      <c r="F7" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="143" t="s">
+      <c r="G7" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="143" t="s">
+      <c r="H7" s="157" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="137" t="s">
+      <c r="I7" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="137"/>
-      <c r="K7" s="138"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="152"/>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="160"/>
-      <c r="B8" s="145"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145" t="s">
+      <c r="A8" s="165"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="145"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3635,11 +3638,11 @@
       <c r="K38" s="28"/>
     </row>
     <row r="39" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="167" t="s">
+      <c r="A39" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="168"/>
-      <c r="C39" s="169"/>
+      <c r="B39" s="134"/>
+      <c r="C39" s="135"/>
       <c r="D39" s="35" t="e">
         <f t="shared" ref="D39:K39" si="0">AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -3674,11 +3677,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="164" t="s">
+      <c r="A40" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="165"/>
-      <c r="C40" s="166"/>
+      <c r="B40" s="170"/>
+      <c r="C40" s="171"/>
       <c r="D40" s="38">
         <f t="shared" ref="D40:K40" si="1">MIN(D9:D38)</f>
         <v>0</v>
@@ -3713,11 +3716,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="161" t="s">
+      <c r="A41" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="162"/>
-      <c r="C41" s="163"/>
+      <c r="B41" s="167"/>
+      <c r="C41" s="168"/>
       <c r="D41" s="41">
         <f t="shared" ref="D41:K41" si="2">MAX(D9:D38)</f>
         <v>0</v>
@@ -3758,8 +3761,8 @@
       <c r="A42" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="170"/>
-      <c r="C42" s="170"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="136"/>
       <c r="D42" s="44" t="s">
         <v>22</v>
       </c>
@@ -3776,8 +3779,8 @@
     </row>
     <row r="43" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50"/>
-      <c r="B43" s="171"/>
-      <c r="C43" s="171"/>
+      <c r="B43" s="137"/>
+      <c r="C43" s="137"/>
       <c r="D43" s="44"/>
       <c r="F43" s="46"/>
       <c r="G43" s="47"/>
@@ -3786,11 +3789,11 @@
       <c r="J43" s="51"/>
     </row>
     <row r="44" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="133" t="s">
+      <c r="A44" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="133"/>
-      <c r="C44" s="133"/>
+      <c r="B44" s="147"/>
+      <c r="C44" s="147"/>
       <c r="D44" s="44"/>
       <c r="E44" s="44"/>
       <c r="F44" s="47" t="s">
@@ -3802,11 +3805,11 @@
       <c r="H44" s="44"/>
     </row>
     <row r="45" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="133" t="s">
+      <c r="A45" s="147" t="s">
         <v>135</v>
       </c>
-      <c r="B45" s="133"/>
-      <c r="C45" s="133"/>
+      <c r="B45" s="147"/>
+      <c r="C45" s="147"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="44"/>
@@ -3848,15 +3851,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
@@ -3873,6 +3867,15 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D9:D41">
@@ -3948,7 +3951,7 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:J14"/>
+      <selection activeCell="I17" sqref="I17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3959,35 +3962,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -4008,18 +4011,18 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="149">
+      <c r="B4" s="140">
         <f ca="1">Page2!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="196">
+      <c r="C4" s="195">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="193"/>
+      <c r="D4" s="196"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -4037,25 +4040,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="234">
+      <c r="J4" s="191">
         <f>Page2!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="235"/>
+      <c r="K4" s="192"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="153">
+      <c r="B5" s="144">
         <f ca="1">Page2!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="154">
+      <c r="C5" s="145">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="155"/>
+      <c r="D5" s="146"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -4073,113 +4076,113 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="236">
+      <c r="J5" s="193">
         <f>Page2!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="237"/>
+      <c r="K5" s="194"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="182" t="s">
+      <c r="A6" s="201" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="183"/>
-      <c r="C6" s="184"/>
-      <c r="D6" s="185"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="200"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="198"/>
-      <c r="J6" s="199"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="190"/>
+      <c r="I6" s="187"/>
+      <c r="J6" s="188"/>
       <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="192" t="s">
+      <c r="A7" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="198"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="208" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="186"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="200" t="s">
+      <c r="E7" s="198"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="189" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="186"/>
-      <c r="I7" s="200" t="s">
+      <c r="H7" s="198"/>
+      <c r="I7" s="189" t="s">
         <v>136</v>
       </c>
-      <c r="J7" s="187"/>
-      <c r="K7" s="209" t="s">
+      <c r="J7" s="190"/>
+      <c r="K7" s="182" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="172"/>
-      <c r="B8" s="197"/>
-      <c r="C8" s="197"/>
-      <c r="D8" s="172" t="s">
+      <c r="A8" s="199"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="174" t="s">
+      <c r="E8" s="211" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="175" t="s">
+      <c r="F8" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="177"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="177" t="s">
+      <c r="G8" s="214"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="214" t="s">
         <v>137</v>
       </c>
-      <c r="J8" s="175"/>
-      <c r="K8" s="210"/>
+      <c r="J8" s="212"/>
+      <c r="K8" s="183"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="172"/>
-      <c r="B9" s="197"/>
-      <c r="C9" s="197"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="197"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="200"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="212"/>
+      <c r="G9" s="214"/>
+      <c r="H9" s="200"/>
       <c r="I9" s="58" t="s">
         <v>123</v>
       </c>
       <c r="J9" s="59">
-        <v>250</v>
-      </c>
-      <c r="K9" s="210"/>
+        <v>210</v>
+      </c>
+      <c r="K9" s="183"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="172">
+      <c r="A10" s="199">
         <f>Page1!A9</f>
         <v>0</v>
       </c>
-      <c r="B10" s="197">
+      <c r="B10" s="200">
         <f>Page1!B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="197">
+      <c r="C10" s="200">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="173"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="176"/>
-      <c r="G10" s="201"/>
-      <c r="H10" s="202"/>
+      <c r="D10" s="225"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="219"/>
+      <c r="H10" s="220"/>
       <c r="I10" s="60" t="s">
         <v>124</v>
       </c>
       <c r="J10" s="61">
-        <v>253</v>
-      </c>
-      <c r="K10" s="211"/>
+        <v>213</v>
+      </c>
+      <c r="K10" s="184"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="62">
@@ -4197,10 +4200,10 @@
       <c r="D11" s="65"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="221"/>
-      <c r="H11" s="221"/>
-      <c r="I11" s="203"/>
-      <c r="J11" s="204"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="221"/>
+      <c r="J11" s="222"/>
       <c r="K11" s="66"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4219,10 +4222,10 @@
       <c r="D12" s="70"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="214"/>
-      <c r="H12" s="214"/>
-      <c r="I12" s="205"/>
-      <c r="J12" s="206"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="175"/>
       <c r="K12" s="71"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4241,10 +4244,10 @@
       <c r="D13" s="70"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="214"/>
-      <c r="H13" s="214"/>
-      <c r="I13" s="205"/>
-      <c r="J13" s="206"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="175"/>
       <c r="K13" s="71"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4263,10 +4266,10 @@
       <c r="D14" s="70"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="214"/>
-      <c r="H14" s="214"/>
-      <c r="I14" s="205"/>
-      <c r="J14" s="206"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="175"/>
       <c r="K14" s="71"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4285,10 +4288,10 @@
       <c r="D15" s="70"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="214"/>
-      <c r="H15" s="214"/>
-      <c r="I15" s="205"/>
-      <c r="J15" s="206"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="175"/>
       <c r="K15" s="71"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4307,10 +4310,10 @@
       <c r="D16" s="65"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="221"/>
-      <c r="H16" s="221"/>
-      <c r="I16" s="205"/>
-      <c r="J16" s="206"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="175"/>
       <c r="K16" s="66"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4329,10 +4332,10 @@
       <c r="D17" s="70"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="214"/>
-      <c r="H17" s="214"/>
-      <c r="I17" s="205"/>
-      <c r="J17" s="206"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="174"/>
+      <c r="J17" s="175"/>
       <c r="K17" s="71"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4351,10 +4354,10 @@
       <c r="D18" s="70"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="214"/>
-      <c r="H18" s="214"/>
-      <c r="I18" s="205"/>
-      <c r="J18" s="206"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="175"/>
       <c r="K18" s="71"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4373,10 +4376,10 @@
       <c r="D19" s="70"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="214"/>
-      <c r="H19" s="214"/>
-      <c r="I19" s="205"/>
-      <c r="J19" s="206"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="175"/>
       <c r="K19" s="71"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4395,10 +4398,10 @@
       <c r="D20" s="70"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="215"/>
-      <c r="H20" s="216"/>
-      <c r="I20" s="205"/>
-      <c r="J20" s="206"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="174"/>
+      <c r="J20" s="175"/>
       <c r="K20" s="71"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4417,10 +4420,10 @@
       <c r="D21" s="70"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="215"/>
-      <c r="H21" s="216"/>
-      <c r="I21" s="205"/>
-      <c r="J21" s="206"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="174"/>
+      <c r="J21" s="175"/>
       <c r="K21" s="71"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4439,10 +4442,10 @@
       <c r="D22" s="70"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="215"/>
-      <c r="H22" s="216"/>
-      <c r="I22" s="205"/>
-      <c r="J22" s="206"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="174"/>
+      <c r="J22" s="175"/>
       <c r="K22" s="71"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4461,10 +4464,10 @@
       <c r="D23" s="70"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="215"/>
-      <c r="H23" s="216"/>
-      <c r="I23" s="205"/>
-      <c r="J23" s="206"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="173"/>
+      <c r="I23" s="174"/>
+      <c r="J23" s="175"/>
       <c r="K23" s="71"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4483,10 +4486,10 @@
       <c r="D24" s="70"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="215"/>
-      <c r="H24" s="216"/>
-      <c r="I24" s="205"/>
-      <c r="J24" s="206"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="173"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="175"/>
       <c r="K24" s="71"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4505,10 +4508,10 @@
       <c r="D25" s="70"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="215"/>
-      <c r="H25" s="216"/>
-      <c r="I25" s="205"/>
-      <c r="J25" s="206"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="174"/>
+      <c r="J25" s="175"/>
       <c r="K25" s="71"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4527,10 +4530,10 @@
       <c r="D26" s="70"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="215"/>
-      <c r="H26" s="216"/>
-      <c r="I26" s="205"/>
-      <c r="J26" s="206"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="173"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="175"/>
       <c r="K26" s="71"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4549,10 +4552,10 @@
       <c r="D27" s="70"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="215"/>
-      <c r="H27" s="216"/>
-      <c r="I27" s="205"/>
-      <c r="J27" s="206"/>
+      <c r="G27" s="172"/>
+      <c r="H27" s="173"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="175"/>
       <c r="K27" s="71"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4571,10 +4574,10 @@
       <c r="D28" s="70"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="215"/>
-      <c r="H28" s="216"/>
-      <c r="I28" s="205"/>
-      <c r="J28" s="206"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="173"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="175"/>
       <c r="K28" s="71"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4593,10 +4596,10 @@
       <c r="D29" s="70"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="215"/>
-      <c r="H29" s="216"/>
-      <c r="I29" s="205"/>
-      <c r="J29" s="206"/>
+      <c r="G29" s="172"/>
+      <c r="H29" s="173"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="175"/>
       <c r="K29" s="71"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4615,10 +4618,10 @@
       <c r="D30" s="70"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="215"/>
-      <c r="H30" s="216"/>
-      <c r="I30" s="205"/>
-      <c r="J30" s="206"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="175"/>
       <c r="K30" s="71"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4637,10 +4640,10 @@
       <c r="D31" s="70"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="215"/>
-      <c r="H31" s="216"/>
-      <c r="I31" s="205"/>
-      <c r="J31" s="206"/>
+      <c r="G31" s="172"/>
+      <c r="H31" s="173"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="175"/>
       <c r="K31" s="71"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4659,10 +4662,10 @@
       <c r="D32" s="70"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="215"/>
-      <c r="H32" s="216"/>
-      <c r="I32" s="205"/>
-      <c r="J32" s="206"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="174"/>
+      <c r="J32" s="175"/>
       <c r="K32" s="71"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4681,10 +4684,10 @@
       <c r="D33" s="70"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="215"/>
-      <c r="H33" s="216"/>
-      <c r="I33" s="205"/>
-      <c r="J33" s="206"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="173"/>
+      <c r="I33" s="174"/>
+      <c r="J33" s="175"/>
       <c r="K33" s="71"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4703,10 +4706,10 @@
       <c r="D34" s="70"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
-      <c r="G34" s="215"/>
-      <c r="H34" s="216"/>
-      <c r="I34" s="205"/>
-      <c r="J34" s="206"/>
+      <c r="G34" s="172"/>
+      <c r="H34" s="173"/>
+      <c r="I34" s="174"/>
+      <c r="J34" s="175"/>
       <c r="K34" s="71"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4725,10 +4728,10 @@
       <c r="D35" s="70"/>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="215"/>
-      <c r="H35" s="216"/>
-      <c r="I35" s="205"/>
-      <c r="J35" s="206"/>
+      <c r="G35" s="172"/>
+      <c r="H35" s="173"/>
+      <c r="I35" s="174"/>
+      <c r="J35" s="175"/>
       <c r="K35" s="71"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4747,10 +4750,10 @@
       <c r="D36" s="70"/>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="215"/>
-      <c r="H36" s="216"/>
-      <c r="I36" s="205"/>
-      <c r="J36" s="206"/>
+      <c r="G36" s="172"/>
+      <c r="H36" s="173"/>
+      <c r="I36" s="174"/>
+      <c r="J36" s="175"/>
       <c r="K36" s="71"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4769,10 +4772,10 @@
       <c r="D37" s="70"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="215"/>
-      <c r="H37" s="216"/>
-      <c r="I37" s="205"/>
-      <c r="J37" s="206"/>
+      <c r="G37" s="172"/>
+      <c r="H37" s="173"/>
+      <c r="I37" s="174"/>
+      <c r="J37" s="175"/>
       <c r="K37" s="71"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4791,10 +4794,10 @@
       <c r="D38" s="70"/>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="215"/>
-      <c r="H38" s="216"/>
-      <c r="I38" s="205"/>
-      <c r="J38" s="206"/>
+      <c r="G38" s="172"/>
+      <c r="H38" s="173"/>
+      <c r="I38" s="174"/>
+      <c r="J38" s="175"/>
       <c r="K38" s="71"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4813,10 +4816,10 @@
       <c r="D39" s="70"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="215"/>
-      <c r="H39" s="216"/>
-      <c r="I39" s="205"/>
-      <c r="J39" s="206"/>
+      <c r="G39" s="172"/>
+      <c r="H39" s="173"/>
+      <c r="I39" s="174"/>
+      <c r="J39" s="175"/>
       <c r="K39" s="71"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4835,18 +4838,18 @@
       <c r="D40" s="70"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
-      <c r="G40" s="214"/>
-      <c r="H40" s="214"/>
-      <c r="I40" s="205"/>
-      <c r="J40" s="206"/>
+      <c r="G40" s="177"/>
+      <c r="H40" s="177"/>
+      <c r="I40" s="174"/>
+      <c r="J40" s="175"/>
       <c r="K40" s="71"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="194" t="s">
+      <c r="A41" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="195"/>
-      <c r="C41" s="195"/>
+      <c r="B41" s="210"/>
+      <c r="C41" s="210"/>
       <c r="D41" s="79" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
@@ -4859,27 +4862,27 @@
         <f>AVERAGE(F11:F40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="219" t="e">
+      <c r="G41" s="180" t="e">
         <f>AVERAGE(G11:H40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="220"/>
-      <c r="I41" s="207" t="e">
+      <c r="H41" s="181"/>
+      <c r="I41" s="223" t="e">
         <f>AVERAGE(I11:J40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="208"/>
+      <c r="J41" s="224"/>
       <c r="K41" s="37" t="e">
         <f>AVERAGE(K11:K40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="188" t="s">
+      <c r="A42" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="189"/>
-      <c r="C42" s="189"/>
+      <c r="B42" s="205"/>
+      <c r="C42" s="205"/>
       <c r="D42" s="80">
         <f>MIN(D11:D40)</f>
         <v>0</v>
@@ -4892,27 +4895,27 @@
         <f>MIN(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="217">
+      <c r="G42" s="178">
         <f>MIN(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="218"/>
-      <c r="I42" s="212">
+      <c r="H42" s="179"/>
+      <c r="I42" s="185">
         <f>MIN(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="213"/>
+      <c r="J42" s="186"/>
       <c r="K42" s="40">
         <f>MIN(K11:K40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="190" t="s">
+      <c r="A43" s="206" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="191"/>
-      <c r="C43" s="191"/>
+      <c r="B43" s="207"/>
+      <c r="C43" s="207"/>
       <c r="D43" s="81">
         <f>MAX(D11:D40)</f>
         <v>0</v>
@@ -4925,16 +4928,16 @@
         <f>MAX(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="178">
+      <c r="G43" s="215">
         <f>MAX(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="179"/>
-      <c r="I43" s="180">
+      <c r="H43" s="216"/>
+      <c r="I43" s="217">
         <f>MAX(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="181"/>
+      <c r="J43" s="218"/>
       <c r="K43" s="83">
         <f>MAX(K11:K40)</f>
         <v>0</v>
@@ -4944,8 +4947,8 @@
       <c r="A44" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="170"/>
-      <c r="C44" s="170"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="136"/>
       <c r="D44" s="44" t="s">
         <v>22</v>
       </c>
@@ -4962,8 +4965,8 @@
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
-      <c r="B45" s="171"/>
-      <c r="C45" s="171"/>
+      <c r="B45" s="137"/>
+      <c r="C45" s="137"/>
       <c r="D45" s="44"/>
       <c r="F45" s="46"/>
       <c r="G45" s="47"/>
@@ -4972,11 +4975,11 @@
       <c r="J45" s="51"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="133" t="s">
+      <c r="A46" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="133"/>
-      <c r="C46" s="133"/>
+      <c r="B46" s="147"/>
+      <c r="C46" s="147"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="47" t="s">
@@ -4989,11 +4992,11 @@
       <c r="H46" s="44"/>
     </row>
     <row r="47" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="133" t="s">
+      <c r="A47" s="147" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="133"/>
-      <c r="C47" s="133"/>
+      <c r="B47" s="147"/>
+      <c r="C47" s="147"/>
       <c r="D47" s="44"/>
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
@@ -5048,28 +5051,62 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G7:H10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A7:C10"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="I15:J15"/>
@@ -5086,62 +5123,28 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A7:C10"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G7:H10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D11:D43">
@@ -5202,35 +5205,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -5251,18 +5254,18 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="149">
+      <c r="B4" s="140">
         <f ca="1">Page2!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="196">
+      <c r="C4" s="195">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="193"/>
+      <c r="D4" s="196"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -5280,25 +5283,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="234">
+      <c r="J4" s="191">
         <f>Page2!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="235"/>
+      <c r="K4" s="192"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="153">
+      <c r="B5" s="144">
         <f ca="1">Page2!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="154">
+      <c r="C5" s="145">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="155"/>
+      <c r="D5" s="146"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -5316,79 +5319,79 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="236">
+      <c r="J5" s="193">
         <f>Page2!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="237"/>
+      <c r="K5" s="194"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="230" t="s">
+      <c r="A6" s="229" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="231"/>
-      <c r="C6" s="232"/>
-      <c r="D6" s="233"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="146"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="231"/>
+      <c r="D6" s="232"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="160"/>
       <c r="H6" s="85"/>
-      <c r="I6" s="185"/>
-      <c r="J6" s="186"/>
-      <c r="K6" s="209"/>
+      <c r="I6" s="197"/>
+      <c r="J6" s="198"/>
+      <c r="K6" s="182"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="192" t="s">
+      <c r="A7" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="198"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="208" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="222"/>
-      <c r="F7" s="222"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="227" t="s">
+      <c r="E7" s="233"/>
+      <c r="F7" s="233"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="226" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="172"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="210"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="183"/>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="172"/>
-      <c r="B8" s="197"/>
-      <c r="C8" s="197"/>
-      <c r="D8" s="225" t="s">
+      <c r="A8" s="199"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="236" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="174" t="s">
+      <c r="E8" s="211" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="174" t="s">
+      <c r="F8" s="211" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="174" t="s">
+      <c r="G8" s="211" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="228"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="197"/>
-      <c r="K8" s="210"/>
+      <c r="H8" s="227"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="200"/>
+      <c r="K8" s="183"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="172"/>
-      <c r="B9" s="197"/>
-      <c r="C9" s="197"/>
-      <c r="D9" s="226"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="229"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="210"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="200"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="228"/>
+      <c r="I9" s="199"/>
+      <c r="J9" s="200"/>
+      <c r="K9" s="183"/>
     </row>
     <row r="10" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="62">
@@ -5408,9 +5411,9 @@
       <c r="F10" s="23"/>
       <c r="G10" s="87"/>
       <c r="H10" s="88"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="210"/>
+      <c r="I10" s="199"/>
+      <c r="J10" s="200"/>
+      <c r="K10" s="183"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="67">
@@ -5430,9 +5433,9 @@
       <c r="F11" s="26"/>
       <c r="G11" s="90"/>
       <c r="H11" s="91"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="197"/>
-      <c r="K11" s="210"/>
+      <c r="I11" s="199"/>
+      <c r="J11" s="200"/>
+      <c r="K11" s="183"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="67">
@@ -5452,9 +5455,9 @@
       <c r="F12" s="26"/>
       <c r="G12" s="90"/>
       <c r="H12" s="91"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="210"/>
+      <c r="I12" s="199"/>
+      <c r="J12" s="200"/>
+      <c r="K12" s="183"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="67">
@@ -5474,9 +5477,9 @@
       <c r="F13" s="23"/>
       <c r="G13" s="87"/>
       <c r="H13" s="91"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="197"/>
-      <c r="K13" s="210"/>
+      <c r="I13" s="199"/>
+      <c r="J13" s="200"/>
+      <c r="K13" s="183"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="67">
@@ -5496,9 +5499,9 @@
       <c r="F14" s="26"/>
       <c r="G14" s="90"/>
       <c r="H14" s="91"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="197"/>
-      <c r="K14" s="210"/>
+      <c r="I14" s="199"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="183"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="67">
@@ -5518,9 +5521,9 @@
       <c r="F15" s="26"/>
       <c r="G15" s="90"/>
       <c r="H15" s="91"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="197"/>
-      <c r="K15" s="210"/>
+      <c r="I15" s="199"/>
+      <c r="J15" s="200"/>
+      <c r="K15" s="183"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="67">
@@ -5540,9 +5543,9 @@
       <c r="F16" s="26"/>
       <c r="G16" s="90"/>
       <c r="H16" s="91"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="197"/>
-      <c r="K16" s="210"/>
+      <c r="I16" s="199"/>
+      <c r="J16" s="200"/>
+      <c r="K16" s="183"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="67">
@@ -5562,9 +5565,9 @@
       <c r="F17" s="26"/>
       <c r="G17" s="90"/>
       <c r="H17" s="91"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="197"/>
-      <c r="K17" s="210"/>
+      <c r="I17" s="199"/>
+      <c r="J17" s="200"/>
+      <c r="K17" s="183"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67">
@@ -5584,9 +5587,9 @@
       <c r="F18" s="26"/>
       <c r="G18" s="90"/>
       <c r="H18" s="91"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="197"/>
-      <c r="K18" s="210"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="200"/>
+      <c r="K18" s="183"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="67">
@@ -5606,9 +5609,9 @@
       <c r="F19" s="26"/>
       <c r="G19" s="90"/>
       <c r="H19" s="91"/>
-      <c r="I19" s="172"/>
-      <c r="J19" s="197"/>
-      <c r="K19" s="210"/>
+      <c r="I19" s="199"/>
+      <c r="J19" s="200"/>
+      <c r="K19" s="183"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="75">
@@ -5628,9 +5631,9 @@
       <c r="F20" s="26"/>
       <c r="G20" s="90"/>
       <c r="H20" s="91"/>
-      <c r="I20" s="172"/>
-      <c r="J20" s="197"/>
-      <c r="K20" s="210"/>
+      <c r="I20" s="199"/>
+      <c r="J20" s="200"/>
+      <c r="K20" s="183"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="67">
@@ -5650,9 +5653,9 @@
       <c r="F21" s="26"/>
       <c r="G21" s="90"/>
       <c r="H21" s="91"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="197"/>
-      <c r="K21" s="210"/>
+      <c r="I21" s="199"/>
+      <c r="J21" s="200"/>
+      <c r="K21" s="183"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67">
@@ -5672,9 +5675,9 @@
       <c r="F22" s="26"/>
       <c r="G22" s="90"/>
       <c r="H22" s="91"/>
-      <c r="I22" s="172"/>
-      <c r="J22" s="197"/>
-      <c r="K22" s="210"/>
+      <c r="I22" s="199"/>
+      <c r="J22" s="200"/>
+      <c r="K22" s="183"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="67">
@@ -5694,9 +5697,9 @@
       <c r="F23" s="26"/>
       <c r="G23" s="90"/>
       <c r="H23" s="91"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="197"/>
-      <c r="K23" s="210"/>
+      <c r="I23" s="199"/>
+      <c r="J23" s="200"/>
+      <c r="K23" s="183"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="67">
@@ -5716,9 +5719,9 @@
       <c r="F24" s="26"/>
       <c r="G24" s="90"/>
       <c r="H24" s="91"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="197"/>
-      <c r="K24" s="210"/>
+      <c r="I24" s="199"/>
+      <c r="J24" s="200"/>
+      <c r="K24" s="183"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="67">
@@ -5738,9 +5741,9 @@
       <c r="F25" s="26"/>
       <c r="G25" s="90"/>
       <c r="H25" s="91"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="197"/>
-      <c r="K25" s="210"/>
+      <c r="I25" s="199"/>
+      <c r="J25" s="200"/>
+      <c r="K25" s="183"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="67">
@@ -5760,9 +5763,9 @@
       <c r="F26" s="26"/>
       <c r="G26" s="90"/>
       <c r="H26" s="91"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="197"/>
-      <c r="K26" s="210"/>
+      <c r="I26" s="199"/>
+      <c r="J26" s="200"/>
+      <c r="K26" s="183"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="67">
@@ -5782,9 +5785,9 @@
       <c r="F27" s="26"/>
       <c r="G27" s="90"/>
       <c r="H27" s="91"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="197"/>
-      <c r="K27" s="210"/>
+      <c r="I27" s="199"/>
+      <c r="J27" s="200"/>
+      <c r="K27" s="183"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="67">
@@ -5804,9 +5807,9 @@
       <c r="F28" s="26"/>
       <c r="G28" s="90"/>
       <c r="H28" s="91"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="197"/>
-      <c r="K28" s="210"/>
+      <c r="I28" s="199"/>
+      <c r="J28" s="200"/>
+      <c r="K28" s="183"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="67">
@@ -5826,9 +5829,9 @@
       <c r="F29" s="26"/>
       <c r="G29" s="90"/>
       <c r="H29" s="91"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="197"/>
-      <c r="K29" s="210"/>
+      <c r="I29" s="199"/>
+      <c r="J29" s="200"/>
+      <c r="K29" s="183"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="75">
@@ -5848,9 +5851,9 @@
       <c r="F30" s="26"/>
       <c r="G30" s="90"/>
       <c r="H30" s="91"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="197"/>
-      <c r="K30" s="210"/>
+      <c r="I30" s="199"/>
+      <c r="J30" s="200"/>
+      <c r="K30" s="183"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="67">
@@ -5870,9 +5873,9 @@
       <c r="F31" s="26"/>
       <c r="G31" s="90"/>
       <c r="H31" s="91"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="197"/>
-      <c r="K31" s="210"/>
+      <c r="I31" s="199"/>
+      <c r="J31" s="200"/>
+      <c r="K31" s="183"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="67">
@@ -5892,9 +5895,9 @@
       <c r="F32" s="26"/>
       <c r="G32" s="90"/>
       <c r="H32" s="91"/>
-      <c r="I32" s="172"/>
-      <c r="J32" s="197"/>
-      <c r="K32" s="210"/>
+      <c r="I32" s="199"/>
+      <c r="J32" s="200"/>
+      <c r="K32" s="183"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="67">
@@ -5914,9 +5917,9 @@
       <c r="F33" s="26"/>
       <c r="G33" s="90"/>
       <c r="H33" s="91"/>
-      <c r="I33" s="172"/>
-      <c r="J33" s="197"/>
-      <c r="K33" s="210"/>
+      <c r="I33" s="199"/>
+      <c r="J33" s="200"/>
+      <c r="K33" s="183"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="67">
@@ -5936,9 +5939,9 @@
       <c r="F34" s="26"/>
       <c r="G34" s="90"/>
       <c r="H34" s="91"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="197"/>
-      <c r="K34" s="210"/>
+      <c r="I34" s="199"/>
+      <c r="J34" s="200"/>
+      <c r="K34" s="183"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="67">
@@ -5958,9 +5961,9 @@
       <c r="F35" s="26"/>
       <c r="G35" s="90"/>
       <c r="H35" s="91"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="197"/>
-      <c r="K35" s="210"/>
+      <c r="I35" s="199"/>
+      <c r="J35" s="200"/>
+      <c r="K35" s="183"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="67">
@@ -5980,9 +5983,9 @@
       <c r="F36" s="26"/>
       <c r="G36" s="90"/>
       <c r="H36" s="91"/>
-      <c r="I36" s="172"/>
-      <c r="J36" s="197"/>
-      <c r="K36" s="210"/>
+      <c r="I36" s="199"/>
+      <c r="J36" s="200"/>
+      <c r="K36" s="183"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="67">
@@ -6002,9 +6005,9 @@
       <c r="F37" s="26"/>
       <c r="G37" s="90"/>
       <c r="H37" s="91"/>
-      <c r="I37" s="172"/>
-      <c r="J37" s="197"/>
-      <c r="K37" s="210"/>
+      <c r="I37" s="199"/>
+      <c r="J37" s="200"/>
+      <c r="K37" s="183"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="67">
@@ -6024,9 +6027,9 @@
       <c r="F38" s="26"/>
       <c r="G38" s="90"/>
       <c r="H38" s="91"/>
-      <c r="I38" s="172"/>
-      <c r="J38" s="197"/>
-      <c r="K38" s="210"/>
+      <c r="I38" s="199"/>
+      <c r="J38" s="200"/>
+      <c r="K38" s="183"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="76">
@@ -6046,16 +6049,16 @@
       <c r="F39" s="26"/>
       <c r="G39" s="90"/>
       <c r="H39" s="91"/>
-      <c r="I39" s="172"/>
-      <c r="J39" s="197"/>
-      <c r="K39" s="210"/>
+      <c r="I39" s="199"/>
+      <c r="J39" s="200"/>
+      <c r="K39" s="183"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="223" t="s">
+      <c r="A40" s="234" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="224"/>
-      <c r="C40" s="224"/>
+      <c r="B40" s="235"/>
+      <c r="C40" s="235"/>
       <c r="D40" s="92" t="e">
         <f>AVERAGE(D10:D39)</f>
         <v>#DIV/0!</v>
@@ -6076,16 +6079,16 @@
         <f>AVERAGE(H10:H39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="197"/>
-      <c r="J40" s="197"/>
-      <c r="K40" s="210"/>
+      <c r="I40" s="200"/>
+      <c r="J40" s="200"/>
+      <c r="K40" s="183"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="188" t="s">
+      <c r="A41" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="189"/>
-      <c r="C41" s="189"/>
+      <c r="B41" s="205"/>
+      <c r="C41" s="205"/>
       <c r="D41" s="94">
         <f>MIN(D10:D39)</f>
         <v>0</v>
@@ -6106,16 +6109,16 @@
         <f>MIN(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="197"/>
-      <c r="J41" s="197"/>
-      <c r="K41" s="210"/>
+      <c r="I41" s="200"/>
+      <c r="J41" s="200"/>
+      <c r="K41" s="183"/>
     </row>
     <row r="42" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="190" t="s">
+      <c r="A42" s="206" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="191"/>
-      <c r="C42" s="191"/>
+      <c r="B42" s="207"/>
+      <c r="C42" s="207"/>
       <c r="D42" s="96">
         <f>MAX(D10:D39)</f>
         <v>0</v>
@@ -6136,16 +6139,16 @@
         <f>MAX(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="202"/>
-      <c r="J42" s="202"/>
-      <c r="K42" s="211"/>
+      <c r="I42" s="220"/>
+      <c r="J42" s="220"/>
+      <c r="K42" s="184"/>
     </row>
     <row r="43" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="170"/>
-      <c r="C43" s="170"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="136"/>
       <c r="D43" s="44" t="s">
         <v>22</v>
       </c>
@@ -6162,8 +6165,8 @@
     </row>
     <row r="44" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50"/>
-      <c r="B44" s="171"/>
-      <c r="C44" s="171"/>
+      <c r="B44" s="137"/>
+      <c r="C44" s="137"/>
       <c r="D44" s="44"/>
       <c r="F44" s="46"/>
       <c r="G44" s="47"/>
@@ -6172,11 +6175,11 @@
       <c r="J44" s="51"/>
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="133" t="s">
+      <c r="A45" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="133"/>
-      <c r="C45" s="133"/>
+      <c r="B45" s="147"/>
+      <c r="C45" s="147"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="47" t="s">
@@ -6189,11 +6192,11 @@
       <c r="H45" s="44"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="133" t="s">
+      <c r="A46" s="147" t="s">
         <v>135</v>
       </c>
-      <c r="B46" s="133"/>
-      <c r="C46" s="133"/>
+      <c r="B46" s="147"/>
+      <c r="C46" s="147"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
@@ -6218,18 +6221,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="I6:K42"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="D7:G7"/>
@@ -6243,6 +6234,18 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
+    <mergeCell ref="I6:K42"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="notBetween">
@@ -6294,15 +6297,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="301" t="s">
+      <c r="A1" s="238" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="302"/>
-      <c r="C1" s="302"/>
-      <c r="D1" s="302"/>
-      <c r="E1" s="302"/>
-      <c r="F1" s="302"/>
-      <c r="G1" s="303"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="240"/>
     </row>
     <row r="2" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="100"/>
@@ -6316,37 +6319,37 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="99" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="292" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243"/>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="243"/>
-      <c r="G3" s="244"/>
+      <c r="B3" s="293"/>
+      <c r="C3" s="293"/>
+      <c r="D3" s="293"/>
+      <c r="E3" s="293"/>
+      <c r="F3" s="293"/>
+      <c r="G3" s="294"/>
     </row>
     <row r="4" spans="1:7" s="99" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="172" t="s">
+      <c r="A4" s="199" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="197"/>
-      <c r="C4" s="197"/>
-      <c r="D4" s="197"/>
-      <c r="E4" s="197"/>
-      <c r="F4" s="197"/>
-      <c r="G4" s="210"/>
+      <c r="B4" s="200"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="183"/>
     </row>
     <row r="5" spans="1:7" s="99" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="304" t="s">
+      <c r="A5" s="241" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="305"/>
-      <c r="C5" s="305"/>
-      <c r="D5" s="305"/>
-      <c r="E5" s="305"/>
-      <c r="F5" s="305"/>
-      <c r="G5" s="306"/>
+      <c r="B5" s="242"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="242"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="243"/>
     </row>
     <row r="6" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="103" t="s">
@@ -6358,14 +6361,14 @@
       <c r="C6" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="260" t="s">
+      <c r="D6" s="244" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="262"/>
-      <c r="F6" s="281" t="s">
+      <c r="E6" s="245"/>
+      <c r="F6" s="246" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="285">
+      <c r="G6" s="247">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
@@ -6378,13 +6381,13 @@
       <c r="C7" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="260">
+      <c r="D7" s="244">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="262"/>
-      <c r="F7" s="281"/>
-      <c r="G7" s="307"/>
+      <c r="E7" s="245"/>
+      <c r="F7" s="246"/>
+      <c r="G7" s="248"/>
     </row>
     <row r="8" spans="1:7" s="99" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="103" t="s">
@@ -6397,15 +6400,15 @@
       <c r="C8" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="281">
+      <c r="D8" s="246">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="281"/>
-      <c r="F8" s="282" t="s">
+      <c r="E8" s="246"/>
+      <c r="F8" s="258" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="285">
+      <c r="G8" s="247">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
@@ -6418,15 +6421,15 @@
         <f>Page1!G44</f>
         <v>461359700</v>
       </c>
-      <c r="C9" s="282" t="s">
+      <c r="C9" s="258" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="288" t="s">
+      <c r="D9" s="263" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="289"/>
-      <c r="F9" s="283"/>
-      <c r="G9" s="286"/>
+      <c r="E9" s="264"/>
+      <c r="F9" s="259"/>
+      <c r="G9" s="261"/>
     </row>
     <row r="10" spans="1:7" s="99" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="110" t="s">
@@ -6436,34 +6439,34 @@
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="284"/>
-      <c r="D10" s="290"/>
-      <c r="E10" s="291"/>
-      <c r="F10" s="284"/>
-      <c r="G10" s="287"/>
+      <c r="C10" s="260"/>
+      <c r="D10" s="265"/>
+      <c r="E10" s="266"/>
+      <c r="F10" s="260"/>
+      <c r="G10" s="262"/>
     </row>
     <row r="11" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="292" t="s">
+      <c r="A11" s="249" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="294" t="s">
+      <c r="B11" s="251" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="296" t="s">
+      <c r="C11" s="253" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="297"/>
-      <c r="E11" s="298"/>
-      <c r="F11" s="294" t="s">
+      <c r="D11" s="254"/>
+      <c r="E11" s="255"/>
+      <c r="F11" s="251" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="299" t="s">
+      <c r="G11" s="256" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="293"/>
-      <c r="B12" s="295"/>
+      <c r="A12" s="250"/>
+      <c r="B12" s="252"/>
       <c r="C12" s="112" t="s">
         <v>60</v>
       </c>
@@ -6473,8 +6476,8 @@
       <c r="E12" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="295"/>
-      <c r="G12" s="300"/>
+      <c r="F12" s="252"/>
+      <c r="G12" s="257"/>
     </row>
     <row r="13" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
@@ -6544,7 +6547,7 @@
         <f>Page1!K39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="277" t="s">
+      <c r="G15" s="267" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6568,7 +6571,7 @@
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="228"/>
+      <c r="G16" s="227"/>
     </row>
     <row r="17" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="117" t="s">
@@ -6590,7 +6593,7 @@
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="228"/>
+      <c r="G17" s="227"/>
     </row>
     <row r="18" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="117" t="s">
@@ -6612,7 +6615,7 @@
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="228"/>
+      <c r="G18" s="227"/>
     </row>
     <row r="19" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="117" t="s">
@@ -6634,7 +6637,7 @@
         <f>Page1!J39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="228"/>
+      <c r="G19" s="227"/>
     </row>
     <row r="20" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="117" t="s">
@@ -6656,7 +6659,7 @@
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="228"/>
+      <c r="G20" s="227"/>
     </row>
     <row r="21" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="117" t="s">
@@ -6678,7 +6681,7 @@
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="228"/>
+      <c r="G21" s="227"/>
     </row>
     <row r="22" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="117" t="s">
@@ -6700,7 +6703,7 @@
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="138"/>
+      <c r="G22" s="152"/>
     </row>
     <row r="23" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="117" t="s">
@@ -6742,7 +6745,7 @@
       </c>
       <c r="E24" s="39">
         <f>Page2!J9</f>
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="F24" s="39" t="e">
         <f>Page2!I41</f>
@@ -6800,26 +6803,26 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="274" t="s">
+      <c r="A27" s="268" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="275"/>
-      <c r="C27" s="275"/>
-      <c r="D27" s="275"/>
-      <c r="E27" s="275"/>
-      <c r="F27" s="275"/>
-      <c r="G27" s="276"/>
+      <c r="B27" s="269"/>
+      <c r="C27" s="269"/>
+      <c r="D27" s="269"/>
+      <c r="E27" s="269"/>
+      <c r="F27" s="269"/>
+      <c r="G27" s="270"/>
     </row>
     <row r="28" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="258" t="s">
+      <c r="A28" s="271" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="259"/>
-      <c r="C28" s="278" t="s">
+      <c r="B28" s="272"/>
+      <c r="C28" s="273" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="279"/>
-      <c r="E28" s="280"/>
+      <c r="D28" s="274"/>
+      <c r="E28" s="275"/>
       <c r="F28" s="126" t="s">
         <v>92</v>
       </c>
@@ -6828,15 +6831,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="263" t="s">
+      <c r="A29" s="276" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="262"/>
-      <c r="C29" s="268" t="s">
+      <c r="B29" s="245"/>
+      <c r="C29" s="277" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="269"/>
-      <c r="E29" s="270"/>
+      <c r="D29" s="278"/>
+      <c r="E29" s="279"/>
       <c r="F29" s="80" t="s">
         <v>92</v>
       </c>
@@ -6845,15 +6848,15 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="263" t="s">
+      <c r="A30" s="276" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="262"/>
-      <c r="C30" s="268" t="s">
+      <c r="B30" s="245"/>
+      <c r="C30" s="277" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="269"/>
-      <c r="E30" s="270"/>
+      <c r="D30" s="278"/>
+      <c r="E30" s="279"/>
       <c r="F30" s="80" t="s">
         <v>92</v>
       </c>
@@ -6862,15 +6865,15 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="263" t="s">
+      <c r="A31" s="276" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="262"/>
-      <c r="C31" s="268" t="s">
+      <c r="B31" s="245"/>
+      <c r="C31" s="277" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="269"/>
-      <c r="E31" s="270"/>
+      <c r="D31" s="278"/>
+      <c r="E31" s="279"/>
       <c r="F31" s="80" t="s">
         <v>92</v>
       </c>
@@ -6879,15 +6882,15 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="263" t="s">
+      <c r="A32" s="276" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="262"/>
-      <c r="C32" s="268" t="s">
+      <c r="B32" s="245"/>
+      <c r="C32" s="277" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="269"/>
-      <c r="E32" s="270"/>
+      <c r="D32" s="278"/>
+      <c r="E32" s="279"/>
       <c r="F32" s="80" t="s">
         <v>92</v>
       </c>
@@ -6896,15 +6899,15 @@
       </c>
     </row>
     <row r="33" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="263" t="s">
+      <c r="A33" s="276" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="262"/>
-      <c r="C33" s="268" t="s">
+      <c r="B33" s="245"/>
+      <c r="C33" s="277" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="269"/>
-      <c r="E33" s="270"/>
+      <c r="D33" s="278"/>
+      <c r="E33" s="279"/>
       <c r="F33" s="80" t="s">
         <v>92</v>
       </c>
@@ -6913,15 +6916,15 @@
       </c>
     </row>
     <row r="34" spans="1:7" s="99" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="152" t="s">
+      <c r="A34" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="153"/>
-      <c r="C34" s="271" t="s">
+      <c r="B34" s="144"/>
+      <c r="C34" s="280" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="272"/>
-      <c r="E34" s="273"/>
+      <c r="D34" s="281"/>
+      <c r="E34" s="282"/>
       <c r="F34" s="127" t="s">
         <v>92</v>
       </c>
@@ -6930,26 +6933,26 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="274" t="s">
+      <c r="A35" s="268" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="275"/>
-      <c r="C35" s="275"/>
-      <c r="D35" s="275"/>
-      <c r="E35" s="275"/>
-      <c r="F35" s="275"/>
-      <c r="G35" s="276"/>
+      <c r="B35" s="269"/>
+      <c r="C35" s="269"/>
+      <c r="D35" s="269"/>
+      <c r="E35" s="269"/>
+      <c r="F35" s="269"/>
+      <c r="G35" s="270"/>
     </row>
     <row r="36" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="148" t="s">
+      <c r="A36" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="149"/>
-      <c r="C36" s="266" t="s">
+      <c r="B36" s="140"/>
+      <c r="C36" s="286" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="267"/>
-      <c r="E36" s="149"/>
+      <c r="D36" s="287"/>
+      <c r="E36" s="140"/>
       <c r="F36" s="10" t="s">
         <v>92</v>
       </c>
@@ -6958,15 +6961,15 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="258" t="s">
+      <c r="A37" s="271" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="259"/>
-      <c r="C37" s="260" t="s">
+      <c r="B37" s="272"/>
+      <c r="C37" s="244" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="261"/>
-      <c r="E37" s="262"/>
+      <c r="D37" s="283"/>
+      <c r="E37" s="245"/>
       <c r="F37" s="119" t="s">
         <v>92</v>
       </c>
@@ -6975,15 +6978,15 @@
       </c>
     </row>
     <row r="38" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="263" t="s">
+      <c r="A38" s="276" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="262"/>
-      <c r="C38" s="260" t="s">
+      <c r="B38" s="245"/>
+      <c r="C38" s="244" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="261"/>
-      <c r="E38" s="262"/>
+      <c r="D38" s="283"/>
+      <c r="E38" s="245"/>
       <c r="F38" s="119" t="s">
         <v>92</v>
       </c>
@@ -6992,15 +6995,15 @@
       </c>
     </row>
     <row r="39" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="152" t="s">
+      <c r="A39" s="143" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="153"/>
-      <c r="C39" s="264" t="s">
+      <c r="B39" s="144"/>
+      <c r="C39" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="265"/>
-      <c r="E39" s="153"/>
+      <c r="D39" s="285"/>
+      <c r="E39" s="144"/>
       <c r="F39" s="1" t="s">
         <v>92</v>
       </c>
@@ -7009,50 +7012,50 @@
       </c>
     </row>
     <row r="40" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="246" t="s">
+      <c r="A40" s="296" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="247"/>
-      <c r="C40" s="248" t="s">
+      <c r="B40" s="297"/>
+      <c r="C40" s="298" t="s">
         <v>138</v>
       </c>
-      <c r="D40" s="249"/>
-      <c r="E40" s="250"/>
-      <c r="F40" s="248" t="s">
+      <c r="D40" s="299"/>
+      <c r="E40" s="300"/>
+      <c r="F40" s="298" t="s">
         <v>139</v>
       </c>
-      <c r="G40" s="250"/>
+      <c r="G40" s="300"/>
     </row>
     <row r="41" spans="1:7" s="99" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="251"/>
-      <c r="B41" s="252"/>
-      <c r="C41" s="172"/>
-      <c r="D41" s="197"/>
-      <c r="E41" s="210"/>
-      <c r="F41" s="255"/>
-      <c r="G41" s="256"/>
+      <c r="A41" s="301"/>
+      <c r="B41" s="302"/>
+      <c r="C41" s="199"/>
+      <c r="D41" s="200"/>
+      <c r="E41" s="183"/>
+      <c r="F41" s="305"/>
+      <c r="G41" s="306"/>
     </row>
     <row r="42" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="253"/>
-      <c r="B42" s="254"/>
-      <c r="C42" s="238" t="s">
+      <c r="A42" s="303"/>
+      <c r="B42" s="304"/>
+      <c r="C42" s="288" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="257"/>
-      <c r="E42" s="239"/>
-      <c r="F42" s="238" t="s">
+      <c r="D42" s="307"/>
+      <c r="E42" s="289"/>
+      <c r="F42" s="288" t="s">
         <v>140</v>
       </c>
-      <c r="G42" s="239"/>
+      <c r="G42" s="289"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="128"/>
       <c r="B43" s="128"/>
       <c r="C43" s="128"/>
       <c r="D43" s="128"/>
-      <c r="E43" s="245"/>
-      <c r="F43" s="245"/>
-      <c r="G43" s="245"/>
+      <c r="E43" s="295"/>
+      <c r="F43" s="295"/>
+      <c r="G43" s="295"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="46" t="s">
@@ -7061,63 +7064,24 @@
       <c r="B44" s="129"/>
       <c r="C44" s="130"/>
       <c r="D44" s="128"/>
-      <c r="E44" s="240"/>
-      <c r="F44" s="240"/>
-      <c r="G44" s="240"/>
+      <c r="E44" s="290"/>
+      <c r="F44" s="290"/>
+      <c r="G44" s="290"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="241" t="s">
+      <c r="A46" s="291" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="241"/>
+      <c r="B46" s="291"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="241" t="s">
+      <c r="A47" s="291" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="241"/>
+      <c r="B47" s="291"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="G15:G22"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:E36"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="E44:G44"/>
     <mergeCell ref="A46:B46"/>
@@ -7134,6 +7098,45 @@
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="G15:G22"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>

--- a/backend/templates/UC-18gsm-210W-BFQR.xlsx
+++ b/backend/templates/UC-18gsm-210W-BFQR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DF15C3-7F5C-4D09-B4D7-CADAA4084D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7910EA4C-972A-4E33-A4A4-2BEF7EB76D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,9 +13,6 @@
     <sheet name="Page3" sheetId="9" r:id="rId3"/>
     <sheet name="COA Form" sheetId="10" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Page1!$A$1:$K$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Page2!$A$1:$K$47</definedName>
@@ -459,9 +456,6 @@
     <t>U-</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Opacity
 L-45.0 T-50.0 U-55.0</t>
   </si>
@@ -490,13 +484,13 @@
 L-(-16.00) T-(-11.00) U-(-6.00)</t>
   </si>
   <si>
+    <t>Reference:</t>
+  </si>
+  <si>
+    <t>Retention period: 5 years</t>
+  </si>
+  <si>
     <t>Testing Equipment Identification Number</t>
-  </si>
-  <si>
-    <t>Reference:</t>
-  </si>
-  <si>
-    <t>Retention period: 5 years</t>
   </si>
   <si>
     <t>Roll Cut Width</t>
@@ -520,6 +514,9 @@
   </si>
   <si>
     <t>#02</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -1631,9 +1628,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1652,15 +1646,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1669,15 +1654,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1685,27 +1661,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="58" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1773,6 +1728,7 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1867,11 +1823,94 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="58" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1887,6 +1926,34 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1916,119 +1983,81 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2040,10 +2069,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2052,154 +2087,119 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2234,6 +2234,15 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2327,6 +2336,12 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2345,70 +2360,52 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2760,28 +2757,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Page1"/>
-      <sheetName val="Page2"/>
-      <sheetName val="Page3"/>
-      <sheetName val="COA Form"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -3075,49 +3050,49 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="14" style="5" customWidth="1"/>
     <col min="4" max="11" width="21.7109375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="132" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="132"/>
-    <col min="14" max="14" width="9.42578125" style="132" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="132"/>
+    <col min="12" max="12" width="10.5703125" style="85" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="85"/>
+    <col min="14" max="14" width="9.42578125" style="85" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -3138,12 +3113,12 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="140"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="142"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="164"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -3155,19 +3130,19 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="153"/>
-      <c r="K4" s="154"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="157"/>
       <c r="M4" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="144"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="146"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="168"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -3179,64 +3154,64 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="155"/>
-      <c r="K5" s="156"/>
+      <c r="J5" s="158"/>
+      <c r="K5" s="159"/>
     </row>
     <row r="6" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="161" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
+      <c r="A6" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="135"/>
+      <c r="C6" s="136"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="148"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="149"/>
-      <c r="K6" s="150"/>
+        <v>142</v>
+      </c>
+      <c r="G6" s="152"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="154"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151" t="s">
+      <c r="A7" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="151" t="s">
+      <c r="E7" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="151" t="s">
+      <c r="F7" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="157" t="s">
+      <c r="G7" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="157" t="s">
+      <c r="H7" s="169" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="151" t="s">
+      <c r="I7" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="151"/>
-      <c r="K7" s="152"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="155"/>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="165"/>
-      <c r="B8" s="159"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="159" t="s">
+      <c r="A8" s="139"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="159"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3638,11 +3613,11 @@
       <c r="K38" s="28"/>
     </row>
     <row r="39" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="133" t="s">
+      <c r="A39" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="134"/>
-      <c r="C39" s="135"/>
+      <c r="B39" s="148"/>
+      <c r="C39" s="149"/>
       <c r="D39" s="35" t="e">
         <f t="shared" ref="D39:K39" si="0">AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -3677,11 +3652,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="169" t="s">
+      <c r="A40" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="170"/>
-      <c r="C40" s="171"/>
+      <c r="B40" s="145"/>
+      <c r="C40" s="146"/>
       <c r="D40" s="38">
         <f t="shared" ref="D40:K40" si="1">MIN(D9:D38)</f>
         <v>0</v>
@@ -3716,11 +3691,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="166" t="s">
+      <c r="A41" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="167"/>
-      <c r="C41" s="168"/>
+      <c r="B41" s="142"/>
+      <c r="C41" s="143"/>
       <c r="D41" s="41">
         <f t="shared" ref="D41:K41" si="2">MAX(D9:D38)</f>
         <v>0</v>
@@ -3761,8 +3736,8 @@
       <c r="A42" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="136"/>
-      <c r="C42" s="136"/>
+      <c r="B42" s="150"/>
+      <c r="C42" s="150"/>
       <c r="D42" s="44" t="s">
         <v>22</v>
       </c>
@@ -3779,8 +3754,8 @@
     </row>
     <row r="43" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50"/>
-      <c r="B43" s="137"/>
-      <c r="C43" s="137"/>
+      <c r="B43" s="151"/>
+      <c r="C43" s="151"/>
       <c r="D43" s="44"/>
       <c r="F43" s="46"/>
       <c r="G43" s="47"/>
@@ -3789,15 +3764,15 @@
       <c r="J43" s="51"/>
     </row>
     <row r="44" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="147" t="s">
+      <c r="A44" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="147"/>
-      <c r="C44" s="147"/>
+      <c r="B44" s="133"/>
+      <c r="C44" s="133"/>
       <c r="D44" s="44"/>
       <c r="E44" s="44"/>
       <c r="F44" s="47" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G44" s="46">
         <v>461359700</v>
@@ -3805,11 +3780,11 @@
       <c r="H44" s="44"/>
     </row>
     <row r="45" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="147" t="s">
-        <v>135</v>
-      </c>
-      <c r="B45" s="147"/>
-      <c r="C45" s="147"/>
+      <c r="A45" s="133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="133"/>
+      <c r="C45" s="133"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="44"/>
@@ -3851,31 +3826,31 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
-    <mergeCell ref="A45:C45"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D9:D41">
@@ -3940,57 +3915,59 @@
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.98425196850393704" right="0.19685039370078741" top="0.11811023622047245" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.11811023622047245" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:J17"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="14" style="5" customWidth="1"/>
     <col min="4" max="11" width="21.7109375" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="132"/>
+    <col min="12" max="16384" width="9.140625" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -4011,23 +3988,23 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="140">
-        <f ca="1">Page2!B4:D4</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="195">
+      <c r="B4" s="162">
+        <f>Page1!B4:D4</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="219">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="196"/>
+      <c r="D4" s="208"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="55">
-        <f ca="1">Page2!F4</f>
+      <c r="F4" s="119">
+        <f>Page1!F4</f>
         <v>0</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -4040,30 +4017,30 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="191">
-        <f>Page2!K4</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="192"/>
+      <c r="J4" s="220">
+        <f>Page1!J4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="221"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="144">
-        <f ca="1">Page2!B5:D5</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="145">
+      <c r="B5" s="166">
+        <f>Page1!B5:D5</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="167">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="146"/>
+      <c r="D5" s="168"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="12">
-        <f ca="1">Page2!F5</f>
+        <f>Page1!F5</f>
         <v>0</v>
       </c>
       <c r="G5" s="13" t="s">
@@ -4076,781 +4053,772 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="193">
-        <f>Page2!K5</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="194"/>
+      <c r="J5" s="184">
+        <f>Page1!J5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="185"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="201" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="202"/>
-      <c r="C6" s="203"/>
-      <c r="D6" s="197"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="190"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="188"/>
-      <c r="K6" s="56"/>
+      <c r="A6" s="204" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="205"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="203"/>
+      <c r="G6" s="190"/>
+      <c r="H6" s="203"/>
+      <c r="I6" s="201"/>
+      <c r="J6" s="202"/>
+      <c r="K6" s="55"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="208" t="s">
+      <c r="A7" s="186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="187"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="198"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="189" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="198"/>
-      <c r="I7" s="189" t="s">
+      <c r="E7" s="187"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="190" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="187"/>
+      <c r="I7" s="190" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" s="203"/>
+      <c r="K7" s="194" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="188"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="188" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="198" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="199" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="191"/>
+      <c r="H8" s="189"/>
+      <c r="I8" s="191" t="s">
         <v>136</v>
       </c>
-      <c r="J7" s="190"/>
-      <c r="K7" s="182" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="199"/>
-      <c r="B8" s="200"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="199" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="211" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="212" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="214"/>
-      <c r="H8" s="200"/>
-      <c r="I8" s="214" t="s">
-        <v>137</v>
-      </c>
-      <c r="J8" s="212"/>
-      <c r="K8" s="183"/>
+      <c r="J8" s="199"/>
+      <c r="K8" s="195"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="199"/>
-      <c r="B9" s="200"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="199"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="212"/>
-      <c r="G9" s="214"/>
-      <c r="H9" s="200"/>
-      <c r="I9" s="58" t="s">
+      <c r="A9" s="188"/>
+      <c r="B9" s="189"/>
+      <c r="C9" s="189"/>
+      <c r="D9" s="188"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="191"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="J9" s="59">
+      <c r="J9" s="58">
         <v>210</v>
       </c>
-      <c r="K9" s="183"/>
+      <c r="K9" s="195"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="199">
+      <c r="A10" s="188"/>
+      <c r="B10" s="189"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="197"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="192"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" s="60">
+        <v>213</v>
+      </c>
+      <c r="K10" s="196"/>
+    </row>
+    <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="120">
         <f>Page1!A9</f>
         <v>0</v>
       </c>
-      <c r="B10" s="200">
+      <c r="B11" s="121">
         <f>Page1!B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C11" s="122">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="225"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="213"/>
-      <c r="G10" s="219"/>
-      <c r="H10" s="220"/>
-      <c r="I10" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="J10" s="61">
-        <v>213</v>
-      </c>
-      <c r="K10" s="184"/>
-    </row>
-    <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="62">
-        <f>Page1!A10</f>
-        <v>0</v>
-      </c>
-      <c r="B11" s="63">
-        <f>Page1!B10</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="64">
-        <f>Page1!C10</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="65"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="221"/>
-      <c r="J11" s="222"/>
-      <c r="K11" s="66"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="211"/>
+      <c r="I11" s="222"/>
+      <c r="J11" s="223"/>
+      <c r="K11" s="62"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67">
-        <f>Page1!A11</f>
-        <v>0</v>
-      </c>
-      <c r="B12" s="68">
-        <f>Page1!B11</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="69">
-        <f>Page1!C11</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="70"/>
+      <c r="A12" s="123">
+        <f>Page1!A10</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="124">
+        <f>Page1!B10</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="125">
+        <f>Page1!C10</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="63"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="177"/>
+      <c r="G12" s="212"/>
+      <c r="H12" s="212"/>
       <c r="I12" s="174"/>
       <c r="J12" s="175"/>
-      <c r="K12" s="71"/>
+      <c r="K12" s="64"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="67">
-        <f>Page1!A12</f>
-        <v>0</v>
-      </c>
-      <c r="B13" s="68">
-        <f>Page1!B12</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="72">
-        <f>Page1!C12</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="70"/>
+      <c r="A13" s="123">
+        <f>Page1!A11</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="124">
+        <f>Page1!B11</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="126">
+        <f>Page1!C11</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="63"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="177"/>
+      <c r="G13" s="212"/>
+      <c r="H13" s="212"/>
       <c r="I13" s="174"/>
       <c r="J13" s="175"/>
-      <c r="K13" s="71"/>
+      <c r="K13" s="64"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="67">
-        <f>Page1!A13</f>
-        <v>0</v>
-      </c>
-      <c r="B14" s="73">
-        <f>Page1!B13</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="72">
-        <f>Page1!C13</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="70"/>
+      <c r="A14" s="123">
+        <f>Page1!A12</f>
+        <v>0</v>
+      </c>
+      <c r="B14" s="127">
+        <f>Page1!B12</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="126">
+        <f>Page1!C12</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="63"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="177"/>
+      <c r="G14" s="212"/>
+      <c r="H14" s="212"/>
       <c r="I14" s="174"/>
       <c r="J14" s="175"/>
-      <c r="K14" s="71"/>
+      <c r="K14" s="64"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="67">
-        <f>Page1!A14</f>
-        <v>0</v>
-      </c>
-      <c r="B15" s="68">
-        <f>Page1!B14</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="69">
-        <f>Page1!C14</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="70"/>
+      <c r="A15" s="123">
+        <f>Page1!A13</f>
+        <v>0</v>
+      </c>
+      <c r="B15" s="124">
+        <f>Page1!B13</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="125">
+        <f>Page1!C13</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="63"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="177"/>
+      <c r="G15" s="212"/>
+      <c r="H15" s="212"/>
       <c r="I15" s="174"/>
       <c r="J15" s="175"/>
-      <c r="K15" s="71"/>
+      <c r="K15" s="64"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="67">
-        <f>Page1!A15</f>
-        <v>0</v>
-      </c>
-      <c r="B16" s="68">
-        <f>Page1!B15</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="69">
-        <f>Page1!C15</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="65"/>
+      <c r="A16" s="123">
+        <f>Page1!A14</f>
+        <v>0</v>
+      </c>
+      <c r="B16" s="124">
+        <f>Page1!B14</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="125">
+        <f>Page1!C14</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="61"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="176"/>
+      <c r="G16" s="211"/>
+      <c r="H16" s="211"/>
       <c r="I16" s="174"/>
       <c r="J16" s="175"/>
-      <c r="K16" s="66"/>
+      <c r="K16" s="62"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67">
-        <f>Page1!A16</f>
-        <v>0</v>
-      </c>
-      <c r="B17" s="68">
-        <f>Page1!B16</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="69">
-        <f>Page1!C16</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="70"/>
+      <c r="A17" s="123">
+        <f>Page1!A15</f>
+        <v>0</v>
+      </c>
+      <c r="B17" s="124">
+        <f>Page1!B15</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="125">
+        <f>Page1!C15</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="63"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="177"/>
+      <c r="G17" s="212"/>
+      <c r="H17" s="212"/>
       <c r="I17" s="174"/>
       <c r="J17" s="175"/>
-      <c r="K17" s="71"/>
+      <c r="K17" s="64"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67">
-        <f>Page1!A17</f>
-        <v>0</v>
-      </c>
-      <c r="B18" s="68">
-        <f>Page1!B17</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="69">
-        <f>Page1!C17</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="70"/>
+      <c r="A18" s="123">
+        <f>Page1!A16</f>
+        <v>0</v>
+      </c>
+      <c r="B18" s="124">
+        <f>Page1!B16</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="125">
+        <f>Page1!C16</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="63"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="177"/>
+      <c r="G18" s="212"/>
+      <c r="H18" s="212"/>
       <c r="I18" s="174"/>
       <c r="J18" s="175"/>
-      <c r="K18" s="71"/>
+      <c r="K18" s="64"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="67">
-        <f>Page1!A18</f>
-        <v>0</v>
-      </c>
-      <c r="B19" s="74">
-        <f>Page1!B18</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="69">
-        <f>Page1!C18</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="70"/>
+      <c r="A19" s="123">
+        <f>Page1!A17</f>
+        <v>0</v>
+      </c>
+      <c r="B19" s="128">
+        <f>Page1!B17</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="125">
+        <f>Page1!C17</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="63"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="177"/>
+      <c r="G19" s="212"/>
+      <c r="H19" s="212"/>
       <c r="I19" s="174"/>
       <c r="J19" s="175"/>
-      <c r="K19" s="71"/>
+      <c r="K19" s="64"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="67">
-        <f>Page1!A19</f>
-        <v>0</v>
-      </c>
-      <c r="B20" s="68">
-        <f>Page1!B19</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="69">
-        <f>Page1!C19</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="70"/>
+      <c r="A20" s="123">
+        <f>Page1!A18</f>
+        <v>0</v>
+      </c>
+      <c r="B20" s="124">
+        <f>Page1!B18</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="125">
+        <f>Page1!C18</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="63"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="173"/>
+      <c r="G20" s="209"/>
+      <c r="H20" s="210"/>
       <c r="I20" s="174"/>
       <c r="J20" s="175"/>
-      <c r="K20" s="71"/>
+      <c r="K20" s="64"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="75">
-        <f>Page1!A20</f>
-        <v>0</v>
-      </c>
-      <c r="B21" s="74">
-        <f>Page1!B20</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="72">
-        <f>Page1!C20</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="70"/>
+      <c r="A21" s="129">
+        <f>Page1!A19</f>
+        <v>0</v>
+      </c>
+      <c r="B21" s="128">
+        <f>Page1!B19</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="126">
+        <f>Page1!C19</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="63"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="173"/>
+      <c r="G21" s="209"/>
+      <c r="H21" s="210"/>
       <c r="I21" s="174"/>
       <c r="J21" s="175"/>
-      <c r="K21" s="71"/>
+      <c r="K21" s="64"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="67">
-        <f>Page1!A21</f>
-        <v>0</v>
-      </c>
-      <c r="B22" s="68">
-        <f>Page1!B21</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="69">
-        <f>Page1!C21</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="70"/>
+      <c r="A22" s="123">
+        <f>Page1!A20</f>
+        <v>0</v>
+      </c>
+      <c r="B22" s="124">
+        <f>Page1!B20</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="125">
+        <f>Page1!C20</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="63"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="173"/>
+      <c r="G22" s="209"/>
+      <c r="H22" s="210"/>
       <c r="I22" s="174"/>
       <c r="J22" s="175"/>
-      <c r="K22" s="71"/>
+      <c r="K22" s="64"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="67">
-        <f>Page1!A22</f>
-        <v>0</v>
-      </c>
-      <c r="B23" s="68">
-        <f>Page1!B22</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="72">
-        <f>Page1!C22</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="70"/>
+      <c r="A23" s="123">
+        <f>Page1!A21</f>
+        <v>0</v>
+      </c>
+      <c r="B23" s="124">
+        <f>Page1!B21</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="126">
+        <f>Page1!C21</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="63"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="173"/>
+      <c r="G23" s="209"/>
+      <c r="H23" s="210"/>
       <c r="I23" s="174"/>
       <c r="J23" s="175"/>
-      <c r="K23" s="71"/>
+      <c r="K23" s="64"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="67">
-        <f>Page1!A23</f>
-        <v>0</v>
-      </c>
-      <c r="B24" s="73">
-        <f>Page1!B23</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="72">
-        <f>Page1!C23</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="70"/>
+      <c r="A24" s="123">
+        <f>Page1!A22</f>
+        <v>0</v>
+      </c>
+      <c r="B24" s="127">
+        <f>Page1!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="126">
+        <f>Page1!C22</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="63"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="173"/>
+      <c r="G24" s="209"/>
+      <c r="H24" s="210"/>
       <c r="I24" s="174"/>
       <c r="J24" s="175"/>
-      <c r="K24" s="71"/>
+      <c r="K24" s="64"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="67">
-        <f>Page1!A24</f>
-        <v>0</v>
-      </c>
-      <c r="B25" s="68">
-        <f>Page1!B24</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="69">
-        <f>Page1!C24</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="70"/>
+      <c r="A25" s="123">
+        <f>Page1!A23</f>
+        <v>0</v>
+      </c>
+      <c r="B25" s="124">
+        <f>Page1!B23</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="125">
+        <f>Page1!C23</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="63"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="173"/>
+      <c r="G25" s="209"/>
+      <c r="H25" s="210"/>
       <c r="I25" s="174"/>
       <c r="J25" s="175"/>
-      <c r="K25" s="71"/>
+      <c r="K25" s="64"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="67">
-        <f>Page1!A25</f>
-        <v>0</v>
-      </c>
-      <c r="B26" s="68">
-        <f>Page1!B25</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="69">
-        <f>Page1!C25</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="70"/>
+      <c r="A26" s="123">
+        <f>Page1!A24</f>
+        <v>0</v>
+      </c>
+      <c r="B26" s="124">
+        <f>Page1!B24</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="125">
+        <f>Page1!C24</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="63"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="173"/>
+      <c r="G26" s="209"/>
+      <c r="H26" s="210"/>
       <c r="I26" s="174"/>
       <c r="J26" s="175"/>
-      <c r="K26" s="71"/>
+      <c r="K26" s="64"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="67">
-        <f>Page1!A26</f>
-        <v>0</v>
-      </c>
-      <c r="B27" s="68">
-        <f>Page1!B26</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="69">
-        <f>Page1!C26</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="70"/>
+      <c r="A27" s="123">
+        <f>Page1!A25</f>
+        <v>0</v>
+      </c>
+      <c r="B27" s="124">
+        <f>Page1!B25</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="125">
+        <f>Page1!C25</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="63"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="173"/>
+      <c r="G27" s="209"/>
+      <c r="H27" s="210"/>
       <c r="I27" s="174"/>
       <c r="J27" s="175"/>
-      <c r="K27" s="71"/>
+      <c r="K27" s="64"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="67">
-        <f>Page1!A27</f>
-        <v>0</v>
-      </c>
-      <c r="B28" s="68">
-        <f>Page1!B27</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="69">
-        <f>Page1!C27</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="70"/>
+      <c r="A28" s="123">
+        <f>Page1!A26</f>
+        <v>0</v>
+      </c>
+      <c r="B28" s="124">
+        <f>Page1!B26</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="125">
+        <f>Page1!C26</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="63"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="173"/>
+      <c r="G28" s="209"/>
+      <c r="H28" s="210"/>
       <c r="I28" s="174"/>
       <c r="J28" s="175"/>
-      <c r="K28" s="71"/>
+      <c r="K28" s="64"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="67">
-        <f>Page1!A28</f>
-        <v>0</v>
-      </c>
-      <c r="B29" s="74">
-        <f>Page1!B28</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="69">
-        <f>Page1!C28</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="70"/>
+      <c r="A29" s="123">
+        <f>Page1!A27</f>
+        <v>0</v>
+      </c>
+      <c r="B29" s="128">
+        <f>Page1!B27</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="125">
+        <f>Page1!C27</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="63"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="173"/>
+      <c r="G29" s="209"/>
+      <c r="H29" s="210"/>
       <c r="I29" s="174"/>
       <c r="J29" s="175"/>
-      <c r="K29" s="71"/>
+      <c r="K29" s="64"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="67">
-        <f>Page1!A29</f>
-        <v>0</v>
-      </c>
-      <c r="B30" s="68">
-        <f>Page1!B29</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="69">
-        <f>Page1!C29</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="70"/>
+      <c r="A30" s="123">
+        <f>Page1!A28</f>
+        <v>0</v>
+      </c>
+      <c r="B30" s="124">
+        <f>Page1!B28</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="125">
+        <f>Page1!C28</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="63"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="173"/>
+      <c r="G30" s="209"/>
+      <c r="H30" s="210"/>
       <c r="I30" s="174"/>
       <c r="J30" s="175"/>
-      <c r="K30" s="71"/>
+      <c r="K30" s="64"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="75">
-        <f>Page1!A30</f>
-        <v>0</v>
-      </c>
-      <c r="B31" s="74">
-        <f>Page1!B30</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="72">
-        <f>Page1!C30</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="70"/>
+      <c r="A31" s="129">
+        <f>Page1!A29</f>
+        <v>0</v>
+      </c>
+      <c r="B31" s="128">
+        <f>Page1!B29</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="126">
+        <f>Page1!C29</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="63"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="173"/>
+      <c r="G31" s="209"/>
+      <c r="H31" s="210"/>
       <c r="I31" s="174"/>
       <c r="J31" s="175"/>
-      <c r="K31" s="71"/>
+      <c r="K31" s="64"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="67">
-        <f>Page1!A31</f>
-        <v>0</v>
-      </c>
-      <c r="B32" s="68">
-        <f>Page1!B31</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="69">
-        <f>Page1!C31</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="70"/>
+      <c r="A32" s="123">
+        <f>Page1!A30</f>
+        <v>0</v>
+      </c>
+      <c r="B32" s="124">
+        <f>Page1!B30</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="125">
+        <f>Page1!C30</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="63"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="173"/>
+      <c r="G32" s="209"/>
+      <c r="H32" s="210"/>
       <c r="I32" s="174"/>
       <c r="J32" s="175"/>
-      <c r="K32" s="71"/>
+      <c r="K32" s="64"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="67">
-        <f>Page1!A32</f>
-        <v>0</v>
-      </c>
-      <c r="B33" s="68">
-        <f>Page1!B32</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="72">
-        <f>Page1!C32</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="70"/>
+      <c r="A33" s="123">
+        <f>Page1!A31</f>
+        <v>0</v>
+      </c>
+      <c r="B33" s="124">
+        <f>Page1!B31</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="126">
+        <f>Page1!C31</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="63"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="173"/>
+      <c r="G33" s="209"/>
+      <c r="H33" s="210"/>
       <c r="I33" s="174"/>
       <c r="J33" s="175"/>
-      <c r="K33" s="71"/>
+      <c r="K33" s="64"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="67">
-        <f>Page1!A33</f>
-        <v>0</v>
-      </c>
-      <c r="B34" s="73">
-        <f>Page1!B33</f>
-        <v>0</v>
-      </c>
-      <c r="C34" s="72">
-        <f>Page1!C33</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="70"/>
+      <c r="A34" s="123">
+        <f>Page1!A32</f>
+        <v>0</v>
+      </c>
+      <c r="B34" s="127">
+        <f>Page1!B32</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="126">
+        <f>Page1!C32</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="63"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="173"/>
+      <c r="G34" s="209"/>
+      <c r="H34" s="210"/>
       <c r="I34" s="174"/>
       <c r="J34" s="175"/>
-      <c r="K34" s="71"/>
+      <c r="K34" s="64"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="67">
-        <f>Page1!A34</f>
-        <v>0</v>
-      </c>
-      <c r="B35" s="68">
-        <f>Page1!B34</f>
-        <v>0</v>
-      </c>
-      <c r="C35" s="69">
-        <f>Page1!C34</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="70"/>
+      <c r="A35" s="123">
+        <f>Page1!A33</f>
+        <v>0</v>
+      </c>
+      <c r="B35" s="124">
+        <f>Page1!B33</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="125">
+        <f>Page1!C33</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="63"/>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="173"/>
+      <c r="G35" s="209"/>
+      <c r="H35" s="210"/>
       <c r="I35" s="174"/>
       <c r="J35" s="175"/>
-      <c r="K35" s="71"/>
+      <c r="K35" s="64"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="67">
-        <f>Page1!A35</f>
-        <v>0</v>
-      </c>
-      <c r="B36" s="68">
-        <f>Page1!B35</f>
-        <v>0</v>
-      </c>
-      <c r="C36" s="69">
-        <f>Page1!C35</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="70"/>
+      <c r="A36" s="123">
+        <f>Page1!A34</f>
+        <v>0</v>
+      </c>
+      <c r="B36" s="124">
+        <f>Page1!B34</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="125">
+        <f>Page1!C34</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="63"/>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="173"/>
+      <c r="G36" s="209"/>
+      <c r="H36" s="210"/>
       <c r="I36" s="174"/>
       <c r="J36" s="175"/>
-      <c r="K36" s="71"/>
+      <c r="K36" s="64"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="67">
-        <f>[1]Page1!A35</f>
-        <v>0</v>
-      </c>
-      <c r="B37" s="68">
-        <f>[1]Page1!B35</f>
-        <v>0</v>
-      </c>
-      <c r="C37" s="69">
-        <f>[1]Page1!C35</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="70"/>
+      <c r="A37" s="123">
+        <f>Page1!A35</f>
+        <v>0</v>
+      </c>
+      <c r="B37" s="124">
+        <f>Page1!B35</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="125">
+        <f>Page1!C35</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="63"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="172"/>
-      <c r="H37" s="173"/>
+      <c r="G37" s="209"/>
+      <c r="H37" s="210"/>
       <c r="I37" s="174"/>
       <c r="J37" s="175"/>
-      <c r="K37" s="71"/>
+      <c r="K37" s="64"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="67">
-        <f>[1]Page1!A36</f>
-        <v>0</v>
-      </c>
-      <c r="B38" s="68">
-        <f>[1]Page1!B36</f>
-        <v>0</v>
-      </c>
-      <c r="C38" s="69">
-        <f>[1]Page1!C36</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="70"/>
+      <c r="A38" s="123">
+        <f>Page1!A36</f>
+        <v>0</v>
+      </c>
+      <c r="B38" s="124">
+        <f>Page1!B36</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="125">
+        <f>Page1!C36</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="63"/>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="172"/>
-      <c r="H38" s="173"/>
+      <c r="G38" s="209"/>
+      <c r="H38" s="210"/>
       <c r="I38" s="174"/>
       <c r="J38" s="175"/>
-      <c r="K38" s="71"/>
+      <c r="K38" s="64"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="67">
-        <f>[1]Page1!A37</f>
-        <v>0</v>
-      </c>
-      <c r="B39" s="68">
-        <f>[1]Page1!B37</f>
-        <v>0</v>
-      </c>
-      <c r="C39" s="69">
-        <f>[1]Page1!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="70"/>
+      <c r="A39" s="123">
+        <f>Page1!A37</f>
+        <v>0</v>
+      </c>
+      <c r="B39" s="124">
+        <f>Page1!B37</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="125">
+        <f>Page1!C37</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="63"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="172"/>
-      <c r="H39" s="173"/>
+      <c r="G39" s="209"/>
+      <c r="H39" s="210"/>
       <c r="I39" s="174"/>
       <c r="J39" s="175"/>
-      <c r="K39" s="71"/>
+      <c r="K39" s="64"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="76">
-        <f>[1]Page1!A38</f>
-        <v>0</v>
-      </c>
-      <c r="B40" s="77">
-        <f>[1]Page1!B38</f>
-        <v>0</v>
-      </c>
-      <c r="C40" s="78">
-        <f>[1]Page1!C38</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="70"/>
+      <c r="A40" s="130">
+        <f>Page1!A38</f>
+        <v>0</v>
+      </c>
+      <c r="B40" s="131">
+        <f>Page1!B38</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="132">
+        <f>Page1!C38</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="63"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
-      <c r="G40" s="177"/>
-      <c r="H40" s="177"/>
+      <c r="G40" s="212"/>
+      <c r="H40" s="212"/>
       <c r="I40" s="174"/>
       <c r="J40" s="175"/>
-      <c r="K40" s="71"/>
+      <c r="K40" s="64"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="209" t="s">
+      <c r="A41" s="215" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="210"/>
-      <c r="C41" s="210"/>
-      <c r="D41" s="79" t="e">
+      <c r="B41" s="216"/>
+      <c r="C41" s="216"/>
+      <c r="D41" s="65" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4862,28 +4830,28 @@
         <f>AVERAGE(F11:F40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="180" t="e">
+      <c r="G41" s="213" t="e">
         <f>AVERAGE(G11:H40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="181"/>
-      <c r="I41" s="223" t="e">
+      <c r="H41" s="214"/>
+      <c r="I41" s="176" t="e">
         <f>AVERAGE(I11:J40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="224"/>
+      <c r="J41" s="177"/>
       <c r="K41" s="37" t="e">
         <f>AVERAGE(K11:K40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="204" t="s">
+      <c r="A42" s="217" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="205"/>
-      <c r="C42" s="205"/>
-      <c r="D42" s="80">
+      <c r="B42" s="218"/>
+      <c r="C42" s="218"/>
+      <c r="D42" s="66">
         <f>MIN(D11:D40)</f>
         <v>0</v>
       </c>
@@ -4895,50 +4863,50 @@
         <f>MIN(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="178">
+      <c r="G42" s="224">
         <f>MIN(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="179"/>
-      <c r="I42" s="185">
+      <c r="H42" s="225"/>
+      <c r="I42" s="172">
         <f>MIN(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="186"/>
+      <c r="J42" s="173"/>
       <c r="K42" s="40">
         <f>MIN(K11:K40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="206" t="s">
+      <c r="A43" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="207"/>
-      <c r="C43" s="207"/>
-      <c r="D43" s="81">
+      <c r="B43" s="183"/>
+      <c r="C43" s="183"/>
+      <c r="D43" s="67">
         <f>MAX(D11:D40)</f>
         <v>0</v>
       </c>
-      <c r="E43" s="82">
+      <c r="E43" s="68">
         <f>MAX(E11:E40)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="82">
+      <c r="F43" s="68">
         <f>MAX(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="215">
+      <c r="G43" s="178">
         <f>MAX(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="216"/>
-      <c r="I43" s="217">
+      <c r="H43" s="179"/>
+      <c r="I43" s="180">
         <f>MAX(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="218"/>
-      <c r="K43" s="83">
+      <c r="J43" s="181"/>
+      <c r="K43" s="69">
         <f>MAX(K11:K40)</f>
         <v>0</v>
       </c>
@@ -4947,8 +4915,8 @@
       <c r="A44" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="136"/>
-      <c r="C44" s="136"/>
+      <c r="B44" s="150"/>
+      <c r="C44" s="150"/>
       <c r="D44" s="44" t="s">
         <v>22</v>
       </c>
@@ -4965,8 +4933,8 @@
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
-      <c r="B45" s="137"/>
-      <c r="C45" s="137"/>
+      <c r="B45" s="151"/>
+      <c r="C45" s="151"/>
       <c r="D45" s="44"/>
       <c r="F45" s="46"/>
       <c r="G45" s="47"/>
@@ -4975,15 +4943,15 @@
       <c r="J45" s="51"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="147" t="s">
+      <c r="A46" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="147"/>
-      <c r="C46" s="147"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="133"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="47" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G46" s="46">
         <f>Page1!G44</f>
@@ -4992,11 +4960,11 @@
       <c r="H46" s="44"/>
     </row>
     <row r="47" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="147" t="s">
-        <v>135</v>
-      </c>
-      <c r="B47" s="147"/>
-      <c r="C47" s="147"/>
+      <c r="A47" s="133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="133"/>
+      <c r="C47" s="133"/>
       <c r="D47" s="44"/>
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
@@ -5020,99 +4988,56 @@
       <c r="K48" s="54"/>
     </row>
     <row r="51" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I51" s="84"/>
+      <c r="I51" s="70"/>
     </row>
     <row r="52" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I52" s="84"/>
+      <c r="I52" s="70"/>
     </row>
     <row r="53" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I53" s="84"/>
+      <c r="I53" s="70"/>
     </row>
     <row r="54" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I54" s="84"/>
+      <c r="I54" s="70"/>
     </row>
     <row r="55" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I55" s="84"/>
+      <c r="I55" s="70"/>
     </row>
     <row r="56" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I56" s="84"/>
+      <c r="I56" s="70"/>
     </row>
     <row r="57" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I57" s="84"/>
+      <c r="I57" s="70"/>
     </row>
     <row r="58" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I58" s="84"/>
+      <c r="I58" s="70"/>
     </row>
     <row r="59" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I59" s="84"/>
+      <c r="I59" s="70"/>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I60" s="84"/>
+      <c r="I60" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G7:H10"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I41:J41"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A7:C10"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="I39:J39"/>
     <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I18:J18"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>
@@ -5120,18 +5045,50 @@
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
     <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I18:J18"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G36:H36"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A7:C10"/>
+    <mergeCell ref="G7:H10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I21:J21"/>
@@ -5145,6 +5102,17 @@
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D11:D43">
@@ -5181,8 +5149,8 @@
       <formula>410</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="1.1811023622047245" right="0.39370078740157483" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.11811023622047245" bottom="0.11811023622047245" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5194,46 +5162,46 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="14" style="5" customWidth="1"/>
     <col min="4" max="11" width="21.7109375" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="132"/>
+    <col min="12" max="16384" width="9.140625" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -5254,23 +5222,23 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="140">
-        <f ca="1">Page2!B4:D4</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="195">
+      <c r="B4" s="162">
+        <f>Page1!B4:D4</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="219">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="196"/>
+      <c r="D4" s="208"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="55">
-        <f ca="1">Page2!F4</f>
+      <c r="F4" s="119">
+        <f>Page1!F4</f>
         <v>0</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -5283,30 +5251,30 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="191">
-        <f>Page2!K4</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="192"/>
+      <c r="J4" s="220">
+        <f>Page1!J4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="221"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="144">
-        <f ca="1">Page2!B5:D5</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="145">
+      <c r="B5" s="166">
+        <f>Page1!B5:D5</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="167">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="146"/>
+      <c r="D5" s="168"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="12">
-        <f ca="1">Page2!F5</f>
+        <f>Page1!F5</f>
         <v>0</v>
       </c>
       <c r="G5" s="13" t="s">
@@ -5319,739 +5287,739 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="193">
-        <f>Page2!K5</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="194"/>
+      <c r="J5" s="184">
+        <f>Page1!J5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="185"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="229" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B6" s="230"/>
       <c r="C6" s="231"/>
       <c r="D6" s="232"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="197"/>
-      <c r="J6" s="198"/>
-      <c r="K6" s="182"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="187"/>
+      <c r="K6" s="194"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="208" t="s">
+      <c r="A7" s="186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="187"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="207" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="233"/>
       <c r="F7" s="233"/>
-      <c r="G7" s="196"/>
+      <c r="G7" s="208"/>
       <c r="H7" s="226" t="s">
-        <v>127</v>
-      </c>
-      <c r="I7" s="199"/>
-      <c r="J7" s="200"/>
-      <c r="K7" s="183"/>
+        <v>126</v>
+      </c>
+      <c r="I7" s="188"/>
+      <c r="J7" s="189"/>
+      <c r="K7" s="195"/>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="199"/>
-      <c r="B8" s="200"/>
-      <c r="C8" s="200"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="189"/>
       <c r="D8" s="236" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="198" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="211" t="s">
+      <c r="F8" s="198" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="211" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="211" t="s">
-        <v>129</v>
+      <c r="G8" s="198" t="s">
+        <v>128</v>
       </c>
       <c r="H8" s="227"/>
-      <c r="I8" s="199"/>
-      <c r="J8" s="200"/>
-      <c r="K8" s="183"/>
+      <c r="I8" s="188"/>
+      <c r="J8" s="189"/>
+      <c r="K8" s="195"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="199"/>
-      <c r="B9" s="200"/>
-      <c r="C9" s="200"/>
+      <c r="A9" s="188"/>
+      <c r="B9" s="189"/>
+      <c r="C9" s="189"/>
       <c r="D9" s="237"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
       <c r="H9" s="228"/>
-      <c r="I9" s="199"/>
-      <c r="J9" s="200"/>
-      <c r="K9" s="183"/>
+      <c r="I9" s="188"/>
+      <c r="J9" s="189"/>
+      <c r="K9" s="195"/>
     </row>
     <row r="10" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62">
+      <c r="A10" s="120">
         <f>Page1!A9</f>
         <v>0</v>
       </c>
-      <c r="B10" s="63">
+      <c r="B10" s="121">
         <f>Page1!B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="122">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="86"/>
+      <c r="D10" s="72"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="199"/>
-      <c r="J10" s="200"/>
-      <c r="K10" s="183"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="188"/>
+      <c r="J10" s="189"/>
+      <c r="K10" s="195"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="67">
+      <c r="A11" s="123">
         <f>Page1!A10</f>
         <v>0</v>
       </c>
-      <c r="B11" s="68">
+      <c r="B11" s="124">
         <f>Page1!B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="69">
+      <c r="C11" s="125">
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="89"/>
+      <c r="D11" s="75"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="199"/>
-      <c r="J11" s="200"/>
-      <c r="K11" s="183"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="188"/>
+      <c r="J11" s="189"/>
+      <c r="K11" s="195"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67">
+      <c r="A12" s="123">
         <f>Page1!A11</f>
         <v>0</v>
       </c>
-      <c r="B12" s="68">
+      <c r="B12" s="124">
         <f>Page1!B11</f>
         <v>0</v>
       </c>
-      <c r="C12" s="72">
+      <c r="C12" s="126">
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="89"/>
+      <c r="D12" s="75"/>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="199"/>
-      <c r="J12" s="200"/>
-      <c r="K12" s="183"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="188"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="195"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="67">
+      <c r="A13" s="123">
         <f>Page1!A12</f>
         <v>0</v>
       </c>
-      <c r="B13" s="73">
+      <c r="B13" s="127">
         <f>Page1!B12</f>
         <v>0</v>
       </c>
-      <c r="C13" s="72">
+      <c r="C13" s="126">
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="86"/>
+      <c r="D13" s="72"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="199"/>
-      <c r="J13" s="200"/>
-      <c r="K13" s="183"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="188"/>
+      <c r="J13" s="189"/>
+      <c r="K13" s="195"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="67">
+      <c r="A14" s="123">
         <f>Page1!A13</f>
         <v>0</v>
       </c>
-      <c r="B14" s="68">
+      <c r="B14" s="124">
         <f>Page1!B13</f>
         <v>0</v>
       </c>
-      <c r="C14" s="69">
+      <c r="C14" s="125">
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="89"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="199"/>
-      <c r="J14" s="200"/>
-      <c r="K14" s="183"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="188"/>
+      <c r="J14" s="189"/>
+      <c r="K14" s="195"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="67">
+      <c r="A15" s="123">
         <f>Page1!A14</f>
         <v>0</v>
       </c>
-      <c r="B15" s="68">
+      <c r="B15" s="124">
         <f>Page1!B14</f>
         <v>0</v>
       </c>
-      <c r="C15" s="69">
+      <c r="C15" s="125">
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="89"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="199"/>
-      <c r="J15" s="200"/>
-      <c r="K15" s="183"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="188"/>
+      <c r="J15" s="189"/>
+      <c r="K15" s="195"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="67">
+      <c r="A16" s="123">
         <f>Page1!A15</f>
         <v>0</v>
       </c>
-      <c r="B16" s="68">
+      <c r="B16" s="124">
         <f>Page1!B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="69">
+      <c r="C16" s="125">
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="89"/>
+      <c r="D16" s="75"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="199"/>
-      <c r="J16" s="200"/>
-      <c r="K16" s="183"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="195"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67">
+      <c r="A17" s="123">
         <f>Page1!A16</f>
         <v>0</v>
       </c>
-      <c r="B17" s="68">
+      <c r="B17" s="124">
         <f>Page1!B16</f>
         <v>0</v>
       </c>
-      <c r="C17" s="69">
+      <c r="C17" s="125">
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="89"/>
+      <c r="D17" s="75"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="199"/>
-      <c r="J17" s="200"/>
-      <c r="K17" s="183"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="188"/>
+      <c r="J17" s="189"/>
+      <c r="K17" s="195"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67">
+      <c r="A18" s="123">
         <f>Page1!A17</f>
         <v>0</v>
       </c>
-      <c r="B18" s="74">
+      <c r="B18" s="128">
         <f>Page1!B17</f>
         <v>0</v>
       </c>
-      <c r="C18" s="69">
+      <c r="C18" s="125">
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="89"/>
+      <c r="D18" s="75"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="199"/>
-      <c r="J18" s="200"/>
-      <c r="K18" s="183"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="188"/>
+      <c r="J18" s="189"/>
+      <c r="K18" s="195"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="67">
+      <c r="A19" s="123">
         <f>Page1!A18</f>
         <v>0</v>
       </c>
-      <c r="B19" s="68">
+      <c r="B19" s="124">
         <f>Page1!B18</f>
         <v>0</v>
       </c>
-      <c r="C19" s="69">
+      <c r="C19" s="125">
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="89"/>
+      <c r="D19" s="75"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="199"/>
-      <c r="J19" s="200"/>
-      <c r="K19" s="183"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="188"/>
+      <c r="J19" s="189"/>
+      <c r="K19" s="195"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="75">
+      <c r="A20" s="129">
         <f>Page1!A19</f>
         <v>0</v>
       </c>
-      <c r="B20" s="74">
+      <c r="B20" s="128">
         <f>Page1!B19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="72">
+      <c r="C20" s="126">
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="89"/>
+      <c r="D20" s="75"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="199"/>
-      <c r="J20" s="200"/>
-      <c r="K20" s="183"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="188"/>
+      <c r="J20" s="189"/>
+      <c r="K20" s="195"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="67">
+      <c r="A21" s="123">
         <f>Page1!A20</f>
         <v>0</v>
       </c>
-      <c r="B21" s="68">
+      <c r="B21" s="124">
         <f>Page1!B20</f>
         <v>0</v>
       </c>
-      <c r="C21" s="69">
+      <c r="C21" s="125">
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="89"/>
+      <c r="D21" s="75"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="199"/>
-      <c r="J21" s="200"/>
-      <c r="K21" s="183"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="188"/>
+      <c r="J21" s="189"/>
+      <c r="K21" s="195"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="67">
+      <c r="A22" s="123">
         <f>Page1!A21</f>
         <v>0</v>
       </c>
-      <c r="B22" s="68">
+      <c r="B22" s="124">
         <f>Page1!B21</f>
         <v>0</v>
       </c>
-      <c r="C22" s="72">
+      <c r="C22" s="126">
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="89"/>
+      <c r="D22" s="75"/>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="199"/>
-      <c r="J22" s="200"/>
-      <c r="K22" s="183"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="188"/>
+      <c r="J22" s="189"/>
+      <c r="K22" s="195"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="67">
+      <c r="A23" s="123">
         <f>Page1!A22</f>
         <v>0</v>
       </c>
-      <c r="B23" s="73">
+      <c r="B23" s="127">
         <f>Page1!B22</f>
         <v>0</v>
       </c>
-      <c r="C23" s="72">
+      <c r="C23" s="126">
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="89"/>
+      <c r="D23" s="75"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="199"/>
-      <c r="J23" s="200"/>
-      <c r="K23" s="183"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="188"/>
+      <c r="J23" s="189"/>
+      <c r="K23" s="195"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="67">
+      <c r="A24" s="123">
         <f>Page1!A23</f>
         <v>0</v>
       </c>
-      <c r="B24" s="68">
+      <c r="B24" s="124">
         <f>Page1!B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="69">
+      <c r="C24" s="125">
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="89"/>
+      <c r="D24" s="75"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="199"/>
-      <c r="J24" s="200"/>
-      <c r="K24" s="183"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="188"/>
+      <c r="J24" s="189"/>
+      <c r="K24" s="195"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="67">
+      <c r="A25" s="123">
         <f>Page1!A24</f>
         <v>0</v>
       </c>
-      <c r="B25" s="68">
+      <c r="B25" s="124">
         <f>Page1!B24</f>
         <v>0</v>
       </c>
-      <c r="C25" s="69">
+      <c r="C25" s="125">
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="89"/>
+      <c r="D25" s="75"/>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="199"/>
-      <c r="J25" s="200"/>
-      <c r="K25" s="183"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="188"/>
+      <c r="J25" s="189"/>
+      <c r="K25" s="195"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="67">
+      <c r="A26" s="123">
         <f>Page1!A25</f>
         <v>0</v>
       </c>
-      <c r="B26" s="68">
+      <c r="B26" s="124">
         <f>Page1!B25</f>
         <v>0</v>
       </c>
-      <c r="C26" s="69">
+      <c r="C26" s="125">
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="89"/>
+      <c r="D26" s="75"/>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="199"/>
-      <c r="J26" s="200"/>
-      <c r="K26" s="183"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="188"/>
+      <c r="J26" s="189"/>
+      <c r="K26" s="195"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="67">
+      <c r="A27" s="123">
         <f>Page1!A26</f>
         <v>0</v>
       </c>
-      <c r="B27" s="68">
+      <c r="B27" s="124">
         <f>Page1!B26</f>
         <v>0</v>
       </c>
-      <c r="C27" s="69">
+      <c r="C27" s="125">
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="89"/>
+      <c r="D27" s="75"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="199"/>
-      <c r="J27" s="200"/>
-      <c r="K27" s="183"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="188"/>
+      <c r="J27" s="189"/>
+      <c r="K27" s="195"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="67">
+      <c r="A28" s="123">
         <f>Page1!A27</f>
         <v>0</v>
       </c>
-      <c r="B28" s="74">
+      <c r="B28" s="128">
         <f>Page1!B27</f>
         <v>0</v>
       </c>
-      <c r="C28" s="69">
+      <c r="C28" s="125">
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="89"/>
+      <c r="D28" s="75"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="199"/>
-      <c r="J28" s="200"/>
-      <c r="K28" s="183"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="188"/>
+      <c r="J28" s="189"/>
+      <c r="K28" s="195"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="67">
+      <c r="A29" s="123">
         <f>Page1!A28</f>
         <v>0</v>
       </c>
-      <c r="B29" s="68">
+      <c r="B29" s="124">
         <f>Page1!B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="69">
+      <c r="C29" s="125">
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="89"/>
+      <c r="D29" s="75"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="199"/>
-      <c r="J29" s="200"/>
-      <c r="K29" s="183"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="188"/>
+      <c r="J29" s="189"/>
+      <c r="K29" s="195"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="75">
+      <c r="A30" s="129">
         <f>Page1!A29</f>
         <v>0</v>
       </c>
-      <c r="B30" s="74">
+      <c r="B30" s="128">
         <f>Page1!B29</f>
         <v>0</v>
       </c>
-      <c r="C30" s="72">
+      <c r="C30" s="126">
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="89"/>
+      <c r="D30" s="75"/>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="199"/>
-      <c r="J30" s="200"/>
-      <c r="K30" s="183"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="188"/>
+      <c r="J30" s="189"/>
+      <c r="K30" s="195"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="67">
+      <c r="A31" s="123">
         <f>Page1!A30</f>
         <v>0</v>
       </c>
-      <c r="B31" s="68">
+      <c r="B31" s="124">
         <f>Page1!B30</f>
         <v>0</v>
       </c>
-      <c r="C31" s="69">
+      <c r="C31" s="125">
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="89"/>
+      <c r="D31" s="75"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="199"/>
-      <c r="J31" s="200"/>
-      <c r="K31" s="183"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="189"/>
+      <c r="K31" s="195"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="67">
+      <c r="A32" s="123">
         <f>Page1!A31</f>
         <v>0</v>
       </c>
-      <c r="B32" s="68">
+      <c r="B32" s="124">
         <f>Page1!B31</f>
         <v>0</v>
       </c>
-      <c r="C32" s="72">
+      <c r="C32" s="126">
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="89"/>
+      <c r="D32" s="75"/>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="199"/>
-      <c r="J32" s="200"/>
-      <c r="K32" s="183"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="188"/>
+      <c r="J32" s="189"/>
+      <c r="K32" s="195"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="67">
+      <c r="A33" s="123">
         <f>Page1!A32</f>
         <v>0</v>
       </c>
-      <c r="B33" s="73">
+      <c r="B33" s="127">
         <f>Page1!B32</f>
         <v>0</v>
       </c>
-      <c r="C33" s="72">
+      <c r="C33" s="126">
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="89"/>
+      <c r="D33" s="75"/>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="199"/>
-      <c r="J33" s="200"/>
-      <c r="K33" s="183"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="189"/>
+      <c r="K33" s="195"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="67">
+      <c r="A34" s="123">
         <f>Page1!A33</f>
         <v>0</v>
       </c>
-      <c r="B34" s="68">
+      <c r="B34" s="124">
         <f>Page1!B33</f>
         <v>0</v>
       </c>
-      <c r="C34" s="69">
+      <c r="C34" s="125">
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="89"/>
+      <c r="D34" s="75"/>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="199"/>
-      <c r="J34" s="200"/>
-      <c r="K34" s="183"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="188"/>
+      <c r="J34" s="189"/>
+      <c r="K34" s="195"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="67">
+      <c r="A35" s="123">
         <f>Page1!A34</f>
         <v>0</v>
       </c>
-      <c r="B35" s="68">
+      <c r="B35" s="124">
         <f>Page1!B34</f>
         <v>0</v>
       </c>
-      <c r="C35" s="69">
+      <c r="C35" s="125">
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="89"/>
+      <c r="D35" s="75"/>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="199"/>
-      <c r="J35" s="200"/>
-      <c r="K35" s="183"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="188"/>
+      <c r="J35" s="189"/>
+      <c r="K35" s="195"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="67">
+      <c r="A36" s="123">
         <f>Page1!A35</f>
         <v>0</v>
       </c>
-      <c r="B36" s="68">
+      <c r="B36" s="124">
         <f>Page1!B35</f>
         <v>0</v>
       </c>
-      <c r="C36" s="69">
+      <c r="C36" s="125">
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="89"/>
+      <c r="D36" s="75"/>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="199"/>
-      <c r="J36" s="200"/>
-      <c r="K36" s="183"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="188"/>
+      <c r="J36" s="189"/>
+      <c r="K36" s="195"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="67">
+      <c r="A37" s="123">
         <f>Page1!A36</f>
         <v>0</v>
       </c>
-      <c r="B37" s="68">
+      <c r="B37" s="124">
         <f>Page1!B36</f>
         <v>0</v>
       </c>
-      <c r="C37" s="69">
+      <c r="C37" s="125">
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="89"/>
+      <c r="D37" s="75"/>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="91"/>
-      <c r="I37" s="199"/>
-      <c r="J37" s="200"/>
-      <c r="K37" s="183"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="188"/>
+      <c r="J37" s="189"/>
+      <c r="K37" s="195"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="67">
+      <c r="A38" s="123">
         <f>Page1!A37</f>
         <v>0</v>
       </c>
-      <c r="B38" s="68">
+      <c r="B38" s="124">
         <f>Page1!B37</f>
         <v>0</v>
       </c>
-      <c r="C38" s="69">
+      <c r="C38" s="125">
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="89"/>
+      <c r="D38" s="75"/>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="91"/>
-      <c r="I38" s="199"/>
-      <c r="J38" s="200"/>
-      <c r="K38" s="183"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="188"/>
+      <c r="J38" s="189"/>
+      <c r="K38" s="195"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="76">
+      <c r="A39" s="130">
         <f>Page1!A38</f>
         <v>0</v>
       </c>
-      <c r="B39" s="77">
+      <c r="B39" s="131">
         <f>Page1!B38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="78">
+      <c r="C39" s="132">
         <f>Page1!C38</f>
         <v>0</v>
       </c>
-      <c r="D39" s="89"/>
+      <c r="D39" s="75"/>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="91"/>
-      <c r="I39" s="199"/>
-      <c r="J39" s="200"/>
-      <c r="K39" s="183"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="188"/>
+      <c r="J39" s="189"/>
+      <c r="K39" s="195"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="234" t="s">
@@ -6059,7 +6027,7 @@
       </c>
       <c r="B40" s="235"/>
       <c r="C40" s="235"/>
-      <c r="D40" s="92" t="e">
+      <c r="D40" s="78" t="e">
         <f>AVERAGE(D10:D39)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6075,21 +6043,21 @@
         <f>AVERAGE(G10:G39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="93" t="e">
+      <c r="H40" s="79" t="e">
         <f>AVERAGE(H10:H39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="200"/>
-      <c r="J40" s="200"/>
-      <c r="K40" s="183"/>
+      <c r="I40" s="189"/>
+      <c r="J40" s="189"/>
+      <c r="K40" s="195"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="204" t="s">
+      <c r="A41" s="217" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="205"/>
-      <c r="C41" s="205"/>
-      <c r="D41" s="94">
+      <c r="B41" s="218"/>
+      <c r="C41" s="218"/>
+      <c r="D41" s="80">
         <f>MIN(D10:D39)</f>
         <v>0</v>
       </c>
@@ -6105,50 +6073,50 @@
         <f>MIN(G10:G39)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="95">
+      <c r="H41" s="81">
         <f>MIN(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="200"/>
-      <c r="J41" s="200"/>
-      <c r="K41" s="183"/>
+      <c r="I41" s="189"/>
+      <c r="J41" s="189"/>
+      <c r="K41" s="195"/>
     </row>
     <row r="42" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="206" t="s">
+      <c r="A42" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="207"/>
-      <c r="C42" s="207"/>
-      <c r="D42" s="96">
+      <c r="B42" s="183"/>
+      <c r="C42" s="183"/>
+      <c r="D42" s="82">
         <f>MAX(D10:D39)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="97">
+      <c r="E42" s="83">
         <f>MAX(E10:E39)</f>
         <v>0</v>
       </c>
-      <c r="F42" s="97">
+      <c r="F42" s="83">
         <f>MAX(F10:F39)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="97">
+      <c r="G42" s="83">
         <f>MAX(G10:G39)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="98">
+      <c r="H42" s="84">
         <f>MAX(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="220"/>
-      <c r="J42" s="220"/>
-      <c r="K42" s="184"/>
+      <c r="I42" s="193"/>
+      <c r="J42" s="193"/>
+      <c r="K42" s="196"/>
     </row>
     <row r="43" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="136"/>
-      <c r="C43" s="136"/>
+      <c r="B43" s="150"/>
+      <c r="C43" s="150"/>
       <c r="D43" s="44" t="s">
         <v>22</v>
       </c>
@@ -6165,8 +6133,8 @@
     </row>
     <row r="44" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50"/>
-      <c r="B44" s="137"/>
-      <c r="C44" s="137"/>
+      <c r="B44" s="151"/>
+      <c r="C44" s="151"/>
       <c r="D44" s="44"/>
       <c r="F44" s="46"/>
       <c r="G44" s="47"/>
@@ -6175,15 +6143,15 @@
       <c r="J44" s="51"/>
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="147" t="s">
+      <c r="A45" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="147"/>
-      <c r="C45" s="147"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="133"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="47" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G45" s="46">
         <f>Page1!G44</f>
@@ -6192,11 +6160,11 @@
       <c r="H45" s="44"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="147" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="147"/>
-      <c r="C46" s="147"/>
+      <c r="A46" s="133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="133"/>
+      <c r="C46" s="133"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
@@ -6221,7 +6189,20 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="A46:C46"/>
+    <mergeCell ref="I6:K42"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:G6"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="A40:C40"/>
@@ -6233,19 +6214,6 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="I6:K42"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="notBetween">
@@ -6271,8 +6239,8 @@
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="1.4960629921259843" right="0.11811023622047245" top="0.11811023622047245" bottom="0.11811023622047245" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.11811023622047245" bottom="0.11811023622047245" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6284,218 +6252,218 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.42578125" style="99" customWidth="1"/>
-    <col min="3" max="5" width="12.85546875" style="99" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="99" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="99" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="131"/>
+    <col min="1" max="2" width="21.42578125" style="86" customWidth="1"/>
+    <col min="3" max="5" width="12.85546875" style="86" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="86" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="86" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="117"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="238" t="s">
+    <row r="1" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="239" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="240"/>
-    </row>
-    <row r="2" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="102" t="s">
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="241"/>
+    </row>
+    <row r="2" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="89" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="99" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="292" t="s">
+    <row r="3" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="250" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="251"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="251"/>
+      <c r="G3" s="252"/>
+    </row>
+    <row r="4" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="188" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="189"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="195"/>
+    </row>
+    <row r="5" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="242" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="244"/>
+    </row>
+    <row r="6" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="245" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="293"/>
-      <c r="C3" s="293"/>
-      <c r="D3" s="293"/>
-      <c r="E3" s="293"/>
-      <c r="F3" s="293"/>
-      <c r="G3" s="294"/>
-    </row>
-    <row r="4" spans="1:7" s="99" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="199" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="200"/>
-      <c r="C4" s="200"/>
-      <c r="D4" s="200"/>
-      <c r="E4" s="200"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="183"/>
-    </row>
-    <row r="5" spans="1:7" s="99" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="241" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="242"/>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="242"/>
-      <c r="F5" s="242"/>
-      <c r="G5" s="243"/>
-    </row>
-    <row r="6" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="103" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="244" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="245"/>
-      <c r="F6" s="246" t="s">
+      <c r="E6" s="246"/>
+      <c r="F6" s="247" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="247">
+      <c r="G6" s="248">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="103" t="s">
+    <row r="7" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="105" t="s">
+      <c r="B7" s="94"/>
+      <c r="C7" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="244">
+      <c r="D7" s="245">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="245"/>
-      <c r="F7" s="246"/>
-      <c r="G7" s="248"/>
-    </row>
-    <row r="8" spans="1:7" s="99" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="103" t="s">
+      <c r="E7" s="246"/>
+      <c r="F7" s="247"/>
+      <c r="G7" s="249"/>
+    </row>
+    <row r="8" spans="1:7" s="86" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="106">
+      <c r="B8" s="93">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="246">
+      <c r="D8" s="247">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="246"/>
-      <c r="F8" s="258" t="s">
+      <c r="E8" s="247"/>
+      <c r="F8" s="262" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="247">
+      <c r="G8" s="248">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="109" t="s">
+    <row r="9" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="108">
+      <c r="B9" s="95">
         <f>Page1!G44</f>
         <v>461359700</v>
       </c>
-      <c r="C9" s="258" t="s">
+      <c r="C9" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="263" t="s">
+      <c r="D9" s="267" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="264"/>
-      <c r="F9" s="259"/>
-      <c r="G9" s="261"/>
-    </row>
-    <row r="10" spans="1:7" s="99" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="110" t="s">
+      <c r="E9" s="268"/>
+      <c r="F9" s="263"/>
+      <c r="G9" s="265"/>
+    </row>
+    <row r="10" spans="1:7" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="111">
+      <c r="B10" s="98">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="260"/>
-      <c r="D10" s="265"/>
-      <c r="E10" s="266"/>
-      <c r="F10" s="260"/>
-      <c r="G10" s="262"/>
-    </row>
-    <row r="11" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="249" t="s">
+      <c r="C10" s="264"/>
+      <c r="D10" s="269"/>
+      <c r="E10" s="270"/>
+      <c r="F10" s="264"/>
+      <c r="G10" s="266"/>
+    </row>
+    <row r="11" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="253" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="251" t="s">
+      <c r="B11" s="255" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="253" t="s">
+      <c r="C11" s="257" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="254"/>
-      <c r="E11" s="255"/>
-      <c r="F11" s="251" t="s">
+      <c r="D11" s="258"/>
+      <c r="E11" s="259"/>
+      <c r="F11" s="255" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="256" t="s">
+      <c r="G11" s="260" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="250"/>
-      <c r="B12" s="252"/>
-      <c r="C12" s="112" t="s">
+    <row r="12" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="254"/>
+      <c r="B12" s="256"/>
+      <c r="C12" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="112" t="s">
+      <c r="D12" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="112" t="s">
+      <c r="E12" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="252"/>
-      <c r="G12" s="257"/>
-    </row>
-    <row r="13" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="113" t="s">
+      <c r="F12" s="256"/>
+      <c r="G12" s="261"/>
+    </row>
+    <row r="13" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="115">
+      <c r="C13" s="102">
         <v>17</v>
       </c>
-      <c r="D13" s="115">
+      <c r="D13" s="102">
         <v>18</v>
       </c>
-      <c r="E13" s="115">
+      <c r="E13" s="102">
         <v>20</v>
       </c>
-      <c r="F13" s="116" t="e">
+      <c r="F13" s="103" t="e">
         <f>Page1!D39</f>
         <v>#DIV/0!</v>
       </c>
@@ -6503,68 +6471,68 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="117" t="s">
+    <row r="14" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="118" t="s">
+      <c r="B14" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="119">
+      <c r="C14" s="106">
         <v>18</v>
       </c>
-      <c r="D14" s="119">
+      <c r="D14" s="106">
         <v>23</v>
       </c>
-      <c r="E14" s="119">
+      <c r="E14" s="106">
         <v>28</v>
       </c>
-      <c r="F14" s="120" t="e">
+      <c r="F14" s="107" t="e">
         <f>Page1!E39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="121" t="s">
+      <c r="G14" s="108" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="117" t="s">
+    <row r="15" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="118" t="s">
+      <c r="B15" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="119">
+      <c r="C15" s="106">
         <v>300</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="119" t="s">
+      <c r="E15" s="106" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="39" t="e">
         <f>Page1!K39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="267" t="s">
+      <c r="G15" s="271" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="117" t="s">
+    <row r="16" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="118" t="s">
+      <c r="B16" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="119">
+      <c r="C16" s="106">
         <v>300</v>
       </c>
-      <c r="D16" s="119" t="s">
+      <c r="D16" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="119" t="s">
+      <c r="E16" s="106" t="s">
         <v>39</v>
       </c>
       <c r="F16" s="39" t="e">
@@ -6573,20 +6541,20 @@
       </c>
       <c r="G16" s="227"/>
     </row>
-    <row r="17" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="117" t="s">
+    <row r="17" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="118" t="s">
+      <c r="B17" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="119">
+      <c r="C17" s="106">
         <v>900</v>
       </c>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="119">
+      <c r="E17" s="106">
         <v>1200</v>
       </c>
       <c r="F17" s="39" t="e">
@@ -6595,20 +6563,20 @@
       </c>
       <c r="G17" s="227"/>
     </row>
-    <row r="18" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="117" t="s">
+    <row r="18" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="119">
+      <c r="C18" s="106">
         <v>700</v>
       </c>
-      <c r="D18" s="119" t="s">
+      <c r="D18" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="119">
+      <c r="E18" s="106">
         <v>1000</v>
       </c>
       <c r="F18" s="39" t="e">
@@ -6617,20 +6585,20 @@
       </c>
       <c r="G18" s="227"/>
     </row>
-    <row r="19" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="117" t="s">
+    <row r="19" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="118" t="s">
+      <c r="B19" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="119">
+      <c r="C19" s="106">
         <v>350</v>
       </c>
-      <c r="D19" s="119" t="s">
+      <c r="D19" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="119" t="s">
+      <c r="E19" s="106" t="s">
         <v>39</v>
       </c>
       <c r="F19" s="39" t="e">
@@ -6639,20 +6607,20 @@
       </c>
       <c r="G19" s="227"/>
     </row>
-    <row r="20" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="117" t="s">
+    <row r="20" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="118" t="s">
+      <c r="B20" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="119">
+      <c r="C20" s="106">
         <v>400</v>
       </c>
-      <c r="D20" s="119" t="s">
+      <c r="D20" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="119" t="s">
+      <c r="E20" s="106" t="s">
         <v>39</v>
       </c>
       <c r="F20" s="39" t="e">
@@ -6661,11 +6629,11 @@
       </c>
       <c r="G20" s="227"/>
     </row>
-    <row r="21" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="117" t="s">
+    <row r="21" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="105" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="38">
@@ -6683,11 +6651,11 @@
       </c>
       <c r="G21" s="227"/>
     </row>
-    <row r="22" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="117" t="s">
+    <row r="22" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="118" t="s">
+      <c r="B22" s="105" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="38">
@@ -6703,13 +6671,13 @@
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="152"/>
-    </row>
-    <row r="23" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="117" t="s">
+      <c r="G22" s="155"/>
+    </row>
+    <row r="23" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="118" t="s">
+      <c r="B23" s="105" t="s">
         <v>81</v>
       </c>
       <c r="C23" s="39">
@@ -6725,18 +6693,18 @@
         <f>Page1!F39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="121" t="s">
+      <c r="G23" s="108" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="117" t="s">
+    <row r="24" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="118" t="s">
+      <c r="B24" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="119" t="s">
+      <c r="C24" s="106" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="39">
@@ -6744,215 +6712,215 @@
         <v>0</v>
       </c>
       <c r="E24" s="39">
-        <f>Page2!J9</f>
-        <v>210</v>
+        <f>Page2!J10</f>
+        <v>213</v>
       </c>
       <c r="F24" s="39" t="e">
         <f>Page2!I41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="121" t="s">
+      <c r="G24" s="108" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="117" t="s">
+    <row r="25" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="118" t="s">
+      <c r="B25" s="105" t="s">
         <v>87</v>
       </c>
       <c r="C25" s="39">
         <v>6000</v>
       </c>
-      <c r="D25" s="119" t="s">
+      <c r="D25" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="119" t="s">
+      <c r="E25" s="106" t="s">
         <v>39</v>
       </c>
       <c r="F25" s="39">
         <v>6000</v>
       </c>
-      <c r="G25" s="121" t="s">
+      <c r="G25" s="108" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="123" t="s">
+    <row r="26" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="124" t="s">
+      <c r="B26" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C26" s="56">
         <v>410</v>
       </c>
-      <c r="D26" s="57">
+      <c r="D26" s="56">
         <v>430</v>
       </c>
-      <c r="E26" s="125">
+      <c r="E26" s="112">
         <v>450</v>
       </c>
-      <c r="F26" s="125" t="e">
+      <c r="F26" s="112" t="e">
         <f>Page2!K41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="122" t="s">
+      <c r="G26" s="109" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="268" t="s">
+    <row r="27" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="272" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="269"/>
-      <c r="C27" s="269"/>
-      <c r="D27" s="269"/>
-      <c r="E27" s="269"/>
-      <c r="F27" s="269"/>
-      <c r="G27" s="270"/>
-    </row>
-    <row r="28" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="271" t="s">
+      <c r="B27" s="273"/>
+      <c r="C27" s="273"/>
+      <c r="D27" s="273"/>
+      <c r="E27" s="273"/>
+      <c r="F27" s="273"/>
+      <c r="G27" s="274"/>
+    </row>
+    <row r="28" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="275" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="272"/>
-      <c r="C28" s="273" t="s">
-        <v>128</v>
-      </c>
-      <c r="D28" s="274"/>
-      <c r="E28" s="275"/>
-      <c r="F28" s="126" t="s">
+      <c r="B28" s="276"/>
+      <c r="C28" s="277" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="278"/>
+      <c r="E28" s="279"/>
+      <c r="F28" s="113" t="s">
         <v>92</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="276" t="s">
+    <row r="29" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="280" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="245"/>
-      <c r="C29" s="277" t="s">
+      <c r="B29" s="246"/>
+      <c r="C29" s="281" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="278"/>
-      <c r="E29" s="279"/>
-      <c r="F29" s="80" t="s">
+      <c r="D29" s="282"/>
+      <c r="E29" s="283"/>
+      <c r="F29" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="121" t="s">
+      <c r="G29" s="108" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="276" t="s">
+    <row r="30" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="280" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="245"/>
-      <c r="C30" s="277" t="s">
+      <c r="B30" s="246"/>
+      <c r="C30" s="281" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="278"/>
-      <c r="E30" s="279"/>
-      <c r="F30" s="80" t="s">
+      <c r="D30" s="282"/>
+      <c r="E30" s="283"/>
+      <c r="F30" s="66" t="s">
         <v>92</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="276" t="s">
+    <row r="31" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="280" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="245"/>
-      <c r="C31" s="277" t="s">
+      <c r="B31" s="246"/>
+      <c r="C31" s="281" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="278"/>
-      <c r="E31" s="279"/>
-      <c r="F31" s="80" t="s">
+      <c r="D31" s="282"/>
+      <c r="E31" s="283"/>
+      <c r="F31" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G31" s="121" t="s">
+      <c r="G31" s="108" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="276" t="s">
+    <row r="32" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="280" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="245"/>
-      <c r="C32" s="277" t="s">
+      <c r="B32" s="246"/>
+      <c r="C32" s="281" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="278"/>
-      <c r="E32" s="279"/>
-      <c r="F32" s="80" t="s">
+      <c r="D32" s="282"/>
+      <c r="E32" s="283"/>
+      <c r="F32" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G32" s="121" t="s">
+      <c r="G32" s="108" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="276" t="s">
+    <row r="33" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="280" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="245"/>
-      <c r="C33" s="277" t="s">
+      <c r="B33" s="246"/>
+      <c r="C33" s="281" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="278"/>
-      <c r="E33" s="279"/>
-      <c r="F33" s="80" t="s">
+      <c r="D33" s="282"/>
+      <c r="E33" s="283"/>
+      <c r="F33" s="66" t="s">
         <v>92</v>
       </c>
       <c r="G33" s="19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="99" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="143" t="s">
+    <row r="34" spans="1:7" s="86" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="165" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="144"/>
-      <c r="C34" s="280" t="s">
+      <c r="B34" s="166"/>
+      <c r="C34" s="286" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="281"/>
-      <c r="E34" s="282"/>
-      <c r="F34" s="127" t="s">
+      <c r="D34" s="287"/>
+      <c r="E34" s="288"/>
+      <c r="F34" s="114" t="s">
         <v>92</v>
       </c>
       <c r="G34" s="19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="268" t="s">
+    <row r="35" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="272" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="269"/>
-      <c r="C35" s="269"/>
-      <c r="D35" s="269"/>
-      <c r="E35" s="269"/>
-      <c r="F35" s="269"/>
-      <c r="G35" s="270"/>
-    </row>
-    <row r="36" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="139" t="s">
+      <c r="B35" s="273"/>
+      <c r="C35" s="273"/>
+      <c r="D35" s="273"/>
+      <c r="E35" s="273"/>
+      <c r="F35" s="273"/>
+      <c r="G35" s="274"/>
+    </row>
+    <row r="36" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="161" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="140"/>
-      <c r="C36" s="286" t="s">
+      <c r="B36" s="162"/>
+      <c r="C36" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="287"/>
-      <c r="E36" s="140"/>
+      <c r="D36" s="285"/>
+      <c r="E36" s="162"/>
       <c r="F36" s="10" t="s">
         <v>92</v>
       </c>
@@ -6960,134 +6928,130 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="271" t="s">
+    <row r="37" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="275" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="272"/>
-      <c r="C37" s="244" t="s">
+      <c r="B37" s="276"/>
+      <c r="C37" s="245" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="283"/>
-      <c r="E37" s="245"/>
-      <c r="F37" s="119" t="s">
+      <c r="D37" s="289"/>
+      <c r="E37" s="246"/>
+      <c r="F37" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="121" t="s">
+      <c r="G37" s="108" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="276" t="s">
+    <row r="38" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="280" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="245"/>
-      <c r="C38" s="244" t="s">
+      <c r="B38" s="246"/>
+      <c r="C38" s="245" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="283"/>
-      <c r="E38" s="245"/>
-      <c r="F38" s="119" t="s">
+      <c r="D38" s="289"/>
+      <c r="E38" s="246"/>
+      <c r="F38" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="G38" s="121" t="s">
+      <c r="G38" s="108" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="143" t="s">
+    <row r="39" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="165" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="144"/>
-      <c r="C39" s="284" t="s">
+      <c r="B39" s="166"/>
+      <c r="C39" s="290" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="285"/>
-      <c r="E39" s="144"/>
+      <c r="D39" s="291"/>
+      <c r="E39" s="166"/>
       <c r="F39" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G39" s="122" t="s">
+      <c r="G39" s="109" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="296" t="s">
+    <row r="40" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="294" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="297"/>
-      <c r="C40" s="298" t="s">
+      <c r="B40" s="295"/>
+      <c r="C40" s="296" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="297"/>
+      <c r="E40" s="298"/>
+      <c r="F40" s="296" t="s">
         <v>138</v>
       </c>
-      <c r="D40" s="299"/>
-      <c r="E40" s="300"/>
-      <c r="F40" s="298" t="s">
+      <c r="G40" s="298"/>
+    </row>
+    <row r="41" spans="1:7" s="86" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="299"/>
+      <c r="B41" s="300"/>
+      <c r="C41" s="188"/>
+      <c r="D41" s="189"/>
+      <c r="E41" s="195"/>
+      <c r="F41" s="303"/>
+      <c r="G41" s="304"/>
+    </row>
+    <row r="42" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="301"/>
+      <c r="B42" s="302"/>
+      <c r="C42" s="305" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="306"/>
+      <c r="E42" s="307"/>
+      <c r="F42" s="305" t="s">
         <v>139</v>
       </c>
-      <c r="G40" s="300"/>
-    </row>
-    <row r="41" spans="1:7" s="99" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="301"/>
-      <c r="B41" s="302"/>
-      <c r="C41" s="199"/>
-      <c r="D41" s="200"/>
-      <c r="E41" s="183"/>
-      <c r="F41" s="305"/>
-      <c r="G41" s="306"/>
-    </row>
-    <row r="42" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="303"/>
-      <c r="B42" s="304"/>
-      <c r="C42" s="288" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="307"/>
-      <c r="E42" s="289"/>
-      <c r="F42" s="288" t="s">
-        <v>140</v>
-      </c>
-      <c r="G42" s="289"/>
+      <c r="G42" s="307"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="128"/>
-      <c r="B43" s="128"/>
-      <c r="C43" s="128"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="295"/>
-      <c r="F43" s="295"/>
-      <c r="G43" s="295"/>
+      <c r="A43" s="115"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="292"/>
+      <c r="F43" s="292"/>
+      <c r="G43" s="292"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="129"/>
-      <c r="C44" s="130"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="290"/>
-      <c r="F44" s="290"/>
-      <c r="G44" s="290"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="293"/>
+      <c r="F44" s="293"/>
+      <c r="G44" s="293"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="291" t="s">
+      <c r="A46" s="238" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="291"/>
+      <c r="B46" s="238"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="291" t="s">
+      <c r="A47" s="238" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="291"/>
+      <c r="B47" s="238"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="E43:G43"/>
     <mergeCell ref="E44:G44"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="E43:G43"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="C40:E40"/>
     <mergeCell ref="F40:G40"/>
@@ -7095,6 +7059,7 @@
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="A38:B38"/>
@@ -7114,22 +7079,18 @@
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="A35:G35"/>
-    <mergeCell ref="G15:G22"/>
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:E29"/>
-    <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:E10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G15:G22"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:G5"/>
@@ -7137,9 +7098,16 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.78740157480314965" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/backend/templates/UC-18gsm-210W-BFQR.xlsx
+++ b/backend/templates/UC-18gsm-210W-BFQR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7910EA4C-972A-4E33-A4A4-2BEF7EB76D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC999A6-C07F-43C6-867A-BC228902F6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1446,7 +1446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1869,6 +1869,81 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1884,13 +1959,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1926,90 +1995,144 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2030,136 +2153,16 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2198,6 +2201,153 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2219,18 +2369,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2269,261 +2410,1511 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+  <dxfs count="166">
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike/>
+        <u val="none"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike/>
+        <u val="none"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike/>
+        <u val="none"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike/>
+        <u val="none"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike/>
+        <u val="none"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike/>
+        <u val="none"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike/>
+        <u val="none"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike/>
+        <u val="none"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3050,7 +4441,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3064,35 +4455,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -3113,12 +4504,12 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="162"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="164"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="147"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -3130,19 +4521,19 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="156"/>
-      <c r="K4" s="157"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="140"/>
       <c r="M4" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="166"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="168"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="151"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -3154,64 +4545,64 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="158"/>
-      <c r="K5" s="159"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="142"/>
     </row>
     <row r="6" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="157" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="136"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="159"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="G6" s="152"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="154"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="136"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138" t="s">
+      <c r="A7" s="160" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="138" t="s">
+      <c r="E7" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="138" t="s">
+      <c r="F7" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="169" t="s">
+      <c r="G7" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="169" t="s">
+      <c r="H7" s="152" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="138" t="s">
+      <c r="I7" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="138"/>
-      <c r="K7" s="155"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="138"/>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="139"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140" t="s">
+      <c r="A8" s="161"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="140"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3613,11 +5004,11 @@
       <c r="K38" s="28"/>
     </row>
     <row r="39" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="147" t="s">
+      <c r="A39" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="148"/>
-      <c r="C39" s="149"/>
+      <c r="B39" s="169"/>
+      <c r="C39" s="170"/>
       <c r="D39" s="35" t="e">
         <f t="shared" ref="D39:K39" si="0">AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -3652,11 +5043,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="144" t="s">
+      <c r="A40" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="145"/>
-      <c r="C40" s="146"/>
+      <c r="B40" s="166"/>
+      <c r="C40" s="167"/>
       <c r="D40" s="38">
         <f t="shared" ref="D40:K40" si="1">MIN(D9:D38)</f>
         <v>0</v>
@@ -3691,11 +5082,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="141" t="s">
+      <c r="A41" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="142"/>
-      <c r="C41" s="143"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="164"/>
       <c r="D41" s="41">
         <f t="shared" ref="D41:K41" si="2">MAX(D9:D38)</f>
         <v>0</v>
@@ -3736,8 +5127,8 @@
       <c r="A42" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="150"/>
-      <c r="C42" s="150"/>
+      <c r="B42" s="171"/>
+      <c r="C42" s="171"/>
       <c r="D42" s="44" t="s">
         <v>22</v>
       </c>
@@ -3754,8 +5145,8 @@
     </row>
     <row r="43" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50"/>
-      <c r="B43" s="151"/>
-      <c r="C43" s="151"/>
+      <c r="B43" s="172"/>
+      <c r="C43" s="172"/>
       <c r="D43" s="44"/>
       <c r="F43" s="46"/>
       <c r="G43" s="47"/>
@@ -3764,11 +5155,11 @@
       <c r="J43" s="51"/>
     </row>
     <row r="44" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="133" t="s">
+      <c r="A44" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="133"/>
-      <c r="C44" s="133"/>
+      <c r="B44" s="156"/>
+      <c r="C44" s="156"/>
       <c r="D44" s="44"/>
       <c r="E44" s="44"/>
       <c r="F44" s="47" t="s">
@@ -3780,11 +5171,11 @@
       <c r="H44" s="44"/>
     </row>
     <row r="45" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="133" t="s">
+      <c r="A45" s="156" t="s">
         <v>133</v>
       </c>
-      <c r="B45" s="133"/>
-      <c r="C45" s="133"/>
+      <c r="B45" s="156"/>
+      <c r="C45" s="156"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="44"/>
@@ -3826,6 +5217,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="J4:K4"/>
@@ -3842,76 +5242,51 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D9:D41">
-    <cfRule type="cellIs" dxfId="24" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="13" operator="notBetween">
+      <formula>17</formula>
       <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="14" operator="lessThan">
-      <formula>17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E41">
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="11" operator="notBetween">
+      <formula>18</formula>
       <formula>28</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="lessThan">
-      <formula>18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F41">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="9" operator="notBetween">
+      <formula>360</formula>
       <formula>400</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="lessThan">
-      <formula>360</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G41">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="7" operator="notBetween">
+      <formula>0.3</formula>
       <formula>0.6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="lessThan">
-      <formula>0.3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H38">
-    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="notBetween">
-      <formula>0.6</formula>
-      <formula>1.4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="89" priority="1" stopIfTrue="1" operator="notBetween">
       <formula>0.6</formula>
       <formula>1.4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I41">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="5" operator="notBetween">
+      <formula>900</formula>
       <formula>1200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="lessThan">
-      <formula>900</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:J41">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="4" operator="lessThan">
       <formula>350</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:K41">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="3" operator="lessThan">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3927,8 +5302,8 @@
   </sheetPr>
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15:J15"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3939,35 +5314,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -3988,18 +5363,18 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="162">
+      <c r="B4" s="145">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="219">
+      <c r="C4" s="177">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="208"/>
+      <c r="D4" s="178"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -4017,25 +5392,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="220">
+      <c r="J4" s="179">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="221"/>
+      <c r="K4" s="180"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="166">
+      <c r="B5" s="149">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="167">
+      <c r="C5" s="150">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="168"/>
+      <c r="D5" s="151"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -4053,104 +5428,104 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="184">
+      <c r="J5" s="195">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="185"/>
+      <c r="K5" s="196"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="204" t="s">
+      <c r="A6" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="205"/>
-      <c r="C6" s="206"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="203"/>
-      <c r="G6" s="190"/>
-      <c r="H6" s="203"/>
-      <c r="I6" s="201"/>
-      <c r="J6" s="202"/>
+      <c r="B6" s="214"/>
+      <c r="C6" s="215"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="185"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="212"/>
       <c r="K6" s="55"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="186" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="187"/>
-      <c r="C7" s="187"/>
-      <c r="D7" s="207" t="s">
+      <c r="A7" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="198"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="216" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="187"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="190" t="s">
+      <c r="E7" s="198"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="185" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="187"/>
-      <c r="I7" s="190" t="s">
+      <c r="H7" s="198"/>
+      <c r="I7" s="185" t="s">
         <v>135</v>
       </c>
-      <c r="J7" s="203"/>
-      <c r="K7" s="194" t="s">
+      <c r="J7" s="186"/>
+      <c r="K7" s="204" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="188"/>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="188" t="s">
+      <c r="A8" s="199"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="198" t="s">
+      <c r="E8" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="199" t="s">
+      <c r="F8" s="209" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="191"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="191" t="s">
+      <c r="G8" s="201"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="201" t="s">
         <v>136</v>
       </c>
-      <c r="J8" s="199"/>
-      <c r="K8" s="195"/>
+      <c r="J8" s="209"/>
+      <c r="K8" s="205"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="188"/>
-      <c r="B9" s="189"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="188"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="199"/>
-      <c r="G9" s="191"/>
-      <c r="H9" s="189"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="200"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="209"/>
+      <c r="G9" s="201"/>
+      <c r="H9" s="200"/>
       <c r="I9" s="57" t="s">
         <v>123</v>
       </c>
       <c r="J9" s="58">
         <v>210</v>
       </c>
-      <c r="K9" s="195"/>
+      <c r="K9" s="205"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="188"/>
-      <c r="B10" s="189"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="197"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="200"/>
-      <c r="G10" s="192"/>
-      <c r="H10" s="193"/>
+      <c r="A10" s="199"/>
+      <c r="B10" s="200"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="207"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="210"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="203"/>
       <c r="I10" s="59" t="s">
         <v>124</v>
       </c>
       <c r="J10" s="60">
         <v>213</v>
       </c>
-      <c r="K10" s="196"/>
+      <c r="K10" s="206"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="120">
@@ -4168,10 +5543,10 @@
       <c r="D11" s="61"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="211"/>
-      <c r="H11" s="211"/>
-      <c r="I11" s="222"/>
-      <c r="J11" s="223"/>
+      <c r="G11" s="194"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="181"/>
+      <c r="J11" s="182"/>
       <c r="K11" s="62"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4190,10 +5565,10 @@
       <c r="D12" s="63"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="212"/>
-      <c r="H12" s="212"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="175"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="183"/>
+      <c r="J12" s="184"/>
       <c r="K12" s="64"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4212,10 +5587,10 @@
       <c r="D13" s="63"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="212"/>
-      <c r="H13" s="212"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="175"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="183"/>
+      <c r="J13" s="184"/>
       <c r="K13" s="64"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4234,10 +5609,10 @@
       <c r="D14" s="63"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="212"/>
-      <c r="H14" s="212"/>
-      <c r="I14" s="174"/>
-      <c r="J14" s="175"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="183"/>
+      <c r="J14" s="184"/>
       <c r="K14" s="64"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4256,10 +5631,10 @@
       <c r="D15" s="63"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="212"/>
-      <c r="H15" s="212"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="175"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="183"/>
+      <c r="J15" s="184"/>
       <c r="K15" s="64"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4278,10 +5653,10 @@
       <c r="D16" s="61"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="211"/>
-      <c r="H16" s="211"/>
-      <c r="I16" s="174"/>
-      <c r="J16" s="175"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="183"/>
+      <c r="J16" s="184"/>
       <c r="K16" s="62"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4300,10 +5675,10 @@
       <c r="D17" s="63"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="175"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="183"/>
+      <c r="J17" s="184"/>
       <c r="K17" s="64"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4322,10 +5697,10 @@
       <c r="D18" s="63"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="212"/>
-      <c r="H18" s="212"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="175"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="184"/>
       <c r="K18" s="64"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4344,10 +5719,10 @@
       <c r="D19" s="63"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="212"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="175"/>
+      <c r="G19" s="193"/>
+      <c r="H19" s="193"/>
+      <c r="I19" s="183"/>
+      <c r="J19" s="184"/>
       <c r="K19" s="64"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4366,10 +5741,10 @@
       <c r="D20" s="63"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="209"/>
-      <c r="H20" s="210"/>
-      <c r="I20" s="174"/>
-      <c r="J20" s="175"/>
+      <c r="G20" s="189"/>
+      <c r="H20" s="190"/>
+      <c r="I20" s="183"/>
+      <c r="J20" s="184"/>
       <c r="K20" s="64"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4388,10 +5763,10 @@
       <c r="D21" s="63"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="209"/>
-      <c r="H21" s="210"/>
-      <c r="I21" s="174"/>
-      <c r="J21" s="175"/>
+      <c r="G21" s="189"/>
+      <c r="H21" s="190"/>
+      <c r="I21" s="183"/>
+      <c r="J21" s="184"/>
       <c r="K21" s="64"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4410,10 +5785,10 @@
       <c r="D22" s="63"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="209"/>
-      <c r="H22" s="210"/>
-      <c r="I22" s="174"/>
-      <c r="J22" s="175"/>
+      <c r="G22" s="189"/>
+      <c r="H22" s="190"/>
+      <c r="I22" s="183"/>
+      <c r="J22" s="184"/>
       <c r="K22" s="64"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4432,10 +5807,10 @@
       <c r="D23" s="63"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="209"/>
-      <c r="H23" s="210"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="175"/>
+      <c r="G23" s="189"/>
+      <c r="H23" s="190"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="184"/>
       <c r="K23" s="64"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4454,10 +5829,10 @@
       <c r="D24" s="63"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="209"/>
-      <c r="H24" s="210"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="175"/>
+      <c r="G24" s="189"/>
+      <c r="H24" s="190"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="184"/>
       <c r="K24" s="64"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4476,10 +5851,10 @@
       <c r="D25" s="63"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="209"/>
-      <c r="H25" s="210"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="175"/>
+      <c r="G25" s="189"/>
+      <c r="H25" s="190"/>
+      <c r="I25" s="183"/>
+      <c r="J25" s="184"/>
       <c r="K25" s="64"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4498,10 +5873,10 @@
       <c r="D26" s="63"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="209"/>
-      <c r="H26" s="210"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="175"/>
+      <c r="G26" s="189"/>
+      <c r="H26" s="190"/>
+      <c r="I26" s="183"/>
+      <c r="J26" s="184"/>
       <c r="K26" s="64"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4520,10 +5895,10 @@
       <c r="D27" s="63"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="209"/>
-      <c r="H27" s="210"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="175"/>
+      <c r="G27" s="189"/>
+      <c r="H27" s="190"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="184"/>
       <c r="K27" s="64"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4542,10 +5917,10 @@
       <c r="D28" s="63"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="209"/>
-      <c r="H28" s="210"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="175"/>
+      <c r="G28" s="189"/>
+      <c r="H28" s="190"/>
+      <c r="I28" s="183"/>
+      <c r="J28" s="184"/>
       <c r="K28" s="64"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4564,10 +5939,10 @@
       <c r="D29" s="63"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="209"/>
-      <c r="H29" s="210"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="175"/>
+      <c r="G29" s="189"/>
+      <c r="H29" s="190"/>
+      <c r="I29" s="183"/>
+      <c r="J29" s="184"/>
       <c r="K29" s="64"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4586,10 +5961,10 @@
       <c r="D30" s="63"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="209"/>
-      <c r="H30" s="210"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="175"/>
+      <c r="G30" s="189"/>
+      <c r="H30" s="190"/>
+      <c r="I30" s="183"/>
+      <c r="J30" s="184"/>
       <c r="K30" s="64"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4608,10 +5983,10 @@
       <c r="D31" s="63"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="209"/>
-      <c r="H31" s="210"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="175"/>
+      <c r="G31" s="189"/>
+      <c r="H31" s="190"/>
+      <c r="I31" s="183"/>
+      <c r="J31" s="184"/>
       <c r="K31" s="64"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4630,10 +6005,10 @@
       <c r="D32" s="63"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="209"/>
-      <c r="H32" s="210"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="175"/>
+      <c r="G32" s="189"/>
+      <c r="H32" s="190"/>
+      <c r="I32" s="183"/>
+      <c r="J32" s="184"/>
       <c r="K32" s="64"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4652,10 +6027,10 @@
       <c r="D33" s="63"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="209"/>
-      <c r="H33" s="210"/>
-      <c r="I33" s="174"/>
-      <c r="J33" s="175"/>
+      <c r="G33" s="189"/>
+      <c r="H33" s="190"/>
+      <c r="I33" s="183"/>
+      <c r="J33" s="184"/>
       <c r="K33" s="64"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4674,10 +6049,10 @@
       <c r="D34" s="63"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
-      <c r="G34" s="209"/>
-      <c r="H34" s="210"/>
-      <c r="I34" s="174"/>
-      <c r="J34" s="175"/>
+      <c r="G34" s="189"/>
+      <c r="H34" s="190"/>
+      <c r="I34" s="183"/>
+      <c r="J34" s="184"/>
       <c r="K34" s="64"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4696,10 +6071,10 @@
       <c r="D35" s="63"/>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="209"/>
-      <c r="H35" s="210"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="175"/>
+      <c r="G35" s="189"/>
+      <c r="H35" s="190"/>
+      <c r="I35" s="183"/>
+      <c r="J35" s="184"/>
       <c r="K35" s="64"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4718,10 +6093,10 @@
       <c r="D36" s="63"/>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="209"/>
-      <c r="H36" s="210"/>
-      <c r="I36" s="174"/>
-      <c r="J36" s="175"/>
+      <c r="G36" s="189"/>
+      <c r="H36" s="190"/>
+      <c r="I36" s="183"/>
+      <c r="J36" s="184"/>
       <c r="K36" s="64"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4740,10 +6115,10 @@
       <c r="D37" s="63"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="209"/>
-      <c r="H37" s="210"/>
-      <c r="I37" s="174"/>
-      <c r="J37" s="175"/>
+      <c r="G37" s="189"/>
+      <c r="H37" s="190"/>
+      <c r="I37" s="183"/>
+      <c r="J37" s="184"/>
       <c r="K37" s="64"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4762,10 +6137,10 @@
       <c r="D38" s="63"/>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="209"/>
-      <c r="H38" s="210"/>
-      <c r="I38" s="174"/>
-      <c r="J38" s="175"/>
+      <c r="G38" s="189"/>
+      <c r="H38" s="190"/>
+      <c r="I38" s="183"/>
+      <c r="J38" s="184"/>
       <c r="K38" s="64"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4784,10 +6159,10 @@
       <c r="D39" s="63"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="209"/>
-      <c r="H39" s="210"/>
-      <c r="I39" s="174"/>
-      <c r="J39" s="175"/>
+      <c r="G39" s="189"/>
+      <c r="H39" s="190"/>
+      <c r="I39" s="183"/>
+      <c r="J39" s="184"/>
       <c r="K39" s="64"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4806,18 +6181,18 @@
       <c r="D40" s="63"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
-      <c r="G40" s="212"/>
-      <c r="H40" s="212"/>
-      <c r="I40" s="174"/>
-      <c r="J40" s="175"/>
+      <c r="G40" s="193"/>
+      <c r="H40" s="193"/>
+      <c r="I40" s="183"/>
+      <c r="J40" s="184"/>
       <c r="K40" s="64"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="215" t="s">
+      <c r="A41" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="216"/>
-      <c r="C41" s="216"/>
+      <c r="B41" s="174"/>
+      <c r="C41" s="174"/>
       <c r="D41" s="65" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
@@ -4830,27 +6205,27 @@
         <f>AVERAGE(F11:F40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="213" t="e">
+      <c r="G41" s="191" t="e">
         <f>AVERAGE(G11:H40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="214"/>
-      <c r="I41" s="176" t="e">
+      <c r="H41" s="192"/>
+      <c r="I41" s="225" t="e">
         <f>AVERAGE(I11:J40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="177"/>
+      <c r="J41" s="226"/>
       <c r="K41" s="37" t="e">
         <f>AVERAGE(K11:K40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="217" t="s">
+      <c r="A42" s="175" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="218"/>
-      <c r="C42" s="218"/>
+      <c r="B42" s="176"/>
+      <c r="C42" s="176"/>
       <c r="D42" s="66">
         <f>MIN(D11:D40)</f>
         <v>0</v>
@@ -4863,27 +6238,27 @@
         <f>MIN(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="224">
+      <c r="G42" s="187">
         <f>MIN(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="225"/>
-      <c r="I42" s="172">
+      <c r="H42" s="188"/>
+      <c r="I42" s="223">
         <f>MIN(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="173"/>
+      <c r="J42" s="224"/>
       <c r="K42" s="40">
         <f>MIN(K11:K40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="182" t="s">
+      <c r="A43" s="221" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="183"/>
-      <c r="C43" s="183"/>
+      <c r="B43" s="222"/>
+      <c r="C43" s="222"/>
       <c r="D43" s="67">
         <f>MAX(D11:D40)</f>
         <v>0</v>
@@ -4896,16 +6271,16 @@
         <f>MAX(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="178">
+      <c r="G43" s="217">
         <f>MAX(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="179"/>
-      <c r="I43" s="180">
+      <c r="H43" s="218"/>
+      <c r="I43" s="219">
         <f>MAX(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="181"/>
+      <c r="J43" s="220"/>
       <c r="K43" s="69">
         <f>MAX(K11:K40)</f>
         <v>0</v>
@@ -4915,8 +6290,8 @@
       <c r="A44" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="150"/>
-      <c r="C44" s="150"/>
+      <c r="B44" s="171"/>
+      <c r="C44" s="171"/>
       <c r="D44" s="44" t="s">
         <v>22</v>
       </c>
@@ -4933,8 +6308,8 @@
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
-      <c r="B45" s="151"/>
-      <c r="C45" s="151"/>
+      <c r="B45" s="172"/>
+      <c r="C45" s="172"/>
       <c r="D45" s="44"/>
       <c r="F45" s="46"/>
       <c r="G45" s="47"/>
@@ -4943,11 +6318,11 @@
       <c r="J45" s="51"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="133" t="s">
+      <c r="A46" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="133"/>
-      <c r="C46" s="133"/>
+      <c r="B46" s="156"/>
+      <c r="C46" s="156"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="47" t="s">
@@ -4960,11 +6335,11 @@
       <c r="H46" s="44"/>
     </row>
     <row r="47" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="133" t="s">
+      <c r="A47" s="156" t="s">
         <v>133</v>
       </c>
-      <c r="B47" s="133"/>
-      <c r="C47" s="133"/>
+      <c r="B47" s="156"/>
+      <c r="C47" s="156"/>
       <c r="D47" s="44"/>
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
@@ -5019,6 +6394,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A7:C10"/>
+    <mergeCell ref="G7:H10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A5:B5"/>
@@ -5035,118 +6488,40 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A7:C10"/>
-    <mergeCell ref="G7:H10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D11:D43">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="8" operator="notBetween">
+      <formula>700</formula>
       <formula>1000</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="lessThan">
-      <formula>700</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E43">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="7" operator="lessThan">
       <formula>400</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F43">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="lessThan">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:H19 G20:G39 G40:H43">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThan">
-      <formula>60</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
-      <formula>50</formula>
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="notBetween">
+      <formula>45</formula>
+      <formula>55</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K43">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="notBetween">
+      <formula>410</formula>
       <formula>450</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
-      <formula>410</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:J43">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="notBetween">
+      <formula>210</formula>
+      <formula>213</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.11811023622047245" bottom="0.11811023622047245" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5162,7 +6537,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5173,35 +6548,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -5222,18 +6597,18 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="162">
+      <c r="B4" s="145">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="219">
+      <c r="C4" s="177">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="208"/>
+      <c r="D4" s="178"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -5251,25 +6626,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="220">
+      <c r="J4" s="179">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="221"/>
+      <c r="K4" s="180"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="166">
+      <c r="B5" s="149">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="167">
+      <c r="C5" s="150">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="168"/>
+      <c r="D5" s="151"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -5287,79 +6662,79 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="184">
+      <c r="J5" s="195">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="185"/>
+      <c r="K5" s="196"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="229" t="s">
+      <c r="A6" s="230" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="230"/>
-      <c r="C6" s="231"/>
-      <c r="D6" s="232"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="171"/>
+      <c r="B6" s="231"/>
+      <c r="C6" s="232"/>
+      <c r="D6" s="233"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="155"/>
       <c r="H6" s="71"/>
-      <c r="I6" s="186"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="194"/>
+      <c r="I6" s="197"/>
+      <c r="J6" s="198"/>
+      <c r="K6" s="204"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="186" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="187"/>
-      <c r="C7" s="187"/>
-      <c r="D7" s="207" t="s">
+      <c r="A7" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="198"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="233"/>
-      <c r="F7" s="233"/>
-      <c r="G7" s="208"/>
-      <c r="H7" s="226" t="s">
+      <c r="E7" s="234"/>
+      <c r="F7" s="234"/>
+      <c r="G7" s="178"/>
+      <c r="H7" s="227" t="s">
         <v>126</v>
       </c>
-      <c r="I7" s="188"/>
-      <c r="J7" s="189"/>
-      <c r="K7" s="195"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="205"/>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="188"/>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="236" t="s">
+      <c r="A8" s="199"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="237" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="198" t="s">
+      <c r="E8" s="208" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="198" t="s">
+      <c r="F8" s="208" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="198" t="s">
+      <c r="G8" s="208" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="227"/>
-      <c r="I8" s="188"/>
-      <c r="J8" s="189"/>
-      <c r="K8" s="195"/>
+      <c r="H8" s="228"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="200"/>
+      <c r="K8" s="205"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="188"/>
-      <c r="B9" s="189"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="237"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="228"/>
-      <c r="I9" s="188"/>
-      <c r="J9" s="189"/>
-      <c r="K9" s="195"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="200"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="238"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="229"/>
+      <c r="I9" s="199"/>
+      <c r="J9" s="200"/>
+      <c r="K9" s="205"/>
     </row>
     <row r="10" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="120">
@@ -5379,9 +6754,9 @@
       <c r="F10" s="23"/>
       <c r="G10" s="73"/>
       <c r="H10" s="74"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="189"/>
-      <c r="K10" s="195"/>
+      <c r="I10" s="199"/>
+      <c r="J10" s="200"/>
+      <c r="K10" s="205"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="123">
@@ -5401,9 +6776,9 @@
       <c r="F11" s="26"/>
       <c r="G11" s="76"/>
       <c r="H11" s="77"/>
-      <c r="I11" s="188"/>
-      <c r="J11" s="189"/>
-      <c r="K11" s="195"/>
+      <c r="I11" s="199"/>
+      <c r="J11" s="200"/>
+      <c r="K11" s="205"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="123">
@@ -5423,9 +6798,9 @@
       <c r="F12" s="26"/>
       <c r="G12" s="76"/>
       <c r="H12" s="77"/>
-      <c r="I12" s="188"/>
-      <c r="J12" s="189"/>
-      <c r="K12" s="195"/>
+      <c r="I12" s="199"/>
+      <c r="J12" s="200"/>
+      <c r="K12" s="205"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="123">
@@ -5445,9 +6820,9 @@
       <c r="F13" s="23"/>
       <c r="G13" s="73"/>
       <c r="H13" s="77"/>
-      <c r="I13" s="188"/>
-      <c r="J13" s="189"/>
-      <c r="K13" s="195"/>
+      <c r="I13" s="199"/>
+      <c r="J13" s="200"/>
+      <c r="K13" s="205"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="123">
@@ -5467,9 +6842,9 @@
       <c r="F14" s="26"/>
       <c r="G14" s="76"/>
       <c r="H14" s="77"/>
-      <c r="I14" s="188"/>
-      <c r="J14" s="189"/>
-      <c r="K14" s="195"/>
+      <c r="I14" s="199"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="205"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="123">
@@ -5489,9 +6864,9 @@
       <c r="F15" s="26"/>
       <c r="G15" s="76"/>
       <c r="H15" s="77"/>
-      <c r="I15" s="188"/>
-      <c r="J15" s="189"/>
-      <c r="K15" s="195"/>
+      <c r="I15" s="199"/>
+      <c r="J15" s="200"/>
+      <c r="K15" s="205"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="123">
@@ -5511,9 +6886,9 @@
       <c r="F16" s="26"/>
       <c r="G16" s="76"/>
       <c r="H16" s="77"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="189"/>
-      <c r="K16" s="195"/>
+      <c r="I16" s="199"/>
+      <c r="J16" s="200"/>
+      <c r="K16" s="205"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="123">
@@ -5533,9 +6908,9 @@
       <c r="F17" s="26"/>
       <c r="G17" s="76"/>
       <c r="H17" s="77"/>
-      <c r="I17" s="188"/>
-      <c r="J17" s="189"/>
-      <c r="K17" s="195"/>
+      <c r="I17" s="199"/>
+      <c r="J17" s="200"/>
+      <c r="K17" s="205"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="123">
@@ -5555,9 +6930,9 @@
       <c r="F18" s="26"/>
       <c r="G18" s="76"/>
       <c r="H18" s="77"/>
-      <c r="I18" s="188"/>
-      <c r="J18" s="189"/>
-      <c r="K18" s="195"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="200"/>
+      <c r="K18" s="205"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="123">
@@ -5577,9 +6952,9 @@
       <c r="F19" s="26"/>
       <c r="G19" s="76"/>
       <c r="H19" s="77"/>
-      <c r="I19" s="188"/>
-      <c r="J19" s="189"/>
-      <c r="K19" s="195"/>
+      <c r="I19" s="199"/>
+      <c r="J19" s="200"/>
+      <c r="K19" s="205"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="129">
@@ -5599,9 +6974,9 @@
       <c r="F20" s="26"/>
       <c r="G20" s="76"/>
       <c r="H20" s="77"/>
-      <c r="I20" s="188"/>
-      <c r="J20" s="189"/>
-      <c r="K20" s="195"/>
+      <c r="I20" s="199"/>
+      <c r="J20" s="200"/>
+      <c r="K20" s="205"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="123">
@@ -5621,9 +6996,9 @@
       <c r="F21" s="26"/>
       <c r="G21" s="76"/>
       <c r="H21" s="77"/>
-      <c r="I21" s="188"/>
-      <c r="J21" s="189"/>
-      <c r="K21" s="195"/>
+      <c r="I21" s="199"/>
+      <c r="J21" s="200"/>
+      <c r="K21" s="205"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="123">
@@ -5643,9 +7018,9 @@
       <c r="F22" s="26"/>
       <c r="G22" s="76"/>
       <c r="H22" s="77"/>
-      <c r="I22" s="188"/>
-      <c r="J22" s="189"/>
-      <c r="K22" s="195"/>
+      <c r="I22" s="199"/>
+      <c r="J22" s="200"/>
+      <c r="K22" s="205"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="123">
@@ -5665,9 +7040,9 @@
       <c r="F23" s="26"/>
       <c r="G23" s="76"/>
       <c r="H23" s="77"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="189"/>
-      <c r="K23" s="195"/>
+      <c r="I23" s="199"/>
+      <c r="J23" s="200"/>
+      <c r="K23" s="205"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="123">
@@ -5687,9 +7062,9 @@
       <c r="F24" s="26"/>
       <c r="G24" s="76"/>
       <c r="H24" s="77"/>
-      <c r="I24" s="188"/>
-      <c r="J24" s="189"/>
-      <c r="K24" s="195"/>
+      <c r="I24" s="199"/>
+      <c r="J24" s="200"/>
+      <c r="K24" s="205"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="123">
@@ -5709,9 +7084,9 @@
       <c r="F25" s="26"/>
       <c r="G25" s="76"/>
       <c r="H25" s="77"/>
-      <c r="I25" s="188"/>
-      <c r="J25" s="189"/>
-      <c r="K25" s="195"/>
+      <c r="I25" s="199"/>
+      <c r="J25" s="200"/>
+      <c r="K25" s="205"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="123">
@@ -5731,9 +7106,9 @@
       <c r="F26" s="26"/>
       <c r="G26" s="76"/>
       <c r="H26" s="77"/>
-      <c r="I26" s="188"/>
-      <c r="J26" s="189"/>
-      <c r="K26" s="195"/>
+      <c r="I26" s="199"/>
+      <c r="J26" s="200"/>
+      <c r="K26" s="205"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="123">
@@ -5753,9 +7128,9 @@
       <c r="F27" s="26"/>
       <c r="G27" s="76"/>
       <c r="H27" s="77"/>
-      <c r="I27" s="188"/>
-      <c r="J27" s="189"/>
-      <c r="K27" s="195"/>
+      <c r="I27" s="199"/>
+      <c r="J27" s="200"/>
+      <c r="K27" s="205"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="123">
@@ -5775,9 +7150,9 @@
       <c r="F28" s="26"/>
       <c r="G28" s="76"/>
       <c r="H28" s="77"/>
-      <c r="I28" s="188"/>
-      <c r="J28" s="189"/>
-      <c r="K28" s="195"/>
+      <c r="I28" s="199"/>
+      <c r="J28" s="200"/>
+      <c r="K28" s="205"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="123">
@@ -5797,9 +7172,9 @@
       <c r="F29" s="26"/>
       <c r="G29" s="76"/>
       <c r="H29" s="77"/>
-      <c r="I29" s="188"/>
-      <c r="J29" s="189"/>
-      <c r="K29" s="195"/>
+      <c r="I29" s="199"/>
+      <c r="J29" s="200"/>
+      <c r="K29" s="205"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="129">
@@ -5819,9 +7194,9 @@
       <c r="F30" s="26"/>
       <c r="G30" s="76"/>
       <c r="H30" s="77"/>
-      <c r="I30" s="188"/>
-      <c r="J30" s="189"/>
-      <c r="K30" s="195"/>
+      <c r="I30" s="199"/>
+      <c r="J30" s="200"/>
+      <c r="K30" s="205"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="123">
@@ -5841,9 +7216,9 @@
       <c r="F31" s="26"/>
       <c r="G31" s="76"/>
       <c r="H31" s="77"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="189"/>
-      <c r="K31" s="195"/>
+      <c r="I31" s="199"/>
+      <c r="J31" s="200"/>
+      <c r="K31" s="205"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="123">
@@ -5863,9 +7238,9 @@
       <c r="F32" s="26"/>
       <c r="G32" s="76"/>
       <c r="H32" s="77"/>
-      <c r="I32" s="188"/>
-      <c r="J32" s="189"/>
-      <c r="K32" s="195"/>
+      <c r="I32" s="199"/>
+      <c r="J32" s="200"/>
+      <c r="K32" s="205"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="123">
@@ -5885,9 +7260,9 @@
       <c r="F33" s="26"/>
       <c r="G33" s="76"/>
       <c r="H33" s="77"/>
-      <c r="I33" s="188"/>
-      <c r="J33" s="189"/>
-      <c r="K33" s="195"/>
+      <c r="I33" s="199"/>
+      <c r="J33" s="200"/>
+      <c r="K33" s="205"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="123">
@@ -5907,9 +7282,9 @@
       <c r="F34" s="26"/>
       <c r="G34" s="76"/>
       <c r="H34" s="77"/>
-      <c r="I34" s="188"/>
-      <c r="J34" s="189"/>
-      <c r="K34" s="195"/>
+      <c r="I34" s="199"/>
+      <c r="J34" s="200"/>
+      <c r="K34" s="205"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="123">
@@ -5929,9 +7304,9 @@
       <c r="F35" s="26"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
-      <c r="I35" s="188"/>
-      <c r="J35" s="189"/>
-      <c r="K35" s="195"/>
+      <c r="I35" s="199"/>
+      <c r="J35" s="200"/>
+      <c r="K35" s="205"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="123">
@@ -5951,9 +7326,9 @@
       <c r="F36" s="26"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
-      <c r="I36" s="188"/>
-      <c r="J36" s="189"/>
-      <c r="K36" s="195"/>
+      <c r="I36" s="199"/>
+      <c r="J36" s="200"/>
+      <c r="K36" s="205"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="123">
@@ -5973,9 +7348,9 @@
       <c r="F37" s="26"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
-      <c r="I37" s="188"/>
-      <c r="J37" s="189"/>
-      <c r="K37" s="195"/>
+      <c r="I37" s="199"/>
+      <c r="J37" s="200"/>
+      <c r="K37" s="205"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="123">
@@ -5995,9 +7370,9 @@
       <c r="F38" s="26"/>
       <c r="G38" s="76"/>
       <c r="H38" s="77"/>
-      <c r="I38" s="188"/>
-      <c r="J38" s="189"/>
-      <c r="K38" s="195"/>
+      <c r="I38" s="199"/>
+      <c r="J38" s="200"/>
+      <c r="K38" s="205"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="130">
@@ -6017,16 +7392,16 @@
       <c r="F39" s="26"/>
       <c r="G39" s="76"/>
       <c r="H39" s="77"/>
-      <c r="I39" s="188"/>
-      <c r="J39" s="189"/>
-      <c r="K39" s="195"/>
+      <c r="I39" s="199"/>
+      <c r="J39" s="200"/>
+      <c r="K39" s="205"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="234" t="s">
+      <c r="A40" s="235" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="235"/>
-      <c r="C40" s="235"/>
+      <c r="B40" s="236"/>
+      <c r="C40" s="236"/>
       <c r="D40" s="78" t="e">
         <f>AVERAGE(D10:D39)</f>
         <v>#DIV/0!</v>
@@ -6047,16 +7422,16 @@
         <f>AVERAGE(H10:H39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="189"/>
-      <c r="J40" s="189"/>
-      <c r="K40" s="195"/>
+      <c r="I40" s="200"/>
+      <c r="J40" s="200"/>
+      <c r="K40" s="205"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="217" t="s">
+      <c r="A41" s="175" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="218"/>
-      <c r="C41" s="218"/>
+      <c r="B41" s="176"/>
+      <c r="C41" s="176"/>
       <c r="D41" s="80">
         <f>MIN(D10:D39)</f>
         <v>0</v>
@@ -6077,16 +7452,16 @@
         <f>MIN(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="189"/>
-      <c r="J41" s="189"/>
-      <c r="K41" s="195"/>
+      <c r="I41" s="200"/>
+      <c r="J41" s="200"/>
+      <c r="K41" s="205"/>
     </row>
     <row r="42" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="182" t="s">
+      <c r="A42" s="221" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="183"/>
-      <c r="C42" s="183"/>
+      <c r="B42" s="222"/>
+      <c r="C42" s="222"/>
       <c r="D42" s="82">
         <f>MAX(D10:D39)</f>
         <v>0</v>
@@ -6107,16 +7482,16 @@
         <f>MAX(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="193"/>
-      <c r="J42" s="193"/>
-      <c r="K42" s="196"/>
+      <c r="I42" s="203"/>
+      <c r="J42" s="203"/>
+      <c r="K42" s="206"/>
     </row>
     <row r="43" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="150"/>
-      <c r="C43" s="150"/>
+      <c r="B43" s="171"/>
+      <c r="C43" s="171"/>
       <c r="D43" s="44" t="s">
         <v>22</v>
       </c>
@@ -6133,8 +7508,8 @@
     </row>
     <row r="44" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50"/>
-      <c r="B44" s="151"/>
-      <c r="C44" s="151"/>
+      <c r="B44" s="172"/>
+      <c r="C44" s="172"/>
       <c r="D44" s="44"/>
       <c r="F44" s="46"/>
       <c r="G44" s="47"/>
@@ -6143,11 +7518,11 @@
       <c r="J44" s="51"/>
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="133" t="s">
+      <c r="A45" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="133"/>
-      <c r="C45" s="133"/>
+      <c r="B45" s="156"/>
+      <c r="C45" s="156"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="47" t="s">
@@ -6160,11 +7535,11 @@
       <c r="H45" s="44"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="133" t="s">
+      <c r="A46" s="156" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="133"/>
-      <c r="C46" s="133"/>
+      <c r="B46" s="156"/>
+      <c r="C46" s="156"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
@@ -6189,15 +7564,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="I6:K42"/>
     <mergeCell ref="H7:H9"/>
@@ -6214,27 +7580,36 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="notBetween">
-      <formula>52</formula>
-      <formula>64</formula>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="notBetween">
+      <formula>55</formula>
+      <formula>65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E42">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="notBetween">
-      <formula>49</formula>
-      <formula>59</formula>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="notBetween">
+      <formula>45</formula>
+      <formula>55</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F42">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="notBetween">
-      <formula>-12.5</formula>
-      <formula>-4.5</formula>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="notBetween">
+      <formula>-16</formula>
+      <formula>-6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:H42">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="notBetween">
       <formula>0</formula>
       <formula>4</formula>
     </cfRule>
@@ -6252,7 +7627,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6265,15 +7640,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="289" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="241"/>
+      <c r="B1" s="290"/>
+      <c r="C1" s="290"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="290"/>
+      <c r="F1" s="290"/>
+      <c r="G1" s="291"/>
     </row>
     <row r="2" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="87"/>
@@ -6287,37 +7662,37 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="250" t="s">
+      <c r="A3" s="297" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
-      <c r="F3" s="251"/>
-      <c r="G3" s="252"/>
+      <c r="B3" s="298"/>
+      <c r="C3" s="298"/>
+      <c r="D3" s="298"/>
+      <c r="E3" s="298"/>
+      <c r="F3" s="298"/>
+      <c r="G3" s="299"/>
     </row>
     <row r="4" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="199" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="195"/>
+      <c r="B4" s="200"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="205"/>
     </row>
     <row r="5" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="242" t="s">
+      <c r="A5" s="292" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="244"/>
+      <c r="B5" s="293"/>
+      <c r="C5" s="293"/>
+      <c r="D5" s="293"/>
+      <c r="E5" s="293"/>
+      <c r="F5" s="293"/>
+      <c r="G5" s="294"/>
     </row>
     <row r="6" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
@@ -6329,14 +7704,14 @@
       <c r="C6" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="245" t="s">
+      <c r="D6" s="257" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="246"/>
-      <c r="F6" s="247" t="s">
+      <c r="E6" s="259"/>
+      <c r="F6" s="295" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="248">
+      <c r="G6" s="280">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
@@ -6349,13 +7724,13 @@
       <c r="C7" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="245">
+      <c r="D7" s="257">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="246"/>
-      <c r="F7" s="247"/>
-      <c r="G7" s="249"/>
+      <c r="E7" s="259"/>
+      <c r="F7" s="295"/>
+      <c r="G7" s="296"/>
     </row>
     <row r="8" spans="1:7" s="86" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="90" t="s">
@@ -6368,15 +7743,15 @@
       <c r="C8" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="247">
+      <c r="D8" s="295">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="247"/>
-      <c r="F8" s="262" t="s">
+      <c r="E8" s="295"/>
+      <c r="F8" s="277" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="248">
+      <c r="G8" s="280">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
@@ -6389,15 +7764,15 @@
         <f>Page1!G44</f>
         <v>461359700</v>
       </c>
-      <c r="C9" s="262" t="s">
+      <c r="C9" s="277" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="267" t="s">
+      <c r="D9" s="283" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="268"/>
-      <c r="F9" s="263"/>
-      <c r="G9" s="265"/>
+      <c r="E9" s="284"/>
+      <c r="F9" s="278"/>
+      <c r="G9" s="281"/>
     </row>
     <row r="10" spans="1:7" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="97" t="s">
@@ -6407,34 +7782,34 @@
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="264"/>
-      <c r="D10" s="269"/>
-      <c r="E10" s="270"/>
-      <c r="F10" s="264"/>
-      <c r="G10" s="266"/>
+      <c r="C10" s="279"/>
+      <c r="D10" s="285"/>
+      <c r="E10" s="286"/>
+      <c r="F10" s="279"/>
+      <c r="G10" s="282"/>
     </row>
     <row r="11" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="253" t="s">
+      <c r="A11" s="300" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="255" t="s">
+      <c r="B11" s="302" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="257" t="s">
+      <c r="C11" s="304" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="258"/>
-      <c r="E11" s="259"/>
-      <c r="F11" s="255" t="s">
+      <c r="D11" s="305"/>
+      <c r="E11" s="306"/>
+      <c r="F11" s="302" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="260" t="s">
+      <c r="G11" s="307" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="254"/>
-      <c r="B12" s="256"/>
+      <c r="A12" s="301"/>
+      <c r="B12" s="303"/>
       <c r="C12" s="99" t="s">
         <v>60</v>
       </c>
@@ -6444,8 +7819,8 @@
       <c r="E12" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="256"/>
-      <c r="G12" s="261"/>
+      <c r="F12" s="303"/>
+      <c r="G12" s="308"/>
     </row>
     <row r="13" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="100" t="s">
@@ -6515,7 +7890,7 @@
         <f>Page1!K39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="271" t="s">
+      <c r="G15" s="287" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6539,7 +7914,7 @@
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="227"/>
+      <c r="G16" s="228"/>
     </row>
     <row r="17" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="104" t="s">
@@ -6561,7 +7936,7 @@
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="227"/>
+      <c r="G17" s="228"/>
     </row>
     <row r="18" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="104" t="s">
@@ -6583,7 +7958,7 @@
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="227"/>
+      <c r="G18" s="228"/>
     </row>
     <row r="19" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="104" t="s">
@@ -6605,7 +7980,7 @@
         <f>Page1!J39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="227"/>
+      <c r="G19" s="228"/>
     </row>
     <row r="20" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="104" t="s">
@@ -6627,7 +8002,7 @@
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="227"/>
+      <c r="G20" s="228"/>
     </row>
     <row r="21" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="104" t="s">
@@ -6649,7 +8024,7 @@
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="227"/>
+      <c r="G21" s="228"/>
     </row>
     <row r="22" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="104" t="s">
@@ -6671,7 +8046,7 @@
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="155"/>
+      <c r="G22" s="138"/>
     </row>
     <row r="23" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="104" t="s">
@@ -6708,8 +8083,8 @@
         <v>39</v>
       </c>
       <c r="D24" s="39">
-        <f>Page2!J8</f>
-        <v>0</v>
+        <f>Page2!J9</f>
+        <v>210</v>
       </c>
       <c r="E24" s="39">
         <f>Page2!J10</f>
@@ -6771,26 +8146,26 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="272" t="s">
+      <c r="A27" s="271" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="273"/>
-      <c r="C27" s="273"/>
-      <c r="D27" s="273"/>
-      <c r="E27" s="273"/>
-      <c r="F27" s="273"/>
-      <c r="G27" s="274"/>
+      <c r="B27" s="272"/>
+      <c r="C27" s="272"/>
+      <c r="D27" s="272"/>
+      <c r="E27" s="272"/>
+      <c r="F27" s="272"/>
+      <c r="G27" s="273"/>
     </row>
     <row r="28" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="275" t="s">
+      <c r="A28" s="255" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="276"/>
-      <c r="C28" s="277" t="s">
+      <c r="B28" s="256"/>
+      <c r="C28" s="274" t="s">
         <v>127</v>
       </c>
-      <c r="D28" s="278"/>
-      <c r="E28" s="279"/>
+      <c r="D28" s="275"/>
+      <c r="E28" s="276"/>
       <c r="F28" s="113" t="s">
         <v>92</v>
       </c>
@@ -6799,15 +8174,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="280" t="s">
+      <c r="A29" s="260" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="246"/>
-      <c r="C29" s="281" t="s">
+      <c r="B29" s="259"/>
+      <c r="C29" s="265" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="282"/>
-      <c r="E29" s="283"/>
+      <c r="D29" s="266"/>
+      <c r="E29" s="267"/>
       <c r="F29" s="66" t="s">
         <v>92</v>
       </c>
@@ -6816,15 +8191,15 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="280" t="s">
+      <c r="A30" s="260" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="246"/>
-      <c r="C30" s="281" t="s">
+      <c r="B30" s="259"/>
+      <c r="C30" s="265" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="282"/>
-      <c r="E30" s="283"/>
+      <c r="D30" s="266"/>
+      <c r="E30" s="267"/>
       <c r="F30" s="66" t="s">
         <v>92</v>
       </c>
@@ -6833,15 +8208,15 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="280" t="s">
+      <c r="A31" s="260" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="246"/>
-      <c r="C31" s="281" t="s">
+      <c r="B31" s="259"/>
+      <c r="C31" s="265" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="282"/>
-      <c r="E31" s="283"/>
+      <c r="D31" s="266"/>
+      <c r="E31" s="267"/>
       <c r="F31" s="66" t="s">
         <v>92</v>
       </c>
@@ -6850,15 +8225,15 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="280" t="s">
+      <c r="A32" s="260" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="246"/>
-      <c r="C32" s="281" t="s">
+      <c r="B32" s="259"/>
+      <c r="C32" s="265" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="282"/>
-      <c r="E32" s="283"/>
+      <c r="D32" s="266"/>
+      <c r="E32" s="267"/>
       <c r="F32" s="66" t="s">
         <v>92</v>
       </c>
@@ -6866,61 +8241,61 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="280" t="s">
+    <row r="33" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="260" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="246"/>
-      <c r="C33" s="281" t="s">
+      <c r="B33" s="259"/>
+      <c r="C33" s="265" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="282"/>
-      <c r="E33" s="283"/>
+      <c r="D33" s="266"/>
+      <c r="E33" s="267"/>
       <c r="F33" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="G33" s="108" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="86" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="165" t="s">
+      <c r="A34" s="148" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="166"/>
-      <c r="C34" s="286" t="s">
+      <c r="B34" s="149"/>
+      <c r="C34" s="268" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="287"/>
-      <c r="E34" s="288"/>
+      <c r="D34" s="269"/>
+      <c r="E34" s="270"/>
       <c r="F34" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="G34" s="133" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="272" t="s">
+      <c r="A35" s="271" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="273"/>
-      <c r="C35" s="273"/>
-      <c r="D35" s="273"/>
-      <c r="E35" s="273"/>
-      <c r="F35" s="273"/>
-      <c r="G35" s="274"/>
+      <c r="B35" s="272"/>
+      <c r="C35" s="272"/>
+      <c r="D35" s="272"/>
+      <c r="E35" s="272"/>
+      <c r="F35" s="272"/>
+      <c r="G35" s="273"/>
     </row>
     <row r="36" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="161" t="s">
+      <c r="A36" s="144" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="162"/>
-      <c r="C36" s="284" t="s">
+      <c r="B36" s="145"/>
+      <c r="C36" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="285"/>
-      <c r="E36" s="162"/>
+      <c r="D36" s="264"/>
+      <c r="E36" s="145"/>
       <c r="F36" s="10" t="s">
         <v>92</v>
       </c>
@@ -6929,15 +8304,15 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="275" t="s">
+      <c r="A37" s="255" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="276"/>
-      <c r="C37" s="245" t="s">
+      <c r="B37" s="256"/>
+      <c r="C37" s="257" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="289"/>
-      <c r="E37" s="246"/>
+      <c r="D37" s="258"/>
+      <c r="E37" s="259"/>
       <c r="F37" s="106" t="s">
         <v>92</v>
       </c>
@@ -6946,15 +8321,15 @@
       </c>
     </row>
     <row r="38" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="280" t="s">
+      <c r="A38" s="260" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="246"/>
-      <c r="C38" s="245" t="s">
+      <c r="B38" s="259"/>
+      <c r="C38" s="257" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="289"/>
-      <c r="E38" s="246"/>
+      <c r="D38" s="258"/>
+      <c r="E38" s="259"/>
       <c r="F38" s="106" t="s">
         <v>92</v>
       </c>
@@ -6963,15 +8338,15 @@
       </c>
     </row>
     <row r="39" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="165" t="s">
+      <c r="A39" s="148" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="166"/>
-      <c r="C39" s="290" t="s">
+      <c r="B39" s="149"/>
+      <c r="C39" s="261" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="291"/>
-      <c r="E39" s="166"/>
+      <c r="D39" s="262"/>
+      <c r="E39" s="149"/>
       <c r="F39" s="1" t="s">
         <v>92</v>
       </c>
@@ -6980,50 +8355,50 @@
       </c>
     </row>
     <row r="40" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="294" t="s">
+      <c r="A40" s="241" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="295"/>
-      <c r="C40" s="296" t="s">
+      <c r="B40" s="242"/>
+      <c r="C40" s="243" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="297"/>
-      <c r="E40" s="298"/>
-      <c r="F40" s="296" t="s">
+      <c r="D40" s="244"/>
+      <c r="E40" s="245"/>
+      <c r="F40" s="243" t="s">
         <v>138</v>
       </c>
-      <c r="G40" s="298"/>
+      <c r="G40" s="245"/>
     </row>
     <row r="41" spans="1:7" s="86" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="299"/>
-      <c r="B41" s="300"/>
-      <c r="C41" s="188"/>
-      <c r="D41" s="189"/>
-      <c r="E41" s="195"/>
-      <c r="F41" s="303"/>
-      <c r="G41" s="304"/>
+      <c r="A41" s="246"/>
+      <c r="B41" s="247"/>
+      <c r="C41" s="199"/>
+      <c r="D41" s="200"/>
+      <c r="E41" s="205"/>
+      <c r="F41" s="250"/>
+      <c r="G41" s="251"/>
     </row>
     <row r="42" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="301"/>
-      <c r="B42" s="302"/>
-      <c r="C42" s="305" t="s">
+      <c r="A42" s="248"/>
+      <c r="B42" s="249"/>
+      <c r="C42" s="252" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="306"/>
-      <c r="E42" s="307"/>
-      <c r="F42" s="305" t="s">
+      <c r="D42" s="253"/>
+      <c r="E42" s="254"/>
+      <c r="F42" s="252" t="s">
         <v>139</v>
       </c>
-      <c r="G42" s="307"/>
+      <c r="G42" s="254"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="115"/>
       <c r="B43" s="115"/>
       <c r="C43" s="115"/>
       <c r="D43" s="115"/>
-      <c r="E43" s="292"/>
-      <c r="F43" s="292"/>
-      <c r="G43" s="292"/>
+      <c r="E43" s="239"/>
+      <c r="F43" s="239"/>
+      <c r="G43" s="239"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="46" t="s">
@@ -7032,63 +8407,24 @@
       <c r="B44" s="116"/>
       <c r="C44" s="118"/>
       <c r="D44" s="115"/>
-      <c r="E44" s="293"/>
-      <c r="F44" s="293"/>
-      <c r="G44" s="293"/>
+      <c r="E44" s="240"/>
+      <c r="F44" s="240"/>
+      <c r="G44" s="240"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="238" t="s">
+      <c r="A46" s="288" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="238"/>
+      <c r="B46" s="288"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="238" t="s">
+      <c r="A47" s="288" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="238"/>
+      <c r="B47" s="288"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="G15:G22"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A1:G1"/>
@@ -7105,6 +8441,45 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="G15:G22"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.78740157480314965" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>

--- a/backend/templates/UC-18gsm-210W-BFQR.xlsx
+++ b/backend/templates/UC-18gsm-210W-BFQR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC999A6-C07F-43C6-867A-BC228902F6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00DB193-E85B-44C3-AA1A-52AC6DB8DE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="142">
   <si>
     <t>Sample No.</t>
   </si>
@@ -511,9 +511,6 @@
   </si>
   <si>
     <t>Swanson Plastics(India) Pvt. Ltd</t>
-  </si>
-  <si>
-    <t>#02</t>
   </si>
   <si>
     <t>NA</t>
@@ -1872,6 +1869,63 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1881,9 +1935,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1938,153 +1989,66 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2123,6 +2087,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2135,71 +2102,263 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2248,300 +2407,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="166">
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <strike/>
@@ -2582,518 +2453,6 @@
         <strike/>
         <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3214,833 +2573,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike/>
-        <u val="none"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike/>
-        <u val="none"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike/>
-        <u val="none"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike/>
-        <u val="none"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike/>
-        <u val="none"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike/>
-        <u val="none"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike/>
-        <u val="none"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike/>
-        <u val="none"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -4455,35 +2987,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -4504,12 +3036,12 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="145"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="147"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="165"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -4521,19 +3053,19 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="139"/>
-      <c r="K4" s="140"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="158"/>
       <c r="M4" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="151"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="169"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -4545,64 +3077,64 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="141"/>
-      <c r="K5" s="142"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="160"/>
     </row>
     <row r="6" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="157" t="s">
+      <c r="A6" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="158"/>
-      <c r="C6" s="159"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="137"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="134"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="136"/>
+        <v>141</v>
+      </c>
+      <c r="G6" s="153"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="155"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137" t="s">
+      <c r="A7" s="138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="139"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="137" t="s">
+      <c r="E7" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="137" t="s">
+      <c r="F7" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="152" t="s">
+      <c r="G7" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="152" t="s">
+      <c r="H7" s="170" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="137" t="s">
+      <c r="I7" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="137"/>
-      <c r="K7" s="138"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="156"/>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="161"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154" t="s">
+      <c r="A8" s="140"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="154"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
@@ -5004,11 +3536,11 @@
       <c r="K38" s="28"/>
     </row>
     <row r="39" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="168" t="s">
+      <c r="A39" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="169"/>
-      <c r="C39" s="170"/>
+      <c r="B39" s="149"/>
+      <c r="C39" s="150"/>
       <c r="D39" s="35" t="e">
         <f t="shared" ref="D39:K39" si="0">AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -5043,11 +3575,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="165" t="s">
+      <c r="A40" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="166"/>
-      <c r="C40" s="167"/>
+      <c r="B40" s="146"/>
+      <c r="C40" s="147"/>
       <c r="D40" s="38">
         <f t="shared" ref="D40:K40" si="1">MIN(D9:D38)</f>
         <v>0</v>
@@ -5082,11 +3614,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="162" t="s">
+      <c r="A41" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="163"/>
-      <c r="C41" s="164"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="144"/>
       <c r="D41" s="41">
         <f t="shared" ref="D41:K41" si="2">MAX(D9:D38)</f>
         <v>0</v>
@@ -5127,8 +3659,8 @@
       <c r="A42" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="171"/>
-      <c r="C42" s="171"/>
+      <c r="B42" s="151"/>
+      <c r="C42" s="151"/>
       <c r="D42" s="44" t="s">
         <v>22</v>
       </c>
@@ -5145,8 +3677,8 @@
     </row>
     <row r="43" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50"/>
-      <c r="B43" s="172"/>
-      <c r="C43" s="172"/>
+      <c r="B43" s="152"/>
+      <c r="C43" s="152"/>
       <c r="D43" s="44"/>
       <c r="F43" s="46"/>
       <c r="G43" s="47"/>
@@ -5155,11 +3687,11 @@
       <c r="J43" s="51"/>
     </row>
     <row r="44" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="156" t="s">
+      <c r="A44" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="156"/>
-      <c r="C44" s="156"/>
+      <c r="B44" s="134"/>
+      <c r="C44" s="134"/>
       <c r="D44" s="44"/>
       <c r="E44" s="44"/>
       <c r="F44" s="47" t="s">
@@ -5171,11 +3703,11 @@
       <c r="H44" s="44"/>
     </row>
     <row r="45" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="156" t="s">
+      <c r="A45" s="134" t="s">
         <v>133</v>
       </c>
-      <c r="B45" s="156"/>
-      <c r="C45" s="156"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="134"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="44"/>
@@ -5217,15 +3749,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="B43:C43"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="J4:K4"/>
@@ -5242,51 +3765,60 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D9:D41">
-    <cfRule type="cellIs" dxfId="93" priority="13" operator="notBetween">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="notBetween">
       <formula>17</formula>
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E41">
-    <cfRule type="cellIs" dxfId="92" priority="11" operator="notBetween">
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="notBetween">
       <formula>18</formula>
       <formula>28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F41">
-    <cfRule type="cellIs" dxfId="91" priority="9" operator="notBetween">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="notBetween">
       <formula>360</formula>
       <formula>400</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G41">
-    <cfRule type="cellIs" dxfId="90" priority="7" operator="notBetween">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="notBetween">
       <formula>0.3</formula>
       <formula>0.6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H38">
-    <cfRule type="cellIs" dxfId="89" priority="1" stopIfTrue="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="notBetween">
       <formula>0.6</formula>
       <formula>1.4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I41">
-    <cfRule type="cellIs" dxfId="88" priority="5" operator="notBetween">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="notBetween">
       <formula>900</formula>
       <formula>1200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:J41">
-    <cfRule type="cellIs" dxfId="87" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="lessThan">
       <formula>350</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:K41">
-    <cfRule type="cellIs" dxfId="86" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5314,35 +3846,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -5363,18 +3895,18 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="145">
+      <c r="B4" s="163">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="177">
+      <c r="C4" s="220">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="178"/>
+      <c r="D4" s="209"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -5392,25 +3924,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="179">
+      <c r="J4" s="221">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="180"/>
+      <c r="K4" s="222"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="149">
+      <c r="B5" s="167">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="150">
+      <c r="C5" s="168">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="151"/>
+      <c r="D5" s="169"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -5428,104 +3960,104 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="195">
+      <c r="J5" s="185">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="196"/>
+      <c r="K5" s="186"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="213" t="s">
+      <c r="A6" s="205" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="214"/>
-      <c r="C6" s="215"/>
-      <c r="D6" s="197"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="212"/>
+      <c r="B6" s="206"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="203"/>
       <c r="K6" s="55"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="216" t="s">
+      <c r="A7" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="188"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="208" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="198"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="185" t="s">
+      <c r="E7" s="188"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="191" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="198"/>
-      <c r="I7" s="185" t="s">
+      <c r="H7" s="188"/>
+      <c r="I7" s="191" t="s">
         <v>135</v>
       </c>
-      <c r="J7" s="186"/>
-      <c r="K7" s="204" t="s">
+      <c r="J7" s="204"/>
+      <c r="K7" s="195" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="199"/>
-      <c r="B8" s="200"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="199" t="s">
+      <c r="A8" s="189"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="208" t="s">
+      <c r="E8" s="199" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="209" t="s">
+      <c r="F8" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="201"/>
-      <c r="H8" s="200"/>
-      <c r="I8" s="201" t="s">
+      <c r="G8" s="192"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="J8" s="209"/>
-      <c r="K8" s="205"/>
+      <c r="J8" s="200"/>
+      <c r="K8" s="196"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="199"/>
-      <c r="B9" s="200"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="199"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="209"/>
-      <c r="G9" s="201"/>
-      <c r="H9" s="200"/>
+      <c r="A9" s="189"/>
+      <c r="B9" s="190"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="200"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="190"/>
       <c r="I9" s="57" t="s">
         <v>123</v>
       </c>
       <c r="J9" s="58">
         <v>210</v>
       </c>
-      <c r="K9" s="205"/>
+      <c r="K9" s="196"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="199"/>
-      <c r="B10" s="200"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="207"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="210"/>
-      <c r="G10" s="202"/>
-      <c r="H10" s="203"/>
+      <c r="A10" s="189"/>
+      <c r="B10" s="190"/>
+      <c r="C10" s="190"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="194"/>
       <c r="I10" s="59" t="s">
         <v>124</v>
       </c>
       <c r="J10" s="60">
         <v>213</v>
       </c>
-      <c r="K10" s="206"/>
+      <c r="K10" s="197"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="120">
@@ -5543,10 +4075,10 @@
       <c r="D11" s="61"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="194"/>
-      <c r="H11" s="194"/>
-      <c r="I11" s="181"/>
-      <c r="J11" s="182"/>
+      <c r="G11" s="212"/>
+      <c r="H11" s="212"/>
+      <c r="I11" s="223"/>
+      <c r="J11" s="224"/>
       <c r="K11" s="62"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5565,10 +4097,10 @@
       <c r="D12" s="63"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="183"/>
-      <c r="J12" s="184"/>
+      <c r="G12" s="213"/>
+      <c r="H12" s="213"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="176"/>
       <c r="K12" s="64"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5587,10 +4119,10 @@
       <c r="D13" s="63"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="184"/>
+      <c r="G13" s="213"/>
+      <c r="H13" s="213"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="176"/>
       <c r="K13" s="64"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5609,10 +4141,10 @@
       <c r="D14" s="63"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="184"/>
+      <c r="G14" s="213"/>
+      <c r="H14" s="213"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="176"/>
       <c r="K14" s="64"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5631,10 +4163,10 @@
       <c r="D15" s="63"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="184"/>
+      <c r="G15" s="213"/>
+      <c r="H15" s="213"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="176"/>
       <c r="K15" s="64"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5653,10 +4185,10 @@
       <c r="D16" s="61"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="184"/>
+      <c r="G16" s="212"/>
+      <c r="H16" s="212"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="176"/>
       <c r="K16" s="62"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5675,10 +4207,10 @@
       <c r="D17" s="63"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="184"/>
+      <c r="G17" s="213"/>
+      <c r="H17" s="213"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="176"/>
       <c r="K17" s="64"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5697,10 +4229,10 @@
       <c r="D18" s="63"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="184"/>
+      <c r="G18" s="213"/>
+      <c r="H18" s="213"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="176"/>
       <c r="K18" s="64"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5719,10 +4251,10 @@
       <c r="D19" s="63"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="183"/>
-      <c r="J19" s="184"/>
+      <c r="G19" s="213"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="176"/>
       <c r="K19" s="64"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5741,10 +4273,10 @@
       <c r="D20" s="63"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="189"/>
-      <c r="H20" s="190"/>
-      <c r="I20" s="183"/>
-      <c r="J20" s="184"/>
+      <c r="G20" s="210"/>
+      <c r="H20" s="211"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="176"/>
       <c r="K20" s="64"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5763,10 +4295,10 @@
       <c r="D21" s="63"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="189"/>
-      <c r="H21" s="190"/>
-      <c r="I21" s="183"/>
-      <c r="J21" s="184"/>
+      <c r="G21" s="210"/>
+      <c r="H21" s="211"/>
+      <c r="I21" s="175"/>
+      <c r="J21" s="176"/>
       <c r="K21" s="64"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5785,10 +4317,10 @@
       <c r="D22" s="63"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="189"/>
-      <c r="H22" s="190"/>
-      <c r="I22" s="183"/>
-      <c r="J22" s="184"/>
+      <c r="G22" s="210"/>
+      <c r="H22" s="211"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="176"/>
       <c r="K22" s="64"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5807,10 +4339,10 @@
       <c r="D23" s="63"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="189"/>
-      <c r="H23" s="190"/>
-      <c r="I23" s="183"/>
-      <c r="J23" s="184"/>
+      <c r="G23" s="210"/>
+      <c r="H23" s="211"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="176"/>
       <c r="K23" s="64"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5829,10 +4361,10 @@
       <c r="D24" s="63"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="189"/>
-      <c r="H24" s="190"/>
-      <c r="I24" s="183"/>
-      <c r="J24" s="184"/>
+      <c r="G24" s="210"/>
+      <c r="H24" s="211"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="176"/>
       <c r="K24" s="64"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5851,10 +4383,10 @@
       <c r="D25" s="63"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="189"/>
-      <c r="H25" s="190"/>
-      <c r="I25" s="183"/>
-      <c r="J25" s="184"/>
+      <c r="G25" s="210"/>
+      <c r="H25" s="211"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="176"/>
       <c r="K25" s="64"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5873,10 +4405,10 @@
       <c r="D26" s="63"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="189"/>
-      <c r="H26" s="190"/>
-      <c r="I26" s="183"/>
-      <c r="J26" s="184"/>
+      <c r="G26" s="210"/>
+      <c r="H26" s="211"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="176"/>
       <c r="K26" s="64"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5895,10 +4427,10 @@
       <c r="D27" s="63"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="189"/>
-      <c r="H27" s="190"/>
-      <c r="I27" s="183"/>
-      <c r="J27" s="184"/>
+      <c r="G27" s="210"/>
+      <c r="H27" s="211"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="176"/>
       <c r="K27" s="64"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5917,10 +4449,10 @@
       <c r="D28" s="63"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="189"/>
-      <c r="H28" s="190"/>
-      <c r="I28" s="183"/>
-      <c r="J28" s="184"/>
+      <c r="G28" s="210"/>
+      <c r="H28" s="211"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="176"/>
       <c r="K28" s="64"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5939,10 +4471,10 @@
       <c r="D29" s="63"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="189"/>
-      <c r="H29" s="190"/>
-      <c r="I29" s="183"/>
-      <c r="J29" s="184"/>
+      <c r="G29" s="210"/>
+      <c r="H29" s="211"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="176"/>
       <c r="K29" s="64"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5961,10 +4493,10 @@
       <c r="D30" s="63"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="189"/>
-      <c r="H30" s="190"/>
-      <c r="I30" s="183"/>
-      <c r="J30" s="184"/>
+      <c r="G30" s="210"/>
+      <c r="H30" s="211"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="176"/>
       <c r="K30" s="64"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5983,10 +4515,10 @@
       <c r="D31" s="63"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="189"/>
-      <c r="H31" s="190"/>
-      <c r="I31" s="183"/>
-      <c r="J31" s="184"/>
+      <c r="G31" s="210"/>
+      <c r="H31" s="211"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="176"/>
       <c r="K31" s="64"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6005,10 +4537,10 @@
       <c r="D32" s="63"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="189"/>
-      <c r="H32" s="190"/>
-      <c r="I32" s="183"/>
-      <c r="J32" s="184"/>
+      <c r="G32" s="210"/>
+      <c r="H32" s="211"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="176"/>
       <c r="K32" s="64"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6027,10 +4559,10 @@
       <c r="D33" s="63"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="189"/>
-      <c r="H33" s="190"/>
-      <c r="I33" s="183"/>
-      <c r="J33" s="184"/>
+      <c r="G33" s="210"/>
+      <c r="H33" s="211"/>
+      <c r="I33" s="175"/>
+      <c r="J33" s="176"/>
       <c r="K33" s="64"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6049,10 +4581,10 @@
       <c r="D34" s="63"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
-      <c r="G34" s="189"/>
-      <c r="H34" s="190"/>
-      <c r="I34" s="183"/>
-      <c r="J34" s="184"/>
+      <c r="G34" s="210"/>
+      <c r="H34" s="211"/>
+      <c r="I34" s="175"/>
+      <c r="J34" s="176"/>
       <c r="K34" s="64"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6071,10 +4603,10 @@
       <c r="D35" s="63"/>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="189"/>
-      <c r="H35" s="190"/>
-      <c r="I35" s="183"/>
-      <c r="J35" s="184"/>
+      <c r="G35" s="210"/>
+      <c r="H35" s="211"/>
+      <c r="I35" s="175"/>
+      <c r="J35" s="176"/>
       <c r="K35" s="64"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6093,10 +4625,10 @@
       <c r="D36" s="63"/>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="189"/>
-      <c r="H36" s="190"/>
-      <c r="I36" s="183"/>
-      <c r="J36" s="184"/>
+      <c r="G36" s="210"/>
+      <c r="H36" s="211"/>
+      <c r="I36" s="175"/>
+      <c r="J36" s="176"/>
       <c r="K36" s="64"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6115,10 +4647,10 @@
       <c r="D37" s="63"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="189"/>
-      <c r="H37" s="190"/>
-      <c r="I37" s="183"/>
-      <c r="J37" s="184"/>
+      <c r="G37" s="210"/>
+      <c r="H37" s="211"/>
+      <c r="I37" s="175"/>
+      <c r="J37" s="176"/>
       <c r="K37" s="64"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6137,10 +4669,10 @@
       <c r="D38" s="63"/>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="189"/>
-      <c r="H38" s="190"/>
-      <c r="I38" s="183"/>
-      <c r="J38" s="184"/>
+      <c r="G38" s="210"/>
+      <c r="H38" s="211"/>
+      <c r="I38" s="175"/>
+      <c r="J38" s="176"/>
       <c r="K38" s="64"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6159,10 +4691,10 @@
       <c r="D39" s="63"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="189"/>
-      <c r="H39" s="190"/>
-      <c r="I39" s="183"/>
-      <c r="J39" s="184"/>
+      <c r="G39" s="210"/>
+      <c r="H39" s="211"/>
+      <c r="I39" s="175"/>
+      <c r="J39" s="176"/>
       <c r="K39" s="64"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6181,18 +4713,18 @@
       <c r="D40" s="63"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
-      <c r="G40" s="193"/>
-      <c r="H40" s="193"/>
-      <c r="I40" s="183"/>
-      <c r="J40" s="184"/>
+      <c r="G40" s="213"/>
+      <c r="H40" s="213"/>
+      <c r="I40" s="175"/>
+      <c r="J40" s="176"/>
       <c r="K40" s="64"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="173" t="s">
+      <c r="A41" s="216" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="174"/>
-      <c r="C41" s="174"/>
+      <c r="B41" s="217"/>
+      <c r="C41" s="217"/>
       <c r="D41" s="65" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
@@ -6205,27 +4737,27 @@
         <f>AVERAGE(F11:F40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="191" t="e">
+      <c r="G41" s="214" t="e">
         <f>AVERAGE(G11:H40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="192"/>
-      <c r="I41" s="225" t="e">
+      <c r="H41" s="215"/>
+      <c r="I41" s="177" t="e">
         <f>AVERAGE(I11:J40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="226"/>
+      <c r="J41" s="178"/>
       <c r="K41" s="37" t="e">
         <f>AVERAGE(K11:K40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="175" t="s">
+      <c r="A42" s="218" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="176"/>
-      <c r="C42" s="176"/>
+      <c r="B42" s="219"/>
+      <c r="C42" s="219"/>
       <c r="D42" s="66">
         <f>MIN(D11:D40)</f>
         <v>0</v>
@@ -6238,27 +4770,27 @@
         <f>MIN(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="187">
+      <c r="G42" s="225">
         <f>MIN(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="188"/>
-      <c r="I42" s="223">
+      <c r="H42" s="226"/>
+      <c r="I42" s="173">
         <f>MIN(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="224"/>
+      <c r="J42" s="174"/>
       <c r="K42" s="40">
         <f>MIN(K11:K40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="221" t="s">
+      <c r="A43" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="222"/>
-      <c r="C43" s="222"/>
+      <c r="B43" s="184"/>
+      <c r="C43" s="184"/>
       <c r="D43" s="67">
         <f>MAX(D11:D40)</f>
         <v>0</v>
@@ -6271,16 +4803,16 @@
         <f>MAX(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="217">
+      <c r="G43" s="179">
         <f>MAX(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="218"/>
-      <c r="I43" s="219">
+      <c r="H43" s="180"/>
+      <c r="I43" s="181">
         <f>MAX(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="220"/>
+      <c r="J43" s="182"/>
       <c r="K43" s="69">
         <f>MAX(K11:K40)</f>
         <v>0</v>
@@ -6290,8 +4822,8 @@
       <c r="A44" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="171"/>
-      <c r="C44" s="171"/>
+      <c r="B44" s="151"/>
+      <c r="C44" s="151"/>
       <c r="D44" s="44" t="s">
         <v>22</v>
       </c>
@@ -6308,8 +4840,8 @@
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
-      <c r="B45" s="172"/>
-      <c r="C45" s="172"/>
+      <c r="B45" s="152"/>
+      <c r="C45" s="152"/>
       <c r="D45" s="44"/>
       <c r="F45" s="46"/>
       <c r="G45" s="47"/>
@@ -6318,11 +4850,11 @@
       <c r="J45" s="51"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="156" t="s">
+      <c r="A46" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="156"/>
-      <c r="C46" s="156"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="134"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="47" t="s">
@@ -6335,11 +4867,11 @@
       <c r="H46" s="44"/>
     </row>
     <row r="47" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="156" t="s">
+      <c r="A47" s="134" t="s">
         <v>133</v>
       </c>
-      <c r="B47" s="156"/>
-      <c r="C47" s="156"/>
+      <c r="B47" s="134"/>
+      <c r="C47" s="134"/>
       <c r="D47" s="44"/>
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
@@ -6394,52 +4926,38 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A7:C10"/>
-    <mergeCell ref="G7:H10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="G39:H39"/>
@@ -6456,72 +4974,86 @@
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A7:C10"/>
+    <mergeCell ref="G7:H10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D11:D43">
-    <cfRule type="cellIs" dxfId="35" priority="8" operator="notBetween">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="notBetween">
       <formula>700</formula>
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E43">
-    <cfRule type="cellIs" dxfId="34" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="lessThan">
       <formula>400</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F43">
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="lessThan">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:H19 G20:G39 G40:H43">
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="notBetween">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="notBetween">
       <formula>45</formula>
       <formula>55</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I11:J43">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="notBetween">
+      <formula>210</formula>
+      <formula>213</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K11:K43">
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="notBetween">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="notBetween">
       <formula>410</formula>
       <formula>450</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11:J43">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="notBetween">
-      <formula>210</formula>
-      <formula>213</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.11811023622047245" bottom="0.11811023622047245" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6548,35 +5080,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -6597,18 +5129,18 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="145">
+      <c r="B4" s="163">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="177">
+      <c r="C4" s="220">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="178"/>
+      <c r="D4" s="209"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -6626,25 +5158,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="179">
+      <c r="J4" s="221">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="180"/>
+      <c r="K4" s="222"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="149">
+      <c r="B5" s="167">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="150">
+      <c r="C5" s="168">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="151"/>
+      <c r="D5" s="169"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -6662,11 +5194,11 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="195">
+      <c r="J5" s="185">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="196"/>
+      <c r="K5" s="186"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="230" t="s">
@@ -6675,66 +5207,66 @@
       <c r="B6" s="231"/>
       <c r="C6" s="232"/>
       <c r="D6" s="233"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="155"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="172"/>
       <c r="H6" s="71"/>
-      <c r="I6" s="197"/>
-      <c r="J6" s="198"/>
-      <c r="K6" s="204"/>
+      <c r="I6" s="187"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="195"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="216" t="s">
+      <c r="A7" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="188"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="208" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="234"/>
       <c r="F7" s="234"/>
-      <c r="G7" s="178"/>
+      <c r="G7" s="209"/>
       <c r="H7" s="227" t="s">
         <v>126</v>
       </c>
-      <c r="I7" s="199"/>
-      <c r="J7" s="200"/>
-      <c r="K7" s="205"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="190"/>
+      <c r="K7" s="196"/>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="199"/>
-      <c r="B8" s="200"/>
-      <c r="C8" s="200"/>
+      <c r="A8" s="189"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
       <c r="D8" s="237" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="208" t="s">
+      <c r="E8" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="208" t="s">
+      <c r="F8" s="199" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="208" t="s">
+      <c r="G8" s="199" t="s">
         <v>128</v>
       </c>
       <c r="H8" s="228"/>
-      <c r="I8" s="199"/>
-      <c r="J8" s="200"/>
-      <c r="K8" s="205"/>
+      <c r="I8" s="189"/>
+      <c r="J8" s="190"/>
+      <c r="K8" s="196"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="199"/>
-      <c r="B9" s="200"/>
-      <c r="C9" s="200"/>
+      <c r="A9" s="189"/>
+      <c r="B9" s="190"/>
+      <c r="C9" s="190"/>
       <c r="D9" s="238"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
       <c r="H9" s="229"/>
-      <c r="I9" s="199"/>
-      <c r="J9" s="200"/>
-      <c r="K9" s="205"/>
+      <c r="I9" s="189"/>
+      <c r="J9" s="190"/>
+      <c r="K9" s="196"/>
     </row>
     <row r="10" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="120">
@@ -6754,9 +5286,9 @@
       <c r="F10" s="23"/>
       <c r="G10" s="73"/>
       <c r="H10" s="74"/>
-      <c r="I10" s="199"/>
-      <c r="J10" s="200"/>
-      <c r="K10" s="205"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="190"/>
+      <c r="K10" s="196"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="123">
@@ -6776,9 +5308,9 @@
       <c r="F11" s="26"/>
       <c r="G11" s="76"/>
       <c r="H11" s="77"/>
-      <c r="I11" s="199"/>
-      <c r="J11" s="200"/>
-      <c r="K11" s="205"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="190"/>
+      <c r="K11" s="196"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="123">
@@ -6798,9 +5330,9 @@
       <c r="F12" s="26"/>
       <c r="G12" s="76"/>
       <c r="H12" s="77"/>
-      <c r="I12" s="199"/>
-      <c r="J12" s="200"/>
-      <c r="K12" s="205"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="196"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="123">
@@ -6820,9 +5352,9 @@
       <c r="F13" s="23"/>
       <c r="G13" s="73"/>
       <c r="H13" s="77"/>
-      <c r="I13" s="199"/>
-      <c r="J13" s="200"/>
-      <c r="K13" s="205"/>
+      <c r="I13" s="189"/>
+      <c r="J13" s="190"/>
+      <c r="K13" s="196"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="123">
@@ -6842,9 +5374,9 @@
       <c r="F14" s="26"/>
       <c r="G14" s="76"/>
       <c r="H14" s="77"/>
-      <c r="I14" s="199"/>
-      <c r="J14" s="200"/>
-      <c r="K14" s="205"/>
+      <c r="I14" s="189"/>
+      <c r="J14" s="190"/>
+      <c r="K14" s="196"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="123">
@@ -6864,9 +5396,9 @@
       <c r="F15" s="26"/>
       <c r="G15" s="76"/>
       <c r="H15" s="77"/>
-      <c r="I15" s="199"/>
-      <c r="J15" s="200"/>
-      <c r="K15" s="205"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="196"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="123">
@@ -6886,9 +5418,9 @@
       <c r="F16" s="26"/>
       <c r="G16" s="76"/>
       <c r="H16" s="77"/>
-      <c r="I16" s="199"/>
-      <c r="J16" s="200"/>
-      <c r="K16" s="205"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="190"/>
+      <c r="K16" s="196"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="123">
@@ -6908,9 +5440,9 @@
       <c r="F17" s="26"/>
       <c r="G17" s="76"/>
       <c r="H17" s="77"/>
-      <c r="I17" s="199"/>
-      <c r="J17" s="200"/>
-      <c r="K17" s="205"/>
+      <c r="I17" s="189"/>
+      <c r="J17" s="190"/>
+      <c r="K17" s="196"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="123">
@@ -6930,9 +5462,9 @@
       <c r="F18" s="26"/>
       <c r="G18" s="76"/>
       <c r="H18" s="77"/>
-      <c r="I18" s="199"/>
-      <c r="J18" s="200"/>
-      <c r="K18" s="205"/>
+      <c r="I18" s="189"/>
+      <c r="J18" s="190"/>
+      <c r="K18" s="196"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="123">
@@ -6952,9 +5484,9 @@
       <c r="F19" s="26"/>
       <c r="G19" s="76"/>
       <c r="H19" s="77"/>
-      <c r="I19" s="199"/>
-      <c r="J19" s="200"/>
-      <c r="K19" s="205"/>
+      <c r="I19" s="189"/>
+      <c r="J19" s="190"/>
+      <c r="K19" s="196"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="129">
@@ -6974,9 +5506,9 @@
       <c r="F20" s="26"/>
       <c r="G20" s="76"/>
       <c r="H20" s="77"/>
-      <c r="I20" s="199"/>
-      <c r="J20" s="200"/>
-      <c r="K20" s="205"/>
+      <c r="I20" s="189"/>
+      <c r="J20" s="190"/>
+      <c r="K20" s="196"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="123">
@@ -6996,9 +5528,9 @@
       <c r="F21" s="26"/>
       <c r="G21" s="76"/>
       <c r="H21" s="77"/>
-      <c r="I21" s="199"/>
-      <c r="J21" s="200"/>
-      <c r="K21" s="205"/>
+      <c r="I21" s="189"/>
+      <c r="J21" s="190"/>
+      <c r="K21" s="196"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="123">
@@ -7018,9 +5550,9 @@
       <c r="F22" s="26"/>
       <c r="G22" s="76"/>
       <c r="H22" s="77"/>
-      <c r="I22" s="199"/>
-      <c r="J22" s="200"/>
-      <c r="K22" s="205"/>
+      <c r="I22" s="189"/>
+      <c r="J22" s="190"/>
+      <c r="K22" s="196"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="123">
@@ -7040,9 +5572,9 @@
       <c r="F23" s="26"/>
       <c r="G23" s="76"/>
       <c r="H23" s="77"/>
-      <c r="I23" s="199"/>
-      <c r="J23" s="200"/>
-      <c r="K23" s="205"/>
+      <c r="I23" s="189"/>
+      <c r="J23" s="190"/>
+      <c r="K23" s="196"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="123">
@@ -7062,9 +5594,9 @@
       <c r="F24" s="26"/>
       <c r="G24" s="76"/>
       <c r="H24" s="77"/>
-      <c r="I24" s="199"/>
-      <c r="J24" s="200"/>
-      <c r="K24" s="205"/>
+      <c r="I24" s="189"/>
+      <c r="J24" s="190"/>
+      <c r="K24" s="196"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="123">
@@ -7084,9 +5616,9 @@
       <c r="F25" s="26"/>
       <c r="G25" s="76"/>
       <c r="H25" s="77"/>
-      <c r="I25" s="199"/>
-      <c r="J25" s="200"/>
-      <c r="K25" s="205"/>
+      <c r="I25" s="189"/>
+      <c r="J25" s="190"/>
+      <c r="K25" s="196"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="123">
@@ -7106,9 +5638,9 @@
       <c r="F26" s="26"/>
       <c r="G26" s="76"/>
       <c r="H26" s="77"/>
-      <c r="I26" s="199"/>
-      <c r="J26" s="200"/>
-      <c r="K26" s="205"/>
+      <c r="I26" s="189"/>
+      <c r="J26" s="190"/>
+      <c r="K26" s="196"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="123">
@@ -7128,9 +5660,9 @@
       <c r="F27" s="26"/>
       <c r="G27" s="76"/>
       <c r="H27" s="77"/>
-      <c r="I27" s="199"/>
-      <c r="J27" s="200"/>
-      <c r="K27" s="205"/>
+      <c r="I27" s="189"/>
+      <c r="J27" s="190"/>
+      <c r="K27" s="196"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="123">
@@ -7150,9 +5682,9 @@
       <c r="F28" s="26"/>
       <c r="G28" s="76"/>
       <c r="H28" s="77"/>
-      <c r="I28" s="199"/>
-      <c r="J28" s="200"/>
-      <c r="K28" s="205"/>
+      <c r="I28" s="189"/>
+      <c r="J28" s="190"/>
+      <c r="K28" s="196"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="123">
@@ -7172,9 +5704,9 @@
       <c r="F29" s="26"/>
       <c r="G29" s="76"/>
       <c r="H29" s="77"/>
-      <c r="I29" s="199"/>
-      <c r="J29" s="200"/>
-      <c r="K29" s="205"/>
+      <c r="I29" s="189"/>
+      <c r="J29" s="190"/>
+      <c r="K29" s="196"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="129">
@@ -7194,9 +5726,9 @@
       <c r="F30" s="26"/>
       <c r="G30" s="76"/>
       <c r="H30" s="77"/>
-      <c r="I30" s="199"/>
-      <c r="J30" s="200"/>
-      <c r="K30" s="205"/>
+      <c r="I30" s="189"/>
+      <c r="J30" s="190"/>
+      <c r="K30" s="196"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="123">
@@ -7216,9 +5748,9 @@
       <c r="F31" s="26"/>
       <c r="G31" s="76"/>
       <c r="H31" s="77"/>
-      <c r="I31" s="199"/>
-      <c r="J31" s="200"/>
-      <c r="K31" s="205"/>
+      <c r="I31" s="189"/>
+      <c r="J31" s="190"/>
+      <c r="K31" s="196"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="123">
@@ -7238,9 +5770,9 @@
       <c r="F32" s="26"/>
       <c r="G32" s="76"/>
       <c r="H32" s="77"/>
-      <c r="I32" s="199"/>
-      <c r="J32" s="200"/>
-      <c r="K32" s="205"/>
+      <c r="I32" s="189"/>
+      <c r="J32" s="190"/>
+      <c r="K32" s="196"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="123">
@@ -7260,9 +5792,9 @@
       <c r="F33" s="26"/>
       <c r="G33" s="76"/>
       <c r="H33" s="77"/>
-      <c r="I33" s="199"/>
-      <c r="J33" s="200"/>
-      <c r="K33" s="205"/>
+      <c r="I33" s="189"/>
+      <c r="J33" s="190"/>
+      <c r="K33" s="196"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="123">
@@ -7282,9 +5814,9 @@
       <c r="F34" s="26"/>
       <c r="G34" s="76"/>
       <c r="H34" s="77"/>
-      <c r="I34" s="199"/>
-      <c r="J34" s="200"/>
-      <c r="K34" s="205"/>
+      <c r="I34" s="189"/>
+      <c r="J34" s="190"/>
+      <c r="K34" s="196"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="123">
@@ -7304,9 +5836,9 @@
       <c r="F35" s="26"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
-      <c r="I35" s="199"/>
-      <c r="J35" s="200"/>
-      <c r="K35" s="205"/>
+      <c r="I35" s="189"/>
+      <c r="J35" s="190"/>
+      <c r="K35" s="196"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="123">
@@ -7326,9 +5858,9 @@
       <c r="F36" s="26"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
-      <c r="I36" s="199"/>
-      <c r="J36" s="200"/>
-      <c r="K36" s="205"/>
+      <c r="I36" s="189"/>
+      <c r="J36" s="190"/>
+      <c r="K36" s="196"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="123">
@@ -7348,9 +5880,9 @@
       <c r="F37" s="26"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
-      <c r="I37" s="199"/>
-      <c r="J37" s="200"/>
-      <c r="K37" s="205"/>
+      <c r="I37" s="189"/>
+      <c r="J37" s="190"/>
+      <c r="K37" s="196"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="123">
@@ -7370,9 +5902,9 @@
       <c r="F38" s="26"/>
       <c r="G38" s="76"/>
       <c r="H38" s="77"/>
-      <c r="I38" s="199"/>
-      <c r="J38" s="200"/>
-      <c r="K38" s="205"/>
+      <c r="I38" s="189"/>
+      <c r="J38" s="190"/>
+      <c r="K38" s="196"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="130">
@@ -7392,9 +5924,9 @@
       <c r="F39" s="26"/>
       <c r="G39" s="76"/>
       <c r="H39" s="77"/>
-      <c r="I39" s="199"/>
-      <c r="J39" s="200"/>
-      <c r="K39" s="205"/>
+      <c r="I39" s="189"/>
+      <c r="J39" s="190"/>
+      <c r="K39" s="196"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="235" t="s">
@@ -7422,16 +5954,16 @@
         <f>AVERAGE(H10:H39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="200"/>
-      <c r="J40" s="200"/>
-      <c r="K40" s="205"/>
+      <c r="I40" s="190"/>
+      <c r="J40" s="190"/>
+      <c r="K40" s="196"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="175" t="s">
+      <c r="A41" s="218" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="176"/>
-      <c r="C41" s="176"/>
+      <c r="B41" s="219"/>
+      <c r="C41" s="219"/>
       <c r="D41" s="80">
         <f>MIN(D10:D39)</f>
         <v>0</v>
@@ -7452,16 +5984,16 @@
         <f>MIN(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="200"/>
-      <c r="J41" s="200"/>
-      <c r="K41" s="205"/>
+      <c r="I41" s="190"/>
+      <c r="J41" s="190"/>
+      <c r="K41" s="196"/>
     </row>
     <row r="42" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="221" t="s">
+      <c r="A42" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="222"/>
-      <c r="C42" s="222"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
       <c r="D42" s="82">
         <f>MAX(D10:D39)</f>
         <v>0</v>
@@ -7482,16 +6014,16 @@
         <f>MAX(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="203"/>
-      <c r="J42" s="203"/>
-      <c r="K42" s="206"/>
+      <c r="I42" s="194"/>
+      <c r="J42" s="194"/>
+      <c r="K42" s="197"/>
     </row>
     <row r="43" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="171"/>
-      <c r="C43" s="171"/>
+      <c r="B43" s="151"/>
+      <c r="C43" s="151"/>
       <c r="D43" s="44" t="s">
         <v>22</v>
       </c>
@@ -7508,8 +6040,8 @@
     </row>
     <row r="44" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50"/>
-      <c r="B44" s="172"/>
-      <c r="C44" s="172"/>
+      <c r="B44" s="152"/>
+      <c r="C44" s="152"/>
       <c r="D44" s="44"/>
       <c r="F44" s="46"/>
       <c r="G44" s="47"/>
@@ -7518,11 +6050,11 @@
       <c r="J44" s="51"/>
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="156" t="s">
+      <c r="A45" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="156"/>
-      <c r="C45" s="156"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="134"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="47" t="s">
@@ -7535,11 +6067,11 @@
       <c r="H45" s="44"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="156" t="s">
+      <c r="A46" s="134" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="156"/>
-      <c r="C46" s="156"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="134"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
@@ -7564,6 +6096,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="I6:K42"/>
     <mergeCell ref="H7:H9"/>
@@ -7580,36 +6121,27 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="notBetween">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="notBetween">
       <formula>55</formula>
       <formula>65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E42">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="notBetween">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notBetween">
       <formula>45</formula>
       <formula>55</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F42">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="notBetween">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notBetween">
       <formula>-16</formula>
       <formula>-6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:H42">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>0</formula>
       <formula>4</formula>
     </cfRule>
@@ -7627,7 +6159,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7640,15 +6172,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="289" t="s">
+      <c r="A1" s="240" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="290"/>
-      <c r="C1" s="290"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="290"/>
-      <c r="F1" s="290"/>
-      <c r="G1" s="291"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="242"/>
     </row>
     <row r="2" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="87"/>
@@ -7662,37 +6194,37 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="297" t="s">
+      <c r="A3" s="251" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="298"/>
-      <c r="C3" s="298"/>
-      <c r="D3" s="298"/>
-      <c r="E3" s="298"/>
-      <c r="F3" s="298"/>
-      <c r="G3" s="299"/>
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="252"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="253"/>
     </row>
     <row r="4" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="199" t="s">
+      <c r="A4" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="200"/>
-      <c r="C4" s="200"/>
-      <c r="D4" s="200"/>
-      <c r="E4" s="200"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="205"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="196"/>
     </row>
     <row r="5" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="292" t="s">
+      <c r="A5" s="243" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="293"/>
-      <c r="C5" s="293"/>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="294"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="245"/>
     </row>
     <row r="6" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
@@ -7704,14 +6236,15 @@
       <c r="C6" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="257" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="259"/>
-      <c r="F6" s="295" t="s">
+      <c r="D6" s="246">
+        <f>Page1!H4</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="247"/>
+      <c r="F6" s="248" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="280">
+      <c r="G6" s="249">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
@@ -7724,13 +6257,13 @@
       <c r="C7" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="257">
+      <c r="D7" s="246">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="259"/>
-      <c r="F7" s="295"/>
-      <c r="G7" s="296"/>
+      <c r="E7" s="247"/>
+      <c r="F7" s="248"/>
+      <c r="G7" s="250"/>
     </row>
     <row r="8" spans="1:7" s="86" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="90" t="s">
@@ -7743,15 +6276,15 @@
       <c r="C8" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="295">
+      <c r="D8" s="248">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="295"/>
-      <c r="F8" s="277" t="s">
+      <c r="E8" s="248"/>
+      <c r="F8" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="280">
+      <c r="G8" s="249">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
@@ -7764,15 +6297,15 @@
         <f>Page1!G44</f>
         <v>461359700</v>
       </c>
-      <c r="C9" s="277" t="s">
+      <c r="C9" s="263" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="283" t="s">
+      <c r="D9" s="268" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="284"/>
-      <c r="F9" s="278"/>
-      <c r="G9" s="281"/>
+      <c r="E9" s="269"/>
+      <c r="F9" s="264"/>
+      <c r="G9" s="266"/>
     </row>
     <row r="10" spans="1:7" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="97" t="s">
@@ -7782,34 +6315,34 @@
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="279"/>
-      <c r="D10" s="285"/>
-      <c r="E10" s="286"/>
-      <c r="F10" s="279"/>
-      <c r="G10" s="282"/>
+      <c r="C10" s="265"/>
+      <c r="D10" s="270"/>
+      <c r="E10" s="271"/>
+      <c r="F10" s="265"/>
+      <c r="G10" s="267"/>
     </row>
     <row r="11" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="300" t="s">
+      <c r="A11" s="254" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="302" t="s">
+      <c r="B11" s="256" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="304" t="s">
+      <c r="C11" s="258" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="305"/>
-      <c r="E11" s="306"/>
-      <c r="F11" s="302" t="s">
+      <c r="D11" s="259"/>
+      <c r="E11" s="260"/>
+      <c r="F11" s="256" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="307" t="s">
+      <c r="G11" s="261" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="301"/>
-      <c r="B12" s="303"/>
+      <c r="A12" s="255"/>
+      <c r="B12" s="257"/>
       <c r="C12" s="99" t="s">
         <v>60</v>
       </c>
@@ -7819,8 +6352,8 @@
       <c r="E12" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="303"/>
-      <c r="G12" s="308"/>
+      <c r="F12" s="257"/>
+      <c r="G12" s="262"/>
     </row>
     <row r="13" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="100" t="s">
@@ -7890,7 +6423,7 @@
         <f>Page1!K39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="287" t="s">
+      <c r="G15" s="272" t="s">
         <v>71</v>
       </c>
     </row>
@@ -8046,7 +6579,7 @@
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="138"/>
+      <c r="G22" s="156"/>
     </row>
     <row r="23" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="104" t="s">
@@ -8146,26 +6679,26 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="271" t="s">
+      <c r="A27" s="273" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="272"/>
-      <c r="C27" s="272"/>
-      <c r="D27" s="272"/>
-      <c r="E27" s="272"/>
-      <c r="F27" s="272"/>
-      <c r="G27" s="273"/>
+      <c r="B27" s="274"/>
+      <c r="C27" s="274"/>
+      <c r="D27" s="274"/>
+      <c r="E27" s="274"/>
+      <c r="F27" s="274"/>
+      <c r="G27" s="275"/>
     </row>
     <row r="28" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="255" t="s">
+      <c r="A28" s="276" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="256"/>
-      <c r="C28" s="274" t="s">
+      <c r="B28" s="277"/>
+      <c r="C28" s="278" t="s">
         <v>127</v>
       </c>
-      <c r="D28" s="275"/>
-      <c r="E28" s="276"/>
+      <c r="D28" s="279"/>
+      <c r="E28" s="280"/>
       <c r="F28" s="113" t="s">
         <v>92</v>
       </c>
@@ -8174,15 +6707,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="260" t="s">
+      <c r="A29" s="281" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="259"/>
-      <c r="C29" s="265" t="s">
+      <c r="B29" s="247"/>
+      <c r="C29" s="282" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="266"/>
-      <c r="E29" s="267"/>
+      <c r="D29" s="283"/>
+      <c r="E29" s="284"/>
       <c r="F29" s="66" t="s">
         <v>92</v>
       </c>
@@ -8191,15 +6724,15 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="260" t="s">
+      <c r="A30" s="281" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="259"/>
-      <c r="C30" s="265" t="s">
+      <c r="B30" s="247"/>
+      <c r="C30" s="282" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="266"/>
-      <c r="E30" s="267"/>
+      <c r="D30" s="283"/>
+      <c r="E30" s="284"/>
       <c r="F30" s="66" t="s">
         <v>92</v>
       </c>
@@ -8208,15 +6741,15 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="260" t="s">
+      <c r="A31" s="281" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="259"/>
-      <c r="C31" s="265" t="s">
+      <c r="B31" s="247"/>
+      <c r="C31" s="282" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="266"/>
-      <c r="E31" s="267"/>
+      <c r="D31" s="283"/>
+      <c r="E31" s="284"/>
       <c r="F31" s="66" t="s">
         <v>92</v>
       </c>
@@ -8225,15 +6758,15 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="260" t="s">
+      <c r="A32" s="281" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="259"/>
-      <c r="C32" s="265" t="s">
+      <c r="B32" s="247"/>
+      <c r="C32" s="282" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="266"/>
-      <c r="E32" s="267"/>
+      <c r="D32" s="283"/>
+      <c r="E32" s="284"/>
       <c r="F32" s="66" t="s">
         <v>92</v>
       </c>
@@ -8242,15 +6775,15 @@
       </c>
     </row>
     <row r="33" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="260" t="s">
+      <c r="A33" s="281" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="259"/>
-      <c r="C33" s="265" t="s">
+      <c r="B33" s="247"/>
+      <c r="C33" s="282" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="266"/>
-      <c r="E33" s="267"/>
+      <c r="D33" s="283"/>
+      <c r="E33" s="284"/>
       <c r="F33" s="66" t="s">
         <v>92</v>
       </c>
@@ -8259,15 +6792,15 @@
       </c>
     </row>
     <row r="34" spans="1:7" s="86" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="148" t="s">
+      <c r="A34" s="166" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="149"/>
-      <c r="C34" s="268" t="s">
+      <c r="B34" s="167"/>
+      <c r="C34" s="287" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="269"/>
-      <c r="E34" s="270"/>
+      <c r="D34" s="288"/>
+      <c r="E34" s="289"/>
       <c r="F34" s="114" t="s">
         <v>92</v>
       </c>
@@ -8276,26 +6809,26 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="271" t="s">
+      <c r="A35" s="273" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="272"/>
-      <c r="C35" s="272"/>
-      <c r="D35" s="272"/>
-      <c r="E35" s="272"/>
-      <c r="F35" s="272"/>
-      <c r="G35" s="273"/>
+      <c r="B35" s="274"/>
+      <c r="C35" s="274"/>
+      <c r="D35" s="274"/>
+      <c r="E35" s="274"/>
+      <c r="F35" s="274"/>
+      <c r="G35" s="275"/>
     </row>
     <row r="36" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="144" t="s">
+      <c r="A36" s="162" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="145"/>
-      <c r="C36" s="263" t="s">
+      <c r="B36" s="163"/>
+      <c r="C36" s="285" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="264"/>
-      <c r="E36" s="145"/>
+      <c r="D36" s="286"/>
+      <c r="E36" s="163"/>
       <c r="F36" s="10" t="s">
         <v>92</v>
       </c>
@@ -8304,15 +6837,15 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="255" t="s">
+      <c r="A37" s="276" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="256"/>
-      <c r="C37" s="257" t="s">
+      <c r="B37" s="277"/>
+      <c r="C37" s="246" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="258"/>
-      <c r="E37" s="259"/>
+      <c r="D37" s="290"/>
+      <c r="E37" s="247"/>
       <c r="F37" s="106" t="s">
         <v>92</v>
       </c>
@@ -8321,15 +6854,15 @@
       </c>
     </row>
     <row r="38" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="260" t="s">
+      <c r="A38" s="281" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="259"/>
-      <c r="C38" s="257" t="s">
+      <c r="B38" s="247"/>
+      <c r="C38" s="246" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="258"/>
-      <c r="E38" s="259"/>
+      <c r="D38" s="290"/>
+      <c r="E38" s="247"/>
       <c r="F38" s="106" t="s">
         <v>92</v>
       </c>
@@ -8338,15 +6871,15 @@
       </c>
     </row>
     <row r="39" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="148" t="s">
+      <c r="A39" s="166" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="149"/>
-      <c r="C39" s="261" t="s">
+      <c r="B39" s="167"/>
+      <c r="C39" s="291" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="262"/>
-      <c r="E39" s="149"/>
+      <c r="D39" s="292"/>
+      <c r="E39" s="167"/>
       <c r="F39" s="1" t="s">
         <v>92</v>
       </c>
@@ -8355,50 +6888,50 @@
       </c>
     </row>
     <row r="40" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="241" t="s">
+      <c r="A40" s="295" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="242"/>
-      <c r="C40" s="243" t="s">
+      <c r="B40" s="296"/>
+      <c r="C40" s="297" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="244"/>
-      <c r="E40" s="245"/>
-      <c r="F40" s="243" t="s">
+      <c r="D40" s="298"/>
+      <c r="E40" s="299"/>
+      <c r="F40" s="297" t="s">
         <v>138</v>
       </c>
-      <c r="G40" s="245"/>
+      <c r="G40" s="299"/>
     </row>
     <row r="41" spans="1:7" s="86" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="246"/>
-      <c r="B41" s="247"/>
-      <c r="C41" s="199"/>
-      <c r="D41" s="200"/>
-      <c r="E41" s="205"/>
-      <c r="F41" s="250"/>
-      <c r="G41" s="251"/>
+      <c r="A41" s="300"/>
+      <c r="B41" s="301"/>
+      <c r="C41" s="189"/>
+      <c r="D41" s="190"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="304"/>
+      <c r="G41" s="305"/>
     </row>
     <row r="42" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="248"/>
-      <c r="B42" s="249"/>
-      <c r="C42" s="252" t="s">
+      <c r="A42" s="302"/>
+      <c r="B42" s="303"/>
+      <c r="C42" s="306" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="253"/>
-      <c r="E42" s="254"/>
-      <c r="F42" s="252" t="s">
+      <c r="D42" s="307"/>
+      <c r="E42" s="308"/>
+      <c r="F42" s="306" t="s">
         <v>139</v>
       </c>
-      <c r="G42" s="254"/>
+      <c r="G42" s="308"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="115"/>
       <c r="B43" s="115"/>
       <c r="C43" s="115"/>
       <c r="D43" s="115"/>
-      <c r="E43" s="239"/>
-      <c r="F43" s="239"/>
-      <c r="G43" s="239"/>
+      <c r="E43" s="293"/>
+      <c r="F43" s="293"/>
+      <c r="G43" s="293"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="46" t="s">
@@ -8407,24 +6940,63 @@
       <c r="B44" s="116"/>
       <c r="C44" s="118"/>
       <c r="D44" s="115"/>
-      <c r="E44" s="240"/>
-      <c r="F44" s="240"/>
-      <c r="G44" s="240"/>
+      <c r="E44" s="294"/>
+      <c r="F44" s="294"/>
+      <c r="G44" s="294"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="288" t="s">
+      <c r="A46" s="239" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="288"/>
+      <c r="B46" s="239"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="288" t="s">
+      <c r="A47" s="239" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="288"/>
+      <c r="B47" s="239"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="G15:G22"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A1:G1"/>
@@ -8441,45 +7013,6 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="G15:G22"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.78740157480314965" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>

--- a/backend/templates/UC-18gsm-210W-BFQR.xlsx
+++ b/backend/templates/UC-18gsm-210W-BFQR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00DB193-E85B-44C3-AA1A-52AC6DB8DE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2717A4-72D6-43AB-B9E9-95C05548D9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1443,7 +1443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="309">
+  <cellXfs count="310">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2393,20 +2393,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6159,7 +6162,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6902,27 +6905,27 @@
       </c>
       <c r="G40" s="299"/>
     </row>
-    <row r="41" spans="1:7" s="86" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="86" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="300"/>
       <c r="B41" s="301"/>
-      <c r="C41" s="189"/>
-      <c r="D41" s="190"/>
-      <c r="E41" s="196"/>
+      <c r="C41" s="304"/>
+      <c r="D41" s="305"/>
+      <c r="E41" s="306"/>
       <c r="F41" s="304"/>
-      <c r="G41" s="305"/>
-    </row>
-    <row r="42" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G41" s="306"/>
+    </row>
+    <row r="42" spans="1:7" s="86" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="302"/>
       <c r="B42" s="303"/>
-      <c r="C42" s="306" t="s">
+      <c r="C42" s="307" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="307"/>
-      <c r="E42" s="308"/>
-      <c r="F42" s="306" t="s">
+      <c r="D42" s="308"/>
+      <c r="E42" s="309"/>
+      <c r="F42" s="307" t="s">
         <v>139</v>
       </c>
-      <c r="G42" s="308"/>
+      <c r="G42" s="309"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="115"/>

--- a/backend/templates/UC-18gsm-210W-BFQR.xlsx
+++ b/backend/templates/UC-18gsm-210W-BFQR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2717A4-72D6-43AB-B9E9-95C05548D9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ACAF7A-3BFB-4C09-BB80-1499451296A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -623,7 +623,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="67">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -1416,19 +1416,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1443,7 +1430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="310">
+  <cellXfs count="305">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1833,21 +1820,12 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1863,10 +1841,79 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="58" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1884,133 +1931,172 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2025,141 +2111,21 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2177,25 +2143,163 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2219,18 +2323,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2270,145 +2365,22 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2976,7 +2948,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2990,35 +2962,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -3039,12 +3011,12 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="162" t="s">
+      <c r="A4" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="163"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="165"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="143"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -3056,19 +3028,19 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="157"/>
-      <c r="K4" s="158"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="136"/>
       <c r="M4" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="169"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -3080,64 +3052,64 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="159"/>
-      <c r="K5" s="160"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="138"/>
     </row>
     <row r="6" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="153" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="136"/>
-      <c r="C6" s="137"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="155"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="153"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="155"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="132"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139" t="s">
+      <c r="A7" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="139" t="s">
+      <c r="E7" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="139" t="s">
+      <c r="F7" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="170" t="s">
+      <c r="G7" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="170" t="s">
+      <c r="H7" s="148" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="139" t="s">
+      <c r="I7" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="139"/>
-      <c r="K7" s="156"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="134"/>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="140"/>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141" t="s">
+      <c r="A8" s="157"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="141"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3539,11 +3511,11 @@
       <c r="K38" s="28"/>
     </row>
     <row r="39" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="148" t="s">
+      <c r="A39" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="149"/>
-      <c r="C39" s="150"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="166"/>
       <c r="D39" s="35" t="e">
         <f t="shared" ref="D39:K39" si="0">AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -3578,11 +3550,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="145" t="s">
+      <c r="A40" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="146"/>
-      <c r="C40" s="147"/>
+      <c r="B40" s="162"/>
+      <c r="C40" s="163"/>
       <c r="D40" s="38">
         <f t="shared" ref="D40:K40" si="1">MIN(D9:D38)</f>
         <v>0</v>
@@ -3617,11 +3589,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="142" t="s">
+      <c r="A41" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="143"/>
-      <c r="C41" s="144"/>
+      <c r="B41" s="159"/>
+      <c r="C41" s="160"/>
       <c r="D41" s="41">
         <f t="shared" ref="D41:K41" si="2">MAX(D9:D38)</f>
         <v>0</v>
@@ -3662,8 +3634,8 @@
       <c r="A42" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="151"/>
-      <c r="C42" s="151"/>
+      <c r="B42" s="167"/>
+      <c r="C42" s="167"/>
       <c r="D42" s="44" t="s">
         <v>22</v>
       </c>
@@ -3680,8 +3652,8 @@
     </row>
     <row r="43" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50"/>
-      <c r="B43" s="152"/>
-      <c r="C43" s="152"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
       <c r="D43" s="44"/>
       <c r="F43" s="46"/>
       <c r="G43" s="47"/>
@@ -3690,11 +3662,11 @@
       <c r="J43" s="51"/>
     </row>
     <row r="44" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="134" t="s">
+      <c r="A44" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="134"/>
-      <c r="C44" s="134"/>
+      <c r="B44" s="152"/>
+      <c r="C44" s="152"/>
       <c r="D44" s="44"/>
       <c r="E44" s="44"/>
       <c r="F44" s="47" t="s">
@@ -3706,11 +3678,11 @@
       <c r="H44" s="44"/>
     </row>
     <row r="45" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="134" t="s">
+      <c r="A45" s="152" t="s">
         <v>133</v>
       </c>
-      <c r="B45" s="134"/>
-      <c r="C45" s="134"/>
+      <c r="B45" s="152"/>
+      <c r="C45" s="152"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="44"/>
@@ -3752,6 +3724,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="J4:K4"/>
@@ -3768,15 +3749,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D9:D41">
@@ -3838,7 +3810,7 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3849,35 +3821,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -3898,18 +3870,18 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="162" t="s">
+      <c r="A4" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="163">
+      <c r="B4" s="141">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="220">
+      <c r="C4" s="173">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="209"/>
+      <c r="D4" s="174"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -3927,25 +3899,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="221">
+      <c r="J4" s="175">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="222"/>
+      <c r="K4" s="176"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="167">
+      <c r="B5" s="145">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="168">
+      <c r="C5" s="146">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="169"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -3963,104 +3935,104 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="185">
+      <c r="J5" s="191">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="186"/>
+      <c r="K5" s="192"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="205" t="s">
+      <c r="A6" s="208" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="206"/>
-      <c r="C6" s="207"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="188"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="202"/>
-      <c r="J6" s="203"/>
+      <c r="B6" s="209"/>
+      <c r="C6" s="209"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="206"/>
+      <c r="J6" s="207"/>
       <c r="K6" s="55"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="187" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="188"/>
-      <c r="C7" s="188"/>
-      <c r="D7" s="208" t="s">
+      <c r="A7" s="193" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="194"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="225" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="188"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="191" t="s">
+      <c r="E7" s="194"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="181" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="188"/>
-      <c r="I7" s="191" t="s">
+      <c r="H7" s="194"/>
+      <c r="I7" s="181" t="s">
         <v>135</v>
       </c>
-      <c r="J7" s="204"/>
-      <c r="K7" s="195" t="s">
+      <c r="J7" s="182"/>
+      <c r="K7" s="200" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="189"/>
-      <c r="B8" s="190"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="189" t="s">
+      <c r="A8" s="195"/>
+      <c r="B8" s="299"/>
+      <c r="C8" s="204"/>
+      <c r="D8" s="299" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="199" t="s">
+      <c r="E8" s="203" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="200" t="s">
+      <c r="F8" s="204" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="192"/>
-      <c r="H8" s="190"/>
-      <c r="I8" s="192" t="s">
+      <c r="G8" s="197"/>
+      <c r="H8" s="196"/>
+      <c r="I8" s="197" t="s">
         <v>136</v>
       </c>
-      <c r="J8" s="200"/>
-      <c r="K8" s="196"/>
+      <c r="J8" s="204"/>
+      <c r="K8" s="201"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="189"/>
-      <c r="B9" s="190"/>
-      <c r="C9" s="190"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="200"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="190"/>
+      <c r="A9" s="195"/>
+      <c r="B9" s="299"/>
+      <c r="C9" s="204"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="204"/>
+      <c r="G9" s="197"/>
+      <c r="H9" s="196"/>
       <c r="I9" s="57" t="s">
         <v>123</v>
       </c>
       <c r="J9" s="58">
         <v>210</v>
       </c>
-      <c r="K9" s="196"/>
+      <c r="K9" s="201"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="189"/>
-      <c r="B10" s="190"/>
-      <c r="C10" s="190"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="201"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="194"/>
+      <c r="A10" s="195"/>
+      <c r="B10" s="299"/>
+      <c r="C10" s="204"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="205"/>
+      <c r="G10" s="198"/>
+      <c r="H10" s="199"/>
       <c r="I10" s="59" t="s">
         <v>124</v>
       </c>
       <c r="J10" s="60">
         <v>213</v>
       </c>
-      <c r="K10" s="197"/>
+      <c r="K10" s="202"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="120">
@@ -4071,663 +4043,663 @@
         <f>Page1!B9</f>
         <v>0</v>
       </c>
-      <c r="C11" s="122">
+      <c r="C11" s="300">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
       <c r="D11" s="61"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="212"/>
-      <c r="H11" s="212"/>
-      <c r="I11" s="223"/>
-      <c r="J11" s="224"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="178"/>
       <c r="K11" s="62"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="123">
+      <c r="A12" s="122">
         <f>Page1!A10</f>
         <v>0</v>
       </c>
-      <c r="B12" s="124">
+      <c r="B12" s="123">
         <f>Page1!B10</f>
         <v>0</v>
       </c>
-      <c r="C12" s="125">
+      <c r="C12" s="301">
         <f>Page1!C10</f>
         <v>0</v>
       </c>
       <c r="D12" s="63"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="213"/>
-      <c r="H12" s="213"/>
-      <c r="I12" s="175"/>
-      <c r="J12" s="176"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="179"/>
+      <c r="J12" s="180"/>
       <c r="K12" s="64"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="123">
+      <c r="A13" s="122">
         <f>Page1!A11</f>
         <v>0</v>
       </c>
-      <c r="B13" s="124">
+      <c r="B13" s="123">
         <f>Page1!B11</f>
         <v>0</v>
       </c>
-      <c r="C13" s="126">
+      <c r="C13" s="302">
         <f>Page1!C11</f>
         <v>0</v>
       </c>
       <c r="D13" s="63"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="213"/>
-      <c r="H13" s="213"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="176"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="179"/>
+      <c r="J13" s="180"/>
       <c r="K13" s="64"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="123">
+      <c r="A14" s="122">
         <f>Page1!A12</f>
         <v>0</v>
       </c>
-      <c r="B14" s="127">
+      <c r="B14" s="124">
         <f>Page1!B12</f>
         <v>0</v>
       </c>
-      <c r="C14" s="126">
+      <c r="C14" s="302">
         <f>Page1!C12</f>
         <v>0</v>
       </c>
       <c r="D14" s="63"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="213"/>
-      <c r="H14" s="213"/>
-      <c r="I14" s="175"/>
-      <c r="J14" s="176"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="179"/>
+      <c r="J14" s="180"/>
       <c r="K14" s="64"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="123">
+      <c r="A15" s="122">
         <f>Page1!A13</f>
         <v>0</v>
       </c>
-      <c r="B15" s="124">
+      <c r="B15" s="123">
         <f>Page1!B13</f>
         <v>0</v>
       </c>
-      <c r="C15" s="125">
+      <c r="C15" s="301">
         <f>Page1!C13</f>
         <v>0</v>
       </c>
       <c r="D15" s="63"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="213"/>
-      <c r="H15" s="213"/>
-      <c r="I15" s="175"/>
-      <c r="J15" s="176"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="180"/>
       <c r="K15" s="64"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="123">
+      <c r="A16" s="122">
         <f>Page1!A14</f>
         <v>0</v>
       </c>
-      <c r="B16" s="124">
+      <c r="B16" s="123">
         <f>Page1!B14</f>
         <v>0</v>
       </c>
-      <c r="C16" s="125">
+      <c r="C16" s="301">
         <f>Page1!C14</f>
         <v>0</v>
       </c>
       <c r="D16" s="61"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="212"/>
-      <c r="H16" s="212"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="176"/>
+      <c r="G16" s="190"/>
+      <c r="H16" s="190"/>
+      <c r="I16" s="179"/>
+      <c r="J16" s="180"/>
       <c r="K16" s="62"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="123">
+      <c r="A17" s="122">
         <f>Page1!A15</f>
         <v>0</v>
       </c>
-      <c r="B17" s="124">
+      <c r="B17" s="123">
         <f>Page1!B15</f>
         <v>0</v>
       </c>
-      <c r="C17" s="125">
+      <c r="C17" s="301">
         <f>Page1!C15</f>
         <v>0</v>
       </c>
       <c r="D17" s="63"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="213"/>
-      <c r="H17" s="213"/>
-      <c r="I17" s="175"/>
-      <c r="J17" s="176"/>
+      <c r="G17" s="189"/>
+      <c r="H17" s="189"/>
+      <c r="I17" s="179"/>
+      <c r="J17" s="180"/>
       <c r="K17" s="64"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="123">
+      <c r="A18" s="122">
         <f>Page1!A16</f>
         <v>0</v>
       </c>
-      <c r="B18" s="124">
+      <c r="B18" s="123">
         <f>Page1!B16</f>
         <v>0</v>
       </c>
-      <c r="C18" s="125">
+      <c r="C18" s="301">
         <f>Page1!C16</f>
         <v>0</v>
       </c>
       <c r="D18" s="63"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="213"/>
-      <c r="H18" s="213"/>
-      <c r="I18" s="175"/>
-      <c r="J18" s="176"/>
+      <c r="G18" s="189"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="180"/>
       <c r="K18" s="64"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="123">
+      <c r="A19" s="122">
         <f>Page1!A17</f>
         <v>0</v>
       </c>
-      <c r="B19" s="128">
+      <c r="B19" s="125">
         <f>Page1!B17</f>
         <v>0</v>
       </c>
-      <c r="C19" s="125">
+      <c r="C19" s="301">
         <f>Page1!C17</f>
         <v>0</v>
       </c>
       <c r="D19" s="63"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="175"/>
-      <c r="J19" s="176"/>
+      <c r="G19" s="189"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="179"/>
+      <c r="J19" s="180"/>
       <c r="K19" s="64"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="123">
+      <c r="A20" s="122">
         <f>Page1!A18</f>
         <v>0</v>
       </c>
-      <c r="B20" s="124">
+      <c r="B20" s="123">
         <f>Page1!B18</f>
         <v>0</v>
       </c>
-      <c r="C20" s="125">
+      <c r="C20" s="301">
         <f>Page1!C18</f>
         <v>0</v>
       </c>
       <c r="D20" s="63"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="210"/>
-      <c r="H20" s="211"/>
-      <c r="I20" s="175"/>
-      <c r="J20" s="176"/>
+      <c r="G20" s="185"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="179"/>
+      <c r="J20" s="180"/>
       <c r="K20" s="64"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="129">
+      <c r="A21" s="126">
         <f>Page1!A19</f>
         <v>0</v>
       </c>
-      <c r="B21" s="128">
+      <c r="B21" s="125">
         <f>Page1!B19</f>
         <v>0</v>
       </c>
-      <c r="C21" s="126">
+      <c r="C21" s="302">
         <f>Page1!C19</f>
         <v>0</v>
       </c>
       <c r="D21" s="63"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="210"/>
-      <c r="H21" s="211"/>
-      <c r="I21" s="175"/>
-      <c r="J21" s="176"/>
+      <c r="G21" s="185"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="179"/>
+      <c r="J21" s="180"/>
       <c r="K21" s="64"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="123">
+      <c r="A22" s="122">
         <f>Page1!A20</f>
         <v>0</v>
       </c>
-      <c r="B22" s="124">
+      <c r="B22" s="123">
         <f>Page1!B20</f>
         <v>0</v>
       </c>
-      <c r="C22" s="125">
+      <c r="C22" s="301">
         <f>Page1!C20</f>
         <v>0</v>
       </c>
       <c r="D22" s="63"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="210"/>
-      <c r="H22" s="211"/>
-      <c r="I22" s="175"/>
-      <c r="J22" s="176"/>
+      <c r="G22" s="185"/>
+      <c r="H22" s="186"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="180"/>
       <c r="K22" s="64"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="123">
+      <c r="A23" s="122">
         <f>Page1!A21</f>
         <v>0</v>
       </c>
-      <c r="B23" s="124">
+      <c r="B23" s="123">
         <f>Page1!B21</f>
         <v>0</v>
       </c>
-      <c r="C23" s="126">
+      <c r="C23" s="302">
         <f>Page1!C21</f>
         <v>0</v>
       </c>
       <c r="D23" s="63"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="210"/>
-      <c r="H23" s="211"/>
-      <c r="I23" s="175"/>
-      <c r="J23" s="176"/>
+      <c r="G23" s="185"/>
+      <c r="H23" s="186"/>
+      <c r="I23" s="179"/>
+      <c r="J23" s="180"/>
       <c r="K23" s="64"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="123">
+      <c r="A24" s="122">
         <f>Page1!A22</f>
         <v>0</v>
       </c>
-      <c r="B24" s="127">
+      <c r="B24" s="124">
         <f>Page1!B22</f>
         <v>0</v>
       </c>
-      <c r="C24" s="126">
+      <c r="C24" s="302">
         <f>Page1!C22</f>
         <v>0</v>
       </c>
       <c r="D24" s="63"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="210"/>
-      <c r="H24" s="211"/>
-      <c r="I24" s="175"/>
-      <c r="J24" s="176"/>
+      <c r="G24" s="185"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="179"/>
+      <c r="J24" s="180"/>
       <c r="K24" s="64"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="123">
+      <c r="A25" s="122">
         <f>Page1!A23</f>
         <v>0</v>
       </c>
-      <c r="B25" s="124">
+      <c r="B25" s="123">
         <f>Page1!B23</f>
         <v>0</v>
       </c>
-      <c r="C25" s="125">
+      <c r="C25" s="301">
         <f>Page1!C23</f>
         <v>0</v>
       </c>
       <c r="D25" s="63"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="210"/>
-      <c r="H25" s="211"/>
-      <c r="I25" s="175"/>
-      <c r="J25" s="176"/>
+      <c r="G25" s="185"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="179"/>
+      <c r="J25" s="180"/>
       <c r="K25" s="64"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="123">
+      <c r="A26" s="122">
         <f>Page1!A24</f>
         <v>0</v>
       </c>
-      <c r="B26" s="124">
+      <c r="B26" s="123">
         <f>Page1!B24</f>
         <v>0</v>
       </c>
-      <c r="C26" s="125">
+      <c r="C26" s="301">
         <f>Page1!C24</f>
         <v>0</v>
       </c>
       <c r="D26" s="63"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="210"/>
-      <c r="H26" s="211"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="176"/>
+      <c r="G26" s="185"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="179"/>
+      <c r="J26" s="180"/>
       <c r="K26" s="64"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="123">
+      <c r="A27" s="122">
         <f>Page1!A25</f>
         <v>0</v>
       </c>
-      <c r="B27" s="124">
+      <c r="B27" s="123">
         <f>Page1!B25</f>
         <v>0</v>
       </c>
-      <c r="C27" s="125">
+      <c r="C27" s="301">
         <f>Page1!C25</f>
         <v>0</v>
       </c>
       <c r="D27" s="63"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="210"/>
-      <c r="H27" s="211"/>
-      <c r="I27" s="175"/>
-      <c r="J27" s="176"/>
+      <c r="G27" s="185"/>
+      <c r="H27" s="186"/>
+      <c r="I27" s="179"/>
+      <c r="J27" s="180"/>
       <c r="K27" s="64"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="123">
+      <c r="A28" s="122">
         <f>Page1!A26</f>
         <v>0</v>
       </c>
-      <c r="B28" s="124">
+      <c r="B28" s="123">
         <f>Page1!B26</f>
         <v>0</v>
       </c>
-      <c r="C28" s="125">
+      <c r="C28" s="301">
         <f>Page1!C26</f>
         <v>0</v>
       </c>
       <c r="D28" s="63"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="210"/>
-      <c r="H28" s="211"/>
-      <c r="I28" s="175"/>
-      <c r="J28" s="176"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="179"/>
+      <c r="J28" s="180"/>
       <c r="K28" s="64"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="123">
+      <c r="A29" s="122">
         <f>Page1!A27</f>
         <v>0</v>
       </c>
-      <c r="B29" s="128">
+      <c r="B29" s="125">
         <f>Page1!B27</f>
         <v>0</v>
       </c>
-      <c r="C29" s="125">
+      <c r="C29" s="301">
         <f>Page1!C27</f>
         <v>0</v>
       </c>
       <c r="D29" s="63"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="210"/>
-      <c r="H29" s="211"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="176"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="186"/>
+      <c r="I29" s="179"/>
+      <c r="J29" s="180"/>
       <c r="K29" s="64"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="123">
+      <c r="A30" s="122">
         <f>Page1!A28</f>
         <v>0</v>
       </c>
-      <c r="B30" s="124">
+      <c r="B30" s="123">
         <f>Page1!B28</f>
         <v>0</v>
       </c>
-      <c r="C30" s="125">
+      <c r="C30" s="301">
         <f>Page1!C28</f>
         <v>0</v>
       </c>
       <c r="D30" s="63"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="210"/>
-      <c r="H30" s="211"/>
-      <c r="I30" s="175"/>
-      <c r="J30" s="176"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="186"/>
+      <c r="I30" s="179"/>
+      <c r="J30" s="180"/>
       <c r="K30" s="64"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="129">
+      <c r="A31" s="126">
         <f>Page1!A29</f>
         <v>0</v>
       </c>
-      <c r="B31" s="128">
+      <c r="B31" s="125">
         <f>Page1!B29</f>
         <v>0</v>
       </c>
-      <c r="C31" s="126">
+      <c r="C31" s="302">
         <f>Page1!C29</f>
         <v>0</v>
       </c>
       <c r="D31" s="63"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="210"/>
-      <c r="H31" s="211"/>
-      <c r="I31" s="175"/>
-      <c r="J31" s="176"/>
+      <c r="G31" s="185"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="179"/>
+      <c r="J31" s="180"/>
       <c r="K31" s="64"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="123">
+      <c r="A32" s="122">
         <f>Page1!A30</f>
         <v>0</v>
       </c>
-      <c r="B32" s="124">
+      <c r="B32" s="123">
         <f>Page1!B30</f>
         <v>0</v>
       </c>
-      <c r="C32" s="125">
+      <c r="C32" s="301">
         <f>Page1!C30</f>
         <v>0</v>
       </c>
       <c r="D32" s="63"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="210"/>
-      <c r="H32" s="211"/>
-      <c r="I32" s="175"/>
-      <c r="J32" s="176"/>
+      <c r="G32" s="185"/>
+      <c r="H32" s="186"/>
+      <c r="I32" s="179"/>
+      <c r="J32" s="180"/>
       <c r="K32" s="64"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="123">
+      <c r="A33" s="122">
         <f>Page1!A31</f>
         <v>0</v>
       </c>
-      <c r="B33" s="124">
+      <c r="B33" s="123">
         <f>Page1!B31</f>
         <v>0</v>
       </c>
-      <c r="C33" s="126">
+      <c r="C33" s="302">
         <f>Page1!C31</f>
         <v>0</v>
       </c>
       <c r="D33" s="63"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="210"/>
-      <c r="H33" s="211"/>
-      <c r="I33" s="175"/>
-      <c r="J33" s="176"/>
+      <c r="G33" s="185"/>
+      <c r="H33" s="186"/>
+      <c r="I33" s="179"/>
+      <c r="J33" s="180"/>
       <c r="K33" s="64"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="123">
+      <c r="A34" s="122">
         <f>Page1!A32</f>
         <v>0</v>
       </c>
-      <c r="B34" s="127">
+      <c r="B34" s="124">
         <f>Page1!B32</f>
         <v>0</v>
       </c>
-      <c r="C34" s="126">
+      <c r="C34" s="302">
         <f>Page1!C32</f>
         <v>0</v>
       </c>
       <c r="D34" s="63"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
-      <c r="G34" s="210"/>
-      <c r="H34" s="211"/>
-      <c r="I34" s="175"/>
-      <c r="J34" s="176"/>
+      <c r="G34" s="185"/>
+      <c r="H34" s="186"/>
+      <c r="I34" s="179"/>
+      <c r="J34" s="180"/>
       <c r="K34" s="64"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="123">
+      <c r="A35" s="122">
         <f>Page1!A33</f>
         <v>0</v>
       </c>
-      <c r="B35" s="124">
+      <c r="B35" s="123">
         <f>Page1!B33</f>
         <v>0</v>
       </c>
-      <c r="C35" s="125">
+      <c r="C35" s="301">
         <f>Page1!C33</f>
         <v>0</v>
       </c>
       <c r="D35" s="63"/>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="210"/>
-      <c r="H35" s="211"/>
-      <c r="I35" s="175"/>
-      <c r="J35" s="176"/>
+      <c r="G35" s="185"/>
+      <c r="H35" s="186"/>
+      <c r="I35" s="179"/>
+      <c r="J35" s="180"/>
       <c r="K35" s="64"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="123">
+      <c r="A36" s="122">
         <f>Page1!A34</f>
         <v>0</v>
       </c>
-      <c r="B36" s="124">
+      <c r="B36" s="123">
         <f>Page1!B34</f>
         <v>0</v>
       </c>
-      <c r="C36" s="125">
+      <c r="C36" s="301">
         <f>Page1!C34</f>
         <v>0</v>
       </c>
       <c r="D36" s="63"/>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="210"/>
-      <c r="H36" s="211"/>
-      <c r="I36" s="175"/>
-      <c r="J36" s="176"/>
+      <c r="G36" s="185"/>
+      <c r="H36" s="186"/>
+      <c r="I36" s="179"/>
+      <c r="J36" s="180"/>
       <c r="K36" s="64"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="123">
+      <c r="A37" s="122">
         <f>Page1!A35</f>
         <v>0</v>
       </c>
-      <c r="B37" s="124">
+      <c r="B37" s="123">
         <f>Page1!B35</f>
         <v>0</v>
       </c>
-      <c r="C37" s="125">
+      <c r="C37" s="301">
         <f>Page1!C35</f>
         <v>0</v>
       </c>
       <c r="D37" s="63"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="210"/>
-      <c r="H37" s="211"/>
-      <c r="I37" s="175"/>
-      <c r="J37" s="176"/>
+      <c r="G37" s="185"/>
+      <c r="H37" s="186"/>
+      <c r="I37" s="179"/>
+      <c r="J37" s="180"/>
       <c r="K37" s="64"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="123">
+      <c r="A38" s="122">
         <f>Page1!A36</f>
         <v>0</v>
       </c>
-      <c r="B38" s="124">
+      <c r="B38" s="123">
         <f>Page1!B36</f>
         <v>0</v>
       </c>
-      <c r="C38" s="125">
+      <c r="C38" s="301">
         <f>Page1!C36</f>
         <v>0</v>
       </c>
       <c r="D38" s="63"/>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="210"/>
-      <c r="H38" s="211"/>
-      <c r="I38" s="175"/>
-      <c r="J38" s="176"/>
+      <c r="G38" s="185"/>
+      <c r="H38" s="186"/>
+      <c r="I38" s="179"/>
+      <c r="J38" s="180"/>
       <c r="K38" s="64"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="123">
+      <c r="A39" s="122">
         <f>Page1!A37</f>
         <v>0</v>
       </c>
-      <c r="B39" s="124">
+      <c r="B39" s="123">
         <f>Page1!B37</f>
         <v>0</v>
       </c>
-      <c r="C39" s="125">
+      <c r="C39" s="301">
         <f>Page1!C37</f>
         <v>0</v>
       </c>
       <c r="D39" s="63"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="210"/>
-      <c r="H39" s="211"/>
-      <c r="I39" s="175"/>
-      <c r="J39" s="176"/>
+      <c r="G39" s="185"/>
+      <c r="H39" s="186"/>
+      <c r="I39" s="179"/>
+      <c r="J39" s="180"/>
       <c r="K39" s="64"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="130">
+      <c r="A40" s="127">
         <f>Page1!A38</f>
         <v>0</v>
       </c>
-      <c r="B40" s="131">
+      <c r="B40" s="128">
         <f>Page1!B38</f>
         <v>0</v>
       </c>
-      <c r="C40" s="132">
+      <c r="C40" s="303">
         <f>Page1!C38</f>
         <v>0</v>
       </c>
       <c r="D40" s="63"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
-      <c r="G40" s="213"/>
-      <c r="H40" s="213"/>
-      <c r="I40" s="175"/>
-      <c r="J40" s="176"/>
+      <c r="G40" s="189"/>
+      <c r="H40" s="189"/>
+      <c r="I40" s="179"/>
+      <c r="J40" s="180"/>
       <c r="K40" s="64"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="216" t="s">
+      <c r="A41" s="169" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="217"/>
-      <c r="C41" s="217"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="170"/>
       <c r="D41" s="65" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
@@ -4740,27 +4712,27 @@
         <f>AVERAGE(F11:F40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="214" t="e">
+      <c r="G41" s="187" t="e">
         <f>AVERAGE(G11:H40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="215"/>
-      <c r="I41" s="177" t="e">
+      <c r="H41" s="188"/>
+      <c r="I41" s="218" t="e">
         <f>AVERAGE(I11:J40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="178"/>
+      <c r="J41" s="219"/>
       <c r="K41" s="37" t="e">
         <f>AVERAGE(K11:K40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="218" t="s">
+      <c r="A42" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="219"/>
-      <c r="C42" s="219"/>
+      <c r="B42" s="172"/>
+      <c r="C42" s="172"/>
       <c r="D42" s="66">
         <f>MIN(D11:D40)</f>
         <v>0</v>
@@ -4773,27 +4745,27 @@
         <f>MIN(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="225">
+      <c r="G42" s="183">
         <f>MIN(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="226"/>
-      <c r="I42" s="173">
+      <c r="H42" s="184"/>
+      <c r="I42" s="216">
         <f>MIN(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="174"/>
+      <c r="J42" s="217"/>
       <c r="K42" s="40">
         <f>MIN(K11:K40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="183" t="s">
+      <c r="A43" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="184"/>
-      <c r="C43" s="184"/>
+      <c r="B43" s="215"/>
+      <c r="C43" s="215"/>
       <c r="D43" s="67">
         <f>MAX(D11:D40)</f>
         <v>0</v>
@@ -4806,16 +4778,16 @@
         <f>MAX(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="179">
+      <c r="G43" s="210">
         <f>MAX(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="180"/>
-      <c r="I43" s="181">
+      <c r="H43" s="211"/>
+      <c r="I43" s="212">
         <f>MAX(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="182"/>
+      <c r="J43" s="213"/>
       <c r="K43" s="69">
         <f>MAX(K11:K40)</f>
         <v>0</v>
@@ -4825,8 +4797,8 @@
       <c r="A44" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="151"/>
-      <c r="C44" s="151"/>
+      <c r="B44" s="167"/>
+      <c r="C44" s="167"/>
       <c r="D44" s="44" t="s">
         <v>22</v>
       </c>
@@ -4843,8 +4815,8 @@
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
-      <c r="B45" s="152"/>
-      <c r="C45" s="152"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
       <c r="D45" s="44"/>
       <c r="F45" s="46"/>
       <c r="G45" s="47"/>
@@ -4853,11 +4825,11 @@
       <c r="J45" s="51"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="134" t="s">
+      <c r="A46" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="134"/>
-      <c r="C46" s="134"/>
+      <c r="B46" s="152"/>
+      <c r="C46" s="152"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="47" t="s">
@@ -4870,11 +4842,11 @@
       <c r="H46" s="44"/>
     </row>
     <row r="47" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="134" t="s">
+      <c r="A47" s="152" t="s">
         <v>133</v>
       </c>
-      <c r="B47" s="134"/>
-      <c r="C47" s="134"/>
+      <c r="B47" s="152"/>
+      <c r="C47" s="152"/>
       <c r="D47" s="44"/>
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
@@ -4929,6 +4901,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A7:C10"/>
+    <mergeCell ref="G7:H10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A5:B5"/>
@@ -4945,84 +4995,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A7:C10"/>
-    <mergeCell ref="G7:H10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D11:D43">
@@ -5072,7 +5044,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5083,35 +5055,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -5132,18 +5104,18 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="162" t="s">
+      <c r="A4" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="163">
+      <c r="B4" s="141">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="220">
+      <c r="C4" s="173">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="209"/>
+      <c r="D4" s="174"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -5161,25 +5133,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="221">
+      <c r="J4" s="175">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="222"/>
+      <c r="K4" s="176"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="167">
+      <c r="B5" s="145">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="168">
+      <c r="C5" s="146">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="169"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -5197,79 +5169,79 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="185">
+      <c r="J5" s="191">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="186"/>
+      <c r="K5" s="192"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="230" t="s">
+      <c r="A6" s="223" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="231"/>
-      <c r="C6" s="232"/>
-      <c r="D6" s="233"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="172"/>
+      <c r="B6" s="224"/>
+      <c r="C6" s="224"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="151"/>
       <c r="H6" s="71"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="188"/>
-      <c r="K6" s="195"/>
+      <c r="I6" s="193"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="200"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="187" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="188"/>
-      <c r="C7" s="188"/>
-      <c r="D7" s="208" t="s">
+      <c r="A7" s="193" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="194"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="225" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="234"/>
-      <c r="F7" s="234"/>
-      <c r="G7" s="209"/>
-      <c r="H7" s="227" t="s">
+      <c r="E7" s="225"/>
+      <c r="F7" s="225"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="220" t="s">
         <v>126</v>
       </c>
-      <c r="I7" s="189"/>
-      <c r="J7" s="190"/>
-      <c r="K7" s="196"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="196"/>
+      <c r="K7" s="201"/>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="189"/>
-      <c r="B8" s="190"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="237" t="s">
+      <c r="A8" s="195"/>
+      <c r="B8" s="299"/>
+      <c r="C8" s="204"/>
+      <c r="D8" s="304" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="199" t="s">
+      <c r="E8" s="203" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="199" t="s">
+      <c r="F8" s="203" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="199" t="s">
+      <c r="G8" s="203" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="228"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="190"/>
-      <c r="K8" s="196"/>
+      <c r="H8" s="221"/>
+      <c r="I8" s="195"/>
+      <c r="J8" s="196"/>
+      <c r="K8" s="201"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="189"/>
-      <c r="B9" s="190"/>
-      <c r="C9" s="190"/>
-      <c r="D9" s="238"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="171"/>
-      <c r="H9" s="229"/>
-      <c r="I9" s="189"/>
-      <c r="J9" s="190"/>
-      <c r="K9" s="196"/>
+      <c r="A9" s="195"/>
+      <c r="B9" s="299"/>
+      <c r="C9" s="204"/>
+      <c r="D9" s="205"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="222"/>
+      <c r="I9" s="195"/>
+      <c r="J9" s="196"/>
+      <c r="K9" s="201"/>
     </row>
     <row r="10" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="120">
@@ -5280,7 +5252,7 @@
         <f>Page1!B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="122">
+      <c r="C10" s="300">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
@@ -5289,20 +5261,20 @@
       <c r="F10" s="23"/>
       <c r="G10" s="73"/>
       <c r="H10" s="74"/>
-      <c r="I10" s="189"/>
-      <c r="J10" s="190"/>
-      <c r="K10" s="196"/>
+      <c r="I10" s="195"/>
+      <c r="J10" s="196"/>
+      <c r="K10" s="201"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="123">
+      <c r="A11" s="122">
         <f>Page1!A10</f>
         <v>0</v>
       </c>
-      <c r="B11" s="124">
+      <c r="B11" s="123">
         <f>Page1!B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="125">
+      <c r="C11" s="301">
         <f>Page1!C10</f>
         <v>0</v>
       </c>
@@ -5311,20 +5283,20 @@
       <c r="F11" s="26"/>
       <c r="G11" s="76"/>
       <c r="H11" s="77"/>
-      <c r="I11" s="189"/>
-      <c r="J11" s="190"/>
-      <c r="K11" s="196"/>
+      <c r="I11" s="195"/>
+      <c r="J11" s="196"/>
+      <c r="K11" s="201"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="123">
+      <c r="A12" s="122">
         <f>Page1!A11</f>
         <v>0</v>
       </c>
-      <c r="B12" s="124">
+      <c r="B12" s="123">
         <f>Page1!B11</f>
         <v>0</v>
       </c>
-      <c r="C12" s="126">
+      <c r="C12" s="302">
         <f>Page1!C11</f>
         <v>0</v>
       </c>
@@ -5333,20 +5305,20 @@
       <c r="F12" s="26"/>
       <c r="G12" s="76"/>
       <c r="H12" s="77"/>
-      <c r="I12" s="189"/>
-      <c r="J12" s="190"/>
-      <c r="K12" s="196"/>
+      <c r="I12" s="195"/>
+      <c r="J12" s="196"/>
+      <c r="K12" s="201"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="123">
+      <c r="A13" s="122">
         <f>Page1!A12</f>
         <v>0</v>
       </c>
-      <c r="B13" s="127">
+      <c r="B13" s="124">
         <f>Page1!B12</f>
         <v>0</v>
       </c>
-      <c r="C13" s="126">
+      <c r="C13" s="302">
         <f>Page1!C12</f>
         <v>0</v>
       </c>
@@ -5355,20 +5327,20 @@
       <c r="F13" s="23"/>
       <c r="G13" s="73"/>
       <c r="H13" s="77"/>
-      <c r="I13" s="189"/>
-      <c r="J13" s="190"/>
-      <c r="K13" s="196"/>
+      <c r="I13" s="195"/>
+      <c r="J13" s="196"/>
+      <c r="K13" s="201"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="123">
+      <c r="A14" s="122">
         <f>Page1!A13</f>
         <v>0</v>
       </c>
-      <c r="B14" s="124">
+      <c r="B14" s="123">
         <f>Page1!B13</f>
         <v>0</v>
       </c>
-      <c r="C14" s="125">
+      <c r="C14" s="301">
         <f>Page1!C13</f>
         <v>0</v>
       </c>
@@ -5377,20 +5349,20 @@
       <c r="F14" s="26"/>
       <c r="G14" s="76"/>
       <c r="H14" s="77"/>
-      <c r="I14" s="189"/>
-      <c r="J14" s="190"/>
-      <c r="K14" s="196"/>
+      <c r="I14" s="195"/>
+      <c r="J14" s="196"/>
+      <c r="K14" s="201"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="123">
+      <c r="A15" s="122">
         <f>Page1!A14</f>
         <v>0</v>
       </c>
-      <c r="B15" s="124">
+      <c r="B15" s="123">
         <f>Page1!B14</f>
         <v>0</v>
       </c>
-      <c r="C15" s="125">
+      <c r="C15" s="301">
         <f>Page1!C14</f>
         <v>0</v>
       </c>
@@ -5399,20 +5371,20 @@
       <c r="F15" s="26"/>
       <c r="G15" s="76"/>
       <c r="H15" s="77"/>
-      <c r="I15" s="189"/>
-      <c r="J15" s="190"/>
-      <c r="K15" s="196"/>
+      <c r="I15" s="195"/>
+      <c r="J15" s="196"/>
+      <c r="K15" s="201"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="123">
+      <c r="A16" s="122">
         <f>Page1!A15</f>
         <v>0</v>
       </c>
-      <c r="B16" s="124">
+      <c r="B16" s="123">
         <f>Page1!B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="125">
+      <c r="C16" s="301">
         <f>Page1!C15</f>
         <v>0</v>
       </c>
@@ -5421,20 +5393,20 @@
       <c r="F16" s="26"/>
       <c r="G16" s="76"/>
       <c r="H16" s="77"/>
-      <c r="I16" s="189"/>
-      <c r="J16" s="190"/>
-      <c r="K16" s="196"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="196"/>
+      <c r="K16" s="201"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="123">
+      <c r="A17" s="122">
         <f>Page1!A16</f>
         <v>0</v>
       </c>
-      <c r="B17" s="124">
+      <c r="B17" s="123">
         <f>Page1!B16</f>
         <v>0</v>
       </c>
-      <c r="C17" s="125">
+      <c r="C17" s="301">
         <f>Page1!C16</f>
         <v>0</v>
       </c>
@@ -5443,20 +5415,20 @@
       <c r="F17" s="26"/>
       <c r="G17" s="76"/>
       <c r="H17" s="77"/>
-      <c r="I17" s="189"/>
-      <c r="J17" s="190"/>
-      <c r="K17" s="196"/>
+      <c r="I17" s="195"/>
+      <c r="J17" s="196"/>
+      <c r="K17" s="201"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="123">
+      <c r="A18" s="122">
         <f>Page1!A17</f>
         <v>0</v>
       </c>
-      <c r="B18" s="128">
+      <c r="B18" s="125">
         <f>Page1!B17</f>
         <v>0</v>
       </c>
-      <c r="C18" s="125">
+      <c r="C18" s="301">
         <f>Page1!C17</f>
         <v>0</v>
       </c>
@@ -5465,20 +5437,20 @@
       <c r="F18" s="26"/>
       <c r="G18" s="76"/>
       <c r="H18" s="77"/>
-      <c r="I18" s="189"/>
-      <c r="J18" s="190"/>
-      <c r="K18" s="196"/>
+      <c r="I18" s="195"/>
+      <c r="J18" s="196"/>
+      <c r="K18" s="201"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="123">
+      <c r="A19" s="122">
         <f>Page1!A18</f>
         <v>0</v>
       </c>
-      <c r="B19" s="124">
+      <c r="B19" s="123">
         <f>Page1!B18</f>
         <v>0</v>
       </c>
-      <c r="C19" s="125">
+      <c r="C19" s="301">
         <f>Page1!C18</f>
         <v>0</v>
       </c>
@@ -5487,20 +5459,20 @@
       <c r="F19" s="26"/>
       <c r="G19" s="76"/>
       <c r="H19" s="77"/>
-      <c r="I19" s="189"/>
-      <c r="J19" s="190"/>
-      <c r="K19" s="196"/>
+      <c r="I19" s="195"/>
+      <c r="J19" s="196"/>
+      <c r="K19" s="201"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="129">
+      <c r="A20" s="126">
         <f>Page1!A19</f>
         <v>0</v>
       </c>
-      <c r="B20" s="128">
+      <c r="B20" s="125">
         <f>Page1!B19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="126">
+      <c r="C20" s="302">
         <f>Page1!C19</f>
         <v>0</v>
       </c>
@@ -5509,20 +5481,20 @@
       <c r="F20" s="26"/>
       <c r="G20" s="76"/>
       <c r="H20" s="77"/>
-      <c r="I20" s="189"/>
-      <c r="J20" s="190"/>
-      <c r="K20" s="196"/>
+      <c r="I20" s="195"/>
+      <c r="J20" s="196"/>
+      <c r="K20" s="201"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="123">
+      <c r="A21" s="122">
         <f>Page1!A20</f>
         <v>0</v>
       </c>
-      <c r="B21" s="124">
+      <c r="B21" s="123">
         <f>Page1!B20</f>
         <v>0</v>
       </c>
-      <c r="C21" s="125">
+      <c r="C21" s="301">
         <f>Page1!C20</f>
         <v>0</v>
       </c>
@@ -5531,20 +5503,20 @@
       <c r="F21" s="26"/>
       <c r="G21" s="76"/>
       <c r="H21" s="77"/>
-      <c r="I21" s="189"/>
-      <c r="J21" s="190"/>
-      <c r="K21" s="196"/>
+      <c r="I21" s="195"/>
+      <c r="J21" s="196"/>
+      <c r="K21" s="201"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="123">
+      <c r="A22" s="122">
         <f>Page1!A21</f>
         <v>0</v>
       </c>
-      <c r="B22" s="124">
+      <c r="B22" s="123">
         <f>Page1!B21</f>
         <v>0</v>
       </c>
-      <c r="C22" s="126">
+      <c r="C22" s="302">
         <f>Page1!C21</f>
         <v>0</v>
       </c>
@@ -5553,20 +5525,20 @@
       <c r="F22" s="26"/>
       <c r="G22" s="76"/>
       <c r="H22" s="77"/>
-      <c r="I22" s="189"/>
-      <c r="J22" s="190"/>
-      <c r="K22" s="196"/>
+      <c r="I22" s="195"/>
+      <c r="J22" s="196"/>
+      <c r="K22" s="201"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="123">
+      <c r="A23" s="122">
         <f>Page1!A22</f>
         <v>0</v>
       </c>
-      <c r="B23" s="127">
+      <c r="B23" s="124">
         <f>Page1!B22</f>
         <v>0</v>
       </c>
-      <c r="C23" s="126">
+      <c r="C23" s="302">
         <f>Page1!C22</f>
         <v>0</v>
       </c>
@@ -5575,20 +5547,20 @@
       <c r="F23" s="26"/>
       <c r="G23" s="76"/>
       <c r="H23" s="77"/>
-      <c r="I23" s="189"/>
-      <c r="J23" s="190"/>
-      <c r="K23" s="196"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="196"/>
+      <c r="K23" s="201"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="123">
+      <c r="A24" s="122">
         <f>Page1!A23</f>
         <v>0</v>
       </c>
-      <c r="B24" s="124">
+      <c r="B24" s="123">
         <f>Page1!B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="125">
+      <c r="C24" s="301">
         <f>Page1!C23</f>
         <v>0</v>
       </c>
@@ -5597,20 +5569,20 @@
       <c r="F24" s="26"/>
       <c r="G24" s="76"/>
       <c r="H24" s="77"/>
-      <c r="I24" s="189"/>
-      <c r="J24" s="190"/>
-      <c r="K24" s="196"/>
+      <c r="I24" s="195"/>
+      <c r="J24" s="196"/>
+      <c r="K24" s="201"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="123">
+      <c r="A25" s="122">
         <f>Page1!A24</f>
         <v>0</v>
       </c>
-      <c r="B25" s="124">
+      <c r="B25" s="123">
         <f>Page1!B24</f>
         <v>0</v>
       </c>
-      <c r="C25" s="125">
+      <c r="C25" s="301">
         <f>Page1!C24</f>
         <v>0</v>
       </c>
@@ -5619,20 +5591,20 @@
       <c r="F25" s="26"/>
       <c r="G25" s="76"/>
       <c r="H25" s="77"/>
-      <c r="I25" s="189"/>
-      <c r="J25" s="190"/>
-      <c r="K25" s="196"/>
+      <c r="I25" s="195"/>
+      <c r="J25" s="196"/>
+      <c r="K25" s="201"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="123">
+      <c r="A26" s="122">
         <f>Page1!A25</f>
         <v>0</v>
       </c>
-      <c r="B26" s="124">
+      <c r="B26" s="123">
         <f>Page1!B25</f>
         <v>0</v>
       </c>
-      <c r="C26" s="125">
+      <c r="C26" s="301">
         <f>Page1!C25</f>
         <v>0</v>
       </c>
@@ -5641,20 +5613,20 @@
       <c r="F26" s="26"/>
       <c r="G26" s="76"/>
       <c r="H26" s="77"/>
-      <c r="I26" s="189"/>
-      <c r="J26" s="190"/>
-      <c r="K26" s="196"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="196"/>
+      <c r="K26" s="201"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="123">
+      <c r="A27" s="122">
         <f>Page1!A26</f>
         <v>0</v>
       </c>
-      <c r="B27" s="124">
+      <c r="B27" s="123">
         <f>Page1!B26</f>
         <v>0</v>
       </c>
-      <c r="C27" s="125">
+      <c r="C27" s="301">
         <f>Page1!C26</f>
         <v>0</v>
       </c>
@@ -5663,20 +5635,20 @@
       <c r="F27" s="26"/>
       <c r="G27" s="76"/>
       <c r="H27" s="77"/>
-      <c r="I27" s="189"/>
-      <c r="J27" s="190"/>
-      <c r="K27" s="196"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="196"/>
+      <c r="K27" s="201"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="123">
+      <c r="A28" s="122">
         <f>Page1!A27</f>
         <v>0</v>
       </c>
-      <c r="B28" s="128">
+      <c r="B28" s="125">
         <f>Page1!B27</f>
         <v>0</v>
       </c>
-      <c r="C28" s="125">
+      <c r="C28" s="301">
         <f>Page1!C27</f>
         <v>0</v>
       </c>
@@ -5685,20 +5657,20 @@
       <c r="F28" s="26"/>
       <c r="G28" s="76"/>
       <c r="H28" s="77"/>
-      <c r="I28" s="189"/>
-      <c r="J28" s="190"/>
-      <c r="K28" s="196"/>
+      <c r="I28" s="195"/>
+      <c r="J28" s="196"/>
+      <c r="K28" s="201"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="123">
+      <c r="A29" s="122">
         <f>Page1!A28</f>
         <v>0</v>
       </c>
-      <c r="B29" s="124">
+      <c r="B29" s="123">
         <f>Page1!B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="125">
+      <c r="C29" s="301">
         <f>Page1!C28</f>
         <v>0</v>
       </c>
@@ -5707,20 +5679,20 @@
       <c r="F29" s="26"/>
       <c r="G29" s="76"/>
       <c r="H29" s="77"/>
-      <c r="I29" s="189"/>
-      <c r="J29" s="190"/>
-      <c r="K29" s="196"/>
+      <c r="I29" s="195"/>
+      <c r="J29" s="196"/>
+      <c r="K29" s="201"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="129">
+      <c r="A30" s="126">
         <f>Page1!A29</f>
         <v>0</v>
       </c>
-      <c r="B30" s="128">
+      <c r="B30" s="125">
         <f>Page1!B29</f>
         <v>0</v>
       </c>
-      <c r="C30" s="126">
+      <c r="C30" s="302">
         <f>Page1!C29</f>
         <v>0</v>
       </c>
@@ -5729,20 +5701,20 @@
       <c r="F30" s="26"/>
       <c r="G30" s="76"/>
       <c r="H30" s="77"/>
-      <c r="I30" s="189"/>
-      <c r="J30" s="190"/>
-      <c r="K30" s="196"/>
+      <c r="I30" s="195"/>
+      <c r="J30" s="196"/>
+      <c r="K30" s="201"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="123">
+      <c r="A31" s="122">
         <f>Page1!A30</f>
         <v>0</v>
       </c>
-      <c r="B31" s="124">
+      <c r="B31" s="123">
         <f>Page1!B30</f>
         <v>0</v>
       </c>
-      <c r="C31" s="125">
+      <c r="C31" s="301">
         <f>Page1!C30</f>
         <v>0</v>
       </c>
@@ -5751,20 +5723,20 @@
       <c r="F31" s="26"/>
       <c r="G31" s="76"/>
       <c r="H31" s="77"/>
-      <c r="I31" s="189"/>
-      <c r="J31" s="190"/>
-      <c r="K31" s="196"/>
+      <c r="I31" s="195"/>
+      <c r="J31" s="196"/>
+      <c r="K31" s="201"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="123">
+      <c r="A32" s="122">
         <f>Page1!A31</f>
         <v>0</v>
       </c>
-      <c r="B32" s="124">
+      <c r="B32" s="123">
         <f>Page1!B31</f>
         <v>0</v>
       </c>
-      <c r="C32" s="126">
+      <c r="C32" s="302">
         <f>Page1!C31</f>
         <v>0</v>
       </c>
@@ -5773,20 +5745,20 @@
       <c r="F32" s="26"/>
       <c r="G32" s="76"/>
       <c r="H32" s="77"/>
-      <c r="I32" s="189"/>
-      <c r="J32" s="190"/>
-      <c r="K32" s="196"/>
+      <c r="I32" s="195"/>
+      <c r="J32" s="196"/>
+      <c r="K32" s="201"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="123">
+      <c r="A33" s="122">
         <f>Page1!A32</f>
         <v>0</v>
       </c>
-      <c r="B33" s="127">
+      <c r="B33" s="124">
         <f>Page1!B32</f>
         <v>0</v>
       </c>
-      <c r="C33" s="126">
+      <c r="C33" s="302">
         <f>Page1!C32</f>
         <v>0</v>
       </c>
@@ -5795,20 +5767,20 @@
       <c r="F33" s="26"/>
       <c r="G33" s="76"/>
       <c r="H33" s="77"/>
-      <c r="I33" s="189"/>
-      <c r="J33" s="190"/>
-      <c r="K33" s="196"/>
+      <c r="I33" s="195"/>
+      <c r="J33" s="196"/>
+      <c r="K33" s="201"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="123">
+      <c r="A34" s="122">
         <f>Page1!A33</f>
         <v>0</v>
       </c>
-      <c r="B34" s="124">
+      <c r="B34" s="123">
         <f>Page1!B33</f>
         <v>0</v>
       </c>
-      <c r="C34" s="125">
+      <c r="C34" s="301">
         <f>Page1!C33</f>
         <v>0</v>
       </c>
@@ -5817,20 +5789,20 @@
       <c r="F34" s="26"/>
       <c r="G34" s="76"/>
       <c r="H34" s="77"/>
-      <c r="I34" s="189"/>
-      <c r="J34" s="190"/>
-      <c r="K34" s="196"/>
+      <c r="I34" s="195"/>
+      <c r="J34" s="196"/>
+      <c r="K34" s="201"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="123">
+      <c r="A35" s="122">
         <f>Page1!A34</f>
         <v>0</v>
       </c>
-      <c r="B35" s="124">
+      <c r="B35" s="123">
         <f>Page1!B34</f>
         <v>0</v>
       </c>
-      <c r="C35" s="125">
+      <c r="C35" s="301">
         <f>Page1!C34</f>
         <v>0</v>
       </c>
@@ -5839,20 +5811,20 @@
       <c r="F35" s="26"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
-      <c r="I35" s="189"/>
-      <c r="J35" s="190"/>
-      <c r="K35" s="196"/>
+      <c r="I35" s="195"/>
+      <c r="J35" s="196"/>
+      <c r="K35" s="201"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="123">
+      <c r="A36" s="122">
         <f>Page1!A35</f>
         <v>0</v>
       </c>
-      <c r="B36" s="124">
+      <c r="B36" s="123">
         <f>Page1!B35</f>
         <v>0</v>
       </c>
-      <c r="C36" s="125">
+      <c r="C36" s="301">
         <f>Page1!C35</f>
         <v>0</v>
       </c>
@@ -5861,20 +5833,20 @@
       <c r="F36" s="26"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
-      <c r="I36" s="189"/>
-      <c r="J36" s="190"/>
-      <c r="K36" s="196"/>
+      <c r="I36" s="195"/>
+      <c r="J36" s="196"/>
+      <c r="K36" s="201"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="123">
+      <c r="A37" s="122">
         <f>Page1!A36</f>
         <v>0</v>
       </c>
-      <c r="B37" s="124">
+      <c r="B37" s="123">
         <f>Page1!B36</f>
         <v>0</v>
       </c>
-      <c r="C37" s="125">
+      <c r="C37" s="301">
         <f>Page1!C36</f>
         <v>0</v>
       </c>
@@ -5883,20 +5855,20 @@
       <c r="F37" s="26"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
-      <c r="I37" s="189"/>
-      <c r="J37" s="190"/>
-      <c r="K37" s="196"/>
+      <c r="I37" s="195"/>
+      <c r="J37" s="196"/>
+      <c r="K37" s="201"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="123">
+      <c r="A38" s="122">
         <f>Page1!A37</f>
         <v>0</v>
       </c>
-      <c r="B38" s="124">
+      <c r="B38" s="123">
         <f>Page1!B37</f>
         <v>0</v>
       </c>
-      <c r="C38" s="125">
+      <c r="C38" s="301">
         <f>Page1!C37</f>
         <v>0</v>
       </c>
@@ -5905,20 +5877,20 @@
       <c r="F38" s="26"/>
       <c r="G38" s="76"/>
       <c r="H38" s="77"/>
-      <c r="I38" s="189"/>
-      <c r="J38" s="190"/>
-      <c r="K38" s="196"/>
+      <c r="I38" s="195"/>
+      <c r="J38" s="196"/>
+      <c r="K38" s="201"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="130">
+      <c r="A39" s="127">
         <f>Page1!A38</f>
         <v>0</v>
       </c>
-      <c r="B39" s="131">
+      <c r="B39" s="128">
         <f>Page1!B38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="132">
+      <c r="C39" s="303">
         <f>Page1!C38</f>
         <v>0</v>
       </c>
@@ -5927,16 +5899,16 @@
       <c r="F39" s="26"/>
       <c r="G39" s="76"/>
       <c r="H39" s="77"/>
-      <c r="I39" s="189"/>
-      <c r="J39" s="190"/>
-      <c r="K39" s="196"/>
+      <c r="I39" s="195"/>
+      <c r="J39" s="196"/>
+      <c r="K39" s="201"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="235" t="s">
+      <c r="A40" s="226" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="236"/>
-      <c r="C40" s="236"/>
+      <c r="B40" s="227"/>
+      <c r="C40" s="227"/>
       <c r="D40" s="78" t="e">
         <f>AVERAGE(D10:D39)</f>
         <v>#DIV/0!</v>
@@ -5957,16 +5929,16 @@
         <f>AVERAGE(H10:H39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="190"/>
-      <c r="J40" s="190"/>
-      <c r="K40" s="196"/>
+      <c r="I40" s="196"/>
+      <c r="J40" s="196"/>
+      <c r="K40" s="201"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="218" t="s">
+      <c r="A41" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="219"/>
-      <c r="C41" s="219"/>
+      <c r="B41" s="172"/>
+      <c r="C41" s="172"/>
       <c r="D41" s="80">
         <f>MIN(D10:D39)</f>
         <v>0</v>
@@ -5987,16 +5959,16 @@
         <f>MIN(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="190"/>
-      <c r="J41" s="190"/>
-      <c r="K41" s="196"/>
+      <c r="I41" s="196"/>
+      <c r="J41" s="196"/>
+      <c r="K41" s="201"/>
     </row>
     <row r="42" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="183" t="s">
+      <c r="A42" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="184"/>
-      <c r="C42" s="184"/>
+      <c r="B42" s="215"/>
+      <c r="C42" s="215"/>
       <c r="D42" s="82">
         <f>MAX(D10:D39)</f>
         <v>0</v>
@@ -6017,16 +5989,16 @@
         <f>MAX(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="194"/>
-      <c r="J42" s="194"/>
-      <c r="K42" s="197"/>
+      <c r="I42" s="199"/>
+      <c r="J42" s="199"/>
+      <c r="K42" s="202"/>
     </row>
     <row r="43" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="151"/>
-      <c r="C43" s="151"/>
+      <c r="B43" s="167"/>
+      <c r="C43" s="167"/>
       <c r="D43" s="44" t="s">
         <v>22</v>
       </c>
@@ -6043,8 +6015,8 @@
     </row>
     <row r="44" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50"/>
-      <c r="B44" s="152"/>
-      <c r="C44" s="152"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
       <c r="D44" s="44"/>
       <c r="F44" s="46"/>
       <c r="G44" s="47"/>
@@ -6053,11 +6025,11 @@
       <c r="J44" s="51"/>
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="134" t="s">
+      <c r="A45" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="134"/>
-      <c r="C45" s="134"/>
+      <c r="B45" s="152"/>
+      <c r="C45" s="152"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="47" t="s">
@@ -6070,11 +6042,11 @@
       <c r="H45" s="44"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="134" t="s">
+      <c r="A46" s="152" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="134"/>
-      <c r="C46" s="134"/>
+      <c r="B46" s="152"/>
+      <c r="C46" s="152"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
@@ -6099,15 +6071,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="I6:K42"/>
     <mergeCell ref="H7:H9"/>
@@ -6124,6 +6087,15 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="notBetween">
@@ -6175,15 +6147,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="279" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="241"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="242"/>
+      <c r="B1" s="280"/>
+      <c r="C1" s="280"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="280"/>
+      <c r="F1" s="280"/>
+      <c r="G1" s="281"/>
     </row>
     <row r="2" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="87"/>
@@ -6197,37 +6169,37 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="287" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="252"/>
-      <c r="C3" s="252"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="252"/>
-      <c r="G3" s="253"/>
+      <c r="B3" s="288"/>
+      <c r="C3" s="288"/>
+      <c r="D3" s="288"/>
+      <c r="E3" s="288"/>
+      <c r="F3" s="288"/>
+      <c r="G3" s="289"/>
     </row>
     <row r="4" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="189" t="s">
+      <c r="A4" s="195" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="196"/>
+      <c r="B4" s="196"/>
+      <c r="C4" s="196"/>
+      <c r="D4" s="196"/>
+      <c r="E4" s="196"/>
+      <c r="F4" s="196"/>
+      <c r="G4" s="201"/>
     </row>
     <row r="5" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="282" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="244"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="245"/>
+      <c r="B5" s="283"/>
+      <c r="C5" s="283"/>
+      <c r="D5" s="283"/>
+      <c r="E5" s="283"/>
+      <c r="F5" s="283"/>
+      <c r="G5" s="284"/>
     </row>
     <row r="6" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
@@ -6239,15 +6211,15 @@
       <c r="C6" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="246">
+      <c r="D6" s="247">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="247"/>
-      <c r="F6" s="248" t="s">
+      <c r="E6" s="249"/>
+      <c r="F6" s="285" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="249">
+      <c r="G6" s="270">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
@@ -6260,13 +6232,13 @@
       <c r="C7" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="246">
+      <c r="D7" s="247">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="247"/>
-      <c r="F7" s="248"/>
-      <c r="G7" s="250"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="285"/>
+      <c r="G7" s="286"/>
     </row>
     <row r="8" spans="1:7" s="86" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="90" t="s">
@@ -6279,15 +6251,15 @@
       <c r="C8" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="248">
+      <c r="D8" s="285">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="248"/>
-      <c r="F8" s="263" t="s">
+      <c r="E8" s="285"/>
+      <c r="F8" s="267" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="249">
+      <c r="G8" s="270">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
@@ -6300,15 +6272,15 @@
         <f>Page1!G44</f>
         <v>461359700</v>
       </c>
-      <c r="C9" s="263" t="s">
+      <c r="C9" s="267" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="268" t="s">
+      <c r="D9" s="273" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="269"/>
-      <c r="F9" s="264"/>
-      <c r="G9" s="266"/>
+      <c r="E9" s="274"/>
+      <c r="F9" s="268"/>
+      <c r="G9" s="271"/>
     </row>
     <row r="10" spans="1:7" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="97" t="s">
@@ -6318,34 +6290,34 @@
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="265"/>
-      <c r="D10" s="270"/>
-      <c r="E10" s="271"/>
-      <c r="F10" s="265"/>
-      <c r="G10" s="267"/>
+      <c r="C10" s="269"/>
+      <c r="D10" s="275"/>
+      <c r="E10" s="276"/>
+      <c r="F10" s="269"/>
+      <c r="G10" s="272"/>
     </row>
     <row r="11" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="254" t="s">
+      <c r="A11" s="290" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="256" t="s">
+      <c r="B11" s="292" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="258" t="s">
+      <c r="C11" s="294" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="259"/>
-      <c r="E11" s="260"/>
-      <c r="F11" s="256" t="s">
+      <c r="D11" s="295"/>
+      <c r="E11" s="296"/>
+      <c r="F11" s="292" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="261" t="s">
+      <c r="G11" s="297" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="255"/>
-      <c r="B12" s="257"/>
+      <c r="A12" s="291"/>
+      <c r="B12" s="293"/>
       <c r="C12" s="99" t="s">
         <v>60</v>
       </c>
@@ -6355,8 +6327,8 @@
       <c r="E12" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="257"/>
-      <c r="G12" s="262"/>
+      <c r="F12" s="293"/>
+      <c r="G12" s="298"/>
     </row>
     <row r="13" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="100" t="s">
@@ -6426,7 +6398,7 @@
         <f>Page1!K39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="272" t="s">
+      <c r="G15" s="277" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6450,7 +6422,7 @@
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="228"/>
+      <c r="G16" s="221"/>
     </row>
     <row r="17" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="104" t="s">
@@ -6472,7 +6444,7 @@
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="228"/>
+      <c r="G17" s="221"/>
     </row>
     <row r="18" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="104" t="s">
@@ -6494,7 +6466,7 @@
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="228"/>
+      <c r="G18" s="221"/>
     </row>
     <row r="19" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="104" t="s">
@@ -6516,7 +6488,7 @@
         <f>Page1!J39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="228"/>
+      <c r="G19" s="221"/>
     </row>
     <row r="20" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="104" t="s">
@@ -6538,7 +6510,7 @@
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="228"/>
+      <c r="G20" s="221"/>
     </row>
     <row r="21" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="104" t="s">
@@ -6560,7 +6532,7 @@
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="228"/>
+      <c r="G21" s="221"/>
     </row>
     <row r="22" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="104" t="s">
@@ -6582,7 +6554,7 @@
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="156"/>
+      <c r="G22" s="134"/>
     </row>
     <row r="23" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="104" t="s">
@@ -6682,26 +6654,26 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="273" t="s">
+      <c r="A27" s="261" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="274"/>
-      <c r="C27" s="274"/>
-      <c r="D27" s="274"/>
-      <c r="E27" s="274"/>
-      <c r="F27" s="274"/>
-      <c r="G27" s="275"/>
+      <c r="B27" s="262"/>
+      <c r="C27" s="262"/>
+      <c r="D27" s="262"/>
+      <c r="E27" s="262"/>
+      <c r="F27" s="262"/>
+      <c r="G27" s="263"/>
     </row>
     <row r="28" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="276" t="s">
+      <c r="A28" s="245" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="277"/>
-      <c r="C28" s="278" t="s">
+      <c r="B28" s="246"/>
+      <c r="C28" s="264" t="s">
         <v>127</v>
       </c>
-      <c r="D28" s="279"/>
-      <c r="E28" s="280"/>
+      <c r="D28" s="265"/>
+      <c r="E28" s="266"/>
       <c r="F28" s="113" t="s">
         <v>92</v>
       </c>
@@ -6710,15 +6682,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="281" t="s">
+      <c r="A29" s="250" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="247"/>
-      <c r="C29" s="282" t="s">
+      <c r="B29" s="249"/>
+      <c r="C29" s="255" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="283"/>
-      <c r="E29" s="284"/>
+      <c r="D29" s="256"/>
+      <c r="E29" s="257"/>
       <c r="F29" s="66" t="s">
         <v>92</v>
       </c>
@@ -6727,15 +6699,15 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="281" t="s">
+      <c r="A30" s="250" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="247"/>
-      <c r="C30" s="282" t="s">
+      <c r="B30" s="249"/>
+      <c r="C30" s="255" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="283"/>
-      <c r="E30" s="284"/>
+      <c r="D30" s="256"/>
+      <c r="E30" s="257"/>
       <c r="F30" s="66" t="s">
         <v>92</v>
       </c>
@@ -6744,15 +6716,15 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="281" t="s">
+      <c r="A31" s="250" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="247"/>
-      <c r="C31" s="282" t="s">
+      <c r="B31" s="249"/>
+      <c r="C31" s="255" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="283"/>
-      <c r="E31" s="284"/>
+      <c r="D31" s="256"/>
+      <c r="E31" s="257"/>
       <c r="F31" s="66" t="s">
         <v>92</v>
       </c>
@@ -6761,15 +6733,15 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="281" t="s">
+      <c r="A32" s="250" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="247"/>
-      <c r="C32" s="282" t="s">
+      <c r="B32" s="249"/>
+      <c r="C32" s="255" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="283"/>
-      <c r="E32" s="284"/>
+      <c r="D32" s="256"/>
+      <c r="E32" s="257"/>
       <c r="F32" s="66" t="s">
         <v>92</v>
       </c>
@@ -6778,15 +6750,15 @@
       </c>
     </row>
     <row r="33" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="281" t="s">
+      <c r="A33" s="250" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="247"/>
-      <c r="C33" s="282" t="s">
+      <c r="B33" s="249"/>
+      <c r="C33" s="255" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="283"/>
-      <c r="E33" s="284"/>
+      <c r="D33" s="256"/>
+      <c r="E33" s="257"/>
       <c r="F33" s="66" t="s">
         <v>92</v>
       </c>
@@ -6795,43 +6767,43 @@
       </c>
     </row>
     <row r="34" spans="1:7" s="86" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="166" t="s">
+      <c r="A34" s="144" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="167"/>
-      <c r="C34" s="287" t="s">
+      <c r="B34" s="145"/>
+      <c r="C34" s="258" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="288"/>
-      <c r="E34" s="289"/>
+      <c r="D34" s="259"/>
+      <c r="E34" s="260"/>
       <c r="F34" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="G34" s="133" t="s">
+      <c r="G34" s="129" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="273" t="s">
+      <c r="A35" s="261" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="274"/>
-      <c r="C35" s="274"/>
-      <c r="D35" s="274"/>
-      <c r="E35" s="274"/>
-      <c r="F35" s="274"/>
-      <c r="G35" s="275"/>
+      <c r="B35" s="262"/>
+      <c r="C35" s="262"/>
+      <c r="D35" s="262"/>
+      <c r="E35" s="262"/>
+      <c r="F35" s="262"/>
+      <c r="G35" s="263"/>
     </row>
     <row r="36" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="162" t="s">
+      <c r="A36" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="163"/>
-      <c r="C36" s="285" t="s">
+      <c r="B36" s="141"/>
+      <c r="C36" s="253" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="286"/>
-      <c r="E36" s="163"/>
+      <c r="D36" s="254"/>
+      <c r="E36" s="141"/>
       <c r="F36" s="10" t="s">
         <v>92</v>
       </c>
@@ -6840,15 +6812,15 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="276" t="s">
+      <c r="A37" s="245" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="277"/>
-      <c r="C37" s="246" t="s">
+      <c r="B37" s="246"/>
+      <c r="C37" s="247" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="290"/>
-      <c r="E37" s="247"/>
+      <c r="D37" s="248"/>
+      <c r="E37" s="249"/>
       <c r="F37" s="106" t="s">
         <v>92</v>
       </c>
@@ -6857,15 +6829,15 @@
       </c>
     </row>
     <row r="38" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="281" t="s">
+      <c r="A38" s="250" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="247"/>
-      <c r="C38" s="246" t="s">
+      <c r="B38" s="249"/>
+      <c r="C38" s="247" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="290"/>
-      <c r="E38" s="247"/>
+      <c r="D38" s="248"/>
+      <c r="E38" s="249"/>
       <c r="F38" s="106" t="s">
         <v>92</v>
       </c>
@@ -6874,15 +6846,15 @@
       </c>
     </row>
     <row r="39" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="166" t="s">
+      <c r="A39" s="144" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="167"/>
-      <c r="C39" s="291" t="s">
+      <c r="B39" s="145"/>
+      <c r="C39" s="251" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="292"/>
-      <c r="E39" s="167"/>
+      <c r="D39" s="252"/>
+      <c r="E39" s="145"/>
       <c r="F39" s="1" t="s">
         <v>92</v>
       </c>
@@ -6891,50 +6863,50 @@
       </c>
     </row>
     <row r="40" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="295" t="s">
+      <c r="A40" s="230" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="296"/>
-      <c r="C40" s="297" t="s">
+      <c r="B40" s="231"/>
+      <c r="C40" s="232" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="298"/>
-      <c r="E40" s="299"/>
-      <c r="F40" s="297" t="s">
+      <c r="D40" s="233"/>
+      <c r="E40" s="234"/>
+      <c r="F40" s="232" t="s">
         <v>138</v>
       </c>
-      <c r="G40" s="299"/>
+      <c r="G40" s="234"/>
     </row>
     <row r="41" spans="1:7" s="86" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="300"/>
-      <c r="B41" s="301"/>
-      <c r="C41" s="304"/>
-      <c r="D41" s="305"/>
-      <c r="E41" s="306"/>
-      <c r="F41" s="304"/>
-      <c r="G41" s="306"/>
+      <c r="A41" s="235"/>
+      <c r="B41" s="236"/>
+      <c r="C41" s="239"/>
+      <c r="D41" s="240"/>
+      <c r="E41" s="241"/>
+      <c r="F41" s="239"/>
+      <c r="G41" s="241"/>
     </row>
     <row r="42" spans="1:7" s="86" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="302"/>
-      <c r="B42" s="303"/>
-      <c r="C42" s="307" t="s">
+      <c r="A42" s="237"/>
+      <c r="B42" s="238"/>
+      <c r="C42" s="242" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="308"/>
-      <c r="E42" s="309"/>
-      <c r="F42" s="307" t="s">
+      <c r="D42" s="243"/>
+      <c r="E42" s="244"/>
+      <c r="F42" s="242" t="s">
         <v>139</v>
       </c>
-      <c r="G42" s="309"/>
+      <c r="G42" s="244"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="115"/>
       <c r="B43" s="115"/>
       <c r="C43" s="115"/>
       <c r="D43" s="115"/>
-      <c r="E43" s="293"/>
-      <c r="F43" s="293"/>
-      <c r="G43" s="293"/>
+      <c r="E43" s="228"/>
+      <c r="F43" s="228"/>
+      <c r="G43" s="228"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="46" t="s">
@@ -6943,63 +6915,24 @@
       <c r="B44" s="116"/>
       <c r="C44" s="118"/>
       <c r="D44" s="115"/>
-      <c r="E44" s="294"/>
-      <c r="F44" s="294"/>
-      <c r="G44" s="294"/>
+      <c r="E44" s="229"/>
+      <c r="F44" s="229"/>
+      <c r="G44" s="229"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="239" t="s">
+      <c r="A46" s="278" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="239"/>
+      <c r="B46" s="278"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="239" t="s">
+      <c r="A47" s="278" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="239"/>
+      <c r="B47" s="278"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="G15:G22"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A1:G1"/>
@@ -7016,9 +6949,48 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="G15:G22"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
   </mergeCells>
-  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.78740157480314965" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/backend/templates/UC-18gsm-210W-BFQR.xlsx
+++ b/backend/templates/UC-18gsm-210W-BFQR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ACAF7A-3BFB-4C09-BB80-1499451296A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD26C232-F658-4341-88D8-3CDD4734AE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -623,7 +623,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -1426,11 +1426,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="305">
+  <cellXfs count="322">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1765,9 +1780,6 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1777,9 +1789,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1790,15 +1799,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1844,6 +1844,78 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1851,9 +1923,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1910,158 +1979,80 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2078,9 +2069,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2098,34 +2086,67 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2143,14 +2164,173 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2203,184 +2383,70 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2962,35 +3028,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -3011,12 +3077,12 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="141"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="143"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="161"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -3028,19 +3094,19 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="135"/>
-      <c r="K4" s="136"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="154"/>
       <c r="M4" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="144" t="s">
+      <c r="A5" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="145"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="147"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="165"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -3052,64 +3118,64 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="137"/>
-      <c r="K5" s="138"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="156"/>
     </row>
     <row r="6" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="153" t="s">
+      <c r="A6" s="131" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="154"/>
-      <c r="C6" s="155"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="133"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="130"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="132"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="156" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="133"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133" t="s">
+      <c r="A7" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="133" t="s">
+      <c r="E7" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="133" t="s">
+      <c r="F7" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="148" t="s">
+      <c r="G7" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="148" t="s">
+      <c r="H7" s="166" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="133" t="s">
+      <c r="I7" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="133"/>
-      <c r="K7" s="134"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="152"/>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="157"/>
-      <c r="B8" s="150"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="150" t="s">
+      <c r="A8" s="136"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="150"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3511,11 +3577,11 @@
       <c r="K38" s="28"/>
     </row>
     <row r="39" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="164" t="s">
+      <c r="A39" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="165"/>
-      <c r="C39" s="166"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="146"/>
       <c r="D39" s="35" t="e">
         <f t="shared" ref="D39:K39" si="0">AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -3550,11 +3616,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="161" t="s">
+      <c r="A40" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="162"/>
-      <c r="C40" s="163"/>
+      <c r="B40" s="142"/>
+      <c r="C40" s="143"/>
       <c r="D40" s="38">
         <f t="shared" ref="D40:K40" si="1">MIN(D9:D38)</f>
         <v>0</v>
@@ -3589,11 +3655,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="158" t="s">
+      <c r="A41" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="159"/>
-      <c r="C41" s="160"/>
+      <c r="B41" s="139"/>
+      <c r="C41" s="140"/>
       <c r="D41" s="41">
         <f t="shared" ref="D41:K41" si="2">MAX(D9:D38)</f>
         <v>0</v>
@@ -3634,8 +3700,8 @@
       <c r="A42" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="167"/>
-      <c r="C42" s="167"/>
+      <c r="B42" s="147"/>
+      <c r="C42" s="147"/>
       <c r="D42" s="44" t="s">
         <v>22</v>
       </c>
@@ -3652,8 +3718,8 @@
     </row>
     <row r="43" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50"/>
-      <c r="B43" s="168"/>
-      <c r="C43" s="168"/>
+      <c r="B43" s="148"/>
+      <c r="C43" s="148"/>
       <c r="D43" s="44"/>
       <c r="F43" s="46"/>
       <c r="G43" s="47"/>
@@ -3662,11 +3728,11 @@
       <c r="J43" s="51"/>
     </row>
     <row r="44" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="152" t="s">
+      <c r="A44" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="152"/>
-      <c r="C44" s="152"/>
+      <c r="B44" s="130"/>
+      <c r="C44" s="130"/>
       <c r="D44" s="44"/>
       <c r="E44" s="44"/>
       <c r="F44" s="47" t="s">
@@ -3678,11 +3744,11 @@
       <c r="H44" s="44"/>
     </row>
     <row r="45" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="152" t="s">
+      <c r="A45" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="B45" s="152"/>
-      <c r="C45" s="152"/>
+      <c r="B45" s="130"/>
+      <c r="C45" s="130"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="44"/>
@@ -3724,15 +3790,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="B43:C43"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="J4:K4"/>
@@ -3749,6 +3806,15 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D9:D41">
@@ -3821,35 +3887,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -3870,22 +3936,22 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="141">
+      <c r="B4" s="159">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="173">
+      <c r="C4" s="215">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="174"/>
+      <c r="D4" s="204"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="119">
+      <c r="F4" s="114">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
@@ -3899,25 +3965,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="175">
+      <c r="J4" s="216">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="176"/>
+      <c r="K4" s="217"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="144" t="s">
+      <c r="A5" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="145">
+      <c r="B5" s="163">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="146">
+      <c r="C5" s="164">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="147"/>
+      <c r="D5" s="165"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -3935,771 +4001,771 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="191">
+      <c r="J5" s="181">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="192"/>
+      <c r="K5" s="182"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="208" t="s">
+      <c r="A6" s="201" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="209"/>
-      <c r="C6" s="209"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="206"/>
-      <c r="J6" s="207"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="199"/>
+      <c r="J6" s="200"/>
       <c r="K6" s="55"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="193" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="194"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="225" t="s">
+      <c r="A7" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="184"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="203" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="194"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="181" t="s">
+      <c r="E7" s="184"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="189" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="194"/>
-      <c r="I7" s="181" t="s">
+      <c r="H7" s="184"/>
+      <c r="I7" s="189" t="s">
         <v>135</v>
       </c>
-      <c r="J7" s="182"/>
-      <c r="K7" s="200" t="s">
+      <c r="J7" s="185"/>
+      <c r="K7" s="194" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="195"/>
-      <c r="B8" s="299"/>
-      <c r="C8" s="204"/>
-      <c r="D8" s="299" t="s">
+      <c r="A8" s="186"/>
+      <c r="B8" s="187"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="203" t="s">
+      <c r="E8" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="204" t="s">
+      <c r="F8" s="188" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="197"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="197" t="s">
+      <c r="G8" s="190"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="190" t="s">
         <v>136</v>
       </c>
-      <c r="J8" s="204"/>
-      <c r="K8" s="201"/>
+      <c r="J8" s="188"/>
+      <c r="K8" s="195"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="195"/>
-      <c r="B9" s="299"/>
-      <c r="C9" s="204"/>
-      <c r="D9" s="299"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="197"/>
-      <c r="H9" s="196"/>
+      <c r="A9" s="186"/>
+      <c r="B9" s="187"/>
+      <c r="C9" s="188"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="188"/>
+      <c r="G9" s="190"/>
+      <c r="H9" s="191"/>
       <c r="I9" s="57" t="s">
         <v>123</v>
       </c>
       <c r="J9" s="58">
         <v>210</v>
       </c>
-      <c r="K9" s="201"/>
+      <c r="K9" s="195"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="195"/>
-      <c r="B10" s="299"/>
-      <c r="C10" s="204"/>
-      <c r="D10" s="199"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="205"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="199"/>
+      <c r="A10" s="186"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="188"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="192"/>
+      <c r="H10" s="193"/>
       <c r="I10" s="59" t="s">
         <v>124</v>
       </c>
       <c r="J10" s="60">
         <v>213</v>
       </c>
-      <c r="K10" s="202"/>
+      <c r="K10" s="196"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120">
+      <c r="A11" s="115">
         <f>Page1!A9</f>
         <v>0</v>
       </c>
-      <c r="B11" s="121">
+      <c r="B11" s="116">
         <f>Page1!B9</f>
         <v>0</v>
       </c>
-      <c r="C11" s="300">
+      <c r="C11" s="126">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
       <c r="D11" s="61"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="190"/>
-      <c r="H11" s="190"/>
-      <c r="I11" s="177"/>
-      <c r="J11" s="178"/>
+      <c r="G11" s="207"/>
+      <c r="H11" s="207"/>
+      <c r="I11" s="218"/>
+      <c r="J11" s="219"/>
       <c r="K11" s="62"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="122">
+      <c r="A12" s="117">
         <f>Page1!A10</f>
         <v>0</v>
       </c>
-      <c r="B12" s="123">
+      <c r="B12" s="118">
         <f>Page1!B10</f>
         <v>0</v>
       </c>
-      <c r="C12" s="301">
+      <c r="C12" s="127">
         <f>Page1!C10</f>
         <v>0</v>
       </c>
       <c r="D12" s="63"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="179"/>
-      <c r="J12" s="180"/>
+      <c r="G12" s="208"/>
+      <c r="H12" s="208"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="172"/>
       <c r="K12" s="64"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="122">
+      <c r="A13" s="117">
         <f>Page1!A11</f>
         <v>0</v>
       </c>
-      <c r="B13" s="123">
+      <c r="B13" s="118">
         <f>Page1!B11</f>
         <v>0</v>
       </c>
-      <c r="C13" s="302">
+      <c r="C13" s="128">
         <f>Page1!C11</f>
         <v>0</v>
       </c>
       <c r="D13" s="63"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="179"/>
-      <c r="J13" s="180"/>
+      <c r="G13" s="208"/>
+      <c r="H13" s="208"/>
+      <c r="I13" s="171"/>
+      <c r="J13" s="172"/>
       <c r="K13" s="64"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="122">
+      <c r="A14" s="117">
         <f>Page1!A12</f>
         <v>0</v>
       </c>
-      <c r="B14" s="124">
+      <c r="B14" s="119">
         <f>Page1!B12</f>
         <v>0</v>
       </c>
-      <c r="C14" s="302">
+      <c r="C14" s="128">
         <f>Page1!C12</f>
         <v>0</v>
       </c>
       <c r="D14" s="63"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="179"/>
-      <c r="J14" s="180"/>
+      <c r="G14" s="208"/>
+      <c r="H14" s="208"/>
+      <c r="I14" s="171"/>
+      <c r="J14" s="172"/>
       <c r="K14" s="64"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="122">
+      <c r="A15" s="117">
         <f>Page1!A13</f>
         <v>0</v>
       </c>
-      <c r="B15" s="123">
+      <c r="B15" s="118">
         <f>Page1!B13</f>
         <v>0</v>
       </c>
-      <c r="C15" s="301">
+      <c r="C15" s="127">
         <f>Page1!C13</f>
         <v>0</v>
       </c>
       <c r="D15" s="63"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="189"/>
-      <c r="I15" s="179"/>
-      <c r="J15" s="180"/>
+      <c r="G15" s="208"/>
+      <c r="H15" s="208"/>
+      <c r="I15" s="171"/>
+      <c r="J15" s="172"/>
       <c r="K15" s="64"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="122">
+      <c r="A16" s="117">
         <f>Page1!A14</f>
         <v>0</v>
       </c>
-      <c r="B16" s="123">
+      <c r="B16" s="118">
         <f>Page1!B14</f>
         <v>0</v>
       </c>
-      <c r="C16" s="301">
+      <c r="C16" s="127">
         <f>Page1!C14</f>
         <v>0</v>
       </c>
       <c r="D16" s="61"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="190"/>
-      <c r="H16" s="190"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="180"/>
+      <c r="G16" s="207"/>
+      <c r="H16" s="207"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="172"/>
       <c r="K16" s="62"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="122">
+      <c r="A17" s="117">
         <f>Page1!A15</f>
         <v>0</v>
       </c>
-      <c r="B17" s="123">
+      <c r="B17" s="118">
         <f>Page1!B15</f>
         <v>0</v>
       </c>
-      <c r="C17" s="301">
+      <c r="C17" s="127">
         <f>Page1!C15</f>
         <v>0</v>
       </c>
       <c r="D17" s="63"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="189"/>
-      <c r="H17" s="189"/>
-      <c r="I17" s="179"/>
-      <c r="J17" s="180"/>
+      <c r="G17" s="208"/>
+      <c r="H17" s="208"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="172"/>
       <c r="K17" s="64"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="122">
+      <c r="A18" s="117">
         <f>Page1!A16</f>
         <v>0</v>
       </c>
-      <c r="B18" s="123">
+      <c r="B18" s="118">
         <f>Page1!B16</f>
         <v>0</v>
       </c>
-      <c r="C18" s="301">
+      <c r="C18" s="127">
         <f>Page1!C16</f>
         <v>0</v>
       </c>
       <c r="D18" s="63"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="189"/>
-      <c r="H18" s="189"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="180"/>
+      <c r="G18" s="208"/>
+      <c r="H18" s="208"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="172"/>
       <c r="K18" s="64"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="122">
+      <c r="A19" s="117">
         <f>Page1!A17</f>
         <v>0</v>
       </c>
-      <c r="B19" s="125">
+      <c r="B19" s="120">
         <f>Page1!B17</f>
         <v>0</v>
       </c>
-      <c r="C19" s="301">
+      <c r="C19" s="127">
         <f>Page1!C17</f>
         <v>0</v>
       </c>
       <c r="D19" s="63"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="189"/>
-      <c r="H19" s="189"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="180"/>
+      <c r="G19" s="208"/>
+      <c r="H19" s="208"/>
+      <c r="I19" s="171"/>
+      <c r="J19" s="172"/>
       <c r="K19" s="64"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="122">
+      <c r="A20" s="117">
         <f>Page1!A18</f>
         <v>0</v>
       </c>
-      <c r="B20" s="123">
+      <c r="B20" s="118">
         <f>Page1!B18</f>
         <v>0</v>
       </c>
-      <c r="C20" s="301">
+      <c r="C20" s="127">
         <f>Page1!C18</f>
         <v>0</v>
       </c>
       <c r="D20" s="63"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="185"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="179"/>
-      <c r="J20" s="180"/>
+      <c r="G20" s="205"/>
+      <c r="H20" s="206"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="172"/>
       <c r="K20" s="64"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="126">
+      <c r="A21" s="121">
         <f>Page1!A19</f>
         <v>0</v>
       </c>
-      <c r="B21" s="125">
+      <c r="B21" s="120">
         <f>Page1!B19</f>
         <v>0</v>
       </c>
-      <c r="C21" s="302">
+      <c r="C21" s="128">
         <f>Page1!C19</f>
         <v>0</v>
       </c>
       <c r="D21" s="63"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="185"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="180"/>
+      <c r="G21" s="205"/>
+      <c r="H21" s="206"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="172"/>
       <c r="K21" s="64"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="122">
+      <c r="A22" s="117">
         <f>Page1!A20</f>
         <v>0</v>
       </c>
-      <c r="B22" s="123">
+      <c r="B22" s="118">
         <f>Page1!B20</f>
         <v>0</v>
       </c>
-      <c r="C22" s="301">
+      <c r="C22" s="127">
         <f>Page1!C20</f>
         <v>0</v>
       </c>
       <c r="D22" s="63"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="185"/>
-      <c r="H22" s="186"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="180"/>
+      <c r="G22" s="205"/>
+      <c r="H22" s="206"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="172"/>
       <c r="K22" s="64"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="122">
+      <c r="A23" s="117">
         <f>Page1!A21</f>
         <v>0</v>
       </c>
-      <c r="B23" s="123">
+      <c r="B23" s="118">
         <f>Page1!B21</f>
         <v>0</v>
       </c>
-      <c r="C23" s="302">
+      <c r="C23" s="128">
         <f>Page1!C21</f>
         <v>0</v>
       </c>
       <c r="D23" s="63"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="185"/>
-      <c r="H23" s="186"/>
-      <c r="I23" s="179"/>
-      <c r="J23" s="180"/>
+      <c r="G23" s="205"/>
+      <c r="H23" s="206"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="172"/>
       <c r="K23" s="64"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="122">
+      <c r="A24" s="117">
         <f>Page1!A22</f>
         <v>0</v>
       </c>
-      <c r="B24" s="124">
+      <c r="B24" s="119">
         <f>Page1!B22</f>
         <v>0</v>
       </c>
-      <c r="C24" s="302">
+      <c r="C24" s="128">
         <f>Page1!C22</f>
         <v>0</v>
       </c>
       <c r="D24" s="63"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="185"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="179"/>
-      <c r="J24" s="180"/>
+      <c r="G24" s="205"/>
+      <c r="H24" s="206"/>
+      <c r="I24" s="171"/>
+      <c r="J24" s="172"/>
       <c r="K24" s="64"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="122">
+      <c r="A25" s="117">
         <f>Page1!A23</f>
         <v>0</v>
       </c>
-      <c r="B25" s="123">
+      <c r="B25" s="118">
         <f>Page1!B23</f>
         <v>0</v>
       </c>
-      <c r="C25" s="301">
+      <c r="C25" s="127">
         <f>Page1!C23</f>
         <v>0</v>
       </c>
       <c r="D25" s="63"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="185"/>
-      <c r="H25" s="186"/>
-      <c r="I25" s="179"/>
-      <c r="J25" s="180"/>
+      <c r="G25" s="205"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="171"/>
+      <c r="J25" s="172"/>
       <c r="K25" s="64"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="122">
+      <c r="A26" s="117">
         <f>Page1!A24</f>
         <v>0</v>
       </c>
-      <c r="B26" s="123">
+      <c r="B26" s="118">
         <f>Page1!B24</f>
         <v>0</v>
       </c>
-      <c r="C26" s="301">
+      <c r="C26" s="127">
         <f>Page1!C24</f>
         <v>0</v>
       </c>
       <c r="D26" s="63"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="185"/>
-      <c r="H26" s="186"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="180"/>
+      <c r="G26" s="205"/>
+      <c r="H26" s="206"/>
+      <c r="I26" s="171"/>
+      <c r="J26" s="172"/>
       <c r="K26" s="64"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="122">
+      <c r="A27" s="117">
         <f>Page1!A25</f>
         <v>0</v>
       </c>
-      <c r="B27" s="123">
+      <c r="B27" s="118">
         <f>Page1!B25</f>
         <v>0</v>
       </c>
-      <c r="C27" s="301">
+      <c r="C27" s="127">
         <f>Page1!C25</f>
         <v>0</v>
       </c>
       <c r="D27" s="63"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="185"/>
-      <c r="H27" s="186"/>
-      <c r="I27" s="179"/>
-      <c r="J27" s="180"/>
+      <c r="G27" s="205"/>
+      <c r="H27" s="206"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="172"/>
       <c r="K27" s="64"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="122">
+      <c r="A28" s="117">
         <f>Page1!A26</f>
         <v>0</v>
       </c>
-      <c r="B28" s="123">
+      <c r="B28" s="118">
         <f>Page1!B26</f>
         <v>0</v>
       </c>
-      <c r="C28" s="301">
+      <c r="C28" s="127">
         <f>Page1!C26</f>
         <v>0</v>
       </c>
       <c r="D28" s="63"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="185"/>
-      <c r="H28" s="186"/>
-      <c r="I28" s="179"/>
-      <c r="J28" s="180"/>
+      <c r="G28" s="205"/>
+      <c r="H28" s="206"/>
+      <c r="I28" s="171"/>
+      <c r="J28" s="172"/>
       <c r="K28" s="64"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="122">
+      <c r="A29" s="117">
         <f>Page1!A27</f>
         <v>0</v>
       </c>
-      <c r="B29" s="125">
+      <c r="B29" s="120">
         <f>Page1!B27</f>
         <v>0</v>
       </c>
-      <c r="C29" s="301">
+      <c r="C29" s="127">
         <f>Page1!C27</f>
         <v>0</v>
       </c>
       <c r="D29" s="63"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="185"/>
-      <c r="H29" s="186"/>
-      <c r="I29" s="179"/>
-      <c r="J29" s="180"/>
+      <c r="G29" s="205"/>
+      <c r="H29" s="206"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="172"/>
       <c r="K29" s="64"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="122">
+      <c r="A30" s="117">
         <f>Page1!A28</f>
         <v>0</v>
       </c>
-      <c r="B30" s="123">
+      <c r="B30" s="118">
         <f>Page1!B28</f>
         <v>0</v>
       </c>
-      <c r="C30" s="301">
+      <c r="C30" s="127">
         <f>Page1!C28</f>
         <v>0</v>
       </c>
       <c r="D30" s="63"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="186"/>
-      <c r="I30" s="179"/>
-      <c r="J30" s="180"/>
+      <c r="G30" s="205"/>
+      <c r="H30" s="206"/>
+      <c r="I30" s="171"/>
+      <c r="J30" s="172"/>
       <c r="K30" s="64"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="126">
+      <c r="A31" s="121">
         <f>Page1!A29</f>
         <v>0</v>
       </c>
-      <c r="B31" s="125">
+      <c r="B31" s="120">
         <f>Page1!B29</f>
         <v>0</v>
       </c>
-      <c r="C31" s="302">
+      <c r="C31" s="128">
         <f>Page1!C29</f>
         <v>0</v>
       </c>
       <c r="D31" s="63"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="185"/>
-      <c r="H31" s="186"/>
-      <c r="I31" s="179"/>
-      <c r="J31" s="180"/>
+      <c r="G31" s="205"/>
+      <c r="H31" s="206"/>
+      <c r="I31" s="171"/>
+      <c r="J31" s="172"/>
       <c r="K31" s="64"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="122">
+      <c r="A32" s="117">
         <f>Page1!A30</f>
         <v>0</v>
       </c>
-      <c r="B32" s="123">
+      <c r="B32" s="118">
         <f>Page1!B30</f>
         <v>0</v>
       </c>
-      <c r="C32" s="301">
+      <c r="C32" s="127">
         <f>Page1!C30</f>
         <v>0</v>
       </c>
       <c r="D32" s="63"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="185"/>
-      <c r="H32" s="186"/>
-      <c r="I32" s="179"/>
-      <c r="J32" s="180"/>
+      <c r="G32" s="205"/>
+      <c r="H32" s="206"/>
+      <c r="I32" s="171"/>
+      <c r="J32" s="172"/>
       <c r="K32" s="64"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="122">
+      <c r="A33" s="117">
         <f>Page1!A31</f>
         <v>0</v>
       </c>
-      <c r="B33" s="123">
+      <c r="B33" s="118">
         <f>Page1!B31</f>
         <v>0</v>
       </c>
-      <c r="C33" s="302">
+      <c r="C33" s="128">
         <f>Page1!C31</f>
         <v>0</v>
       </c>
       <c r="D33" s="63"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="185"/>
-      <c r="H33" s="186"/>
-      <c r="I33" s="179"/>
-      <c r="J33" s="180"/>
+      <c r="G33" s="205"/>
+      <c r="H33" s="206"/>
+      <c r="I33" s="171"/>
+      <c r="J33" s="172"/>
       <c r="K33" s="64"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="122">
+      <c r="A34" s="117">
         <f>Page1!A32</f>
         <v>0</v>
       </c>
-      <c r="B34" s="124">
+      <c r="B34" s="119">
         <f>Page1!B32</f>
         <v>0</v>
       </c>
-      <c r="C34" s="302">
+      <c r="C34" s="128">
         <f>Page1!C32</f>
         <v>0</v>
       </c>
       <c r="D34" s="63"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
-      <c r="G34" s="185"/>
-      <c r="H34" s="186"/>
-      <c r="I34" s="179"/>
-      <c r="J34" s="180"/>
+      <c r="G34" s="205"/>
+      <c r="H34" s="206"/>
+      <c r="I34" s="171"/>
+      <c r="J34" s="172"/>
       <c r="K34" s="64"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="122">
+      <c r="A35" s="117">
         <f>Page1!A33</f>
         <v>0</v>
       </c>
-      <c r="B35" s="123">
+      <c r="B35" s="118">
         <f>Page1!B33</f>
         <v>0</v>
       </c>
-      <c r="C35" s="301">
+      <c r="C35" s="127">
         <f>Page1!C33</f>
         <v>0</v>
       </c>
       <c r="D35" s="63"/>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="185"/>
-      <c r="H35" s="186"/>
-      <c r="I35" s="179"/>
-      <c r="J35" s="180"/>
+      <c r="G35" s="205"/>
+      <c r="H35" s="206"/>
+      <c r="I35" s="171"/>
+      <c r="J35" s="172"/>
       <c r="K35" s="64"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="122">
+      <c r="A36" s="117">
         <f>Page1!A34</f>
         <v>0</v>
       </c>
-      <c r="B36" s="123">
+      <c r="B36" s="118">
         <f>Page1!B34</f>
         <v>0</v>
       </c>
-      <c r="C36" s="301">
+      <c r="C36" s="127">
         <f>Page1!C34</f>
         <v>0</v>
       </c>
       <c r="D36" s="63"/>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="185"/>
-      <c r="H36" s="186"/>
-      <c r="I36" s="179"/>
-      <c r="J36" s="180"/>
+      <c r="G36" s="205"/>
+      <c r="H36" s="206"/>
+      <c r="I36" s="171"/>
+      <c r="J36" s="172"/>
       <c r="K36" s="64"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="122">
+      <c r="A37" s="117">
         <f>Page1!A35</f>
         <v>0</v>
       </c>
-      <c r="B37" s="123">
+      <c r="B37" s="118">
         <f>Page1!B35</f>
         <v>0</v>
       </c>
-      <c r="C37" s="301">
+      <c r="C37" s="127">
         <f>Page1!C35</f>
         <v>0</v>
       </c>
       <c r="D37" s="63"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="185"/>
-      <c r="H37" s="186"/>
-      <c r="I37" s="179"/>
-      <c r="J37" s="180"/>
+      <c r="G37" s="205"/>
+      <c r="H37" s="206"/>
+      <c r="I37" s="171"/>
+      <c r="J37" s="172"/>
       <c r="K37" s="64"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="122">
+      <c r="A38" s="117">
         <f>Page1!A36</f>
         <v>0</v>
       </c>
-      <c r="B38" s="123">
+      <c r="B38" s="118">
         <f>Page1!B36</f>
         <v>0</v>
       </c>
-      <c r="C38" s="301">
+      <c r="C38" s="127">
         <f>Page1!C36</f>
         <v>0</v>
       </c>
       <c r="D38" s="63"/>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="185"/>
-      <c r="H38" s="186"/>
-      <c r="I38" s="179"/>
-      <c r="J38" s="180"/>
+      <c r="G38" s="205"/>
+      <c r="H38" s="206"/>
+      <c r="I38" s="171"/>
+      <c r="J38" s="172"/>
       <c r="K38" s="64"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="122">
+      <c r="A39" s="117">
         <f>Page1!A37</f>
         <v>0</v>
       </c>
-      <c r="B39" s="123">
+      <c r="B39" s="118">
         <f>Page1!B37</f>
         <v>0</v>
       </c>
-      <c r="C39" s="301">
+      <c r="C39" s="127">
         <f>Page1!C37</f>
         <v>0</v>
       </c>
       <c r="D39" s="63"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="185"/>
-      <c r="H39" s="186"/>
-      <c r="I39" s="179"/>
-      <c r="J39" s="180"/>
+      <c r="G39" s="205"/>
+      <c r="H39" s="206"/>
+      <c r="I39" s="171"/>
+      <c r="J39" s="172"/>
       <c r="K39" s="64"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="127">
+      <c r="A40" s="122">
         <f>Page1!A38</f>
         <v>0</v>
       </c>
-      <c r="B40" s="128">
+      <c r="B40" s="123">
         <f>Page1!B38</f>
         <v>0</v>
       </c>
-      <c r="C40" s="303">
+      <c r="C40" s="129">
         <f>Page1!C38</f>
         <v>0</v>
       </c>
       <c r="D40" s="63"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
-      <c r="G40" s="189"/>
-      <c r="H40" s="189"/>
-      <c r="I40" s="179"/>
-      <c r="J40" s="180"/>
+      <c r="G40" s="208"/>
+      <c r="H40" s="208"/>
+      <c r="I40" s="171"/>
+      <c r="J40" s="172"/>
       <c r="K40" s="64"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="169" t="s">
+      <c r="A41" s="211" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="170"/>
-      <c r="C41" s="170"/>
+      <c r="B41" s="212"/>
+      <c r="C41" s="212"/>
       <c r="D41" s="65" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
@@ -4712,27 +4778,27 @@
         <f>AVERAGE(F11:F40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="187" t="e">
+      <c r="G41" s="209" t="e">
         <f>AVERAGE(G11:H40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="188"/>
-      <c r="I41" s="218" t="e">
+      <c r="H41" s="210"/>
+      <c r="I41" s="173" t="e">
         <f>AVERAGE(I11:J40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="219"/>
+      <c r="J41" s="174"/>
       <c r="K41" s="37" t="e">
         <f>AVERAGE(K11:K40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="171" t="s">
+      <c r="A42" s="213" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="172"/>
-      <c r="C42" s="172"/>
+      <c r="B42" s="214"/>
+      <c r="C42" s="214"/>
       <c r="D42" s="66">
         <f>MIN(D11:D40)</f>
         <v>0</v>
@@ -4745,27 +4811,27 @@
         <f>MIN(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="183">
+      <c r="G42" s="220">
         <f>MIN(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="184"/>
-      <c r="I42" s="216">
+      <c r="H42" s="221"/>
+      <c r="I42" s="169">
         <f>MIN(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="217"/>
+      <c r="J42" s="170"/>
       <c r="K42" s="40">
         <f>MIN(K11:K40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="214" t="s">
+      <c r="A43" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="215"/>
-      <c r="C43" s="215"/>
+      <c r="B43" s="180"/>
+      <c r="C43" s="180"/>
       <c r="D43" s="67">
         <f>MAX(D11:D40)</f>
         <v>0</v>
@@ -4778,16 +4844,16 @@
         <f>MAX(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="210">
+      <c r="G43" s="175">
         <f>MAX(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="211"/>
-      <c r="I43" s="212">
+      <c r="H43" s="176"/>
+      <c r="I43" s="177">
         <f>MAX(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="213"/>
+      <c r="J43" s="178"/>
       <c r="K43" s="69">
         <f>MAX(K11:K40)</f>
         <v>0</v>
@@ -4797,8 +4863,8 @@
       <c r="A44" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="167"/>
-      <c r="C44" s="167"/>
+      <c r="B44" s="147"/>
+      <c r="C44" s="147"/>
       <c r="D44" s="44" t="s">
         <v>22</v>
       </c>
@@ -4815,8 +4881,8 @@
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
-      <c r="B45" s="168"/>
-      <c r="C45" s="168"/>
+      <c r="B45" s="148"/>
+      <c r="C45" s="148"/>
       <c r="D45" s="44"/>
       <c r="F45" s="46"/>
       <c r="G45" s="47"/>
@@ -4825,11 +4891,11 @@
       <c r="J45" s="51"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="152" t="s">
+      <c r="A46" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="152"/>
-      <c r="C46" s="152"/>
+      <c r="B46" s="130"/>
+      <c r="C46" s="130"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="47" t="s">
@@ -4842,11 +4908,11 @@
       <c r="H46" s="44"/>
     </row>
     <row r="47" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="152" t="s">
+      <c r="A47" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="B47" s="152"/>
-      <c r="C47" s="152"/>
+      <c r="B47" s="130"/>
+      <c r="C47" s="130"/>
       <c r="D47" s="44"/>
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
@@ -4901,52 +4967,38 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A7:C10"/>
-    <mergeCell ref="G7:H10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="G39:H39"/>
@@ -4963,38 +5015,52 @@
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A7:C10"/>
+    <mergeCell ref="G7:H10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D11:D43">
@@ -5055,35 +5121,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -5104,22 +5170,22 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="141">
+      <c r="B4" s="159">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="173">
+      <c r="C4" s="215">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="174"/>
+      <c r="D4" s="204"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="119">
+      <c r="F4" s="114">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
@@ -5133,25 +5199,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="175">
+      <c r="J4" s="216">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="176"/>
+      <c r="K4" s="217"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="144" t="s">
+      <c r="A5" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="145">
+      <c r="B5" s="163">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="146">
+      <c r="C5" s="164">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="147"/>
+      <c r="D5" s="165"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -5169,90 +5235,90 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="191">
+      <c r="J5" s="181">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="192"/>
+      <c r="K5" s="182"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="223" t="s">
+      <c r="A6" s="225" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="224"/>
-      <c r="C6" s="224"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="151"/>
+      <c r="B6" s="226"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="168"/>
       <c r="H6" s="71"/>
-      <c r="I6" s="193"/>
-      <c r="J6" s="194"/>
-      <c r="K6" s="200"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="184"/>
+      <c r="K6" s="194"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="193" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="194"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="225" t="s">
+      <c r="A7" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="184"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="203" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="225"/>
-      <c r="F7" s="225"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="220" t="s">
+      <c r="E7" s="203"/>
+      <c r="F7" s="203"/>
+      <c r="G7" s="204"/>
+      <c r="H7" s="222" t="s">
         <v>126</v>
       </c>
-      <c r="I7" s="195"/>
-      <c r="J7" s="196"/>
-      <c r="K7" s="201"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="191"/>
+      <c r="K7" s="195"/>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="195"/>
-      <c r="B8" s="299"/>
-      <c r="C8" s="204"/>
-      <c r="D8" s="304" t="s">
+      <c r="A8" s="186"/>
+      <c r="B8" s="187"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="229" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="203" t="s">
+      <c r="E8" s="197" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="203" t="s">
+      <c r="F8" s="197" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="203" t="s">
+      <c r="G8" s="197" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="221"/>
-      <c r="I8" s="195"/>
-      <c r="J8" s="196"/>
-      <c r="K8" s="201"/>
+      <c r="H8" s="223"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="191"/>
+      <c r="K8" s="195"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="195"/>
-      <c r="B9" s="299"/>
-      <c r="C9" s="204"/>
-      <c r="D9" s="205"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="222"/>
-      <c r="I9" s="195"/>
-      <c r="J9" s="196"/>
-      <c r="K9" s="201"/>
+      <c r="A9" s="186"/>
+      <c r="B9" s="187"/>
+      <c r="C9" s="188"/>
+      <c r="D9" s="198"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="224"/>
+      <c r="I9" s="186"/>
+      <c r="J9" s="191"/>
+      <c r="K9" s="195"/>
     </row>
     <row r="10" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="120">
+      <c r="A10" s="115">
         <f>Page1!A9</f>
         <v>0</v>
       </c>
-      <c r="B10" s="121">
+      <c r="B10" s="116">
         <f>Page1!B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="300">
+      <c r="C10" s="126">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
@@ -5261,20 +5327,20 @@
       <c r="F10" s="23"/>
       <c r="G10" s="73"/>
       <c r="H10" s="74"/>
-      <c r="I10" s="195"/>
-      <c r="J10" s="196"/>
-      <c r="K10" s="201"/>
+      <c r="I10" s="186"/>
+      <c r="J10" s="191"/>
+      <c r="K10" s="195"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122">
+      <c r="A11" s="117">
         <f>Page1!A10</f>
         <v>0</v>
       </c>
-      <c r="B11" s="123">
+      <c r="B11" s="118">
         <f>Page1!B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="301">
+      <c r="C11" s="127">
         <f>Page1!C10</f>
         <v>0</v>
       </c>
@@ -5283,20 +5349,20 @@
       <c r="F11" s="26"/>
       <c r="G11" s="76"/>
       <c r="H11" s="77"/>
-      <c r="I11" s="195"/>
-      <c r="J11" s="196"/>
-      <c r="K11" s="201"/>
+      <c r="I11" s="186"/>
+      <c r="J11" s="191"/>
+      <c r="K11" s="195"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="122">
+      <c r="A12" s="117">
         <f>Page1!A11</f>
         <v>0</v>
       </c>
-      <c r="B12" s="123">
+      <c r="B12" s="118">
         <f>Page1!B11</f>
         <v>0</v>
       </c>
-      <c r="C12" s="302">
+      <c r="C12" s="128">
         <f>Page1!C11</f>
         <v>0</v>
       </c>
@@ -5305,20 +5371,20 @@
       <c r="F12" s="26"/>
       <c r="G12" s="76"/>
       <c r="H12" s="77"/>
-      <c r="I12" s="195"/>
-      <c r="J12" s="196"/>
-      <c r="K12" s="201"/>
+      <c r="I12" s="186"/>
+      <c r="J12" s="191"/>
+      <c r="K12" s="195"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="122">
+      <c r="A13" s="117">
         <f>Page1!A12</f>
         <v>0</v>
       </c>
-      <c r="B13" s="124">
+      <c r="B13" s="119">
         <f>Page1!B12</f>
         <v>0</v>
       </c>
-      <c r="C13" s="302">
+      <c r="C13" s="128">
         <f>Page1!C12</f>
         <v>0</v>
       </c>
@@ -5327,20 +5393,20 @@
       <c r="F13" s="23"/>
       <c r="G13" s="73"/>
       <c r="H13" s="77"/>
-      <c r="I13" s="195"/>
-      <c r="J13" s="196"/>
-      <c r="K13" s="201"/>
+      <c r="I13" s="186"/>
+      <c r="J13" s="191"/>
+      <c r="K13" s="195"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="122">
+      <c r="A14" s="117">
         <f>Page1!A13</f>
         <v>0</v>
       </c>
-      <c r="B14" s="123">
+      <c r="B14" s="118">
         <f>Page1!B13</f>
         <v>0</v>
       </c>
-      <c r="C14" s="301">
+      <c r="C14" s="127">
         <f>Page1!C13</f>
         <v>0</v>
       </c>
@@ -5349,20 +5415,20 @@
       <c r="F14" s="26"/>
       <c r="G14" s="76"/>
       <c r="H14" s="77"/>
-      <c r="I14" s="195"/>
-      <c r="J14" s="196"/>
-      <c r="K14" s="201"/>
+      <c r="I14" s="186"/>
+      <c r="J14" s="191"/>
+      <c r="K14" s="195"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="122">
+      <c r="A15" s="117">
         <f>Page1!A14</f>
         <v>0</v>
       </c>
-      <c r="B15" s="123">
+      <c r="B15" s="118">
         <f>Page1!B14</f>
         <v>0</v>
       </c>
-      <c r="C15" s="301">
+      <c r="C15" s="127">
         <f>Page1!C14</f>
         <v>0</v>
       </c>
@@ -5371,20 +5437,20 @@
       <c r="F15" s="26"/>
       <c r="G15" s="76"/>
       <c r="H15" s="77"/>
-      <c r="I15" s="195"/>
-      <c r="J15" s="196"/>
-      <c r="K15" s="201"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="191"/>
+      <c r="K15" s="195"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="122">
+      <c r="A16" s="117">
         <f>Page1!A15</f>
         <v>0</v>
       </c>
-      <c r="B16" s="123">
+      <c r="B16" s="118">
         <f>Page1!B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="301">
+      <c r="C16" s="127">
         <f>Page1!C15</f>
         <v>0</v>
       </c>
@@ -5393,20 +5459,20 @@
       <c r="F16" s="26"/>
       <c r="G16" s="76"/>
       <c r="H16" s="77"/>
-      <c r="I16" s="195"/>
-      <c r="J16" s="196"/>
-      <c r="K16" s="201"/>
+      <c r="I16" s="186"/>
+      <c r="J16" s="191"/>
+      <c r="K16" s="195"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="122">
+      <c r="A17" s="117">
         <f>Page1!A16</f>
         <v>0</v>
       </c>
-      <c r="B17" s="123">
+      <c r="B17" s="118">
         <f>Page1!B16</f>
         <v>0</v>
       </c>
-      <c r="C17" s="301">
+      <c r="C17" s="127">
         <f>Page1!C16</f>
         <v>0</v>
       </c>
@@ -5415,20 +5481,20 @@
       <c r="F17" s="26"/>
       <c r="G17" s="76"/>
       <c r="H17" s="77"/>
-      <c r="I17" s="195"/>
-      <c r="J17" s="196"/>
-      <c r="K17" s="201"/>
+      <c r="I17" s="186"/>
+      <c r="J17" s="191"/>
+      <c r="K17" s="195"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="122">
+      <c r="A18" s="117">
         <f>Page1!A17</f>
         <v>0</v>
       </c>
-      <c r="B18" s="125">
+      <c r="B18" s="120">
         <f>Page1!B17</f>
         <v>0</v>
       </c>
-      <c r="C18" s="301">
+      <c r="C18" s="127">
         <f>Page1!C17</f>
         <v>0</v>
       </c>
@@ -5437,20 +5503,20 @@
       <c r="F18" s="26"/>
       <c r="G18" s="76"/>
       <c r="H18" s="77"/>
-      <c r="I18" s="195"/>
-      <c r="J18" s="196"/>
-      <c r="K18" s="201"/>
+      <c r="I18" s="186"/>
+      <c r="J18" s="191"/>
+      <c r="K18" s="195"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="122">
+      <c r="A19" s="117">
         <f>Page1!A18</f>
         <v>0</v>
       </c>
-      <c r="B19" s="123">
+      <c r="B19" s="118">
         <f>Page1!B18</f>
         <v>0</v>
       </c>
-      <c r="C19" s="301">
+      <c r="C19" s="127">
         <f>Page1!C18</f>
         <v>0</v>
       </c>
@@ -5459,20 +5525,20 @@
       <c r="F19" s="26"/>
       <c r="G19" s="76"/>
       <c r="H19" s="77"/>
-      <c r="I19" s="195"/>
-      <c r="J19" s="196"/>
-      <c r="K19" s="201"/>
+      <c r="I19" s="186"/>
+      <c r="J19" s="191"/>
+      <c r="K19" s="195"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="126">
+      <c r="A20" s="121">
         <f>Page1!A19</f>
         <v>0</v>
       </c>
-      <c r="B20" s="125">
+      <c r="B20" s="120">
         <f>Page1!B19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="302">
+      <c r="C20" s="128">
         <f>Page1!C19</f>
         <v>0</v>
       </c>
@@ -5481,20 +5547,20 @@
       <c r="F20" s="26"/>
       <c r="G20" s="76"/>
       <c r="H20" s="77"/>
-      <c r="I20" s="195"/>
-      <c r="J20" s="196"/>
-      <c r="K20" s="201"/>
+      <c r="I20" s="186"/>
+      <c r="J20" s="191"/>
+      <c r="K20" s="195"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="122">
+      <c r="A21" s="117">
         <f>Page1!A20</f>
         <v>0</v>
       </c>
-      <c r="B21" s="123">
+      <c r="B21" s="118">
         <f>Page1!B20</f>
         <v>0</v>
       </c>
-      <c r="C21" s="301">
+      <c r="C21" s="127">
         <f>Page1!C20</f>
         <v>0</v>
       </c>
@@ -5503,20 +5569,20 @@
       <c r="F21" s="26"/>
       <c r="G21" s="76"/>
       <c r="H21" s="77"/>
-      <c r="I21" s="195"/>
-      <c r="J21" s="196"/>
-      <c r="K21" s="201"/>
+      <c r="I21" s="186"/>
+      <c r="J21" s="191"/>
+      <c r="K21" s="195"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="122">
+      <c r="A22" s="117">
         <f>Page1!A21</f>
         <v>0</v>
       </c>
-      <c r="B22" s="123">
+      <c r="B22" s="118">
         <f>Page1!B21</f>
         <v>0</v>
       </c>
-      <c r="C22" s="302">
+      <c r="C22" s="128">
         <f>Page1!C21</f>
         <v>0</v>
       </c>
@@ -5525,20 +5591,20 @@
       <c r="F22" s="26"/>
       <c r="G22" s="76"/>
       <c r="H22" s="77"/>
-      <c r="I22" s="195"/>
-      <c r="J22" s="196"/>
-      <c r="K22" s="201"/>
+      <c r="I22" s="186"/>
+      <c r="J22" s="191"/>
+      <c r="K22" s="195"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="122">
+      <c r="A23" s="117">
         <f>Page1!A22</f>
         <v>0</v>
       </c>
-      <c r="B23" s="124">
+      <c r="B23" s="119">
         <f>Page1!B22</f>
         <v>0</v>
       </c>
-      <c r="C23" s="302">
+      <c r="C23" s="128">
         <f>Page1!C22</f>
         <v>0</v>
       </c>
@@ -5547,20 +5613,20 @@
       <c r="F23" s="26"/>
       <c r="G23" s="76"/>
       <c r="H23" s="77"/>
-      <c r="I23" s="195"/>
-      <c r="J23" s="196"/>
-      <c r="K23" s="201"/>
+      <c r="I23" s="186"/>
+      <c r="J23" s="191"/>
+      <c r="K23" s="195"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="122">
+      <c r="A24" s="117">
         <f>Page1!A23</f>
         <v>0</v>
       </c>
-      <c r="B24" s="123">
+      <c r="B24" s="118">
         <f>Page1!B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="301">
+      <c r="C24" s="127">
         <f>Page1!C23</f>
         <v>0</v>
       </c>
@@ -5569,20 +5635,20 @@
       <c r="F24" s="26"/>
       <c r="G24" s="76"/>
       <c r="H24" s="77"/>
-      <c r="I24" s="195"/>
-      <c r="J24" s="196"/>
-      <c r="K24" s="201"/>
+      <c r="I24" s="186"/>
+      <c r="J24" s="191"/>
+      <c r="K24" s="195"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="122">
+      <c r="A25" s="117">
         <f>Page1!A24</f>
         <v>0</v>
       </c>
-      <c r="B25" s="123">
+      <c r="B25" s="118">
         <f>Page1!B24</f>
         <v>0</v>
       </c>
-      <c r="C25" s="301">
+      <c r="C25" s="127">
         <f>Page1!C24</f>
         <v>0</v>
       </c>
@@ -5591,20 +5657,20 @@
       <c r="F25" s="26"/>
       <c r="G25" s="76"/>
       <c r="H25" s="77"/>
-      <c r="I25" s="195"/>
-      <c r="J25" s="196"/>
-      <c r="K25" s="201"/>
+      <c r="I25" s="186"/>
+      <c r="J25" s="191"/>
+      <c r="K25" s="195"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="122">
+      <c r="A26" s="117">
         <f>Page1!A25</f>
         <v>0</v>
       </c>
-      <c r="B26" s="123">
+      <c r="B26" s="118">
         <f>Page1!B25</f>
         <v>0</v>
       </c>
-      <c r="C26" s="301">
+      <c r="C26" s="127">
         <f>Page1!C25</f>
         <v>0</v>
       </c>
@@ -5613,20 +5679,20 @@
       <c r="F26" s="26"/>
       <c r="G26" s="76"/>
       <c r="H26" s="77"/>
-      <c r="I26" s="195"/>
-      <c r="J26" s="196"/>
-      <c r="K26" s="201"/>
+      <c r="I26" s="186"/>
+      <c r="J26" s="191"/>
+      <c r="K26" s="195"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="122">
+      <c r="A27" s="117">
         <f>Page1!A26</f>
         <v>0</v>
       </c>
-      <c r="B27" s="123">
+      <c r="B27" s="118">
         <f>Page1!B26</f>
         <v>0</v>
       </c>
-      <c r="C27" s="301">
+      <c r="C27" s="127">
         <f>Page1!C26</f>
         <v>0</v>
       </c>
@@ -5635,20 +5701,20 @@
       <c r="F27" s="26"/>
       <c r="G27" s="76"/>
       <c r="H27" s="77"/>
-      <c r="I27" s="195"/>
-      <c r="J27" s="196"/>
-      <c r="K27" s="201"/>
+      <c r="I27" s="186"/>
+      <c r="J27" s="191"/>
+      <c r="K27" s="195"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="122">
+      <c r="A28" s="117">
         <f>Page1!A27</f>
         <v>0</v>
       </c>
-      <c r="B28" s="125">
+      <c r="B28" s="120">
         <f>Page1!B27</f>
         <v>0</v>
       </c>
-      <c r="C28" s="301">
+      <c r="C28" s="127">
         <f>Page1!C27</f>
         <v>0</v>
       </c>
@@ -5657,20 +5723,20 @@
       <c r="F28" s="26"/>
       <c r="G28" s="76"/>
       <c r="H28" s="77"/>
-      <c r="I28" s="195"/>
-      <c r="J28" s="196"/>
-      <c r="K28" s="201"/>
+      <c r="I28" s="186"/>
+      <c r="J28" s="191"/>
+      <c r="K28" s="195"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="122">
+      <c r="A29" s="117">
         <f>Page1!A28</f>
         <v>0</v>
       </c>
-      <c r="B29" s="123">
+      <c r="B29" s="118">
         <f>Page1!B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="301">
+      <c r="C29" s="127">
         <f>Page1!C28</f>
         <v>0</v>
       </c>
@@ -5679,20 +5745,20 @@
       <c r="F29" s="26"/>
       <c r="G29" s="76"/>
       <c r="H29" s="77"/>
-      <c r="I29" s="195"/>
-      <c r="J29" s="196"/>
-      <c r="K29" s="201"/>
+      <c r="I29" s="186"/>
+      <c r="J29" s="191"/>
+      <c r="K29" s="195"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="126">
+      <c r="A30" s="121">
         <f>Page1!A29</f>
         <v>0</v>
       </c>
-      <c r="B30" s="125">
+      <c r="B30" s="120">
         <f>Page1!B29</f>
         <v>0</v>
       </c>
-      <c r="C30" s="302">
+      <c r="C30" s="128">
         <f>Page1!C29</f>
         <v>0</v>
       </c>
@@ -5701,20 +5767,20 @@
       <c r="F30" s="26"/>
       <c r="G30" s="76"/>
       <c r="H30" s="77"/>
-      <c r="I30" s="195"/>
-      <c r="J30" s="196"/>
-      <c r="K30" s="201"/>
+      <c r="I30" s="186"/>
+      <c r="J30" s="191"/>
+      <c r="K30" s="195"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="122">
+      <c r="A31" s="117">
         <f>Page1!A30</f>
         <v>0</v>
       </c>
-      <c r="B31" s="123">
+      <c r="B31" s="118">
         <f>Page1!B30</f>
         <v>0</v>
       </c>
-      <c r="C31" s="301">
+      <c r="C31" s="127">
         <f>Page1!C30</f>
         <v>0</v>
       </c>
@@ -5723,20 +5789,20 @@
       <c r="F31" s="26"/>
       <c r="G31" s="76"/>
       <c r="H31" s="77"/>
-      <c r="I31" s="195"/>
-      <c r="J31" s="196"/>
-      <c r="K31" s="201"/>
+      <c r="I31" s="186"/>
+      <c r="J31" s="191"/>
+      <c r="K31" s="195"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="122">
+      <c r="A32" s="117">
         <f>Page1!A31</f>
         <v>0</v>
       </c>
-      <c r="B32" s="123">
+      <c r="B32" s="118">
         <f>Page1!B31</f>
         <v>0</v>
       </c>
-      <c r="C32" s="302">
+      <c r="C32" s="128">
         <f>Page1!C31</f>
         <v>0</v>
       </c>
@@ -5745,20 +5811,20 @@
       <c r="F32" s="26"/>
       <c r="G32" s="76"/>
       <c r="H32" s="77"/>
-      <c r="I32" s="195"/>
-      <c r="J32" s="196"/>
-      <c r="K32" s="201"/>
+      <c r="I32" s="186"/>
+      <c r="J32" s="191"/>
+      <c r="K32" s="195"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="122">
+      <c r="A33" s="117">
         <f>Page1!A32</f>
         <v>0</v>
       </c>
-      <c r="B33" s="124">
+      <c r="B33" s="119">
         <f>Page1!B32</f>
         <v>0</v>
       </c>
-      <c r="C33" s="302">
+      <c r="C33" s="128">
         <f>Page1!C32</f>
         <v>0</v>
       </c>
@@ -5767,20 +5833,20 @@
       <c r="F33" s="26"/>
       <c r="G33" s="76"/>
       <c r="H33" s="77"/>
-      <c r="I33" s="195"/>
-      <c r="J33" s="196"/>
-      <c r="K33" s="201"/>
+      <c r="I33" s="186"/>
+      <c r="J33" s="191"/>
+      <c r="K33" s="195"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="122">
+      <c r="A34" s="117">
         <f>Page1!A33</f>
         <v>0</v>
       </c>
-      <c r="B34" s="123">
+      <c r="B34" s="118">
         <f>Page1!B33</f>
         <v>0</v>
       </c>
-      <c r="C34" s="301">
+      <c r="C34" s="127">
         <f>Page1!C33</f>
         <v>0</v>
       </c>
@@ -5789,20 +5855,20 @@
       <c r="F34" s="26"/>
       <c r="G34" s="76"/>
       <c r="H34" s="77"/>
-      <c r="I34" s="195"/>
-      <c r="J34" s="196"/>
-      <c r="K34" s="201"/>
+      <c r="I34" s="186"/>
+      <c r="J34" s="191"/>
+      <c r="K34" s="195"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="122">
+      <c r="A35" s="117">
         <f>Page1!A34</f>
         <v>0</v>
       </c>
-      <c r="B35" s="123">
+      <c r="B35" s="118">
         <f>Page1!B34</f>
         <v>0</v>
       </c>
-      <c r="C35" s="301">
+      <c r="C35" s="127">
         <f>Page1!C34</f>
         <v>0</v>
       </c>
@@ -5811,20 +5877,20 @@
       <c r="F35" s="26"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
-      <c r="I35" s="195"/>
-      <c r="J35" s="196"/>
-      <c r="K35" s="201"/>
+      <c r="I35" s="186"/>
+      <c r="J35" s="191"/>
+      <c r="K35" s="195"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="122">
+      <c r="A36" s="117">
         <f>Page1!A35</f>
         <v>0</v>
       </c>
-      <c r="B36" s="123">
+      <c r="B36" s="118">
         <f>Page1!B35</f>
         <v>0</v>
       </c>
-      <c r="C36" s="301">
+      <c r="C36" s="127">
         <f>Page1!C35</f>
         <v>0</v>
       </c>
@@ -5833,20 +5899,20 @@
       <c r="F36" s="26"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
-      <c r="I36" s="195"/>
-      <c r="J36" s="196"/>
-      <c r="K36" s="201"/>
+      <c r="I36" s="186"/>
+      <c r="J36" s="191"/>
+      <c r="K36" s="195"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="122">
+      <c r="A37" s="117">
         <f>Page1!A36</f>
         <v>0</v>
       </c>
-      <c r="B37" s="123">
+      <c r="B37" s="118">
         <f>Page1!B36</f>
         <v>0</v>
       </c>
-      <c r="C37" s="301">
+      <c r="C37" s="127">
         <f>Page1!C36</f>
         <v>0</v>
       </c>
@@ -5855,20 +5921,20 @@
       <c r="F37" s="26"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
-      <c r="I37" s="195"/>
-      <c r="J37" s="196"/>
-      <c r="K37" s="201"/>
+      <c r="I37" s="186"/>
+      <c r="J37" s="191"/>
+      <c r="K37" s="195"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="122">
+      <c r="A38" s="117">
         <f>Page1!A37</f>
         <v>0</v>
       </c>
-      <c r="B38" s="123">
+      <c r="B38" s="118">
         <f>Page1!B37</f>
         <v>0</v>
       </c>
-      <c r="C38" s="301">
+      <c r="C38" s="127">
         <f>Page1!C37</f>
         <v>0</v>
       </c>
@@ -5877,20 +5943,20 @@
       <c r="F38" s="26"/>
       <c r="G38" s="76"/>
       <c r="H38" s="77"/>
-      <c r="I38" s="195"/>
-      <c r="J38" s="196"/>
-      <c r="K38" s="201"/>
+      <c r="I38" s="186"/>
+      <c r="J38" s="191"/>
+      <c r="K38" s="195"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="127">
+      <c r="A39" s="122">
         <f>Page1!A38</f>
         <v>0</v>
       </c>
-      <c r="B39" s="128">
+      <c r="B39" s="123">
         <f>Page1!B38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="303">
+      <c r="C39" s="129">
         <f>Page1!C38</f>
         <v>0</v>
       </c>
@@ -5899,16 +5965,16 @@
       <c r="F39" s="26"/>
       <c r="G39" s="76"/>
       <c r="H39" s="77"/>
-      <c r="I39" s="195"/>
-      <c r="J39" s="196"/>
-      <c r="K39" s="201"/>
+      <c r="I39" s="186"/>
+      <c r="J39" s="191"/>
+      <c r="K39" s="195"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="226" t="s">
+      <c r="A40" s="227" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="227"/>
-      <c r="C40" s="227"/>
+      <c r="B40" s="228"/>
+      <c r="C40" s="228"/>
       <c r="D40" s="78" t="e">
         <f>AVERAGE(D10:D39)</f>
         <v>#DIV/0!</v>
@@ -5929,16 +5995,16 @@
         <f>AVERAGE(H10:H39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="196"/>
-      <c r="J40" s="196"/>
-      <c r="K40" s="201"/>
+      <c r="I40" s="191"/>
+      <c r="J40" s="191"/>
+      <c r="K40" s="195"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="171" t="s">
+      <c r="A41" s="213" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="172"/>
-      <c r="C41" s="172"/>
+      <c r="B41" s="214"/>
+      <c r="C41" s="214"/>
       <c r="D41" s="80">
         <f>MIN(D10:D39)</f>
         <v>0</v>
@@ -5959,16 +6025,16 @@
         <f>MIN(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="196"/>
-      <c r="J41" s="196"/>
-      <c r="K41" s="201"/>
+      <c r="I41" s="191"/>
+      <c r="J41" s="191"/>
+      <c r="K41" s="195"/>
     </row>
     <row r="42" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="214" t="s">
+      <c r="A42" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="215"/>
-      <c r="C42" s="215"/>
+      <c r="B42" s="180"/>
+      <c r="C42" s="180"/>
       <c r="D42" s="82">
         <f>MAX(D10:D39)</f>
         <v>0</v>
@@ -5989,16 +6055,16 @@
         <f>MAX(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="199"/>
-      <c r="J42" s="199"/>
-      <c r="K42" s="202"/>
+      <c r="I42" s="193"/>
+      <c r="J42" s="193"/>
+      <c r="K42" s="196"/>
     </row>
     <row r="43" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
+      <c r="B43" s="147"/>
+      <c r="C43" s="147"/>
       <c r="D43" s="44" t="s">
         <v>22</v>
       </c>
@@ -6015,8 +6081,8 @@
     </row>
     <row r="44" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50"/>
-      <c r="B44" s="168"/>
-      <c r="C44" s="168"/>
+      <c r="B44" s="148"/>
+      <c r="C44" s="148"/>
       <c r="D44" s="44"/>
       <c r="F44" s="46"/>
       <c r="G44" s="47"/>
@@ -6025,11 +6091,11 @@
       <c r="J44" s="51"/>
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="152" t="s">
+      <c r="A45" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="152"/>
-      <c r="C45" s="152"/>
+      <c r="B45" s="130"/>
+      <c r="C45" s="130"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="47" t="s">
@@ -6042,11 +6108,11 @@
       <c r="H45" s="44"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="152" t="s">
+      <c r="A46" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="152"/>
-      <c r="C46" s="152"/>
+      <c r="B46" s="130"/>
+      <c r="C46" s="130"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
@@ -6071,6 +6137,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="I6:K42"/>
     <mergeCell ref="H7:H9"/>
@@ -6087,15 +6162,6 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="notBetween">
@@ -6131,77 +6197,83 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="21.42578125" style="86" customWidth="1"/>
     <col min="3" max="5" width="12.85546875" style="86" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="86" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="86" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="117"/>
+    <col min="6" max="6" width="12.140625" style="86" customWidth="1"/>
+    <col min="7" max="7" width="5" style="86" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="86" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="112"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="279" t="s">
+    <row r="1" spans="1:8" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="231" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="281"/>
-    </row>
-    <row r="2" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="233"/>
+    </row>
+    <row r="2" spans="1:8" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="87"/>
       <c r="B2" s="88"/>
       <c r="C2" s="88"/>
       <c r="D2" s="88"/>
       <c r="E2" s="88"/>
       <c r="F2" s="88"/>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="88"/>
+      <c r="H2" s="89" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="287" t="s">
+    <row r="3" spans="1:8" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="242" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="288"/>
-      <c r="C3" s="288"/>
-      <c r="D3" s="288"/>
-      <c r="E3" s="288"/>
-      <c r="F3" s="288"/>
-      <c r="G3" s="289"/>
-    </row>
-    <row r="4" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="195" t="s">
+      <c r="B3" s="243"/>
+      <c r="C3" s="243"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="243"/>
+      <c r="F3" s="243"/>
+      <c r="G3" s="243"/>
+      <c r="H3" s="244"/>
+    </row>
+    <row r="4" spans="1:8" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="186" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="196"/>
-      <c r="C4" s="196"/>
-      <c r="D4" s="196"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="196"/>
-      <c r="G4" s="201"/>
-    </row>
-    <row r="5" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="282" t="s">
+      <c r="B4" s="191"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="195"/>
+    </row>
+    <row r="5" spans="1:8" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="234" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="283"/>
-      <c r="C5" s="283"/>
-      <c r="D5" s="283"/>
-      <c r="E5" s="283"/>
-      <c r="F5" s="283"/>
-      <c r="G5" s="284"/>
-    </row>
-    <row r="6" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="235"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="235"/>
+      <c r="F5" s="235"/>
+      <c r="G5" s="235"/>
+      <c r="H5" s="236"/>
+    </row>
+    <row r="6" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
         <v>45</v>
       </c>
@@ -6211,20 +6283,21 @@
       <c r="C6" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="247">
+      <c r="D6" s="237">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="249"/>
-      <c r="F6" s="285" t="s">
+      <c r="E6" s="238"/>
+      <c r="F6" s="258" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="270">
+      <c r="G6" s="259"/>
+      <c r="H6" s="240">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="90" t="s">
         <v>48</v>
       </c>
@@ -6232,15 +6305,16 @@
       <c r="C7" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="247">
+      <c r="D7" s="237">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="249"/>
-      <c r="F7" s="285"/>
-      <c r="G7" s="286"/>
-    </row>
-    <row r="8" spans="1:7" s="86" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="238"/>
+      <c r="F7" s="303"/>
+      <c r="G7" s="267"/>
+      <c r="H7" s="241"/>
+    </row>
+    <row r="8" spans="1:8" s="86" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="90" t="s">
         <v>50</v>
       </c>
@@ -6251,20 +6325,21 @@
       <c r="C8" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="285">
+      <c r="D8" s="239">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="285"/>
-      <c r="F8" s="267" t="s">
+      <c r="E8" s="239"/>
+      <c r="F8" s="258" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="270">
+      <c r="G8" s="259"/>
+      <c r="H8" s="240">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="96" t="s">
         <v>52</v>
       </c>
@@ -6272,17 +6347,18 @@
         <f>Page1!G44</f>
         <v>461359700</v>
       </c>
-      <c r="C9" s="267" t="s">
+      <c r="C9" s="254" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="273" t="s">
+      <c r="D9" s="258" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="274"/>
-      <c r="F9" s="268"/>
-      <c r="G9" s="271"/>
-    </row>
-    <row r="10" spans="1:7" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="259"/>
+      <c r="F9" s="304"/>
+      <c r="G9" s="305"/>
+      <c r="H9" s="256"/>
+    </row>
+    <row r="10" spans="1:8" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="97" t="s">
         <v>55</v>
       </c>
@@ -6290,34 +6366,36 @@
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="269"/>
-      <c r="D10" s="275"/>
-      <c r="E10" s="276"/>
-      <c r="F10" s="269"/>
-      <c r="G10" s="272"/>
-    </row>
-    <row r="11" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="290" t="s">
+      <c r="C10" s="255"/>
+      <c r="D10" s="260"/>
+      <c r="E10" s="261"/>
+      <c r="F10" s="260"/>
+      <c r="G10" s="261"/>
+      <c r="H10" s="257"/>
+    </row>
+    <row r="11" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="245" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="292" t="s">
+      <c r="B11" s="247" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="294" t="s">
+      <c r="C11" s="249" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="295"/>
-      <c r="E11" s="296"/>
-      <c r="F11" s="292" t="s">
+      <c r="D11" s="250"/>
+      <c r="E11" s="251"/>
+      <c r="F11" s="306" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="297" t="s">
+      <c r="G11" s="307"/>
+      <c r="H11" s="252" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="291"/>
-      <c r="B12" s="293"/>
+    <row r="12" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="246"/>
+      <c r="B12" s="248"/>
       <c r="C12" s="99" t="s">
         <v>60</v>
       </c>
@@ -6327,10 +6405,11 @@
       <c r="E12" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="293"/>
-      <c r="G12" s="298"/>
-    </row>
-    <row r="13" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="308"/>
+      <c r="G12" s="309"/>
+      <c r="H12" s="253"/>
+    </row>
+    <row r="13" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="100" t="s">
         <v>63</v>
       </c>
@@ -6343,180 +6422,188 @@
       <c r="D13" s="102">
         <v>18</v>
       </c>
-      <c r="E13" s="102">
+      <c r="E13" s="301">
         <v>20</v>
       </c>
-      <c r="F13" s="103" t="e">
+      <c r="F13" s="315" t="e">
         <f>Page1!D39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="310"/>
+      <c r="H13" s="316" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="104" t="s">
+    <row r="14" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="106">
+      <c r="C14" s="105">
         <v>18</v>
       </c>
-      <c r="D14" s="106">
+      <c r="D14" s="105">
         <v>23</v>
       </c>
-      <c r="E14" s="106">
+      <c r="E14" s="104">
         <v>28</v>
       </c>
-      <c r="F14" s="107" t="e">
+      <c r="F14" s="317" t="e">
         <f>Page1!E39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="108" t="s">
+      <c r="G14" s="312"/>
+      <c r="H14" s="106" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="104" t="s">
+    <row r="15" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="106">
+      <c r="C15" s="105">
         <v>300</v>
       </c>
-      <c r="D15" s="106" t="s">
+      <c r="D15" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="106" t="s">
+      <c r="E15" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="39" t="e">
+      <c r="F15" s="317" t="e">
         <f>Page1!K39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="277" t="s">
+      <c r="G15" s="312"/>
+      <c r="H15" s="262" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="104" t="s">
+    <row r="16" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="106">
+      <c r="C16" s="105">
         <v>300</v>
       </c>
-      <c r="D16" s="106" t="s">
+      <c r="D16" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="106" t="s">
+      <c r="E16" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="39" t="e">
+      <c r="F16" s="317" t="e">
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="221"/>
-    </row>
-    <row r="17" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="104" t="s">
+      <c r="G16" s="312"/>
+      <c r="H16" s="223"/>
+    </row>
+    <row r="17" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="106">
+      <c r="C17" s="105">
         <v>900</v>
       </c>
-      <c r="D17" s="106" t="s">
+      <c r="D17" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="106">
+      <c r="E17" s="104">
         <v>1200</v>
       </c>
-      <c r="F17" s="39" t="e">
+      <c r="F17" s="317" t="e">
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="221"/>
-    </row>
-    <row r="18" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="104" t="s">
+      <c r="G17" s="312"/>
+      <c r="H17" s="223"/>
+    </row>
+    <row r="18" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="105" t="s">
+      <c r="B18" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="106">
+      <c r="C18" s="105">
         <v>700</v>
       </c>
-      <c r="D18" s="106" t="s">
+      <c r="D18" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="106">
+      <c r="E18" s="104">
         <v>1000</v>
       </c>
-      <c r="F18" s="39" t="e">
+      <c r="F18" s="317" t="e">
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="221"/>
-    </row>
-    <row r="19" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="104" t="s">
+      <c r="G18" s="312"/>
+      <c r="H18" s="223"/>
+    </row>
+    <row r="19" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="105" t="s">
+      <c r="B19" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="106">
+      <c r="C19" s="105">
         <v>350</v>
       </c>
-      <c r="D19" s="106" t="s">
+      <c r="D19" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="106" t="s">
+      <c r="E19" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="39" t="e">
+      <c r="F19" s="317" t="e">
         <f>Page1!J39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="221"/>
-    </row>
-    <row r="20" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="104" t="s">
+      <c r="G19" s="312"/>
+      <c r="H19" s="223"/>
+    </row>
+    <row r="20" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="105" t="s">
+      <c r="B20" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="106">
+      <c r="C20" s="105">
         <v>400</v>
       </c>
-      <c r="D20" s="106" t="s">
+      <c r="D20" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="106" t="s">
+      <c r="E20" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="39" t="e">
+      <c r="F20" s="317" t="e">
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="221"/>
-    </row>
-    <row r="21" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="104" t="s">
+      <c r="G20" s="312"/>
+      <c r="H20" s="223"/>
+    </row>
+    <row r="21" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="105" t="s">
+      <c r="B21" s="104" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="38">
@@ -6525,20 +6612,21 @@
       <c r="D21" s="38">
         <v>0.45</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="313">
         <v>0.6</v>
       </c>
-      <c r="F21" s="38" t="e">
+      <c r="F21" s="317" t="e">
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="221"/>
-    </row>
-    <row r="22" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="104" t="s">
+      <c r="G21" s="312"/>
+      <c r="H21" s="223"/>
+    </row>
+    <row r="22" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="105" t="s">
+      <c r="B22" s="104" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="38">
@@ -6547,20 +6635,21 @@
       <c r="D22" s="38">
         <v>0.8</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="313">
         <v>1.4</v>
       </c>
-      <c r="F22" s="38" t="e">
+      <c r="F22" s="317" t="e">
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="134"/>
-    </row>
-    <row r="23" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="104" t="s">
+      <c r="G22" s="312"/>
+      <c r="H22" s="152"/>
+    </row>
+    <row r="23" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="104" t="s">
         <v>81</v>
       </c>
       <c r="C23" s="39">
@@ -6569,71 +6658,74 @@
       <c r="D23" s="39">
         <v>380</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="125">
         <v>400</v>
       </c>
-      <c r="F23" s="39" t="e">
+      <c r="F23" s="317" t="e">
         <f>Page1!F39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="108" t="s">
+      <c r="G23" s="312"/>
+      <c r="H23" s="106" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="104" t="s">
+    <row r="24" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="106" t="s">
+      <c r="C24" s="105" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="39">
         <f>Page2!J9</f>
         <v>210</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="125">
         <f>Page2!J10</f>
         <v>213</v>
       </c>
-      <c r="F24" s="39" t="e">
+      <c r="F24" s="317" t="e">
         <f>Page2!I41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="108" t="s">
+      <c r="G24" s="312"/>
+      <c r="H24" s="106" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="104" t="s">
+    <row r="25" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="105" t="s">
+      <c r="B25" s="104" t="s">
         <v>87</v>
       </c>
       <c r="C25" s="39">
         <v>6000</v>
       </c>
-      <c r="D25" s="106" t="s">
+      <c r="D25" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="106" t="s">
+      <c r="E25" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="317">
         <v>6000</v>
       </c>
-      <c r="G25" s="108" t="s">
+      <c r="G25" s="312"/>
+      <c r="H25" s="106" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="110" t="s">
+    <row r="26" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="111" t="s">
+      <c r="B26" s="109" t="s">
         <v>84</v>
       </c>
       <c r="C26" s="56">
@@ -6642,323 +6734,360 @@
       <c r="D26" s="56">
         <v>430</v>
       </c>
-      <c r="E26" s="112">
+      <c r="E26" s="302">
         <v>450</v>
       </c>
-      <c r="F26" s="112" t="e">
+      <c r="F26" s="318" t="e">
         <f>Page2!K41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="109" t="s">
+      <c r="G26" s="319"/>
+      <c r="H26" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="261" t="s">
+    <row r="27" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="263" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="262"/>
-      <c r="C27" s="262"/>
-      <c r="D27" s="262"/>
-      <c r="E27" s="262"/>
-      <c r="F27" s="262"/>
-      <c r="G27" s="263"/>
-    </row>
-    <row r="28" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="245" t="s">
+      <c r="B27" s="264"/>
+      <c r="C27" s="264"/>
+      <c r="D27" s="264"/>
+      <c r="E27" s="264"/>
+      <c r="F27" s="311"/>
+      <c r="G27" s="311"/>
+      <c r="H27" s="314"/>
+    </row>
+    <row r="28" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="266" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="246"/>
-      <c r="C28" s="264" t="s">
+      <c r="B28" s="267"/>
+      <c r="C28" s="268" t="s">
         <v>127</v>
       </c>
-      <c r="D28" s="265"/>
-      <c r="E28" s="266"/>
-      <c r="F28" s="113" t="s">
+      <c r="D28" s="269"/>
+      <c r="E28" s="270"/>
+      <c r="F28" s="320" t="s">
         <v>92</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="321"/>
+      <c r="H28" s="18" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="250" t="s">
+    <row r="29" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="271" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="249"/>
-      <c r="C29" s="255" t="s">
+      <c r="B29" s="238"/>
+      <c r="C29" s="272" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="256"/>
-      <c r="E29" s="257"/>
-      <c r="F29" s="66" t="s">
+      <c r="D29" s="273"/>
+      <c r="E29" s="274"/>
+      <c r="F29" s="169" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="108" t="s">
+      <c r="G29" s="170"/>
+      <c r="H29" s="106" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="250" t="s">
+    <row r="30" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="271" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="249"/>
-      <c r="C30" s="255" t="s">
+      <c r="B30" s="238"/>
+      <c r="C30" s="272" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="256"/>
-      <c r="E30" s="257"/>
-      <c r="F30" s="66" t="s">
+      <c r="D30" s="273"/>
+      <c r="E30" s="274"/>
+      <c r="F30" s="169" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="170"/>
+      <c r="H30" s="18" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="250" t="s">
+    <row r="31" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="271" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="249"/>
-      <c r="C31" s="255" t="s">
+      <c r="B31" s="238"/>
+      <c r="C31" s="272" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="256"/>
-      <c r="E31" s="257"/>
-      <c r="F31" s="66" t="s">
+      <c r="D31" s="273"/>
+      <c r="E31" s="274"/>
+      <c r="F31" s="169" t="s">
         <v>92</v>
       </c>
-      <c r="G31" s="108" t="s">
+      <c r="G31" s="170"/>
+      <c r="H31" s="106" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="250" t="s">
+    <row r="32" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="249"/>
-      <c r="C32" s="255" t="s">
+      <c r="B32" s="238"/>
+      <c r="C32" s="272" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="256"/>
-      <c r="E32" s="257"/>
-      <c r="F32" s="66" t="s">
+      <c r="D32" s="273"/>
+      <c r="E32" s="274"/>
+      <c r="F32" s="169" t="s">
         <v>92</v>
       </c>
-      <c r="G32" s="108" t="s">
+      <c r="G32" s="170"/>
+      <c r="H32" s="106" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="250" t="s">
+    <row r="33" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="271" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="249"/>
-      <c r="C33" s="255" t="s">
+      <c r="B33" s="238"/>
+      <c r="C33" s="272" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="256"/>
-      <c r="E33" s="257"/>
-      <c r="F33" s="66" t="s">
+      <c r="D33" s="273"/>
+      <c r="E33" s="274"/>
+      <c r="F33" s="169" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="108" t="s">
+      <c r="G33" s="170"/>
+      <c r="H33" s="106" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="86" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="144" t="s">
+    <row r="34" spans="1:8" s="86" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="162" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="145"/>
-      <c r="C34" s="258" t="s">
+      <c r="B34" s="163"/>
+      <c r="C34" s="277" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="259"/>
-      <c r="E34" s="260"/>
-      <c r="F34" s="114" t="s">
+      <c r="D34" s="278"/>
+      <c r="E34" s="279"/>
+      <c r="F34" s="169" t="s">
         <v>92</v>
       </c>
-      <c r="G34" s="129" t="s">
+      <c r="G34" s="170"/>
+      <c r="H34" s="124" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="261" t="s">
+    <row r="35" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="263" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="262"/>
-      <c r="C35" s="262"/>
-      <c r="D35" s="262"/>
-      <c r="E35" s="262"/>
-      <c r="F35" s="262"/>
-      <c r="G35" s="263"/>
-    </row>
-    <row r="36" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="140" t="s">
+      <c r="B35" s="264"/>
+      <c r="C35" s="264"/>
+      <c r="D35" s="264"/>
+      <c r="E35" s="264"/>
+      <c r="F35" s="264"/>
+      <c r="G35" s="264"/>
+      <c r="H35" s="265"/>
+    </row>
+    <row r="36" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="158" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="141"/>
-      <c r="C36" s="253" t="s">
+      <c r="B36" s="159"/>
+      <c r="C36" s="275" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="254"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="10" t="s">
+      <c r="D36" s="276"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="169" t="s">
         <v>92</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="170"/>
+      <c r="H36" s="18" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="245" t="s">
+    <row r="37" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="266" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="246"/>
-      <c r="C37" s="247" t="s">
+      <c r="B37" s="267"/>
+      <c r="C37" s="237" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="248"/>
-      <c r="E37" s="249"/>
-      <c r="F37" s="106" t="s">
+      <c r="D37" s="280"/>
+      <c r="E37" s="238"/>
+      <c r="F37" s="169" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="108" t="s">
+      <c r="G37" s="170"/>
+      <c r="H37" s="106" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="250" t="s">
+    <row r="38" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="271" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="249"/>
-      <c r="C38" s="247" t="s">
+      <c r="B38" s="238"/>
+      <c r="C38" s="237" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="248"/>
-      <c r="E38" s="249"/>
-      <c r="F38" s="106" t="s">
+      <c r="D38" s="280"/>
+      <c r="E38" s="238"/>
+      <c r="F38" s="169" t="s">
         <v>92</v>
       </c>
-      <c r="G38" s="108" t="s">
+      <c r="G38" s="170"/>
+      <c r="H38" s="106" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="144" t="s">
+    <row r="39" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="162" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="145"/>
-      <c r="C39" s="251" t="s">
+      <c r="B39" s="163"/>
+      <c r="C39" s="281" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="252"/>
-      <c r="E39" s="145"/>
-      <c r="F39" s="1" t="s">
+      <c r="D39" s="282"/>
+      <c r="E39" s="163"/>
+      <c r="F39" s="169" t="s">
         <v>92</v>
       </c>
-      <c r="G39" s="109" t="s">
+      <c r="G39" s="170"/>
+      <c r="H39" s="107" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="230" t="s">
+    <row r="40" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="285" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="231"/>
-      <c r="C40" s="232" t="s">
+      <c r="B40" s="286"/>
+      <c r="C40" s="287" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="233"/>
-      <c r="E40" s="234"/>
-      <c r="F40" s="232" t="s">
+      <c r="D40" s="288"/>
+      <c r="E40" s="289"/>
+      <c r="F40" s="287" t="s">
         <v>138</v>
       </c>
-      <c r="G40" s="234"/>
-    </row>
-    <row r="41" spans="1:7" s="86" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="235"/>
-      <c r="B41" s="236"/>
-      <c r="C41" s="239"/>
-      <c r="D41" s="240"/>
-      <c r="E41" s="241"/>
-      <c r="F41" s="239"/>
-      <c r="G41" s="241"/>
-    </row>
-    <row r="42" spans="1:7" s="86" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="237"/>
-      <c r="B42" s="238"/>
-      <c r="C42" s="242" t="s">
+      <c r="G40" s="288"/>
+      <c r="H40" s="289"/>
+    </row>
+    <row r="41" spans="1:8" s="86" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="290"/>
+      <c r="B41" s="291"/>
+      <c r="C41" s="294"/>
+      <c r="D41" s="295"/>
+      <c r="E41" s="296"/>
+      <c r="F41" s="294"/>
+      <c r="G41" s="300"/>
+      <c r="H41" s="296"/>
+    </row>
+    <row r="42" spans="1:8" s="86" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="290"/>
+      <c r="B42" s="291"/>
+      <c r="C42" s="186"/>
+      <c r="D42" s="187"/>
+      <c r="E42" s="195"/>
+      <c r="F42" s="186"/>
+      <c r="G42" s="187"/>
+      <c r="H42" s="195"/>
+    </row>
+    <row r="43" spans="1:8" s="86" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="292"/>
+      <c r="B43" s="293"/>
+      <c r="C43" s="297" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="243"/>
-      <c r="E42" s="244"/>
-      <c r="F42" s="242" t="s">
+      <c r="D43" s="298"/>
+      <c r="E43" s="299"/>
+      <c r="F43" s="297" t="s">
         <v>139</v>
       </c>
-      <c r="G42" s="244"/>
-    </row>
-    <row r="43" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="115"/>
-      <c r="B43" s="115"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="228"/>
-      <c r="F43" s="228"/>
-      <c r="G43" s="228"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="46" t="s">
+      <c r="G43" s="298"/>
+      <c r="H43" s="299"/>
+    </row>
+    <row r="44" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="110"/>
+      <c r="B44" s="110"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="283"/>
+      <c r="F44" s="283"/>
+      <c r="G44" s="283"/>
+      <c r="H44" s="283"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="116"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="229"/>
-      <c r="F44" s="229"/>
-      <c r="G44" s="229"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="278" t="s">
+      <c r="B45" s="111"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="284"/>
+      <c r="F45" s="284"/>
+      <c r="G45" s="284"/>
+      <c r="H45" s="284"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="230" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="278"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="278" t="s">
+      <c r="B47" s="230"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="230" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="278"/>
+      <c r="B48" s="230"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="G15:G22"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:E29"/>
+  <mergeCells count="82">
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="F8:G10"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="A41:B43"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:E39"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="A30:B30"/>
@@ -6971,23 +7100,42 @@
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="C34:E34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="H15:H22"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>

--- a/backend/templates/UC-18gsm-210W-BFQR.xlsx
+++ b/backend/templates/UC-18gsm-210W-BFQR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD26C232-F658-4341-88D8-3CDD4734AE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8000737-96AC-4150-A7A9-1D3D5287B5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1445,7 +1445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="322">
+  <cellXfs count="324">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1859,6 +1859,18 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2200,50 +2212,68 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2251,12 +2281,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2272,6 +2296,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2287,6 +2332,108 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2296,157 +2443,16 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3014,7 +3020,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3028,35 +3034,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -3077,12 +3083,12 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="158" t="s">
+      <c r="A4" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="159"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="161"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="165"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -3094,19 +3100,19 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="153"/>
-      <c r="K4" s="154"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="158"/>
       <c r="M4" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="163"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="165"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="169"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -3118,64 +3124,64 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="155"/>
-      <c r="K5" s="156"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="160"/>
     </row>
     <row r="6" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="132"/>
-      <c r="C6" s="133"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="137"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="149"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="149"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="151"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="155"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135" t="s">
+      <c r="A7" s="138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="139"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="135" t="s">
+      <c r="E7" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="135" t="s">
+      <c r="F7" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="166" t="s">
+      <c r="G7" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="166" t="s">
+      <c r="H7" s="170" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="135"/>
-      <c r="K7" s="152"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="156"/>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="136"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137" t="s">
+      <c r="A8" s="140"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="137"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3577,11 +3583,11 @@
       <c r="K38" s="28"/>
     </row>
     <row r="39" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="144" t="s">
+      <c r="A39" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="145"/>
-      <c r="C39" s="146"/>
+      <c r="B39" s="149"/>
+      <c r="C39" s="150"/>
       <c r="D39" s="35" t="e">
         <f t="shared" ref="D39:K39" si="0">AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -3616,11 +3622,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="141" t="s">
+      <c r="A40" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="142"/>
-      <c r="C40" s="143"/>
+      <c r="B40" s="146"/>
+      <c r="C40" s="147"/>
       <c r="D40" s="38">
         <f t="shared" ref="D40:K40" si="1">MIN(D9:D38)</f>
         <v>0</v>
@@ -3655,11 +3661,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="138" t="s">
+      <c r="A41" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="139"/>
-      <c r="C41" s="140"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="144"/>
       <c r="D41" s="41">
         <f t="shared" ref="D41:K41" si="2">MAX(D9:D38)</f>
         <v>0</v>
@@ -3700,8 +3706,8 @@
       <c r="A42" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="147"/>
-      <c r="C42" s="147"/>
+      <c r="B42" s="151"/>
+      <c r="C42" s="151"/>
       <c r="D42" s="44" t="s">
         <v>22</v>
       </c>
@@ -3718,8 +3724,8 @@
     </row>
     <row r="43" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50"/>
-      <c r="B43" s="148"/>
-      <c r="C43" s="148"/>
+      <c r="B43" s="152"/>
+      <c r="C43" s="152"/>
       <c r="D43" s="44"/>
       <c r="F43" s="46"/>
       <c r="G43" s="47"/>
@@ -3728,11 +3734,11 @@
       <c r="J43" s="51"/>
     </row>
     <row r="44" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="130" t="s">
+      <c r="A44" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="130"/>
-      <c r="C44" s="130"/>
+      <c r="B44" s="134"/>
+      <c r="C44" s="134"/>
       <c r="D44" s="44"/>
       <c r="E44" s="44"/>
       <c r="F44" s="47" t="s">
@@ -3744,11 +3750,11 @@
       <c r="H44" s="44"/>
     </row>
     <row r="45" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="130" t="s">
+      <c r="A45" s="134" t="s">
         <v>133</v>
       </c>
-      <c r="B45" s="130"/>
-      <c r="C45" s="130"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="134"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="44"/>
@@ -3887,35 +3893,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -3936,18 +3942,18 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="158" t="s">
+      <c r="A4" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="159">
+      <c r="B4" s="163">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="215">
+      <c r="C4" s="219">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="204"/>
+      <c r="D4" s="208"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -3965,25 +3971,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="216">
+      <c r="J4" s="220">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="217"/>
+      <c r="K4" s="221"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="163">
+      <c r="B5" s="167">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="164">
+      <c r="C5" s="168">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="165"/>
+      <c r="D5" s="169"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -4001,104 +4007,104 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="181">
+      <c r="J5" s="185">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="182"/>
+      <c r="K5" s="186"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="201" t="s">
+      <c r="A6" s="205" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="184"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="199"/>
-      <c r="J6" s="200"/>
+      <c r="B6" s="206"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="203"/>
+      <c r="J6" s="204"/>
       <c r="K6" s="55"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="184"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="203" t="s">
+      <c r="A7" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="188"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="184"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="189" t="s">
+      <c r="E7" s="188"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="193" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="184"/>
-      <c r="I7" s="189" t="s">
+      <c r="H7" s="188"/>
+      <c r="I7" s="193" t="s">
         <v>135</v>
       </c>
-      <c r="J7" s="185"/>
-      <c r="K7" s="194" t="s">
+      <c r="J7" s="189"/>
+      <c r="K7" s="198" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="186"/>
-      <c r="B8" s="187"/>
-      <c r="C8" s="188"/>
-      <c r="D8" s="187" t="s">
+      <c r="A8" s="190"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="192"/>
+      <c r="D8" s="191" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="197" t="s">
+      <c r="E8" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="188" t="s">
+      <c r="F8" s="192" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="190"/>
-      <c r="H8" s="191"/>
-      <c r="I8" s="190" t="s">
+      <c r="G8" s="194"/>
+      <c r="H8" s="195"/>
+      <c r="I8" s="194" t="s">
         <v>136</v>
       </c>
-      <c r="J8" s="188"/>
-      <c r="K8" s="195"/>
+      <c r="J8" s="192"/>
+      <c r="K8" s="199"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="186"/>
-      <c r="B9" s="187"/>
-      <c r="C9" s="188"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="188"/>
-      <c r="G9" s="190"/>
-      <c r="H9" s="191"/>
+      <c r="A9" s="190"/>
+      <c r="B9" s="191"/>
+      <c r="C9" s="192"/>
+      <c r="D9" s="191"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="195"/>
       <c r="I9" s="57" t="s">
         <v>123</v>
       </c>
       <c r="J9" s="58">
         <v>210</v>
       </c>
-      <c r="K9" s="195"/>
+      <c r="K9" s="199"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="186"/>
-      <c r="B10" s="187"/>
-      <c r="C10" s="188"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="192"/>
-      <c r="H10" s="193"/>
+      <c r="A10" s="190"/>
+      <c r="B10" s="191"/>
+      <c r="C10" s="192"/>
+      <c r="D10" s="197"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="197"/>
       <c r="I10" s="59" t="s">
         <v>124</v>
       </c>
       <c r="J10" s="60">
         <v>213</v>
       </c>
-      <c r="K10" s="196"/>
+      <c r="K10" s="200"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="115">
@@ -4116,10 +4122,10 @@
       <c r="D11" s="61"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="207"/>
-      <c r="H11" s="207"/>
-      <c r="I11" s="218"/>
-      <c r="J11" s="219"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="211"/>
+      <c r="I11" s="222"/>
+      <c r="J11" s="223"/>
       <c r="K11" s="62"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4138,10 +4144,10 @@
       <c r="D12" s="63"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="208"/>
-      <c r="H12" s="208"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="172"/>
+      <c r="G12" s="212"/>
+      <c r="H12" s="212"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="176"/>
       <c r="K12" s="64"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4160,10 +4166,10 @@
       <c r="D13" s="63"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="208"/>
-      <c r="H13" s="208"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="172"/>
+      <c r="G13" s="212"/>
+      <c r="H13" s="212"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="176"/>
       <c r="K13" s="64"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4182,10 +4188,10 @@
       <c r="D14" s="63"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="208"/>
-      <c r="H14" s="208"/>
-      <c r="I14" s="171"/>
-      <c r="J14" s="172"/>
+      <c r="G14" s="212"/>
+      <c r="H14" s="212"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="176"/>
       <c r="K14" s="64"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4204,10 +4210,10 @@
       <c r="D15" s="63"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="208"/>
-      <c r="H15" s="208"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="172"/>
+      <c r="G15" s="212"/>
+      <c r="H15" s="212"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="176"/>
       <c r="K15" s="64"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4226,10 +4232,10 @@
       <c r="D16" s="61"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="207"/>
-      <c r="H16" s="207"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="172"/>
+      <c r="G16" s="211"/>
+      <c r="H16" s="211"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="176"/>
       <c r="K16" s="62"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4248,10 +4254,10 @@
       <c r="D17" s="63"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="208"/>
-      <c r="H17" s="208"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="172"/>
+      <c r="G17" s="212"/>
+      <c r="H17" s="212"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="176"/>
       <c r="K17" s="64"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4270,10 +4276,10 @@
       <c r="D18" s="63"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="208"/>
-      <c r="H18" s="208"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="172"/>
+      <c r="G18" s="212"/>
+      <c r="H18" s="212"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="176"/>
       <c r="K18" s="64"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4292,10 +4298,10 @@
       <c r="D19" s="63"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="208"/>
-      <c r="H19" s="208"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="172"/>
+      <c r="G19" s="212"/>
+      <c r="H19" s="212"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="176"/>
       <c r="K19" s="64"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4314,10 +4320,10 @@
       <c r="D20" s="63"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="205"/>
-      <c r="H20" s="206"/>
-      <c r="I20" s="171"/>
-      <c r="J20" s="172"/>
+      <c r="G20" s="209"/>
+      <c r="H20" s="210"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="176"/>
       <c r="K20" s="64"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4336,10 +4342,10 @@
       <c r="D21" s="63"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="205"/>
-      <c r="H21" s="206"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="172"/>
+      <c r="G21" s="209"/>
+      <c r="H21" s="210"/>
+      <c r="I21" s="175"/>
+      <c r="J21" s="176"/>
       <c r="K21" s="64"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4358,10 +4364,10 @@
       <c r="D22" s="63"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="205"/>
-      <c r="H22" s="206"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="172"/>
+      <c r="G22" s="209"/>
+      <c r="H22" s="210"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="176"/>
       <c r="K22" s="64"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4380,10 +4386,10 @@
       <c r="D23" s="63"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="205"/>
-      <c r="H23" s="206"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="172"/>
+      <c r="G23" s="209"/>
+      <c r="H23" s="210"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="176"/>
       <c r="K23" s="64"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4402,10 +4408,10 @@
       <c r="D24" s="63"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="205"/>
-      <c r="H24" s="206"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="172"/>
+      <c r="G24" s="209"/>
+      <c r="H24" s="210"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="176"/>
       <c r="K24" s="64"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4424,10 +4430,10 @@
       <c r="D25" s="63"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="205"/>
-      <c r="H25" s="206"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="172"/>
+      <c r="G25" s="209"/>
+      <c r="H25" s="210"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="176"/>
       <c r="K25" s="64"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4446,10 +4452,10 @@
       <c r="D26" s="63"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="205"/>
-      <c r="H26" s="206"/>
-      <c r="I26" s="171"/>
-      <c r="J26" s="172"/>
+      <c r="G26" s="209"/>
+      <c r="H26" s="210"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="176"/>
       <c r="K26" s="64"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4468,10 +4474,10 @@
       <c r="D27" s="63"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="205"/>
-      <c r="H27" s="206"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="172"/>
+      <c r="G27" s="209"/>
+      <c r="H27" s="210"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="176"/>
       <c r="K27" s="64"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4490,10 +4496,10 @@
       <c r="D28" s="63"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="205"/>
-      <c r="H28" s="206"/>
-      <c r="I28" s="171"/>
-      <c r="J28" s="172"/>
+      <c r="G28" s="209"/>
+      <c r="H28" s="210"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="176"/>
       <c r="K28" s="64"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4512,10 +4518,10 @@
       <c r="D29" s="63"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="205"/>
-      <c r="H29" s="206"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="172"/>
+      <c r="G29" s="209"/>
+      <c r="H29" s="210"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="176"/>
       <c r="K29" s="64"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4534,10 +4540,10 @@
       <c r="D30" s="63"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="205"/>
-      <c r="H30" s="206"/>
-      <c r="I30" s="171"/>
-      <c r="J30" s="172"/>
+      <c r="G30" s="209"/>
+      <c r="H30" s="210"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="176"/>
       <c r="K30" s="64"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4556,10 +4562,10 @@
       <c r="D31" s="63"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="205"/>
-      <c r="H31" s="206"/>
-      <c r="I31" s="171"/>
-      <c r="J31" s="172"/>
+      <c r="G31" s="209"/>
+      <c r="H31" s="210"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="176"/>
       <c r="K31" s="64"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4578,10 +4584,10 @@
       <c r="D32" s="63"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="205"/>
-      <c r="H32" s="206"/>
-      <c r="I32" s="171"/>
-      <c r="J32" s="172"/>
+      <c r="G32" s="209"/>
+      <c r="H32" s="210"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="176"/>
       <c r="K32" s="64"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4600,10 +4606,10 @@
       <c r="D33" s="63"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="205"/>
-      <c r="H33" s="206"/>
-      <c r="I33" s="171"/>
-      <c r="J33" s="172"/>
+      <c r="G33" s="209"/>
+      <c r="H33" s="210"/>
+      <c r="I33" s="175"/>
+      <c r="J33" s="176"/>
       <c r="K33" s="64"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4622,10 +4628,10 @@
       <c r="D34" s="63"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
-      <c r="G34" s="205"/>
-      <c r="H34" s="206"/>
-      <c r="I34" s="171"/>
-      <c r="J34" s="172"/>
+      <c r="G34" s="209"/>
+      <c r="H34" s="210"/>
+      <c r="I34" s="175"/>
+      <c r="J34" s="176"/>
       <c r="K34" s="64"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4644,10 +4650,10 @@
       <c r="D35" s="63"/>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="205"/>
-      <c r="H35" s="206"/>
-      <c r="I35" s="171"/>
-      <c r="J35" s="172"/>
+      <c r="G35" s="209"/>
+      <c r="H35" s="210"/>
+      <c r="I35" s="175"/>
+      <c r="J35" s="176"/>
       <c r="K35" s="64"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4666,10 +4672,10 @@
       <c r="D36" s="63"/>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="205"/>
-      <c r="H36" s="206"/>
-      <c r="I36" s="171"/>
-      <c r="J36" s="172"/>
+      <c r="G36" s="209"/>
+      <c r="H36" s="210"/>
+      <c r="I36" s="175"/>
+      <c r="J36" s="176"/>
       <c r="K36" s="64"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4688,10 +4694,10 @@
       <c r="D37" s="63"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="205"/>
-      <c r="H37" s="206"/>
-      <c r="I37" s="171"/>
-      <c r="J37" s="172"/>
+      <c r="G37" s="209"/>
+      <c r="H37" s="210"/>
+      <c r="I37" s="175"/>
+      <c r="J37" s="176"/>
       <c r="K37" s="64"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4710,10 +4716,10 @@
       <c r="D38" s="63"/>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="205"/>
-      <c r="H38" s="206"/>
-      <c r="I38" s="171"/>
-      <c r="J38" s="172"/>
+      <c r="G38" s="209"/>
+      <c r="H38" s="210"/>
+      <c r="I38" s="175"/>
+      <c r="J38" s="176"/>
       <c r="K38" s="64"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4732,10 +4738,10 @@
       <c r="D39" s="63"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="205"/>
-      <c r="H39" s="206"/>
-      <c r="I39" s="171"/>
-      <c r="J39" s="172"/>
+      <c r="G39" s="209"/>
+      <c r="H39" s="210"/>
+      <c r="I39" s="175"/>
+      <c r="J39" s="176"/>
       <c r="K39" s="64"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4754,18 +4760,18 @@
       <c r="D40" s="63"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
-      <c r="G40" s="208"/>
-      <c r="H40" s="208"/>
-      <c r="I40" s="171"/>
-      <c r="J40" s="172"/>
+      <c r="G40" s="212"/>
+      <c r="H40" s="212"/>
+      <c r="I40" s="175"/>
+      <c r="J40" s="176"/>
       <c r="K40" s="64"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="211" t="s">
+      <c r="A41" s="215" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="212"/>
-      <c r="C41" s="212"/>
+      <c r="B41" s="216"/>
+      <c r="C41" s="216"/>
       <c r="D41" s="65" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
@@ -4778,27 +4784,27 @@
         <f>AVERAGE(F11:F40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="209" t="e">
+      <c r="G41" s="213" t="e">
         <f>AVERAGE(G11:H40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="210"/>
-      <c r="I41" s="173" t="e">
+      <c r="H41" s="214"/>
+      <c r="I41" s="177" t="e">
         <f>AVERAGE(I11:J40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="174"/>
+      <c r="J41" s="178"/>
       <c r="K41" s="37" t="e">
         <f>AVERAGE(K11:K40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="213" t="s">
+      <c r="A42" s="217" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="214"/>
-      <c r="C42" s="214"/>
+      <c r="B42" s="218"/>
+      <c r="C42" s="218"/>
       <c r="D42" s="66">
         <f>MIN(D11:D40)</f>
         <v>0</v>
@@ -4811,27 +4817,27 @@
         <f>MIN(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="220">
+      <c r="G42" s="224">
         <f>MIN(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="221"/>
-      <c r="I42" s="169">
+      <c r="H42" s="225"/>
+      <c r="I42" s="173">
         <f>MIN(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="170"/>
+      <c r="J42" s="174"/>
       <c r="K42" s="40">
         <f>MIN(K11:K40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="179" t="s">
+      <c r="A43" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="180"/>
-      <c r="C43" s="180"/>
+      <c r="B43" s="184"/>
+      <c r="C43" s="184"/>
       <c r="D43" s="67">
         <f>MAX(D11:D40)</f>
         <v>0</v>
@@ -4844,16 +4850,16 @@
         <f>MAX(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="175">
+      <c r="G43" s="179">
         <f>MAX(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="176"/>
-      <c r="I43" s="177">
+      <c r="H43" s="180"/>
+      <c r="I43" s="181">
         <f>MAX(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="178"/>
+      <c r="J43" s="182"/>
       <c r="K43" s="69">
         <f>MAX(K11:K40)</f>
         <v>0</v>
@@ -4863,8 +4869,8 @@
       <c r="A44" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="147"/>
-      <c r="C44" s="147"/>
+      <c r="B44" s="151"/>
+      <c r="C44" s="151"/>
       <c r="D44" s="44" t="s">
         <v>22</v>
       </c>
@@ -4881,8 +4887,8 @@
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
-      <c r="B45" s="148"/>
-      <c r="C45" s="148"/>
+      <c r="B45" s="152"/>
+      <c r="C45" s="152"/>
       <c r="D45" s="44"/>
       <c r="F45" s="46"/>
       <c r="G45" s="47"/>
@@ -4891,11 +4897,11 @@
       <c r="J45" s="51"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="130" t="s">
+      <c r="A46" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="130"/>
-      <c r="C46" s="130"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="134"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="47" t="s">
@@ -4908,11 +4914,11 @@
       <c r="H46" s="44"/>
     </row>
     <row r="47" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="130" t="s">
+      <c r="A47" s="134" t="s">
         <v>133</v>
       </c>
-      <c r="B47" s="130"/>
-      <c r="C47" s="130"/>
+      <c r="B47" s="134"/>
+      <c r="C47" s="134"/>
       <c r="D47" s="44"/>
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
@@ -5121,35 +5127,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -5170,18 +5176,18 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="158" t="s">
+      <c r="A4" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="159">
+      <c r="B4" s="163">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="215">
+      <c r="C4" s="219">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="204"/>
+      <c r="D4" s="208"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -5199,25 +5205,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="216">
+      <c r="J4" s="220">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="217"/>
+      <c r="K4" s="221"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="163">
+      <c r="B5" s="167">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="164">
+      <c r="C5" s="168">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="165"/>
+      <c r="D5" s="169"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -5235,79 +5241,79 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="181">
+      <c r="J5" s="185">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="182"/>
+      <c r="K5" s="186"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="225" t="s">
+      <c r="A6" s="229" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="226"/>
-      <c r="C6" s="226"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="168"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="230"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="172"/>
       <c r="H6" s="71"/>
-      <c r="I6" s="183"/>
-      <c r="J6" s="184"/>
-      <c r="K6" s="194"/>
+      <c r="I6" s="187"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="198"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="184"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="203" t="s">
+      <c r="A7" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="188"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="207" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="203"/>
-      <c r="F7" s="203"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="222" t="s">
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="226" t="s">
         <v>126</v>
       </c>
-      <c r="I7" s="186"/>
-      <c r="J7" s="191"/>
-      <c r="K7" s="195"/>
+      <c r="I7" s="190"/>
+      <c r="J7" s="195"/>
+      <c r="K7" s="199"/>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="186"/>
-      <c r="B8" s="187"/>
-      <c r="C8" s="188"/>
-      <c r="D8" s="229" t="s">
+      <c r="A8" s="190"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="192"/>
+      <c r="D8" s="233" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="197" t="s">
+      <c r="E8" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="197" t="s">
+      <c r="F8" s="201" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="197" t="s">
+      <c r="G8" s="201" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="223"/>
-      <c r="I8" s="186"/>
-      <c r="J8" s="191"/>
-      <c r="K8" s="195"/>
+      <c r="H8" s="227"/>
+      <c r="I8" s="190"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="199"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="186"/>
-      <c r="B9" s="187"/>
-      <c r="C9" s="188"/>
-      <c r="D9" s="198"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="224"/>
-      <c r="I9" s="186"/>
-      <c r="J9" s="191"/>
-      <c r="K9" s="195"/>
+      <c r="A9" s="190"/>
+      <c r="B9" s="191"/>
+      <c r="C9" s="192"/>
+      <c r="D9" s="202"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="228"/>
+      <c r="I9" s="190"/>
+      <c r="J9" s="195"/>
+      <c r="K9" s="199"/>
     </row>
     <row r="10" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="115">
@@ -5327,9 +5333,9 @@
       <c r="F10" s="23"/>
       <c r="G10" s="73"/>
       <c r="H10" s="74"/>
-      <c r="I10" s="186"/>
-      <c r="J10" s="191"/>
-      <c r="K10" s="195"/>
+      <c r="I10" s="190"/>
+      <c r="J10" s="195"/>
+      <c r="K10" s="199"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="117">
@@ -5349,9 +5355,9 @@
       <c r="F11" s="26"/>
       <c r="G11" s="76"/>
       <c r="H11" s="77"/>
-      <c r="I11" s="186"/>
-      <c r="J11" s="191"/>
-      <c r="K11" s="195"/>
+      <c r="I11" s="190"/>
+      <c r="J11" s="195"/>
+      <c r="K11" s="199"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="117">
@@ -5371,9 +5377,9 @@
       <c r="F12" s="26"/>
       <c r="G12" s="76"/>
       <c r="H12" s="77"/>
-      <c r="I12" s="186"/>
-      <c r="J12" s="191"/>
-      <c r="K12" s="195"/>
+      <c r="I12" s="190"/>
+      <c r="J12" s="195"/>
+      <c r="K12" s="199"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="117">
@@ -5393,9 +5399,9 @@
       <c r="F13" s="23"/>
       <c r="G13" s="73"/>
       <c r="H13" s="77"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="191"/>
-      <c r="K13" s="195"/>
+      <c r="I13" s="190"/>
+      <c r="J13" s="195"/>
+      <c r="K13" s="199"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="117">
@@ -5415,9 +5421,9 @@
       <c r="F14" s="26"/>
       <c r="G14" s="76"/>
       <c r="H14" s="77"/>
-      <c r="I14" s="186"/>
-      <c r="J14" s="191"/>
-      <c r="K14" s="195"/>
+      <c r="I14" s="190"/>
+      <c r="J14" s="195"/>
+      <c r="K14" s="199"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="117">
@@ -5437,9 +5443,9 @@
       <c r="F15" s="26"/>
       <c r="G15" s="76"/>
       <c r="H15" s="77"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="191"/>
-      <c r="K15" s="195"/>
+      <c r="I15" s="190"/>
+      <c r="J15" s="195"/>
+      <c r="K15" s="199"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="117">
@@ -5459,9 +5465,9 @@
       <c r="F16" s="26"/>
       <c r="G16" s="76"/>
       <c r="H16" s="77"/>
-      <c r="I16" s="186"/>
-      <c r="J16" s="191"/>
-      <c r="K16" s="195"/>
+      <c r="I16" s="190"/>
+      <c r="J16" s="195"/>
+      <c r="K16" s="199"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="117">
@@ -5481,9 +5487,9 @@
       <c r="F17" s="26"/>
       <c r="G17" s="76"/>
       <c r="H17" s="77"/>
-      <c r="I17" s="186"/>
-      <c r="J17" s="191"/>
-      <c r="K17" s="195"/>
+      <c r="I17" s="190"/>
+      <c r="J17" s="195"/>
+      <c r="K17" s="199"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="117">
@@ -5503,9 +5509,9 @@
       <c r="F18" s="26"/>
       <c r="G18" s="76"/>
       <c r="H18" s="77"/>
-      <c r="I18" s="186"/>
-      <c r="J18" s="191"/>
-      <c r="K18" s="195"/>
+      <c r="I18" s="190"/>
+      <c r="J18" s="195"/>
+      <c r="K18" s="199"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="117">
@@ -5525,9 +5531,9 @@
       <c r="F19" s="26"/>
       <c r="G19" s="76"/>
       <c r="H19" s="77"/>
-      <c r="I19" s="186"/>
-      <c r="J19" s="191"/>
-      <c r="K19" s="195"/>
+      <c r="I19" s="190"/>
+      <c r="J19" s="195"/>
+      <c r="K19" s="199"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="121">
@@ -5547,9 +5553,9 @@
       <c r="F20" s="26"/>
       <c r="G20" s="76"/>
       <c r="H20" s="77"/>
-      <c r="I20" s="186"/>
-      <c r="J20" s="191"/>
-      <c r="K20" s="195"/>
+      <c r="I20" s="190"/>
+      <c r="J20" s="195"/>
+      <c r="K20" s="199"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="117">
@@ -5569,9 +5575,9 @@
       <c r="F21" s="26"/>
       <c r="G21" s="76"/>
       <c r="H21" s="77"/>
-      <c r="I21" s="186"/>
-      <c r="J21" s="191"/>
-      <c r="K21" s="195"/>
+      <c r="I21" s="190"/>
+      <c r="J21" s="195"/>
+      <c r="K21" s="199"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="117">
@@ -5591,9 +5597,9 @@
       <c r="F22" s="26"/>
       <c r="G22" s="76"/>
       <c r="H22" s="77"/>
-      <c r="I22" s="186"/>
-      <c r="J22" s="191"/>
-      <c r="K22" s="195"/>
+      <c r="I22" s="190"/>
+      <c r="J22" s="195"/>
+      <c r="K22" s="199"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="117">
@@ -5613,9 +5619,9 @@
       <c r="F23" s="26"/>
       <c r="G23" s="76"/>
       <c r="H23" s="77"/>
-      <c r="I23" s="186"/>
-      <c r="J23" s="191"/>
-      <c r="K23" s="195"/>
+      <c r="I23" s="190"/>
+      <c r="J23" s="195"/>
+      <c r="K23" s="199"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="117">
@@ -5635,9 +5641,9 @@
       <c r="F24" s="26"/>
       <c r="G24" s="76"/>
       <c r="H24" s="77"/>
-      <c r="I24" s="186"/>
-      <c r="J24" s="191"/>
-      <c r="K24" s="195"/>
+      <c r="I24" s="190"/>
+      <c r="J24" s="195"/>
+      <c r="K24" s="199"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="117">
@@ -5657,9 +5663,9 @@
       <c r="F25" s="26"/>
       <c r="G25" s="76"/>
       <c r="H25" s="77"/>
-      <c r="I25" s="186"/>
-      <c r="J25" s="191"/>
-      <c r="K25" s="195"/>
+      <c r="I25" s="190"/>
+      <c r="J25" s="195"/>
+      <c r="K25" s="199"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="117">
@@ -5679,9 +5685,9 @@
       <c r="F26" s="26"/>
       <c r="G26" s="76"/>
       <c r="H26" s="77"/>
-      <c r="I26" s="186"/>
-      <c r="J26" s="191"/>
-      <c r="K26" s="195"/>
+      <c r="I26" s="190"/>
+      <c r="J26" s="195"/>
+      <c r="K26" s="199"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="117">
@@ -5701,9 +5707,9 @@
       <c r="F27" s="26"/>
       <c r="G27" s="76"/>
       <c r="H27" s="77"/>
-      <c r="I27" s="186"/>
-      <c r="J27" s="191"/>
-      <c r="K27" s="195"/>
+      <c r="I27" s="190"/>
+      <c r="J27" s="195"/>
+      <c r="K27" s="199"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="117">
@@ -5723,9 +5729,9 @@
       <c r="F28" s="26"/>
       <c r="G28" s="76"/>
       <c r="H28" s="77"/>
-      <c r="I28" s="186"/>
-      <c r="J28" s="191"/>
-      <c r="K28" s="195"/>
+      <c r="I28" s="190"/>
+      <c r="J28" s="195"/>
+      <c r="K28" s="199"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="117">
@@ -5745,9 +5751,9 @@
       <c r="F29" s="26"/>
       <c r="G29" s="76"/>
       <c r="H29" s="77"/>
-      <c r="I29" s="186"/>
-      <c r="J29" s="191"/>
-      <c r="K29" s="195"/>
+      <c r="I29" s="190"/>
+      <c r="J29" s="195"/>
+      <c r="K29" s="199"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="121">
@@ -5767,9 +5773,9 @@
       <c r="F30" s="26"/>
       <c r="G30" s="76"/>
       <c r="H30" s="77"/>
-      <c r="I30" s="186"/>
-      <c r="J30" s="191"/>
-      <c r="K30" s="195"/>
+      <c r="I30" s="190"/>
+      <c r="J30" s="195"/>
+      <c r="K30" s="199"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="117">
@@ -5789,9 +5795,9 @@
       <c r="F31" s="26"/>
       <c r="G31" s="76"/>
       <c r="H31" s="77"/>
-      <c r="I31" s="186"/>
-      <c r="J31" s="191"/>
-      <c r="K31" s="195"/>
+      <c r="I31" s="190"/>
+      <c r="J31" s="195"/>
+      <c r="K31" s="199"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="117">
@@ -5811,9 +5817,9 @@
       <c r="F32" s="26"/>
       <c r="G32" s="76"/>
       <c r="H32" s="77"/>
-      <c r="I32" s="186"/>
-      <c r="J32" s="191"/>
-      <c r="K32" s="195"/>
+      <c r="I32" s="190"/>
+      <c r="J32" s="195"/>
+      <c r="K32" s="199"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="117">
@@ -5833,9 +5839,9 @@
       <c r="F33" s="26"/>
       <c r="G33" s="76"/>
       <c r="H33" s="77"/>
-      <c r="I33" s="186"/>
-      <c r="J33" s="191"/>
-      <c r="K33" s="195"/>
+      <c r="I33" s="190"/>
+      <c r="J33" s="195"/>
+      <c r="K33" s="199"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="117">
@@ -5855,9 +5861,9 @@
       <c r="F34" s="26"/>
       <c r="G34" s="76"/>
       <c r="H34" s="77"/>
-      <c r="I34" s="186"/>
-      <c r="J34" s="191"/>
-      <c r="K34" s="195"/>
+      <c r="I34" s="190"/>
+      <c r="J34" s="195"/>
+      <c r="K34" s="199"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="117">
@@ -5877,9 +5883,9 @@
       <c r="F35" s="26"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
-      <c r="I35" s="186"/>
-      <c r="J35" s="191"/>
-      <c r="K35" s="195"/>
+      <c r="I35" s="190"/>
+      <c r="J35" s="195"/>
+      <c r="K35" s="199"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="117">
@@ -5899,9 +5905,9 @@
       <c r="F36" s="26"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
-      <c r="I36" s="186"/>
-      <c r="J36" s="191"/>
-      <c r="K36" s="195"/>
+      <c r="I36" s="190"/>
+      <c r="J36" s="195"/>
+      <c r="K36" s="199"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="117">
@@ -5921,9 +5927,9 @@
       <c r="F37" s="26"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
-      <c r="I37" s="186"/>
-      <c r="J37" s="191"/>
-      <c r="K37" s="195"/>
+      <c r="I37" s="190"/>
+      <c r="J37" s="195"/>
+      <c r="K37" s="199"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="117">
@@ -5943,9 +5949,9 @@
       <c r="F38" s="26"/>
       <c r="G38" s="76"/>
       <c r="H38" s="77"/>
-      <c r="I38" s="186"/>
-      <c r="J38" s="191"/>
-      <c r="K38" s="195"/>
+      <c r="I38" s="190"/>
+      <c r="J38" s="195"/>
+      <c r="K38" s="199"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="122">
@@ -5965,16 +5971,16 @@
       <c r="F39" s="26"/>
       <c r="G39" s="76"/>
       <c r="H39" s="77"/>
-      <c r="I39" s="186"/>
-      <c r="J39" s="191"/>
-      <c r="K39" s="195"/>
+      <c r="I39" s="190"/>
+      <c r="J39" s="195"/>
+      <c r="K39" s="199"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="227" t="s">
+      <c r="A40" s="231" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="228"/>
-      <c r="C40" s="228"/>
+      <c r="B40" s="232"/>
+      <c r="C40" s="232"/>
       <c r="D40" s="78" t="e">
         <f>AVERAGE(D10:D39)</f>
         <v>#DIV/0!</v>
@@ -5995,16 +6001,16 @@
         <f>AVERAGE(H10:H39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="191"/>
-      <c r="J40" s="191"/>
-      <c r="K40" s="195"/>
+      <c r="I40" s="195"/>
+      <c r="J40" s="195"/>
+      <c r="K40" s="199"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="213" t="s">
+      <c r="A41" s="217" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="214"/>
-      <c r="C41" s="214"/>
+      <c r="B41" s="218"/>
+      <c r="C41" s="218"/>
       <c r="D41" s="80">
         <f>MIN(D10:D39)</f>
         <v>0</v>
@@ -6025,16 +6031,16 @@
         <f>MIN(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="191"/>
-      <c r="J41" s="191"/>
-      <c r="K41" s="195"/>
+      <c r="I41" s="195"/>
+      <c r="J41" s="195"/>
+      <c r="K41" s="199"/>
     </row>
     <row r="42" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="180"/>
-      <c r="C42" s="180"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
       <c r="D42" s="82">
         <f>MAX(D10:D39)</f>
         <v>0</v>
@@ -6055,16 +6061,16 @@
         <f>MAX(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="193"/>
-      <c r="J42" s="193"/>
-      <c r="K42" s="196"/>
+      <c r="I42" s="197"/>
+      <c r="J42" s="197"/>
+      <c r="K42" s="200"/>
     </row>
     <row r="43" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="147"/>
-      <c r="C43" s="147"/>
+      <c r="B43" s="151"/>
+      <c r="C43" s="151"/>
       <c r="D43" s="44" t="s">
         <v>22</v>
       </c>
@@ -6081,8 +6087,8 @@
     </row>
     <row r="44" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50"/>
-      <c r="B44" s="148"/>
-      <c r="C44" s="148"/>
+      <c r="B44" s="152"/>
+      <c r="C44" s="152"/>
       <c r="D44" s="44"/>
       <c r="F44" s="46"/>
       <c r="G44" s="47"/>
@@ -6091,11 +6097,11 @@
       <c r="J44" s="51"/>
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="130" t="s">
+      <c r="A45" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="130"/>
-      <c r="C45" s="130"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="134"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="47" t="s">
@@ -6108,11 +6114,11 @@
       <c r="H45" s="44"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="130" t="s">
+      <c r="A46" s="134" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="130"/>
-      <c r="C46" s="130"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="134"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
@@ -6200,7 +6206,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6214,16 +6220,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="235" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="233"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="237"/>
     </row>
     <row r="2" spans="1:8" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="87"/>
@@ -6238,40 +6244,40 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="245" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243"/>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="243"/>
-      <c r="G3" s="243"/>
-      <c r="H3" s="244"/>
+      <c r="B3" s="246"/>
+      <c r="C3" s="246"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="246"/>
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
+      <c r="H3" s="247"/>
     </row>
     <row r="4" spans="1:8" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="186" t="s">
+      <c r="A4" s="190" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="191"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="195"/>
+      <c r="B4" s="195"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="195"/>
+      <c r="H4" s="199"/>
     </row>
     <row r="5" spans="1:8" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="234" t="s">
+      <c r="A5" s="238" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="235"/>
-      <c r="C5" s="235"/>
-      <c r="D5" s="235"/>
-      <c r="E5" s="235"/>
-      <c r="F5" s="235"/>
-      <c r="G5" s="235"/>
-      <c r="H5" s="236"/>
+      <c r="B5" s="239"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="239"/>
+      <c r="E5" s="239"/>
+      <c r="F5" s="239"/>
+      <c r="G5" s="239"/>
+      <c r="H5" s="240"/>
     </row>
     <row r="6" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
@@ -6283,16 +6289,16 @@
       <c r="C6" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="237">
+      <c r="D6" s="241">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="238"/>
-      <c r="F6" s="258" t="s">
+      <c r="E6" s="242"/>
+      <c r="F6" s="266" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="259"/>
-      <c r="H6" s="240">
+      <c r="G6" s="267"/>
+      <c r="H6" s="243">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
@@ -6305,14 +6311,14 @@
       <c r="C7" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="237">
+      <c r="D7" s="241">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="238"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="267"/>
-      <c r="H7" s="241"/>
+      <c r="E7" s="242"/>
+      <c r="F7" s="304"/>
+      <c r="G7" s="282"/>
+      <c r="H7" s="244"/>
     </row>
     <row r="8" spans="1:8" s="86" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="90" t="s">
@@ -6325,16 +6331,16 @@
       <c r="C8" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="239">
+      <c r="D8" s="257">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="239"/>
-      <c r="F8" s="258" t="s">
+      <c r="E8" s="257"/>
+      <c r="F8" s="266" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="259"/>
-      <c r="H8" s="240">
+      <c r="G8" s="267"/>
+      <c r="H8" s="243">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
@@ -6347,16 +6353,16 @@
         <f>Page1!G44</f>
         <v>461359700</v>
       </c>
-      <c r="C9" s="254" t="s">
+      <c r="C9" s="264" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="258" t="s">
+      <c r="D9" s="266" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="259"/>
-      <c r="F9" s="304"/>
-      <c r="G9" s="305"/>
-      <c r="H9" s="256"/>
+      <c r="E9" s="267"/>
+      <c r="F9" s="305"/>
+      <c r="G9" s="306"/>
+      <c r="H9" s="262"/>
     </row>
     <row r="10" spans="1:8" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="97" t="s">
@@ -6366,36 +6372,36 @@
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="255"/>
-      <c r="D10" s="260"/>
-      <c r="E10" s="261"/>
-      <c r="F10" s="260"/>
-      <c r="G10" s="261"/>
-      <c r="H10" s="257"/>
+      <c r="C10" s="265"/>
+      <c r="D10" s="268"/>
+      <c r="E10" s="269"/>
+      <c r="F10" s="268"/>
+      <c r="G10" s="269"/>
+      <c r="H10" s="263"/>
     </row>
     <row r="11" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="245" t="s">
+      <c r="A11" s="248" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="247" t="s">
+      <c r="B11" s="250" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="249" t="s">
+      <c r="C11" s="252" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="250"/>
-      <c r="E11" s="251"/>
-      <c r="F11" s="306" t="s">
+      <c r="D11" s="253"/>
+      <c r="E11" s="254"/>
+      <c r="F11" s="307" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="307"/>
-      <c r="H11" s="252" t="s">
+      <c r="G11" s="308"/>
+      <c r="H11" s="255" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="246"/>
-      <c r="B12" s="248"/>
+      <c r="A12" s="249"/>
+      <c r="B12" s="251"/>
       <c r="C12" s="99" t="s">
         <v>60</v>
       </c>
@@ -6405,9 +6411,9 @@
       <c r="E12" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="308"/>
-      <c r="G12" s="309"/>
-      <c r="H12" s="253"/>
+      <c r="F12" s="309"/>
+      <c r="G12" s="310"/>
+      <c r="H12" s="256"/>
     </row>
     <row r="13" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="100" t="s">
@@ -6422,15 +6428,15 @@
       <c r="D13" s="102">
         <v>18</v>
       </c>
-      <c r="E13" s="301">
+      <c r="E13" s="130">
         <v>20</v>
       </c>
-      <c r="F13" s="315" t="e">
+      <c r="F13" s="311" t="e">
         <f>Page1!D39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="310"/>
-      <c r="H13" s="316" t="s">
+      <c r="G13" s="312"/>
+      <c r="H13" s="133" t="s">
         <v>65</v>
       </c>
     </row>
@@ -6450,11 +6456,11 @@
       <c r="E14" s="104">
         <v>28</v>
       </c>
-      <c r="F14" s="317" t="e">
+      <c r="F14" s="320" t="e">
         <f>Page1!E39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="312"/>
+      <c r="G14" s="321"/>
       <c r="H14" s="106" t="s">
         <v>68</v>
       </c>
@@ -6475,12 +6481,12 @@
       <c r="E15" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="317" t="e">
+      <c r="F15" s="320" t="e">
         <f>Page1!K39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="312"/>
-      <c r="H15" s="262" t="s">
+      <c r="G15" s="321"/>
+      <c r="H15" s="270" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6500,12 +6506,12 @@
       <c r="E16" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="317" t="e">
+      <c r="F16" s="320" t="e">
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="312"/>
-      <c r="H16" s="223"/>
+      <c r="G16" s="321"/>
+      <c r="H16" s="227"/>
     </row>
     <row r="17" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="103" t="s">
@@ -6523,12 +6529,12 @@
       <c r="E17" s="104">
         <v>1200</v>
       </c>
-      <c r="F17" s="317" t="e">
+      <c r="F17" s="320" t="e">
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="312"/>
-      <c r="H17" s="223"/>
+      <c r="G17" s="321"/>
+      <c r="H17" s="227"/>
     </row>
     <row r="18" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="103" t="s">
@@ -6546,12 +6552,12 @@
       <c r="E18" s="104">
         <v>1000</v>
       </c>
-      <c r="F18" s="317" t="e">
+      <c r="F18" s="320" t="e">
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="312"/>
-      <c r="H18" s="223"/>
+      <c r="G18" s="321"/>
+      <c r="H18" s="227"/>
     </row>
     <row r="19" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="103" t="s">
@@ -6569,12 +6575,12 @@
       <c r="E19" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="317" t="e">
+      <c r="F19" s="320" t="e">
         <f>Page1!J39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="312"/>
-      <c r="H19" s="223"/>
+      <c r="G19" s="321"/>
+      <c r="H19" s="227"/>
     </row>
     <row r="20" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="103" t="s">
@@ -6592,12 +6598,12 @@
       <c r="E20" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="317" t="e">
+      <c r="F20" s="320" t="e">
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="312"/>
-      <c r="H20" s="223"/>
+      <c r="G20" s="321"/>
+      <c r="H20" s="227"/>
     </row>
     <row r="21" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="103" t="s">
@@ -6612,15 +6618,15 @@
       <c r="D21" s="38">
         <v>0.45</v>
       </c>
-      <c r="E21" s="313">
+      <c r="E21" s="132">
         <v>0.6</v>
       </c>
-      <c r="F21" s="317" t="e">
+      <c r="F21" s="271" t="e">
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="312"/>
-      <c r="H21" s="223"/>
+      <c r="G21" s="272"/>
+      <c r="H21" s="227"/>
     </row>
     <row r="22" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="103" t="s">
@@ -6635,15 +6641,15 @@
       <c r="D22" s="38">
         <v>0.8</v>
       </c>
-      <c r="E22" s="313">
+      <c r="E22" s="132">
         <v>1.4</v>
       </c>
-      <c r="F22" s="317" t="e">
+      <c r="F22" s="271" t="e">
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="312"/>
-      <c r="H22" s="152"/>
+      <c r="G22" s="272"/>
+      <c r="H22" s="156"/>
     </row>
     <row r="23" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="103" t="s">
@@ -6661,11 +6667,11 @@
       <c r="E23" s="125">
         <v>400</v>
       </c>
-      <c r="F23" s="317" t="e">
+      <c r="F23" s="320" t="e">
         <f>Page1!F39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="312"/>
+      <c r="G23" s="321"/>
       <c r="H23" s="106" t="s">
         <v>82</v>
       </c>
@@ -6688,11 +6694,11 @@
         <f>Page2!J10</f>
         <v>213</v>
       </c>
-      <c r="F24" s="317" t="e">
+      <c r="F24" s="320" t="e">
         <f>Page2!I41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="312"/>
+      <c r="G24" s="321"/>
       <c r="H24" s="106" t="s">
         <v>85</v>
       </c>
@@ -6713,10 +6719,10 @@
       <c r="E25" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="317">
+      <c r="F25" s="320">
         <v>6000</v>
       </c>
-      <c r="G25" s="312"/>
+      <c r="G25" s="321"/>
       <c r="H25" s="106" t="s">
         <v>88</v>
       </c>
@@ -6734,299 +6740,299 @@
       <c r="D26" s="56">
         <v>430</v>
       </c>
-      <c r="E26" s="302">
+      <c r="E26" s="131">
         <v>450</v>
       </c>
-      <c r="F26" s="318" t="e">
+      <c r="F26" s="322" t="e">
         <f>Page2!K41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="319"/>
+      <c r="G26" s="323"/>
       <c r="H26" s="19" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="263" t="s">
+      <c r="A27" s="278" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="264"/>
-      <c r="C27" s="264"/>
-      <c r="D27" s="264"/>
-      <c r="E27" s="264"/>
-      <c r="F27" s="311"/>
-      <c r="G27" s="311"/>
-      <c r="H27" s="314"/>
+      <c r="B27" s="279"/>
+      <c r="C27" s="279"/>
+      <c r="D27" s="279"/>
+      <c r="E27" s="279"/>
+      <c r="F27" s="315"/>
+      <c r="G27" s="315"/>
+      <c r="H27" s="316"/>
     </row>
     <row r="28" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="266" t="s">
+      <c r="A28" s="281" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="267"/>
-      <c r="C28" s="268" t="s">
+      <c r="B28" s="282"/>
+      <c r="C28" s="317" t="s">
         <v>127</v>
       </c>
-      <c r="D28" s="269"/>
-      <c r="E28" s="270"/>
-      <c r="F28" s="320" t="s">
+      <c r="D28" s="318"/>
+      <c r="E28" s="319"/>
+      <c r="F28" s="313" t="s">
         <v>92</v>
       </c>
-      <c r="G28" s="321"/>
+      <c r="G28" s="314"/>
       <c r="H28" s="18" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="271" t="s">
+      <c r="A29" s="258" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="238"/>
-      <c r="C29" s="272" t="s">
+      <c r="B29" s="242"/>
+      <c r="C29" s="259" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="273"/>
-      <c r="E29" s="274"/>
-      <c r="F29" s="169" t="s">
+      <c r="D29" s="260"/>
+      <c r="E29" s="261"/>
+      <c r="F29" s="173" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="170"/>
+      <c r="G29" s="174"/>
       <c r="H29" s="106" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="271" t="s">
+      <c r="A30" s="258" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="238"/>
-      <c r="C30" s="272" t="s">
+      <c r="B30" s="242"/>
+      <c r="C30" s="259" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="273"/>
-      <c r="E30" s="274"/>
-      <c r="F30" s="169" t="s">
+      <c r="D30" s="260"/>
+      <c r="E30" s="261"/>
+      <c r="F30" s="173" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="170"/>
+      <c r="G30" s="174"/>
       <c r="H30" s="18" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="271" t="s">
+      <c r="A31" s="258" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="238"/>
-      <c r="C31" s="272" t="s">
+      <c r="B31" s="242"/>
+      <c r="C31" s="259" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="273"/>
-      <c r="E31" s="274"/>
-      <c r="F31" s="169" t="s">
+      <c r="D31" s="260"/>
+      <c r="E31" s="261"/>
+      <c r="F31" s="173" t="s">
         <v>92</v>
       </c>
-      <c r="G31" s="170"/>
+      <c r="G31" s="174"/>
       <c r="H31" s="106" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="271" t="s">
+      <c r="A32" s="258" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="238"/>
-      <c r="C32" s="272" t="s">
+      <c r="B32" s="242"/>
+      <c r="C32" s="259" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="273"/>
-      <c r="E32" s="274"/>
-      <c r="F32" s="169" t="s">
+      <c r="D32" s="260"/>
+      <c r="E32" s="261"/>
+      <c r="F32" s="173" t="s">
         <v>92</v>
       </c>
-      <c r="G32" s="170"/>
+      <c r="G32" s="174"/>
       <c r="H32" s="106" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="271" t="s">
+      <c r="A33" s="258" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="238"/>
-      <c r="C33" s="272" t="s">
+      <c r="B33" s="242"/>
+      <c r="C33" s="259" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="273"/>
-      <c r="E33" s="274"/>
-      <c r="F33" s="169" t="s">
+      <c r="D33" s="260"/>
+      <c r="E33" s="261"/>
+      <c r="F33" s="173" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="170"/>
+      <c r="G33" s="174"/>
       <c r="H33" s="106" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="86" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="162" t="s">
+      <c r="A34" s="166" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="163"/>
-      <c r="C34" s="277" t="s">
+      <c r="B34" s="167"/>
+      <c r="C34" s="275" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="278"/>
-      <c r="E34" s="279"/>
-      <c r="F34" s="169" t="s">
+      <c r="D34" s="276"/>
+      <c r="E34" s="277"/>
+      <c r="F34" s="173" t="s">
         <v>92</v>
       </c>
-      <c r="G34" s="170"/>
+      <c r="G34" s="174"/>
       <c r="H34" s="124" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="263" t="s">
+      <c r="A35" s="278" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="264"/>
-      <c r="C35" s="264"/>
-      <c r="D35" s="264"/>
-      <c r="E35" s="264"/>
-      <c r="F35" s="264"/>
-      <c r="G35" s="264"/>
-      <c r="H35" s="265"/>
+      <c r="B35" s="279"/>
+      <c r="C35" s="279"/>
+      <c r="D35" s="279"/>
+      <c r="E35" s="279"/>
+      <c r="F35" s="279"/>
+      <c r="G35" s="279"/>
+      <c r="H35" s="280"/>
     </row>
     <row r="36" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="158" t="s">
+      <c r="A36" s="162" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="159"/>
-      <c r="C36" s="275" t="s">
+      <c r="B36" s="163"/>
+      <c r="C36" s="273" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="276"/>
-      <c r="E36" s="159"/>
-      <c r="F36" s="169" t="s">
+      <c r="D36" s="274"/>
+      <c r="E36" s="163"/>
+      <c r="F36" s="173" t="s">
         <v>92</v>
       </c>
-      <c r="G36" s="170"/>
+      <c r="G36" s="174"/>
       <c r="H36" s="18" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="266" t="s">
+      <c r="A37" s="281" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="267"/>
-      <c r="C37" s="237" t="s">
+      <c r="B37" s="282"/>
+      <c r="C37" s="241" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="280"/>
-      <c r="E37" s="238"/>
-      <c r="F37" s="169" t="s">
+      <c r="D37" s="283"/>
+      <c r="E37" s="242"/>
+      <c r="F37" s="173" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="170"/>
+      <c r="G37" s="174"/>
       <c r="H37" s="106" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="271" t="s">
+      <c r="A38" s="258" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="238"/>
-      <c r="C38" s="237" t="s">
+      <c r="B38" s="242"/>
+      <c r="C38" s="241" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="280"/>
-      <c r="E38" s="238"/>
-      <c r="F38" s="169" t="s">
+      <c r="D38" s="283"/>
+      <c r="E38" s="242"/>
+      <c r="F38" s="173" t="s">
         <v>92</v>
       </c>
-      <c r="G38" s="170"/>
+      <c r="G38" s="174"/>
       <c r="H38" s="106" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="162" t="s">
+      <c r="A39" s="166" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="163"/>
-      <c r="C39" s="281" t="s">
+      <c r="B39" s="167"/>
+      <c r="C39" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="282"/>
-      <c r="E39" s="163"/>
-      <c r="F39" s="169" t="s">
+      <c r="D39" s="285"/>
+      <c r="E39" s="167"/>
+      <c r="F39" s="173" t="s">
         <v>92</v>
       </c>
-      <c r="G39" s="170"/>
+      <c r="G39" s="174"/>
       <c r="H39" s="107" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="285" t="s">
+      <c r="A40" s="288" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="286"/>
-      <c r="C40" s="287" t="s">
+      <c r="B40" s="289"/>
+      <c r="C40" s="290" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="288"/>
-      <c r="E40" s="289"/>
-      <c r="F40" s="287" t="s">
+      <c r="D40" s="291"/>
+      <c r="E40" s="292"/>
+      <c r="F40" s="290" t="s">
         <v>138</v>
       </c>
-      <c r="G40" s="288"/>
-      <c r="H40" s="289"/>
+      <c r="G40" s="291"/>
+      <c r="H40" s="292"/>
     </row>
     <row r="41" spans="1:8" s="86" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="290"/>
-      <c r="B41" s="291"/>
-      <c r="C41" s="294"/>
-      <c r="D41" s="295"/>
-      <c r="E41" s="296"/>
-      <c r="F41" s="294"/>
+      <c r="A41" s="293"/>
+      <c r="B41" s="294"/>
+      <c r="C41" s="297"/>
+      <c r="D41" s="298"/>
+      <c r="E41" s="299"/>
+      <c r="F41" s="297"/>
       <c r="G41" s="300"/>
-      <c r="H41" s="296"/>
-    </row>
-    <row r="42" spans="1:8" s="86" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="290"/>
-      <c r="B42" s="291"/>
-      <c r="C42" s="186"/>
-      <c r="D42" s="187"/>
-      <c r="E42" s="195"/>
-      <c r="F42" s="186"/>
-      <c r="G42" s="187"/>
-      <c r="H42" s="195"/>
+      <c r="H41" s="299"/>
+    </row>
+    <row r="42" spans="1:8" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="293"/>
+      <c r="B42" s="294"/>
+      <c r="C42" s="190"/>
+      <c r="D42" s="191"/>
+      <c r="E42" s="199"/>
+      <c r="F42" s="190"/>
+      <c r="G42" s="191"/>
+      <c r="H42" s="199"/>
     </row>
     <row r="43" spans="1:8" s="86" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="292"/>
-      <c r="B43" s="293"/>
-      <c r="C43" s="297" t="s">
+      <c r="A43" s="295"/>
+      <c r="B43" s="296"/>
+      <c r="C43" s="301" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="298"/>
-      <c r="E43" s="299"/>
-      <c r="F43" s="297" t="s">
+      <c r="D43" s="302"/>
+      <c r="E43" s="303"/>
+      <c r="F43" s="301" t="s">
         <v>139</v>
       </c>
-      <c r="G43" s="298"/>
-      <c r="H43" s="299"/>
+      <c r="G43" s="302"/>
+      <c r="H43" s="303"/>
     </row>
     <row r="44" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="110"/>
       <c r="B44" s="110"/>
       <c r="C44" s="110"/>
       <c r="D44" s="110"/>
-      <c r="E44" s="283"/>
-      <c r="F44" s="283"/>
-      <c r="G44" s="283"/>
-      <c r="H44" s="283"/>
+      <c r="E44" s="286"/>
+      <c r="F44" s="286"/>
+      <c r="G44" s="286"/>
+      <c r="H44" s="286"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="46" t="s">
@@ -7035,22 +7041,22 @@
       <c r="B45" s="111"/>
       <c r="C45" s="113"/>
       <c r="D45" s="110"/>
-      <c r="E45" s="284"/>
-      <c r="F45" s="284"/>
-      <c r="G45" s="284"/>
-      <c r="H45" s="284"/>
+      <c r="E45" s="287"/>
+      <c r="F45" s="287"/>
+      <c r="G45" s="287"/>
+      <c r="H45" s="287"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="230" t="s">
+      <c r="A47" s="234" t="s">
         <v>117</v>
       </c>
-      <c r="B47" s="230"/>
+      <c r="B47" s="234"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="230" t="s">
+      <c r="A48" s="234" t="s">
         <v>118</v>
       </c>
-      <c r="B48" s="230"/>
+      <c r="B48" s="234"/>
     </row>
   </sheetData>
   <mergeCells count="82">
@@ -7060,11 +7066,11 @@
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="F28:G28"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
     <mergeCell ref="F6:G7"/>
     <mergeCell ref="F8:G10"/>
     <mergeCell ref="F11:G12"/>
@@ -7104,11 +7110,6 @@
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:E29"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="C9:C10"/>
@@ -7122,6 +7123,9 @@
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A1:H1"/>
@@ -7136,6 +7140,8 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
